--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1538,8 +1538,8 @@
   </sheetPr>
   <dimension ref="A1:AY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
-      <selection activeCell="AC50" sqref="AC50"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,15 +8078,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>157.02970067046741</v>
+        <v>157.926356766808</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>7.8369089556621496</v>
+        <v>2.1495432353297694</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>15.673817911324299</v>
+        <v>21.495432353297694</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -8099,15 +8099,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>3.559339881863928E-2</v>
+        <v>3.5796640867143147E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>1.779669940931964E-4</v>
+        <v>1.7898320433571574E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>0.17796699409319638</v>
+        <v>0.17898320433571574</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -8145,11 +8145,11 @@
       </c>
       <c r="F50" s="58">
         <f>(($Q$50/100)*(1+$E$50*$E$53)-$Y$38)/((1+1/$P$50)*(14*10^-6-$J$53*$Q$50/100))</f>
-        <v>220.17871896960222</v>
+        <v>60.04874153716424</v>
       </c>
       <c r="G50" s="58">
         <f>F50/$P$50</f>
-        <v>440.35743793920443</v>
+        <v>600.48741537164233</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="N50" s="77">
         <f>SUM(AJ5:AJ12,J37:J42)/K49</f>
-        <v>0.56505870245862833</v>
+        <v>0.56185047717741099</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="P50" s="16">
         <f>INPUTS!P28</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q50" s="16">
         <f>INPUTS!Q28</f>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AJ5:AJ34)</f>
-        <v>5.660205295951682E-2</v>
+        <v>5.6805295008020687E-2</v>
       </c>
       <c r="R52" s="95"/>
       <c r="S52" s="9" t="s">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.14979428461709776</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.25">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.14979428461709776</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11238,15 +11238,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>149.22338276804928</v>
+        <v>150.07546396863901</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>7.4473176718540657</v>
+        <v>2.0426843559691696</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>14.894635343708131</v>
+        <v>20.426843559691694</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -11259,15 +11259,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>3.3823966760757836E-2</v>
+        <v>3.4017105166224838E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>1.6911983380378919E-4</v>
+        <v>1.7008552583112419E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>0.16911983380378917</v>
+        <v>0.17008552583112418</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -11305,11 +11305,11 @@
       </c>
       <c r="F28" s="58">
         <f>(($Q$28/100)*(1+$E$28*$E$31)-$Y$16)/((1+1/$P$28)*(14*10^-6-$J$31*$Q$28/100))</f>
-        <v>220.17871896960222</v>
+        <v>60.04874153716424</v>
       </c>
       <c r="G28" s="58">
         <f>F28/$P$28</f>
-        <v>440.35743793920443</v>
+        <v>600.48741537164233</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -11321,13 +11321,13 @@
       </c>
       <c r="N28" s="77">
         <f>SUM(AJ5:AJ12,J15:J20)/K27</f>
-        <v>0.59691825677279609</v>
+        <v>0.59352914298007664</v>
       </c>
       <c r="O28" s="16">
         <v>0.8</v>
       </c>
       <c r="P28" s="16">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q28" s="16">
         <v>1.2</v>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AJ5:AJ12)</f>
-        <v>5.4014110036730394E-2</v>
+        <v>5.4207248442197396E-2</v>
       </c>
       <c r="R30" s="95"/>
       <c r="S30" s="9" t="s">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>3.978327379924132E-2</v>
+        <v>3.9783273799241313E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14979428461709776</v>
+        <v>0.14493952061648674</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14979428461709776</v>
+        <v>0.14493952061648674</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1180,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17674,7 +17677,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17684,19 +17687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="108" t="s">
         <v>164</v>
       </c>
       <c r="I1" t="s">
@@ -17708,15 +17711,15 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f>B2*10^3/10000</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="94">
         <f>C2*10^6/14</f>
-        <v>428571.42857142858</v>
+        <v>571428.57142857148</v>
       </c>
       <c r="E2" s="95">
         <v>36146</v>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:BA44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,15 +4247,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>150.65767676791148</v>
+        <v>200.87690235721536</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>2.0506088823738819</v>
+        <v>2.7341451764985099</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>20.506088823738818</v>
+        <v>27.341451764985095</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -4268,15 +4268,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>3.41490734007266E-2</v>
+        <v>4.5532097867635478E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>1.70745367003633E-4</v>
+        <v>2.276604893381774E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>0.68298146801453197</v>
+        <v>0.91064195735270959</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4332,10 +4332,10 @@
       </c>
       <c r="N28" s="77">
         <f>SUM(AJ5:AJ12,J15:J20)/K27</f>
-        <v>0.59123546454829934</v>
+        <v>0.44342659841122445</v>
       </c>
       <c r="O28" s="16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P28" s="16">
         <v>0.1</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AJ5:AJ12)</f>
-        <v>5.4339216676699158E-2</v>
+        <v>6.5722241143608043E-2</v>
       </c>
       <c r="R30" s="107"/>
       <c r="S30" s="9" t="s">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>3.9937611694260043E-2</v>
+        <v>5.3250148925680078E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="P35" s="36">
         <f>P34+P33+P32</f>
-        <v>7.1887701049668087E-2</v>
+        <v>8.5200238281088123E-2</v>
       </c>
       <c r="Q35" s="32"/>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14493952061648674</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14493952061648674</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="P44" s="75">
         <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
-        <v>2.6434375542239423</v>
+        <v>2.4179004363764509</v>
       </c>
     </row>
   </sheetData>
@@ -4704,7 +4704,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,8 +7527,8 @@
   </sheetPr>
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,15 +8011,15 @@
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>0.49795515649454009</v>
+        <v>0.47926386573102986</v>
       </c>
       <c r="AF6" s="1">
         <f>AJ6*$AT6</f>
-        <v>4.3777915227892983</v>
+        <v>3.5022332182314386</v>
       </c>
       <c r="AG6" s="33">
         <f t="shared" si="2"/>
-        <v>4.9795515649454005</v>
+        <v>4.7926386573102988</v>
       </c>
       <c r="AH6" s="1">
         <f>AZ6</f>
@@ -8047,30 +8047,30 @@
       </c>
       <c r="AN6" s="70">
         <f t="shared" ref="AN6:AN34" si="10">AJ6+(AD6+AF6)*$E$53+AE6*$F$53+AG6*$J$53</f>
-        <v>1.2179360404575351E-3</v>
+        <v>1.1736520592639877E-3</v>
       </c>
       <c r="AO6" s="102">
         <f>(1-AJ6/AN6)*100</f>
-        <v>59.263073803963074</v>
+        <v>57.725997070438204</v>
       </c>
       <c r="AP6" s="70">
         <f>INPUTS!AP6</f>
         <v>6.5</v>
       </c>
       <c r="AQ6" s="70">
-        <f t="shared" ref="AQ6:AQ34" si="11">(($AP6/100)*(1+($AP$37+$AT6)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AP6/100))</f>
-        <v>1003.6389230042693</v>
+        <f t="shared" ref="AQ6:AQ12" si="11">(($AP6/100)*(1+($AP$37+$AT6)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AP6/100))</f>
+        <v>965.96623965762194</v>
       </c>
       <c r="AR6" s="70">
         <f>$AQ6/$X$45</f>
-        <v>10036.389230042692</v>
+        <v>9659.6623965762192</v>
       </c>
       <c r="AS6" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="84">
         <f>$AS6/100/(1-$AU6/100)*$X$54*10^6/$X$52</f>
-        <v>8823.5294117647063</v>
+        <v>7058.8235294117649</v>
       </c>
       <c r="AU6" s="84">
         <v>60</v>
@@ -8197,15 +8197,15 @@
       </c>
       <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>2.8792433471228545E-2</v>
+        <v>2.1145753411309958E-2</v>
       </c>
       <c r="AF7" s="1">
         <f>AJ7*$AT7</f>
-        <v>0.15795656271766353</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="33">
         <f t="shared" si="2"/>
-        <v>0.28792433471228546</v>
+        <v>0.21145753411309956</v>
       </c>
       <c r="AH7" s="1">
         <f>AZ7</f>
@@ -8232,33 +8232,33 @@
       </c>
       <c r="AN7" s="70">
         <f t="shared" si="10"/>
-        <v>4.726292319857932E-5</v>
+        <v>3.4867252364606023E-5</v>
       </c>
       <c r="AO7" s="102">
         <f t="shared" ref="AO7:AO34" si="12">(1-AJ7/AN7)*100</f>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP7" s="70">
         <f>INPUTS!AP7</f>
         <v>9.5</v>
       </c>
       <c r="AQ7" s="70">
-        <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <f>(($AP7/100)*(1+($AP$37+$AT7)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AP7/100))</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR7" s="71">
         <f>$AQ7/$X$45</f>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS7" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="84">
         <f t="shared" ref="AT7:AT34" si="13">$AS7/100/(1-$AU7/100)*$X$54*10^6/$X$52</f>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV7" s="9"/>
       <c r="AW7" s="10" t="e">
@@ -8380,15 +8380,15 @@
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>7.8363109835856391E-3</v>
+        <v>5.7551474375663898E-3</v>
       </c>
       <c r="AF8" s="1">
         <f>AJ8*$AT8</f>
-        <v>4.2990348439660563E-2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="33">
         <f t="shared" si="2"/>
-        <v>7.8363109835856384E-2</v>
+        <v>5.7551474375663887E-2</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" ref="AH8:AH12" si="18">AZ8</f>
@@ -8415,11 +8415,11 @@
       </c>
       <c r="AN8" s="70">
         <f t="shared" si="10"/>
-        <v>1.2863343577662122E-5</v>
+        <v>9.4896679346414427E-6</v>
       </c>
       <c r="AO8" s="102">
         <f>(1-AJ8/AN8)*100</f>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP8" s="70">
         <f>INPUTS!AP8</f>
@@ -8427,21 +8427,21 @@
       </c>
       <c r="AQ8" s="70">
         <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR8" s="70">
         <f t="shared" ref="AR8:AR12" si="19">$AQ8/$X$45</f>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS8" s="70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV8" s="9"/>
       <c r="AW8" s="10" t="e">
@@ -8563,15 +8563,15 @@
       </c>
       <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>2.7098312276088118E-3</v>
+        <v>1.9901556074634315E-3</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" ref="AF6:AF34" si="20">AJ9*$AT9</f>
-        <v>1.486625389569097E-2</v>
+        <f t="shared" ref="AF9:AF12" si="20">AJ9*$AT9</f>
+        <v>0</v>
       </c>
       <c r="AG9" s="33">
         <f t="shared" si="2"/>
-        <v>2.7098312276088117E-2</v>
+        <v>1.9901556074634313E-2</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="18"/>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="AN9" s="70">
         <f t="shared" si="10"/>
-        <v>4.448201480419097E-6</v>
+        <v>3.281569422499217E-6</v>
       </c>
       <c r="AO9" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP9" s="70">
         <f>INPUTS!AP9</f>
@@ -8610,21 +8610,21 @@
       </c>
       <c r="AQ9" s="70">
         <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR9" s="70">
         <f>$AQ9/$X$45</f>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS9" s="70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="84">
-        <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <f>$AS9/100/(1-$AU9/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
       </c>
       <c r="AU9" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV9" s="9"/>
       <c r="AW9" s="10" t="e">
@@ -8746,15 +8746,15 @@
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>1.2011260938833851E-3</v>
+        <v>8.8213162748220658E-4</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="20"/>
-        <v>6.5894308436937315E-3</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="33">
         <f t="shared" si="2"/>
-        <v>1.201126093883385E-2</v>
+        <v>8.8213162748220653E-3</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="18"/>
@@ -8781,33 +8781,33 @@
       </c>
       <c r="AN10" s="70">
         <f t="shared" si="10"/>
-        <v>1.9716544759492929E-6</v>
+        <v>1.4545476567305404E-6</v>
       </c>
       <c r="AO10" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP10" s="70">
         <f>INPUTS!AP10</f>
         <v>9.5</v>
       </c>
       <c r="AQ10" s="70">
-        <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <f>(($AP10/100)*(1+($AP$37+$AT10)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AP10/100))</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR10" s="70">
         <f t="shared" si="19"/>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS10" s="70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV10" s="9"/>
       <c r="AW10" s="10" t="e">
@@ -8929,15 +8929,15 @@
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>4.6143256432070926E-4</v>
+        <v>3.3888553500781266E-4</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="20"/>
-        <v>2.5314394442876673E-3</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="33">
         <f t="shared" si="2"/>
-        <v>4.6143256432070925E-3</v>
+        <v>3.3888553500781263E-3</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="18"/>
@@ -8964,11 +8964,11 @@
       </c>
       <c r="AN11" s="70">
         <f t="shared" si="10"/>
-        <v>7.5744385658148536E-7</v>
+        <v>5.5878867222163193E-7</v>
       </c>
       <c r="AO11" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP11" s="70">
         <f>INPUTS!AP11</f>
@@ -8976,21 +8976,21 @@
       </c>
       <c r="AQ11" s="70">
         <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR11" s="70">
         <f t="shared" si="19"/>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS11" s="70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV11" s="9"/>
       <c r="AW11" s="10" t="e">
@@ -9112,15 +9112,15 @@
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="1"/>
-        <v>3.2382438300534744E-4</v>
+        <v>2.3782326556187717E-4</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="20"/>
-        <v>1.7765148789804716E-3</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="33">
         <f t="shared" si="2"/>
-        <v>3.2382438300534739E-3</v>
+        <v>2.3782326556187716E-3</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" si="18"/>
@@ -9147,11 +9147,11 @@
       </c>
       <c r="AN12" s="70">
         <f t="shared" si="10"/>
-        <v>5.3155934037679733E-7</v>
+        <v>3.9214700262632978E-7</v>
       </c>
       <c r="AO12" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP12" s="70">
         <f>INPUTS!AP12</f>
@@ -9159,21 +9159,21 @@
       </c>
       <c r="AQ12" s="70">
         <f t="shared" si="11"/>
-        <v>2573.3746462818349</v>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR12" s="70">
         <f t="shared" si="19"/>
-        <v>25733.746462818348</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS12" s="70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="84">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV12" s="9"/>
       <c r="AW12" s="10" t="e">
@@ -9317,15 +9317,15 @@
       </c>
       <c r="AE13">
         <f t="shared" si="21"/>
-        <v>0.49795515649454009</v>
+        <v>0.47926386573102986</v>
       </c>
       <c r="AF13">
         <f t="shared" ref="AF13" si="22">AF6</f>
-        <v>4.3777915227892983</v>
+        <v>3.5022332182314386</v>
       </c>
       <c r="AG13">
         <f t="shared" si="21"/>
-        <v>4.9795515649454005</v>
+        <v>4.7926386573102988</v>
       </c>
       <c r="AH13">
         <f t="shared" si="21"/>
@@ -9353,11 +9353,11 @@
       </c>
       <c r="AN13" s="70">
         <f t="shared" si="10"/>
-        <v>1.2179360404575351E-3</v>
+        <v>1.1736520592639877E-3</v>
       </c>
       <c r="AO13" s="102">
         <f t="shared" si="12"/>
-        <v>59.263073803963074</v>
+        <v>57.725997070438204</v>
       </c>
       <c r="AP13" s="70">
         <f t="shared" ref="AP13" si="23">AP6</f>
@@ -9365,19 +9365,18 @@
       </c>
       <c r="AQ13" s="70">
         <f t="shared" ref="AQ13" si="24">AQ6</f>
-        <v>1003.6389230042693</v>
+        <v>965.96623965762194</v>
       </c>
       <c r="AR13" s="70">
         <f>AR6</f>
-        <v>10036.389230042692</v>
+        <v>9659.6623965762192</v>
       </c>
       <c r="AS13" s="70">
-        <f t="shared" ref="AS13" si="25">AS6</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="84">
         <f>$AS13/100/(1-$AU13/100)*$X$54*10^6/$X$52</f>
-        <v>8823.5294117647063</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="84">
         <f>AU6</f>
@@ -9394,78 +9393,78 @@
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="106"/>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="26">B7</f>
+        <f t="shared" ref="B14:B19" si="25">B7</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="27">D7-3</f>
+        <f t="shared" ref="D14:D19" si="26">D7-3</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:T18" si="28">E7</f>
+        <f t="shared" ref="E14:T18" si="27">E7</f>
         <v>2739600</v>
       </c>
       <c r="F14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>True</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>False</v>
       </c>
       <c r="J14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.894E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.894E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="U14" t="str">
@@ -9510,15 +9509,15 @@
       </c>
       <c r="AE14">
         <f t="shared" si="21"/>
-        <v>2.8792433471228545E-2</v>
+        <v>2.1145753411309958E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" ref="AF14" si="29">AF7</f>
-        <v>0.15795656271766353</v>
+        <f t="shared" ref="AF14" si="28">AF7</f>
+        <v>0</v>
       </c>
       <c r="AG14">
         <f t="shared" si="21"/>
-        <v>0.28792433471228546</v>
+        <v>0.21145753411309956</v>
       </c>
       <c r="AH14">
         <f t="shared" si="21"/>
@@ -9546,35 +9545,35 @@
       </c>
       <c r="AN14" s="70">
         <f t="shared" si="10"/>
-        <v>4.726292319857932E-5</v>
+        <v>3.4867252364606023E-5</v>
       </c>
       <c r="AO14" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP14" s="70">
-        <f t="shared" ref="AP14:AR14" si="30">AP7</f>
+        <f t="shared" ref="AP14:AR14" si="29">AP7</f>
         <v>9.5</v>
       </c>
       <c r="AQ14" s="70">
-        <f t="shared" ref="AQ14" si="31">AQ7</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ14" si="30">AQ7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR14" s="70">
-        <f t="shared" si="30"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="29"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS14" s="70">
-        <f t="shared" ref="AS14" si="32">AS7</f>
-        <v>10</v>
+        <f t="shared" ref="AS14" si="31">AS7</f>
+        <v>0</v>
       </c>
       <c r="AT14" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="84">
-        <f t="shared" ref="AU14:AU19" si="33">AU7</f>
-        <v>75</v>
+        <f t="shared" ref="AU14:AU19" si="32">AU7</f>
+        <v>68</v>
       </c>
       <c r="AV14" s="9"/>
       <c r="AW14" s="10"/>
@@ -9587,18 +9586,18 @@
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="106"/>
       <c r="B15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="28"/>
         <v>2191680</v>
       </c>
       <c r="F15">
@@ -9703,15 +9702,15 @@
       </c>
       <c r="AE15">
         <f t="shared" si="21"/>
-        <v>7.8363109835856391E-3</v>
+        <v>5.7551474375663898E-3</v>
       </c>
       <c r="AF15">
-        <f t="shared" ref="AF15" si="34">AF8</f>
-        <v>4.2990348439660563E-2</v>
+        <f t="shared" ref="AF15" si="33">AF8</f>
+        <v>0</v>
       </c>
       <c r="AG15">
         <f t="shared" si="21"/>
-        <v>7.8363109835856384E-2</v>
+        <v>5.7551474375663887E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="21"/>
@@ -9739,35 +9738,35 @@
       </c>
       <c r="AN15" s="70">
         <f t="shared" si="10"/>
-        <v>1.2863343577662122E-5</v>
+        <v>9.4896679346414427E-6</v>
       </c>
       <c r="AO15" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP15" s="70">
-        <f t="shared" ref="AP15:AR15" si="35">AP8</f>
+        <f t="shared" ref="AP15:AR15" si="34">AP8</f>
         <v>9.5</v>
       </c>
       <c r="AQ15" s="70">
-        <f t="shared" ref="AQ15" si="36">AQ8</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ15" si="35">AQ8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR15" s="70">
-        <f t="shared" si="35"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="34"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS15" s="70">
-        <f t="shared" ref="AS15" si="37">AS8</f>
-        <v>10</v>
+        <f t="shared" ref="AS15" si="36">AS8</f>
+        <v>0</v>
       </c>
       <c r="AT15" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="84">
-        <f t="shared" si="33"/>
-        <v>75</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="AV15" s="9"/>
       <c r="AW15" s="10"/>
@@ -9780,18 +9779,18 @@
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="106"/>
       <c r="B16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="28"/>
         <v>1643760</v>
       </c>
       <c r="F16">
@@ -9896,15 +9895,15 @@
       </c>
       <c r="AE16">
         <f t="shared" si="21"/>
-        <v>2.7098312276088118E-3</v>
+        <v>1.9901556074634315E-3</v>
       </c>
       <c r="AF16">
-        <f t="shared" ref="AF16" si="38">AF9</f>
-        <v>1.486625389569097E-2</v>
+        <f t="shared" ref="AF16" si="37">AF9</f>
+        <v>0</v>
       </c>
       <c r="AG16">
         <f t="shared" si="21"/>
-        <v>2.7098312276088117E-2</v>
+        <v>1.9901556074634313E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="21"/>
@@ -9932,35 +9931,35 @@
       </c>
       <c r="AN16" s="70">
         <f t="shared" si="10"/>
-        <v>4.448201480419097E-6</v>
+        <v>3.281569422499217E-6</v>
       </c>
       <c r="AO16" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP16" s="70">
-        <f t="shared" ref="AP16:AR16" si="39">AP9</f>
+        <f t="shared" ref="AP16:AR16" si="38">AP9</f>
         <v>9.5</v>
       </c>
       <c r="AQ16" s="70">
-        <f t="shared" ref="AQ16" si="40">AQ9</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ16" si="39">AQ9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR16" s="70">
-        <f t="shared" si="39"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="38"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS16" s="70">
-        <f t="shared" ref="AS16" si="41">AS9</f>
-        <v>10</v>
+        <f t="shared" ref="AS16" si="40">AS9</f>
+        <v>0</v>
       </c>
       <c r="AT16" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="84">
-        <f t="shared" si="33"/>
-        <v>75</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="AV16" s="9"/>
       <c r="AW16" s="10"/>
@@ -9973,18 +9972,18 @@
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="106"/>
       <c r="B17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="28"/>
         <v>1095840</v>
       </c>
       <c r="F17">
@@ -10089,15 +10088,15 @@
       </c>
       <c r="AE17">
         <f t="shared" si="21"/>
-        <v>1.2011260938833851E-3</v>
+        <v>8.8213162748220658E-4</v>
       </c>
       <c r="AF17">
-        <f t="shared" ref="AF17" si="42">AF10</f>
-        <v>6.5894308436937315E-3</v>
+        <f t="shared" ref="AF17" si="41">AF10</f>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" si="21"/>
-        <v>1.201126093883385E-2</v>
+        <v>8.8213162748220653E-3</v>
       </c>
       <c r="AH17">
         <f t="shared" si="21"/>
@@ -10125,35 +10124,35 @@
       </c>
       <c r="AN17" s="70">
         <f t="shared" si="10"/>
-        <v>1.9716544759492929E-6</v>
+        <v>1.4545476567305404E-6</v>
       </c>
       <c r="AO17" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP17" s="70">
-        <f t="shared" ref="AP17:AR17" si="43">AP10</f>
+        <f t="shared" ref="AP17:AR17" si="42">AP10</f>
         <v>9.5</v>
       </c>
       <c r="AQ17" s="70">
-        <f t="shared" ref="AQ17" si="44">AQ10</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ17" si="43">AQ10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR17" s="70">
-        <f t="shared" si="43"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="42"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS17" s="70">
-        <f t="shared" ref="AS17" si="45">AS10</f>
-        <v>10</v>
+        <f t="shared" ref="AS17" si="44">AS10</f>
+        <v>0</v>
       </c>
       <c r="AT17" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="84">
-        <f t="shared" si="33"/>
-        <v>75</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="AV17" s="9"/>
       <c r="AW17" s="10"/>
@@ -10166,18 +10165,18 @@
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="106"/>
       <c r="B18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="28"/>
         <v>547920</v>
       </c>
       <c r="F18">
@@ -10282,15 +10281,15 @@
       </c>
       <c r="AE18">
         <f t="shared" si="21"/>
-        <v>4.6143256432070926E-4</v>
+        <v>3.3888553500781266E-4</v>
       </c>
       <c r="AF18">
-        <f t="shared" ref="AF18" si="46">AF11</f>
-        <v>2.5314394442876673E-3</v>
+        <f t="shared" ref="AF18" si="45">AF11</f>
+        <v>0</v>
       </c>
       <c r="AG18">
         <f t="shared" si="21"/>
-        <v>4.6143256432070925E-3</v>
+        <v>3.3888553500781263E-3</v>
       </c>
       <c r="AH18">
         <f t="shared" si="21"/>
@@ -10318,35 +10317,35 @@
       </c>
       <c r="AN18" s="70">
         <f t="shared" si="10"/>
-        <v>7.5744385658148536E-7</v>
+        <v>5.5878867222163193E-7</v>
       </c>
       <c r="AO18" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP18" s="70">
-        <f t="shared" ref="AP18:AR18" si="47">AP11</f>
+        <f t="shared" ref="AP18:AR18" si="46">AP11</f>
         <v>9.5</v>
       </c>
       <c r="AQ18" s="70">
-        <f t="shared" ref="AQ18" si="48">AQ11</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ18" si="47">AQ11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR18" s="70">
-        <f t="shared" si="47"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="46"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS18" s="70">
-        <f t="shared" ref="AS18" si="49">AS11</f>
-        <v>10</v>
+        <f t="shared" ref="AS18" si="48">AS11</f>
+        <v>0</v>
       </c>
       <c r="AT18" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="84">
-        <f t="shared" si="33"/>
-        <v>75</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="AV18" s="9"/>
       <c r="AW18" s="10"/>
@@ -10359,14 +10358,14 @@
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="106"/>
       <c r="B19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="E19">
@@ -10475,15 +10474,15 @@
       </c>
       <c r="AE19">
         <f t="shared" si="21"/>
-        <v>3.2382438300534744E-4</v>
+        <v>2.3782326556187717E-4</v>
       </c>
       <c r="AF19">
-        <f t="shared" ref="AF19" si="50">AF12</f>
-        <v>1.7765148789804716E-3</v>
+        <f t="shared" ref="AF19" si="49">AF12</f>
+        <v>0</v>
       </c>
       <c r="AG19">
         <f t="shared" si="21"/>
-        <v>3.2382438300534739E-3</v>
+        <v>2.3782326556187716E-3</v>
       </c>
       <c r="AH19">
         <f t="shared" si="21"/>
@@ -10511,35 +10510,35 @@
       </c>
       <c r="AN19" s="70">
         <f t="shared" si="10"/>
-        <v>5.3155934037679733E-7</v>
+        <v>3.9214700262632978E-7</v>
       </c>
       <c r="AO19" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP19" s="70">
-        <f t="shared" ref="AP19:AR19" si="51">AP12</f>
+        <f t="shared" ref="AP19:AR19" si="50">AP12</f>
         <v>9.5</v>
       </c>
       <c r="AQ19" s="70">
-        <f t="shared" ref="AQ19" si="52">AQ12</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ19" si="51">AQ12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR19" s="70">
-        <f t="shared" si="51"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="50"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS19" s="70">
-        <f t="shared" ref="AS19" si="53">AS12</f>
-        <v>10</v>
+        <f t="shared" ref="AS19" si="52">AS12</f>
+        <v>0</v>
       </c>
       <c r="AT19" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="84">
-        <f t="shared" si="33"/>
-        <v>75</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="AV19" s="9"/>
       <c r="AW19" s="10"/>
@@ -10567,172 +10566,172 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AM25" si="54">F7</f>
+        <f t="shared" ref="F20:AM25" si="53">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="54"/>
-        <v>2.8792433471228545E-2</v>
+        <f t="shared" si="53"/>
+        <v>2.1145753411309958E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" ref="AF20" si="55">AF7</f>
-        <v>0.15795656271766353</v>
+        <f t="shared" ref="AF20" si="54">AF7</f>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="54"/>
-        <v>0.28792433471228546</v>
+        <f t="shared" si="53"/>
+        <v>0.21145753411309956</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AN20" s="70">
         <f t="shared" si="10"/>
-        <v>4.726292319857932E-5</v>
+        <v>3.4867252364606023E-5</v>
       </c>
       <c r="AO20" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP20" s="70">
-        <f t="shared" ref="AP20:AR20" si="56">AP7</f>
+        <f t="shared" ref="AP20:AR20" si="55">AP7</f>
         <v>9.5</v>
       </c>
       <c r="AQ20" s="70">
-        <f t="shared" ref="AQ20" si="57">AQ7</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ20" si="56">AQ7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR20" s="70">
-        <f t="shared" si="56"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="55"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS20" s="70">
-        <f t="shared" ref="AS20" si="58">AS7</f>
-        <v>10</v>
+        <f t="shared" ref="AS20" si="57">AS7</f>
+        <v>0</v>
       </c>
       <c r="AT20" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="84">
         <f>AU7</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV20" s="9"/>
       <c r="AW20" s="10"/>
@@ -10745,187 +10744,187 @@
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="106"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="59">B8</f>
+        <f t="shared" ref="B21:B34" si="58">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="60">D8-4</f>
+        <f t="shared" ref="D21:D25" si="59">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="61">E8</f>
+        <f t="shared" ref="E21:T25" si="60">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="54"/>
-        <v>7.8363109835856391E-3</v>
+        <f t="shared" si="53"/>
+        <v>5.7551474375663898E-3</v>
       </c>
       <c r="AF21">
-        <f t="shared" ref="AF21" si="62">AF8</f>
-        <v>4.2990348439660563E-2</v>
+        <f t="shared" ref="AF21" si="61">AF8</f>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="54"/>
-        <v>7.8363109835856384E-2</v>
+        <f t="shared" si="53"/>
+        <v>5.7551474375663887E-2</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AN21" s="70">
         <f t="shared" si="10"/>
-        <v>1.2863343577662122E-5</v>
+        <v>9.4896679346414427E-6</v>
       </c>
       <c r="AO21" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP21" s="70">
-        <f t="shared" ref="AP21:AR21" si="63">AP8</f>
+        <f t="shared" ref="AP21:AR21" si="62">AP8</f>
         <v>9.5</v>
       </c>
       <c r="AQ21" s="70">
-        <f t="shared" ref="AQ21" si="64">AQ8</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ21" si="63">AQ8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR21" s="70">
-        <f t="shared" si="63"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="62"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS21" s="70">
-        <f t="shared" ref="AS21" si="65">AS8</f>
-        <v>10</v>
+        <f t="shared" ref="AS21" si="64">AS8</f>
+        <v>0</v>
       </c>
       <c r="AT21" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="84">
-        <f t="shared" ref="AU21:AU25" si="66">AU8</f>
-        <v>75</v>
+        <f t="shared" ref="AU21:AU25" si="65">AU8</f>
+        <v>68</v>
       </c>
       <c r="AV21" s="9"/>
       <c r="AW21" s="10"/>
@@ -10938,187 +10937,187 @@
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="106"/>
       <c r="B22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
+        <f t="shared" si="59"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="60"/>
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="61"/>
         <v>1643760</v>
       </c>
       <c r="F22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>True</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="J22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>3.1E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="54"/>
-        <v>2.7098312276088118E-3</v>
+        <f t="shared" si="53"/>
+        <v>1.9901556074634315E-3</v>
       </c>
       <c r="AF22">
-        <f t="shared" ref="AF22" si="67">AF9</f>
-        <v>1.486625389569097E-2</v>
+        <f t="shared" ref="AF22" si="66">AF9</f>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="54"/>
-        <v>2.7098312276088117E-2</v>
+        <f t="shared" si="53"/>
+        <v>1.9901556074634313E-2</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AN22" s="70">
         <f t="shared" si="10"/>
-        <v>4.448201480419097E-6</v>
+        <v>3.281569422499217E-6</v>
       </c>
       <c r="AO22" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP22" s="70">
-        <f t="shared" ref="AP22:AR22" si="68">AP9</f>
+        <f t="shared" ref="AP22:AR22" si="67">AP9</f>
         <v>9.5</v>
       </c>
       <c r="AQ22" s="70">
-        <f t="shared" ref="AQ22" si="69">AQ9</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ22" si="68">AQ9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR22" s="70">
-        <f t="shared" si="68"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="67"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS22" s="70">
-        <f t="shared" ref="AS22" si="70">AS9</f>
-        <v>10</v>
+        <f t="shared" ref="AS22" si="69">AS9</f>
+        <v>0</v>
       </c>
       <c r="AT22" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="84">
-        <f t="shared" si="66"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>68</v>
       </c>
       <c r="AV22" s="9"/>
       <c r="AW22" s="10"/>
@@ -11131,187 +11130,187 @@
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="106"/>
       <c r="B23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
+        <f t="shared" si="59"/>
+        <v>4</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="60"/>
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="61"/>
         <v>1095840</v>
       </c>
       <c r="F23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>True</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="J23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="54"/>
-        <v>1.2011260938833851E-3</v>
+        <f t="shared" si="53"/>
+        <v>8.8213162748220658E-4</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23" si="71">AF10</f>
-        <v>6.5894308436937315E-3</v>
+        <f t="shared" ref="AF23" si="70">AF10</f>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="54"/>
-        <v>1.201126093883385E-2</v>
+        <f t="shared" si="53"/>
+        <v>8.8213162748220653E-3</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AN23" s="70">
         <f t="shared" si="10"/>
-        <v>1.9716544759492929E-6</v>
+        <v>1.4545476567305404E-6</v>
       </c>
       <c r="AO23" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP23" s="70">
-        <f t="shared" ref="AP23:AR23" si="72">AP10</f>
+        <f t="shared" ref="AP23:AR23" si="71">AP10</f>
         <v>9.5</v>
       </c>
       <c r="AQ23" s="70">
-        <f t="shared" ref="AQ23" si="73">AQ10</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ23" si="72">AQ10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR23" s="70">
-        <f t="shared" si="72"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="71"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS23" s="70">
-        <f t="shared" ref="AS23" si="74">AS10</f>
-        <v>10</v>
+        <f t="shared" ref="AS23" si="73">AS10</f>
+        <v>0</v>
       </c>
       <c r="AT23" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="84">
-        <f t="shared" si="66"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>68</v>
       </c>
       <c r="AV23" s="9"/>
       <c r="AW23" s="10"/>
@@ -11324,187 +11323,187 @@
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="106"/>
       <c r="B24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="60"/>
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="61"/>
         <v>547920</v>
       </c>
       <c r="F24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>True</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="J24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="54"/>
-        <v>4.6143256432070926E-4</v>
+        <f t="shared" si="53"/>
+        <v>3.3888553500781266E-4</v>
       </c>
       <c r="AF24">
-        <f t="shared" ref="AF24" si="75">AF11</f>
-        <v>2.5314394442876673E-3</v>
+        <f t="shared" ref="AF24" si="74">AF11</f>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="54"/>
-        <v>4.6143256432070925E-3</v>
+        <f t="shared" si="53"/>
+        <v>3.3888553500781263E-3</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AN24" s="70">
         <f t="shared" si="10"/>
-        <v>7.5744385658148536E-7</v>
+        <v>5.5878867222163193E-7</v>
       </c>
       <c r="AO24" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP24" s="70">
-        <f t="shared" ref="AP24:AR24" si="76">AP11</f>
+        <f t="shared" ref="AP24:AR24" si="75">AP11</f>
         <v>9.5</v>
       </c>
       <c r="AQ24" s="70">
-        <f t="shared" ref="AQ24" si="77">AQ11</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ24" si="76">AQ11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR24" s="70">
-        <f t="shared" si="76"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="75"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS24" s="70">
-        <f t="shared" ref="AS24" si="78">AS11</f>
-        <v>10</v>
+        <f t="shared" ref="AS24" si="77">AS11</f>
+        <v>0</v>
       </c>
       <c r="AT24" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="84">
-        <f t="shared" si="66"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>68</v>
       </c>
       <c r="AV24" s="9"/>
       <c r="AW24" s="10"/>
@@ -11517,187 +11516,187 @@
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="106"/>
       <c r="B25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="60"/>
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>True</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="J25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.894E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>False</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="54"/>
-        <v>3.2382438300534744E-4</v>
+        <f t="shared" si="53"/>
+        <v>2.3782326556187717E-4</v>
       </c>
       <c r="AF25">
-        <f t="shared" ref="AF25" si="79">AF12</f>
-        <v>1.7765148789804716E-3</v>
+        <f t="shared" ref="AF25" si="78">AF12</f>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="54"/>
-        <v>3.2382438300534739E-3</v>
+        <f t="shared" si="53"/>
+        <v>2.3782326556187716E-3</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AN25" s="70">
         <f t="shared" si="10"/>
-        <v>5.3155934037679733E-7</v>
+        <v>3.9214700262632978E-7</v>
       </c>
       <c r="AO25" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP25" s="70">
-        <f t="shared" ref="AP25:AR25" si="80">AP12</f>
+        <f t="shared" ref="AP25:AR25" si="79">AP12</f>
         <v>9.5</v>
       </c>
       <c r="AQ25" s="70">
-        <f t="shared" ref="AQ25" si="81">AQ12</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ25" si="80">AQ12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR25" s="70">
-        <f t="shared" si="80"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="79"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS25" s="70">
-        <f t="shared" ref="AS25" si="82">AS12</f>
-        <v>10</v>
+        <f t="shared" ref="AS25" si="81">AS12</f>
+        <v>0</v>
       </c>
       <c r="AT25" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="84">
-        <f t="shared" si="66"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>68</v>
       </c>
       <c r="AV25" s="9"/>
       <c r="AW25" s="10"/>
@@ -11710,7 +11709,7 @@
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="106"/>
       <c r="B26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -11725,172 +11724,172 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AM30" si="83">F8</f>
+        <f t="shared" ref="F26:AM30" si="82">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="83"/>
-        <v>7.8363109835856391E-3</v>
+        <f t="shared" si="82"/>
+        <v>5.7551474375663898E-3</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26" si="84">AF8</f>
-        <v>4.2990348439660563E-2</v>
+        <f t="shared" ref="AF26" si="83">AF8</f>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="83"/>
-        <v>7.8363109835856384E-2</v>
+        <f t="shared" si="82"/>
+        <v>5.7551474375663887E-2</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AN26" s="70">
         <f t="shared" si="10"/>
-        <v>1.2863343577662122E-5</v>
+        <v>9.4896679346414427E-6</v>
       </c>
       <c r="AO26" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP26" s="70">
-        <f t="shared" ref="AP26:AR26" si="85">AP8</f>
+        <f t="shared" ref="AP26:AR26" si="84">AP8</f>
         <v>9.5</v>
       </c>
       <c r="AQ26" s="70">
-        <f t="shared" ref="AQ26" si="86">AQ8</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ26" si="85">AQ8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR26" s="70">
-        <f t="shared" si="85"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="84"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS26" s="70">
-        <f t="shared" ref="AS26" si="87">AS8</f>
-        <v>10</v>
+        <f t="shared" ref="AS26" si="86">AS8</f>
+        <v>0</v>
       </c>
       <c r="AT26" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="84">
         <f>AU8</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV26" s="9"/>
       <c r="AW26" s="10"/>
@@ -11903,187 +11902,187 @@
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="106"/>
       <c r="B27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="88">D9-5</f>
+        <f t="shared" ref="D27:D30" si="87">D9-5</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T30" si="89">E9</f>
+        <f t="shared" ref="E27:T30" si="88">E9</f>
         <v>1643760</v>
       </c>
       <c r="F27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>True</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>False</v>
       </c>
       <c r="J27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>2.894E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>2.894E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>3.1E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>NA</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="83"/>
-        <v>2.7098312276088118E-3</v>
+        <f t="shared" si="82"/>
+        <v>1.9901556074634315E-3</v>
       </c>
       <c r="AF27">
-        <f t="shared" ref="AF27" si="90">AF9</f>
-        <v>1.486625389569097E-2</v>
+        <f t="shared" ref="AF27" si="89">AF9</f>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="83"/>
-        <v>2.7098312276088117E-2</v>
+        <f t="shared" si="82"/>
+        <v>1.9901556074634313E-2</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AN27" s="70">
         <f t="shared" si="10"/>
-        <v>4.448201480419097E-6</v>
+        <v>3.281569422499217E-6</v>
       </c>
       <c r="AO27" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP27" s="70">
-        <f t="shared" ref="AP27:AR27" si="91">AP9</f>
+        <f t="shared" ref="AP27:AR27" si="90">AP9</f>
         <v>9.5</v>
       </c>
       <c r="AQ27" s="70">
-        <f t="shared" ref="AQ27" si="92">AQ9</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ27" si="91">AQ9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR27" s="70">
-        <f t="shared" si="91"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="90"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS27" s="70">
-        <f t="shared" ref="AS27" si="93">AS9</f>
-        <v>10</v>
+        <f t="shared" ref="AS27" si="92">AS9</f>
+        <v>0</v>
       </c>
       <c r="AT27" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="84">
-        <f t="shared" ref="AU27:AU30" si="94">AU9</f>
-        <v>75</v>
+        <f t="shared" ref="AU27:AU30" si="93">AU9</f>
+        <v>68</v>
       </c>
       <c r="AV27" s="9"/>
       <c r="AW27" s="10"/>
@@ -12096,187 +12095,187 @@
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="106"/>
       <c r="B28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
       <c r="D28">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="88"/>
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="89"/>
         <v>1095840</v>
       </c>
       <c r="F28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="83"/>
-        <v>1.2011260938833851E-3</v>
+        <f t="shared" si="82"/>
+        <v>8.8213162748220658E-4</v>
       </c>
       <c r="AF28">
-        <f t="shared" ref="AF28" si="95">AF10</f>
-        <v>6.5894308436937315E-3</v>
+        <f t="shared" ref="AF28" si="94">AF10</f>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="83"/>
-        <v>1.201126093883385E-2</v>
+        <f t="shared" si="82"/>
+        <v>8.8213162748220653E-3</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AN28" s="70">
         <f t="shared" si="10"/>
-        <v>1.9716544759492929E-6</v>
+        <v>1.4545476567305404E-6</v>
       </c>
       <c r="AO28" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP28" s="70">
-        <f t="shared" ref="AP28:AR28" si="96">AP10</f>
+        <f t="shared" ref="AP28:AR28" si="95">AP10</f>
         <v>9.5</v>
       </c>
       <c r="AQ28" s="70">
-        <f t="shared" ref="AQ28" si="97">AQ10</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ28" si="96">AQ10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR28" s="70">
-        <f t="shared" si="96"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="95"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS28" s="70">
-        <f t="shared" ref="AS28" si="98">AS10</f>
-        <v>10</v>
+        <f t="shared" ref="AS28" si="97">AS10</f>
+        <v>0</v>
       </c>
       <c r="AT28" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="84">
-        <f t="shared" si="94"/>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>68</v>
       </c>
       <c r="AV28" s="9"/>
       <c r="AW28" s="10"/>
@@ -12289,187 +12288,187 @@
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
       <c r="B29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
+        <f t="shared" si="87"/>
+        <v>4</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="88"/>
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="89"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="83"/>
-        <v>4.6143256432070926E-4</v>
+        <f t="shared" si="82"/>
+        <v>3.3888553500781266E-4</v>
       </c>
       <c r="AF29">
-        <f t="shared" ref="AF29" si="99">AF11</f>
-        <v>2.5314394442876673E-3</v>
+        <f t="shared" ref="AF29" si="98">AF11</f>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="83"/>
-        <v>4.6143256432070925E-3</v>
+        <f t="shared" si="82"/>
+        <v>3.3888553500781263E-3</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AN29" s="70">
         <f t="shared" si="10"/>
-        <v>7.5744385658148536E-7</v>
+        <v>5.5878867222163193E-7</v>
       </c>
       <c r="AO29" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP29" s="70">
-        <f t="shared" ref="AP29:AR29" si="100">AP11</f>
+        <f t="shared" ref="AP29:AR29" si="99">AP11</f>
         <v>9.5</v>
       </c>
       <c r="AQ29" s="70">
-        <f t="shared" ref="AQ29" si="101">AQ11</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ29" si="100">AQ11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR29" s="70">
-        <f t="shared" si="100"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="99"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS29" s="70">
-        <f t="shared" ref="AS29" si="102">AS11</f>
-        <v>10</v>
+        <f t="shared" ref="AS29" si="101">AS11</f>
+        <v>0</v>
       </c>
       <c r="AT29" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="84">
-        <f t="shared" si="94"/>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>68</v>
       </c>
       <c r="AV29" s="9"/>
       <c r="AW29" s="10"/>
@@ -12482,187 +12481,187 @@
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="106"/>
       <c r="B30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="88"/>
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="83"/>
-        <v>3.2382438300534744E-4</v>
+        <f t="shared" si="82"/>
+        <v>2.3782326556187717E-4</v>
       </c>
       <c r="AF30">
-        <f t="shared" ref="AF30" si="103">AF12</f>
-        <v>1.7765148789804716E-3</v>
+        <f t="shared" ref="AF30" si="102">AF12</f>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="83"/>
-        <v>3.2382438300534739E-3</v>
+        <f t="shared" si="82"/>
+        <v>2.3782326556187716E-3</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AN30" s="70">
         <f t="shared" si="10"/>
-        <v>5.3155934037679733E-7</v>
+        <v>3.9214700262632978E-7</v>
       </c>
       <c r="AO30" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP30" s="70">
-        <f t="shared" ref="AP30:AR30" si="104">AP12</f>
+        <f t="shared" ref="AP30:AR30" si="103">AP12</f>
         <v>9.5</v>
       </c>
       <c r="AQ30" s="70">
-        <f t="shared" ref="AQ30" si="105">AQ12</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ30" si="104">AQ12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR30" s="70">
-        <f t="shared" si="104"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="103"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS30" s="70">
-        <f t="shared" ref="AS30" si="106">AS12</f>
-        <v>10</v>
+        <f t="shared" ref="AS30" si="105">AS12</f>
+        <v>0</v>
       </c>
       <c r="AT30" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="84">
-        <f t="shared" si="94"/>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>68</v>
       </c>
       <c r="AV30" s="9"/>
       <c r="AW30" s="10"/>
@@ -12675,7 +12674,7 @@
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="106"/>
       <c r="B31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -12690,172 +12689,172 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AM34" si="107">F9</f>
+        <f t="shared" ref="F31:AM34" si="106">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="107"/>
-        <v>2.7098312276088118E-3</v>
+        <f t="shared" si="106"/>
+        <v>1.9901556074634315E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" ref="AF31" si="108">AF9</f>
-        <v>1.486625389569097E-2</v>
+        <f t="shared" ref="AF31" si="107">AF9</f>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="107"/>
-        <v>2.7098312276088117E-2</v>
+        <f t="shared" si="106"/>
+        <v>1.9901556074634313E-2</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AN31" s="70">
         <f t="shared" si="10"/>
-        <v>4.448201480419097E-6</v>
+        <v>3.281569422499217E-6</v>
       </c>
       <c r="AO31" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP31" s="70">
-        <f t="shared" ref="AP31:AR31" si="109">AP9</f>
+        <f t="shared" ref="AP31:AR31" si="108">AP9</f>
         <v>9.5</v>
       </c>
       <c r="AQ31" s="70">
-        <f t="shared" ref="AQ31" si="110">AQ9</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ31" si="109">AQ9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR31" s="70">
-        <f t="shared" si="109"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="108"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS31" s="70">
-        <f t="shared" ref="AS31" si="111">AS9</f>
-        <v>10</v>
+        <f t="shared" ref="AS31" si="110">AS9</f>
+        <v>0</v>
       </c>
       <c r="AT31" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="84">
         <f>AU16</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AV31" s="9"/>
       <c r="AW31" s="10"/>
@@ -12868,187 +12867,187 @@
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="106"/>
       <c r="B32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="112">D10-6</f>
+        <f t="shared" ref="D32:D34" si="111">D10-6</f>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:T34" si="113">E10</f>
+        <f t="shared" ref="E32:T34" si="112">E10</f>
         <v>1095840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>True</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>False</v>
       </c>
       <c r="J32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>2.894E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>2.894E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>NA</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="107"/>
-        <v>1.2011260938833851E-3</v>
+        <f t="shared" si="106"/>
+        <v>8.8213162748220658E-4</v>
       </c>
       <c r="AF32">
-        <f t="shared" ref="AF32" si="114">AF10</f>
-        <v>6.5894308436937315E-3</v>
+        <f t="shared" ref="AF32" si="113">AF10</f>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="107"/>
-        <v>1.201126093883385E-2</v>
+        <f t="shared" si="106"/>
+        <v>8.8213162748220653E-3</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AN32" s="70">
         <f t="shared" si="10"/>
-        <v>1.9716544759492929E-6</v>
+        <v>1.4545476567305404E-6</v>
       </c>
       <c r="AO32" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP32" s="70">
-        <f t="shared" ref="AP32:AR32" si="115">AP10</f>
+        <f t="shared" ref="AP32:AR32" si="114">AP10</f>
         <v>9.5</v>
       </c>
       <c r="AQ32" s="70">
-        <f t="shared" ref="AQ32" si="116">AQ10</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ32" si="115">AQ10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR32" s="70">
-        <f t="shared" si="115"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="114"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS32" s="70">
-        <f t="shared" ref="AS32" si="117">AS10</f>
-        <v>10</v>
+        <f t="shared" ref="AS32" si="116">AS10</f>
+        <v>0</v>
       </c>
       <c r="AT32" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="84">
-        <f t="shared" ref="AU32:AU34" si="118">AU17</f>
-        <v>75</v>
+        <f t="shared" ref="AU32:AU34" si="117">AU17</f>
+        <v>68</v>
       </c>
       <c r="AV32" s="9"/>
       <c r="AW32" s="10"/>
@@ -13061,187 +13060,187 @@
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="106"/>
       <c r="B33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33">
+        <f t="shared" si="111"/>
+        <v>3</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="112"/>
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="113"/>
         <v>547920</v>
       </c>
       <c r="F33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>True</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="J33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="107"/>
-        <v>4.6143256432070926E-4</v>
+        <f t="shared" si="106"/>
+        <v>3.3888553500781266E-4</v>
       </c>
       <c r="AF33">
-        <f t="shared" ref="AF33" si="119">AF11</f>
-        <v>2.5314394442876673E-3</v>
+        <f t="shared" ref="AF33" si="118">AF11</f>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="107"/>
-        <v>4.6143256432070925E-3</v>
+        <f t="shared" si="106"/>
+        <v>3.3888553500781263E-3</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AN33" s="70">
         <f t="shared" si="10"/>
-        <v>7.5744385658148536E-7</v>
+        <v>5.5878867222163193E-7</v>
       </c>
       <c r="AO33" s="102">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP33" s="70">
-        <f t="shared" ref="AP33:AR33" si="120">AP11</f>
+        <f t="shared" ref="AP33:AR33" si="119">AP11</f>
         <v>9.5</v>
       </c>
       <c r="AQ33" s="70">
-        <f t="shared" ref="AQ33" si="121">AQ11</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ33" si="120">AQ11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR33" s="70">
-        <f t="shared" si="120"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="119"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS33" s="70">
-        <f t="shared" ref="AS33" si="122">AS11</f>
-        <v>10</v>
+        <f t="shared" ref="AS33" si="121">AS11</f>
+        <v>0</v>
       </c>
       <c r="AT33" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="84">
-        <f t="shared" si="118"/>
-        <v>75</v>
+        <f t="shared" si="117"/>
+        <v>68</v>
       </c>
       <c r="AV33" s="9"/>
       <c r="AW33" s="10"/>
@@ -13254,187 +13253,187 @@
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="106"/>
       <c r="B34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
       </c>
       <c r="D34">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="112"/>
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>True</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="J34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2.894E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>NA</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>False</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="107"/>
-        <v>3.2382438300534744E-4</v>
+        <f t="shared" si="106"/>
+        <v>2.3782326556187717E-4</v>
       </c>
       <c r="AF34">
-        <f t="shared" ref="AF34" si="123">AF12</f>
-        <v>1.7765148789804716E-3</v>
+        <f t="shared" ref="AF34" si="122">AF12</f>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="107"/>
-        <v>3.2382438300534739E-3</v>
+        <f t="shared" si="106"/>
+        <v>2.3782326556187716E-3</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AN34" s="70">
+      <c r="AN34" s="73">
         <f t="shared" si="10"/>
-        <v>5.3155934037679733E-7</v>
+        <v>3.9214700262632978E-7</v>
       </c>
       <c r="AO34" s="103">
         <f t="shared" si="12"/>
-        <v>76.326919492139766</v>
+        <v>67.910893172283792</v>
       </c>
       <c r="AP34" s="73">
-        <f t="shared" ref="AP34:AR34" si="124">AP12</f>
+        <f t="shared" ref="AP34:AR34" si="123">AP12</f>
         <v>9.5</v>
       </c>
       <c r="AQ34" s="73">
-        <f t="shared" ref="AQ34" si="125">AQ12</f>
-        <v>2573.3746462818349</v>
+        <f t="shared" ref="AQ34" si="124">AQ12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AR34" s="73">
-        <f t="shared" si="124"/>
-        <v>25733.746462818348</v>
+        <f t="shared" si="123"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AS34" s="73">
-        <f t="shared" ref="AS34" si="126">AS12</f>
-        <v>10</v>
+        <f t="shared" ref="AS34" si="125">AS12</f>
+        <v>0</v>
       </c>
       <c r="AT34" s="84">
         <f t="shared" si="13"/>
-        <v>14117.647058823532</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="84">
-        <f t="shared" si="118"/>
-        <v>75</v>
+        <f t="shared" si="117"/>
+        <v>68</v>
       </c>
       <c r="AV34" s="9"/>
       <c r="AW34" s="10"/>
@@ -13598,23 +13597,23 @@
         <v>1.2096740612871526</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="127">J37*$X37</f>
+        <f t="shared" ref="M37:M42" si="126">J37*$X37</f>
         <v>12.096740612871526</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="128">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="127">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="129">J37*$AB$38</f>
+        <f t="shared" ref="O37:O42" si="128">J37*$AB$38</f>
         <v>17.255327038416706</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="130">J37*$AC37</f>
-        <v>0.14373687423001116</v>
+        <f t="shared" ref="Q37:Q42" si="129">J37*$AC37</f>
+        <v>0.14960368542307284</v>
       </c>
       <c r="R37">
         <f>INPUTS!R15</f>
@@ -13635,7 +13634,7 @@
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="131">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="130">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -13649,7 +13648,7 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="132">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="131">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
@@ -13657,7 +13656,7 @@
       </c>
       <c r="AC37" s="15">
         <f>ROUND(X37/$AR$6*$AC$45,0)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD37" s="15">
         <f>J37+L37*$F$53+M37*$J$53+O37*$E$53</f>
@@ -13717,7 +13716,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="133">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="132">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -13725,23 +13724,23 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
+        <f t="shared" si="126"/>
+        <v>2.0231970075485135</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="127"/>
-        <v>2.0231970075485135</v>
-      </c>
-      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="129"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="130"/>
-        <v>2.3939999999999999E-2</v>
+        <f t="shared" si="129"/>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="R38">
         <f>INPUTS!R16</f>
@@ -13762,7 +13761,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -13776,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -13784,15 +13783,15 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" ref="AC38:AC42" si="134">ROUND(X38/$AR$6*$AC$45,0)</f>
-        <v>14</v>
+        <f t="shared" ref="AC38:AC42" si="133">ROUND(X38/$AR$6*$AC$45,0)</f>
+        <v>15</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="135">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="134">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="136">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="135">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
@@ -13844,31 +13843,31 @@
         <v>5.2983708800493851E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>2.6491854400246927E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="137">J39*$W39</f>
+        <f t="shared" ref="L39:L42" si="136">J39*$W39</f>
         <v>2.5887478676102722</v>
       </c>
       <c r="M39">
+        <f t="shared" si="126"/>
+        <v>25.887478676102717</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="127"/>
-        <v>25.887478676102717</v>
-      </c>
-      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="129"/>
         <v>31.166887529702265</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="130"/>
-        <v>0.30730551104286435</v>
+        <f t="shared" si="129"/>
+        <v>0.3232006236830125</v>
       </c>
       <c r="R39">
         <f>INPUTS!R17</f>
@@ -13889,31 +13888,31 @@
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="138">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="137">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
+        <f t="shared" si="133"/>
+        <v>61</v>
+      </c>
+      <c r="AD39" s="15">
         <f t="shared" si="134"/>
-        <v>58</v>
-      </c>
-      <c r="AD39" s="15">
+        <v>8.8574797085881011E-3</v>
+      </c>
+      <c r="AE39" s="71">
         <f t="shared" si="135"/>
-        <v>8.8574797085881011E-3</v>
-      </c>
-      <c r="AE39" s="71">
-        <f t="shared" si="136"/>
         <v>40.181958589053821</v>
       </c>
       <c r="AF39" s="1"/>
@@ -13950,31 +13949,31 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
+        <f t="shared" si="126"/>
+        <v>3.8263355734467188</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="127"/>
-        <v>3.8263355734467188</v>
-      </c>
-      <c r="N40">
+        <v>6.7058823529411775</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="128"/>
-        <v>6.7058823529411775</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="129"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="130"/>
-        <v>4.5600000000000009E-2</v>
+        <f t="shared" si="129"/>
+        <v>4.7880000000000006E-2</v>
       </c>
       <c r="R40">
         <f>INPUTS!R18</f>
@@ -13995,11 +13994,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14010,15 +14009,15 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
+        <f t="shared" si="133"/>
+        <v>21</v>
+      </c>
+      <c r="AD40" s="15">
         <f t="shared" si="134"/>
-        <v>20</v>
-      </c>
-      <c r="AD40" s="15">
+        <v>3.0576333839599777E-3</v>
+      </c>
+      <c r="AE40" s="71">
         <f t="shared" si="135"/>
-        <v>3.0576333839599777E-3</v>
-      </c>
-      <c r="AE40" s="71">
-        <f t="shared" si="136"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
@@ -14055,31 +14054,31 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
+        <f t="shared" si="126"/>
+        <v>6.7128694270995062E-2</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="127"/>
-        <v>6.7128694270995062E-2</v>
-      </c>
-      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="129"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="130"/>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="129"/>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="R41">
         <f>INPUTS!R19</f>
@@ -14100,28 +14099,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
+        <f t="shared" si="130"/>
+        <v>167.82173567748765</v>
+      </c>
+      <c r="X41" s="15">
+        <f t="shared" si="137"/>
+        <v>1678.2173567748764</v>
+      </c>
+      <c r="AA41" s="89">
         <f t="shared" si="131"/>
-        <v>167.82173567748765</v>
-      </c>
-      <c r="X41" s="15">
-        <f t="shared" si="138"/>
-        <v>1678.2173567748764</v>
-      </c>
-      <c r="AA41" s="89">
-        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
+        <f t="shared" si="133"/>
+        <v>21</v>
+      </c>
+      <c r="AD41" s="15">
         <f t="shared" si="134"/>
-        <v>20</v>
-      </c>
-      <c r="AD41" s="15">
+        <v>5.3642690946666268E-5</v>
+      </c>
+      <c r="AE41" s="71">
         <f t="shared" si="135"/>
-        <v>5.3642690946666268E-5</v>
-      </c>
-      <c r="AE41" s="71">
-        <f t="shared" si="136"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AV41" s="91" t="s">
@@ -14165,31 +14164,31 @@
         <v>4.96525E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>2.482625E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>2.6715030629034748</v>
       </c>
       <c r="M42">
+        <f t="shared" si="126"/>
+        <v>26.715030629034747</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="127"/>
-        <v>26.715030629034747</v>
-      </c>
-      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="129"/>
         <v>29.20735294117647</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="130"/>
-        <v>0.317776</v>
+        <f t="shared" si="129"/>
+        <v>0.33267174999999999</v>
       </c>
       <c r="R42">
         <f>INPUTS!R20</f>
@@ -14210,27 +14209,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
+        <f t="shared" si="130"/>
+        <v>538.03999051477263</v>
+      </c>
+      <c r="X42" s="16">
+        <f t="shared" si="137"/>
+        <v>5380.3999051477258</v>
+      </c>
+      <c r="AA42" s="90">
         <f t="shared" si="131"/>
-        <v>538.03999051477263</v>
-      </c>
-      <c r="X42" s="16">
-        <f t="shared" si="138"/>
-        <v>5380.3999051477258</v>
-      </c>
-      <c r="AA42" s="90">
-        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
+        <f t="shared" si="133"/>
+        <v>67</v>
+      </c>
+      <c r="AD42" s="16">
         <f t="shared" si="134"/>
-        <v>64</v>
-      </c>
-      <c r="AD42" s="16">
+        <v>8.5536808173948056E-3</v>
+      </c>
+      <c r="AE42" s="72">
         <f t="shared" si="135"/>
-        <v>8.5536808173948056E-3</v>
-      </c>
-      <c r="AE42" s="72">
-        <f t="shared" si="136"/>
         <v>41.951890583728066</v>
       </c>
       <c r="AV42" s="91"/>
@@ -14300,7 +14299,7 @@
       </c>
       <c r="Y45" s="74">
         <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AP5:AP12,AN5:AN12))/SUM(AD37:AD42,AN5:AN12)</f>
-        <v>4.4129827369736923</v>
+        <v>4.4073077330908923</v>
       </c>
       <c r="AA45" s="54" t="s">
         <v>121</v>
@@ -14461,15 +14460,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>205.12115141665794</v>
+        <v>272.288787814957</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>2.2179592047610939</v>
+        <v>2.9442376815674374</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>22.179592047610935</v>
+        <v>29.442376815674372</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -14482,15 +14481,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>3.4870595740831851E-2</v>
+        <v>4.6289093928542697E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>1.7435297870415926E-4</v>
+        <v>2.3144546964271349E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>0.697411914816637</v>
+        <v>0.92578187857085392</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14547,11 +14546,11 @@
       </c>
       <c r="N50" s="77">
         <f>SUM(AJ5:AJ34,J37:J42)/K49</f>
-        <v>0.5828191135870241</v>
+        <v>0.4390504971062178</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P50" s="16">
         <f>INPUTS!P28</f>
@@ -14619,7 +14618,7 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AJ5:AJ34)</f>
-        <v>5.5193845440754931E-2</v>
+        <v>6.661234362846577E-2</v>
       </c>
       <c r="R52" s="107"/>
       <c r="S52" s="9" t="s">
@@ -14732,7 +14731,7 @@
       </c>
       <c r="P55" s="36">
         <f t="array" ref="P55">SUM(J37:J42,AJ5:AJ34)+SUM(AE5:AE34*F53,L37:L42*F53)+SUM(AG5:AG34*J53,M37:M42*J53)+SUM(AD5:AD34*E53,O37:O42*E53)+SUM(N37:N42*E53,AF5:AF34*E53)</f>
-        <v>3.3869076286537132E-2</v>
+        <v>3.371971757707979E-2</v>
       </c>
       <c r="W55" s="35" t="s">
         <v>122</v>
@@ -14747,7 +14746,7 @@
       </c>
       <c r="P56" s="36">
         <f>K49+E49*E53+F49*F53+G49*G53</f>
-        <v>4.2336345358171407E-2</v>
+        <v>5.6199529295132972E-2</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14795,7 +14794,7 @@
       </c>
       <c r="P57" s="36">
         <f>P56+P55+P54</f>
-        <v>7.6205421644708532E-2</v>
+        <v>8.9919246872212755E-2</v>
       </c>
       <c r="Q57" s="32"/>
     </row>
@@ -14863,30 +14862,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="139">G58</f>
+        <f t="shared" ref="G59:M59" si="138">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -14894,7 +14893,7 @@
       </c>
       <c r="P59" s="39">
         <f>1-SUM($AJ$5:$AJ$12,$J$37:$J$42)/$P$55</f>
-        <v>0.41574173738607179</v>
+        <v>0.41315381357282133</v>
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
@@ -14919,30 +14918,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="140">G58</f>
+        <f t="shared" ref="G60:M60" si="139">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -14950,7 +14949,7 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.17634374328200197</v>
+        <v>0.17634374328200186</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
@@ -14975,30 +14974,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="141">G58</f>
+        <f t="shared" ref="G61:M61" si="140">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15006,7 +15005,7 @@
       </c>
       <c r="P61" s="39">
         <f>1-SUM($AJ$5:$AJ$12,$J$37:$J$42)/($P$55+N50/(1+N50)*P54)</f>
-        <v>0.41574173738607179</v>
+        <v>0.41315381357282133</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
@@ -15031,30 +15030,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="142">G58</f>
+        <f t="shared" ref="G62:M62" si="141">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -15062,7 +15061,7 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.17634374328200197</v>
+        <v>0.17634374328200186</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
@@ -15089,7 +15088,7 @@
       </c>
       <c r="P66" s="75">
         <f>($Y$45*$P$55+$Q$50*$P$56)/($P$55+$P$56)</f>
-        <v>2.6279923275438635</v>
+        <v>2.4027403999090851</v>
       </c>
     </row>
   </sheetData>
@@ -17809,10 +17808,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17846,15 +17845,15 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f>B2*10^3/10000</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="94">
         <f>C2*10^6/14</f>
-        <v>571428.57142857148</v>
+        <v>428571.42857142858</v>
       </c>
       <c r="E2" s="95">
         <v>36146</v>
@@ -17917,6 +17916,9 @@
       <c r="I4" t="s">
         <v>173</v>
       </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1358,6 +1358,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1369,15 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1691,10 +1691,10 @@
       <c r="E1" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="110" t="s">
+      <c r="W1" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="111" t="s">
+      <c r="X1" s="107" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1710,15 +1710,15 @@
         <f xml:space="preserve"> 76.1/12*24*3600</f>
         <v>547920</v>
       </c>
-      <c r="W2" s="112">
+      <c r="W2" s="108">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="X2" s="112">
+      <c r="X2" s="108">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1978,15 +1978,15 @@
         <v>9.0399389163552328</v>
       </c>
       <c r="AF5" s="1">
-        <f>AK5*$AR5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AR5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="28">
-        <f>AK5*$AU5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AU5</f>
         <v>9.0399389163552328</v>
       </c>
       <c r="AH5" s="33">
-        <f>AK5*$AS5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AS5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
@@ -2025,18 +2025,18 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AR5" s="15">
-        <f>(($AQ5/100)*(1+($AP$15+$AU5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ5/100))</f>
+        <f t="shared" ref="AR5:AR12" si="4">(($AQ5/100)*(1+($AP$15+$AU5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ5/100))</f>
         <v>493.49156696102204</v>
       </c>
       <c r="AS5" s="15">
-        <f>$AR5/$X$23</f>
+        <f t="shared" ref="AS5:AS12" si="5">$AR5/$X$23</f>
         <v>4934.91566961022</v>
       </c>
       <c r="AT5" s="15">
         <v>10</v>
       </c>
       <c r="AU5" s="84">
-        <f>$AT5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" ref="AU5:AU12" si="6">$AT5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
         <v>4411.7647058823532</v>
       </c>
       <c r="AV5" s="9">
@@ -2047,7 +2047,7 @@
         <v>9.1058115591388438E-4</v>
       </c>
       <c r="AX5" s="9">
-        <f>J5*Z5</f>
+        <f t="shared" ref="AX5:AX12" si="7">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
       <c r="AY5" s="10">
@@ -2055,17 +2055,17 @@
         <v>2.0477283347659267E-3</v>
       </c>
       <c r="AZ5" s="10">
-        <f>$T$27+$T$28*$T$30*(L5)^$T$29</f>
+        <f t="shared" ref="AZ5:AZ12" si="8">$T$27+$T$28*$T$30*(L5)^$T$29</f>
         <v>4.0277279389003447E-3</v>
       </c>
       <c r="BA5" s="9"/>
       <c r="BB5" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M5)^$AV$21</f>
+        <f t="shared" ref="BB5:BB12" si="9">$AW$20*$AV$22*$AV$24*(M5)^$AV$21</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="1">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="10">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -2096,7 +2096,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K12" si="2">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="11">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="48">
@@ -2133,7 +2133,7 @@
         <v>3.3993521965748258E-2</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" ref="W6:W12" si="3">$W$2*EXP($X$2*E6)</f>
+        <f t="shared" ref="W6:W12" si="12">$W$2*EXP($X$2*E6)</f>
         <v>2.6776375833009532E-5</v>
       </c>
       <c r="X6">
@@ -2162,15 +2162,15 @@
         <v>3.5017162544188412</v>
       </c>
       <c r="AF6" s="1">
-        <f>AK6*$AR6</f>
+        <f t="shared" si="1"/>
         <v>0.65956141271581703</v>
       </c>
       <c r="AG6" s="28">
-        <f>AK6*$AU6</f>
+        <f t="shared" si="2"/>
         <v>1.7508581272094206</v>
       </c>
       <c r="AH6" s="33">
-        <f>AK6*$AS6</f>
+        <f t="shared" si="3"/>
         <v>6.5956141271581705</v>
       </c>
       <c r="AI6" s="1">
@@ -2182,23 +2182,23 @@
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="4">AI6+AJ6</f>
+        <f t="shared" ref="AK6:AK12" si="13">AI6+AJ6</f>
         <v>7.9372235100160394E-4</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="5">AI6*0.005</f>
+        <f t="shared" ref="AL6:AM12" si="14">AI6*0.005</f>
         <v>3.9677677678064465E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="6">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="15">AL6+AM6</f>
         <v>3.9686117550080197E-6</v>
       </c>
       <c r="AO6" s="70">
-        <f t="shared" ref="AO6:AO12" si="7">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
+        <f t="shared" ref="AO6:AO12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
         <v>1.5736842407450208E-3</v>
       </c>
       <c r="AP6" s="71">
@@ -2209,18 +2209,18 @@
         <v>6.5</v>
       </c>
       <c r="AR6" s="15">
-        <f>(($AQ6/100)*(1+($AP$15+$AU6)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ6/100))</f>
+        <f t="shared" si="4"/>
         <v>830.97245766546928</v>
       </c>
       <c r="AS6" s="15">
-        <f>$AR6/$X$23</f>
+        <f t="shared" si="5"/>
         <v>8309.724576654693</v>
       </c>
       <c r="AT6" s="15">
         <v>5</v>
       </c>
       <c r="AU6" s="84">
-        <f>$AT6/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>2205.8823529411766</v>
       </c>
       <c r="AV6" s="9">
@@ -2231,7 +2231,7 @@
         <v>9.1017858127080242E-4</v>
       </c>
       <c r="AX6" s="9">
-        <f>J6*Z6</f>
+        <f t="shared" si="7"/>
         <v>4.0516000000000007E-3</v>
       </c>
       <c r="AY6" s="10">
@@ -2239,17 +2239,17 @@
         <v>7.9411698532703143E-4</v>
       </c>
       <c r="AZ6" s="10">
-        <f>$T$27+$T$28*$T$30*(L6)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>7.9355355356128927E-4</v>
       </c>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M6)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="109"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -2280,7 +2280,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L7" s="48">
@@ -2317,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.5480791541095022E-5</v>
       </c>
       <c r="X7" t="s">
@@ -2346,15 +2346,15 @@
         <v>0.13143561599020981</v>
       </c>
       <c r="AF7" s="1">
-        <f>AK7*$AR7</f>
+        <f t="shared" si="1"/>
         <v>5.4184269937105296E-2</v>
       </c>
       <c r="AG7" s="28">
-        <f>AK7*$AU7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="33">
-        <f>AK7*$AS7</f>
+        <f t="shared" si="3"/>
         <v>0.54184269937105289</v>
       </c>
       <c r="AI7" s="1">
@@ -2365,72 +2365,72 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.9792072957780891E-5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.4896036478890447E-7</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4896036478890447E-7</v>
       </c>
       <c r="AO7" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>8.9403557211611783E-5</v>
       </c>
       <c r="AP7" s="71">
-        <f t="shared" ref="AP7:AP12" si="8">(1-AK7/AO7)*100</f>
+        <f t="shared" ref="AP7:AP12" si="17">(1-AK7/AO7)*100</f>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ7" s="15">
         <v>9.5</v>
       </c>
       <c r="AR7" s="15">
-        <f>(($AQ7/100)*(1+($AP$15+$AU7)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ7/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS7" s="15">
-        <f>$AR7/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT7" s="15">
         <v>0</v>
       </c>
       <c r="AU7" s="84">
-        <f>$AT7/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV7" s="9"/>
       <c r="AW7" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
+        <f t="shared" ref="AW7:AW12" si="18">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX7" s="9" t="e">
-        <f>J7*Z7</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY7" s="10" t="e">
-        <f>AW7+((AX7-AW7)/$T$31)*F7</f>
+        <f t="shared" ref="AY7:AY12" si="19">AW7+((AX7-AW7)/$T$31)*F7</f>
         <v>#VALUE!</v>
       </c>
       <c r="AZ7" s="10">
-        <f>$T$27+$T$28*$T$30*(L7)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>2.9792072957780891E-5</v>
       </c>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M7)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -2457,11 +2457,11 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="9">J7-M8</f>
+        <f t="shared" ref="J8:J12" si="20">J7-M8</f>
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L8" s="48">
@@ -2498,7 +2498,7 @@
         <v>32</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.9502368891684043E-6</v>
       </c>
       <c r="X8" t="s">
@@ -2527,91 +2527,91 @@
         <v>3.5630437425207336E-2</v>
       </c>
       <c r="AF8" s="1">
-        <f>AK8*$AR8</f>
+        <f t="shared" si="1"/>
         <v>1.4688630816538933E-2</v>
       </c>
       <c r="AG8" s="28">
-        <f>AK8*$AU8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8" s="33">
-        <f>AK8*$AS8</f>
+        <f t="shared" si="3"/>
         <v>0.14688630816538931</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="10">AZ8</f>
+        <f t="shared" ref="AI8:AI12" si="21">AZ8</f>
         <v>8.076232483046996E-6</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8.076232483046996E-6</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.0381162415234981E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.0381162415234981E-8</v>
       </c>
       <c r="AO8" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.4236108506970847E-5</v>
       </c>
       <c r="AP8" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ8" s="15">
         <v>9.5</v>
       </c>
       <c r="AR8" s="15">
-        <f>(($AQ8/100)*(1+($AP$15+$AU8)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ8/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS8" s="15">
-        <f>$AR8/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT8" s="15">
         <v>0</v>
       </c>
       <c r="AU8" s="84">
-        <f>$AT8/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV8" s="9"/>
       <c r="AW8" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T8*$T$32)^$T$29</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX8" s="9" t="e">
-        <f>J8*Z8</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY8" s="10" t="e">
-        <f>AW8+((AX8-AW8)/$T$31)*F8</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ8" s="10">
-        <f>$T$27+$T$28*$T$30*(L8)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>8.076232483046996E-6</v>
       </c>
       <c r="BA8" s="9"/>
       <c r="BB8" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M8)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -2638,11 +2638,11 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L9" s="48">
@@ -2679,7 +2679,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5.1745894361784425E-6</v>
       </c>
       <c r="X9" t="s">
@@ -2708,91 +2708,91 @@
         <v>1.2193691971899337E-2</v>
       </c>
       <c r="AF9" s="1">
-        <f>AK9*$AR9</f>
+        <f t="shared" si="1"/>
         <v>5.0268436934515614E-3</v>
       </c>
       <c r="AG9" s="28">
-        <f>AK9*$AU9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="33">
-        <f>AK9*$AS9</f>
+        <f t="shared" si="3"/>
         <v>5.026843693451561E-2</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.7639035136305163E-6</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.7639035136305163E-6</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.3819517568152583E-8</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.3819517568152583E-8</v>
       </c>
       <c r="AO9" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>8.294246803786242E-6</v>
       </c>
       <c r="AP9" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ9" s="15">
         <v>9.5</v>
       </c>
       <c r="AR9" s="15">
-        <f>(($AQ9/100)*(1+($AP$15+$AU9)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ9/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS9" s="15">
-        <f>$AR9/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT9" s="15">
         <v>0</v>
       </c>
       <c r="AU9" s="84">
-        <f>$AT9/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV9" s="9"/>
       <c r="AW9" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T9*$T$32)^$T$29</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX9" s="9" t="e">
-        <f>J9*Z9</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY9" s="10" t="e">
-        <f>AW9+((AX9-AW9)/$T$31)*F9</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ9" s="10">
-        <f>$T$27+$T$28*$T$30*(L9)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>2.7639035136305163E-6</v>
       </c>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M9)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -2819,11 +2819,11 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L10" s="48">
@@ -2860,7 +2860,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.9916946517264094E-6</v>
       </c>
       <c r="X10" t="s">
@@ -2889,91 +2889,91 @@
         <v>5.2963394285683064E-3</v>
       </c>
       <c r="AF10" s="1">
-        <f>AK10*$AR10</f>
+        <f t="shared" si="1"/>
         <v>2.1834134006527969E-3</v>
       </c>
       <c r="AG10" s="28">
-        <f>AK10*$AU10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="33">
-        <f>AK10*$AS10</f>
+        <f t="shared" si="3"/>
         <v>2.1834134006527964E-2</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.2005036038088161E-6</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.2005036038088161E-6</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.0025180190440811E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6.0025180190440811E-9</v>
       </c>
       <c r="AO10" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>3.6026124391534188E-6</v>
       </c>
       <c r="AP10" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ10" s="15">
         <v>9.5</v>
       </c>
       <c r="AR10" s="15">
-        <f>(($AQ10/100)*(1+($AP$15+$AU10)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ10/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS10" s="15">
-        <f>$AR10/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT10" s="15">
         <v>0</v>
       </c>
       <c r="AU10" s="84">
-        <f>$AT10/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV10" s="9"/>
       <c r="AW10" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T10*$T$32)^$T$29</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX10" s="9" t="e">
-        <f>J10*Z10</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY10" s="10" t="e">
-        <f>AW10+((AX10-AW10)/$T$31)*F10</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ10" s="10">
-        <f>$T$27+$T$28*$T$30*(L10)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>1.2005036038088161E-6</v>
       </c>
       <c r="BA10" s="9"/>
       <c r="BB10" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M10)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="109"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -3000,11 +3000,11 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L11" s="49">
@@ -3041,7 +3041,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.7296515983649451E-6</v>
       </c>
       <c r="X11" t="s">
@@ -3070,91 +3070,91 @@
         <v>1.9146799290632522E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f>AK11*$AR11</f>
+        <f t="shared" si="1"/>
         <v>7.8932588657893549E-4</v>
       </c>
       <c r="AG11" s="28">
-        <f>AK11*$AU11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="33">
-        <f>AK11*$AS11</f>
+        <f t="shared" si="3"/>
         <v>7.8932588657893536E-3</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4.3399411725433714E-7</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.3399411725433714E-7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.1699705862716857E-9</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.1699705862716857E-9</v>
       </c>
       <c r="AO11" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.3023806012571343E-6</v>
       </c>
       <c r="AP11" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ11" s="15">
         <v>9.5</v>
       </c>
       <c r="AR11" s="15">
-        <f>(($AQ11/100)*(1+($AP$15+$AU11)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ11/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS11" s="15">
-        <f>$AR11/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT11" s="15">
         <v>0</v>
       </c>
       <c r="AU11" s="84">
-        <f>$AT11/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV11" s="9"/>
       <c r="AW11" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T11*$T$32)^$T$29</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX11" s="9" t="e">
-        <f>J11*Z11</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY11" s="10" t="e">
-        <f>AW11+((AX11-AW11)/$T$31)*F11</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ11" s="10">
-        <f>$T$27+$T$28*$T$30*(L11)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>4.3399411725433714E-7</v>
       </c>
       <c r="BA11" s="9"/>
       <c r="BB11" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M11)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="109"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -3181,11 +3181,11 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.894E-2</v>
       </c>
       <c r="L12" s="49">
@@ -3222,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="X12" t="s">
@@ -3251,86 +3251,86 @@
         <v>1.2855761246405892E-3</v>
       </c>
       <c r="AF12" s="1">
-        <f>AK12*$AR12</f>
+        <f t="shared" si="1"/>
         <v>5.2997814357572592E-4</v>
       </c>
       <c r="AG12" s="28">
-        <f>AK12*$AU12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="33">
-        <f>AK12*$AS12</f>
+        <f t="shared" si="3"/>
         <v>5.2997814357572583E-3</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.9139725491853351E-7</v>
       </c>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.9139725491853351E-7</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.4569862745926675E-9</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4569862745926675E-9</v>
       </c>
       <c r="AO12" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>8.7445916195004701E-7</v>
       </c>
       <c r="AP12" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AQ12" s="16">
         <v>9.5</v>
       </c>
       <c r="AR12" s="15">
-        <f>(($AQ12/100)*(1+($AP$15+$AU12)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ12/100))</f>
+        <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AS12" s="16">
-        <f>$AR12/$X$23</f>
+        <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AT12" s="16">
         <v>0</v>
       </c>
       <c r="AU12" s="84">
-        <f>$AT12/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV12" s="9"/>
       <c r="AW12" s="10" t="e">
-        <f>$T$27+$T$28*$T$30*(T12*$T$32)^$T$29</f>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX12" s="9" t="e">
-        <f>J12*Z12</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY12" s="10" t="e">
-        <f>AW12+((AX12-AW12)/$T$31)*F12</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ12" s="10">
-        <f>$T$27+$T$28*$T$30*(L12)^$T$29</f>
+        <f t="shared" si="8"/>
         <v>2.9139725491853351E-7</v>
       </c>
       <c r="BA12" s="9"/>
       <c r="BB12" s="9">
-        <f>$AW$20*$AV$22*$AV$24*(M12)^$AV$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3448,7 +3448,7 @@
       <c r="AT14" s="51"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -3487,22 +3487,22 @@
         <v>1.1599819444043302</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:M20" si="11">J15*$X15</f>
+        <f t="shared" ref="M15:M20" si="22">J15*$X15</f>
         <v>11.599819444043302</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:N20" si="12">AA15*$J15</f>
+        <f t="shared" ref="N15:N20" si="23">AA15*$J15</f>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" ref="O15:O20" si="13">J15*$AB$16</f>
+        <f t="shared" ref="O15:O20" si="24">J15*$AB$16</f>
         <v>12.92625</v>
       </c>
       <c r="P15">
         <v>1.9532999999999999E-4</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ref="Q15:Q20" si="14">J15*$AC15</f>
+        <f t="shared" ref="Q15:Q20" si="25">J15*$AC15</f>
         <v>0.16700714999999999</v>
       </c>
       <c r="R15">
@@ -3521,7 +3521,7 @@
         <v>4.3</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" ref="W15:W20" si="15">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <f t="shared" ref="W15:W20" si="26">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
         <v>395.90503059926971</v>
       </c>
       <c r="X15" s="15">
@@ -3535,14 +3535,14 @@
         <v>27</v>
       </c>
       <c r="AA15" s="89">
-        <f t="shared" ref="AA15:AA20" si="16">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <f t="shared" ref="AA15:AA20" si="27">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC15" s="15">
-        <f>ROUND(X15/$AS$6*120,0)</f>
+        <f t="shared" ref="AC15:AC20" si="28">ROUND(X15/$AS$6*120,0)</f>
         <v>57</v>
       </c>
       <c r="AD15" s="15">
@@ -3571,7 +3571,7 @@
       <c r="AT15" s="97"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="109"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K20" si="17">J16*0.005</f>
+        <f t="shared" ref="K16:K20" si="29">J16*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L16">
@@ -3610,22 +3610,22 @@
         <v>0.19277131424832977</v>
       </c>
       <c r="M16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.9277131424832974</v>
       </c>
       <c r="N16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>7.5441176470588234</v>
       </c>
       <c r="P16">
         <v>2.6861000000000002E-4</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>2.7359999999999999E-2</v>
       </c>
       <c r="R16">
@@ -3645,7 +3645,7 @@
         <v>1.8</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>112.73176271832151</v>
       </c>
       <c r="X16" s="15">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB16" s="56">
@@ -3667,15 +3667,15 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="15">
-        <f>ROUND(X16/$AS$6*120,0)</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" ref="AD16:AD20" si="18">J16+L16*$F$31+M16*$J$31+O16*$E$31</f>
+        <f t="shared" ref="AD16:AD20" si="30">J16+L16*$F$31+M16*$J$31+O16*$E$31</f>
         <v>2.1242656885690431E-3</v>
       </c>
       <c r="AE16" s="71">
-        <f t="shared" ref="AE16:AE20" si="19">(1-J16/AD16)*100</f>
+        <f t="shared" ref="AE16:AE20" si="31">(1-J16/AD16)*100</f>
         <v>19.501594871030591</v>
       </c>
       <c r="AF16" s="1"/>
@@ -3696,7 +3696,7 @@
       <c r="AT16" s="98"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="109"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -3726,30 +3726,30 @@
         <v>5.5446100000000002E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.7723050000000002E-5</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L20" si="20">J17*$W17</f>
+        <f t="shared" ref="L17:L20" si="32">J17*$W17</f>
         <v>2.6020693064998279</v>
       </c>
       <c r="M17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>26.02069306499828</v>
       </c>
       <c r="N17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>24.461514705882355</v>
       </c>
       <c r="P17">
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0.37703348000000003</v>
       </c>
       <c r="R17">
@@ -3768,38 +3768,38 @@
         <v>4.8</v>
       </c>
       <c r="W17" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>469.29708428542818</v>
       </c>
       <c r="X17" s="15">
-        <f t="shared" ref="X17:X20" si="21">$W17/$X$23</f>
+        <f t="shared" ref="X17:X20" si="33">$W17/$X$23</f>
         <v>4692.9708428542817</v>
       </c>
       <c r="Z17" s="28"/>
       <c r="AA17" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB17" s="53">
         <v>10</v>
       </c>
       <c r="AC17" s="15">
-        <f>ROUND(X17/$AS$6*120,0)</f>
+        <f t="shared" si="28"/>
         <v>68</v>
       </c>
       <c r="AD17" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>8.9258692333536154E-3</v>
       </c>
       <c r="AE17" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>37.881568113486843</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="109"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -3829,30 +3829,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.36572238936056839</v>
       </c>
       <c r="M18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.6572238936056838</v>
       </c>
       <c r="N18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>3.0176470588235293</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.058823529411766</v>
       </c>
       <c r="P18">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>5.2440000000000007E-2</v>
       </c>
       <c r="R18">
@@ -3872,37 +3872,37 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>1323.5294117647056</v>
       </c>
       <c r="AB18" s="54" t="s">
         <v>121</v>
       </c>
       <c r="AC18" s="15">
-        <f>ROUND(X18/$AS$6*120,0)</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="AD18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.9444020852838065E-3</v>
       </c>
       <c r="AE18" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>22.564923744773314</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="109"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -3932,30 +3932,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>6.4161822694836562E-3</v>
       </c>
       <c r="M19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.4161822694836557E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="P19">
         <v>4.7099999999999998E-6</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="R19">
@@ -3975,28 +3975,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X19" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA19" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="15">
-        <f>ROUND(X19/$AS$6*120,0)</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="AD19" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.1656176934803615E-5</v>
       </c>
       <c r="AE19" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>22.564923744773303</v>
       </c>
       <c r="AU19" s="78" t="s">
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="109"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -4040,30 +4040,30 @@
         <v>4.8002499999999998E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.400125E-5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.481310503821867</v>
       </c>
       <c r="M20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>24.813105038218666</v>
       </c>
       <c r="N20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>21.177573529411767</v>
       </c>
       <c r="P20">
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0.36001875</v>
       </c>
       <c r="R20">
@@ -4082,27 +4082,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>516.91276575633913</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>5169.127657563391</v>
       </c>
       <c r="AA20" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC20" s="16">
-        <f>ROUND(X20/$AS$6*120,0)</f>
+        <f t="shared" si="28"/>
         <v>75</v>
       </c>
       <c r="AD20" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>7.9631974036974019E-3</v>
       </c>
       <c r="AE20" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>39.719565437732463</v>
       </c>
       <c r="AU20" s="78"/>
@@ -4206,7 +4206,7 @@
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="109" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="109"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="AU26" s="9"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="109"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="107" t="s">
+      <c r="R27" s="110" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -4417,7 +4417,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="107"/>
+      <c r="R28" s="110"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="107"/>
+      <c r="R29" s="110"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -4475,7 +4475,7 @@
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
         <v>6.5722241143608043E-2</v>
       </c>
-      <c r="R30" s="107"/>
+      <c r="R30" s="110"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -4518,7 +4518,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="107"/>
+      <c r="R31" s="110"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -4564,7 +4564,7 @@
         <f>E26*E31+F26*F31</f>
         <v>0</v>
       </c>
-      <c r="R32" s="107"/>
+      <c r="R32" s="110"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="111" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4652,7 +4652,7 @@
       <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+      <c r="A36" s="111"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -5141,7 +5141,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="109"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -5482,7 +5482,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -5651,7 +5651,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -5820,7 +5820,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="109"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="109"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6425,7 +6425,7 @@
       <c r="AQ14" s="35"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="AQ15" s="37"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="109"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="AQ16" s="37"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="109"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="109"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="109"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="109"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="109" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="109"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="109"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="107" t="s">
+      <c r="R27" s="110" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -7327,7 +7327,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="107"/>
+      <c r="R28" s="110"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="107"/>
+      <c r="R29" s="110"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -7381,7 +7381,7 @@
         <f>K27+SUM(I15:I20)+SUM(AJ5:AJ12)</f>
         <v>6.5196256600668162E-2</v>
       </c>
-      <c r="R30" s="107"/>
+      <c r="R30" s="110"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -7422,7 +7422,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="107"/>
+      <c r="R31" s="110"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -7466,7 +7466,7 @@
         <f>E26*E31+F26*F31</f>
         <v>1.2264765171385552E-2</v>
       </c>
-      <c r="R32" s="107"/>
+      <c r="R32" s="110"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -7601,8 +7601,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7625,12 +7625,8 @@
       <c r="E1" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="X1" s="111" t="s">
-        <v>177</v>
-      </c>
+      <c r="W1" s="106"/>
+      <c r="X1" s="107"/>
     </row>
     <row r="2" spans="1:55" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
@@ -7644,15 +7640,11 @@
         <f xml:space="preserve"> 76.1/12*24*3600</f>
         <v>547920</v>
       </c>
-      <c r="W2" s="112">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="X2" s="112">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="4" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -7817,7 +7809,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -7885,9 +7877,8 @@
       <c r="V5">
         <v>2.9373341448569623E-2</v>
       </c>
-      <c r="W5" s="1">
-        <f>$W$2*EXP($X$2*E5)</f>
-        <v>4.6313801257985432E-5</v>
+      <c r="W5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="X5">
         <v>4.0000000000000001E-3</v>
@@ -7917,15 +7908,15 @@
         <v>12.053251888473643</v>
       </c>
       <c r="AF5" s="1">
-        <f>AK5*$AR5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AR5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="1">
-        <f>AK5*$AU5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AU5</f>
         <v>6.0266259442368213</v>
       </c>
       <c r="AH5" s="33">
-        <f>AK5*$AS5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AS5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
@@ -7965,18 +7956,18 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AR5" s="70">
-        <f>(($AQ5/100)*(1+($AP$37+$AU5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ5/100))</f>
+        <f t="shared" ref="AR5:AR12" si="4">(($AQ5/100)*(1+($AP$37+$AU5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ5/100))</f>
         <v>493.49156696102204</v>
       </c>
       <c r="AS5" s="70">
-        <f>$AR5/$X$45</f>
+        <f t="shared" ref="AS5:AS12" si="5">$AR5/$X$45</f>
         <v>4934.91566961022</v>
       </c>
       <c r="AT5" s="15">
         <v>5</v>
       </c>
       <c r="AU5" s="84">
-        <f>$AT5/100/(1-$AV5/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" ref="AU5:AU34" si="6">$AT5/100/(1-$AV5/100)*$X$54*10^6/$X$52</f>
         <v>2941.1764705882351</v>
       </c>
       <c r="AV5" s="84">
@@ -7990,7 +7981,7 @@
         <v>9.1058115591388438E-4</v>
       </c>
       <c r="AY5" s="9">
-        <f>J5*Z5</f>
+        <f t="shared" ref="AY5:AY12" si="7">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
       <c r="AZ5" s="10">
@@ -8003,12 +7994,12 @@
       </c>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M5)^$AW$43</f>
+        <f t="shared" ref="BC5:BC12" si="8">$AX$42*$AW$44*$AW$46*(M5)^$AW$43</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -8019,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="1">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="9">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -8039,7 +8030,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K12" si="2">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="10">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="48">
@@ -8075,9 +8066,8 @@
       <c r="V6">
         <v>3.3993521965748258E-2</v>
       </c>
-      <c r="W6" s="1">
-        <f t="shared" ref="W6:W12" si="3">$W$2*EXP($X$2*E6)</f>
-        <v>2.6776375833009532E-5</v>
+      <c r="W6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="X6">
         <v>4.4000000000000003E-3</v>
@@ -8107,15 +8097,15 @@
         <v>2.918527681859532</v>
       </c>
       <c r="AF6" s="1">
-        <f>AK6*$AR6</f>
+        <f t="shared" si="1"/>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG6" s="1">
-        <f>AK6*$AU6</f>
+        <f t="shared" si="2"/>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH6" s="33">
-        <f>AK6*$AS6</f>
+        <f t="shared" si="3"/>
         <v>4.7926386573102988</v>
       </c>
       <c r="AI6" s="1">
@@ -8127,23 +8117,23 @@
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="4">AI6+AJ6</f>
+        <f t="shared" ref="AK6:AK12" si="11">AI6+AJ6</f>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="5">AI6*0.005</f>
+        <f t="shared" ref="AL6:AM12" si="12">AI6*0.005</f>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="6">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="13">AL6+AM6</f>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO6" s="70">
-        <f t="shared" ref="AO6:AO34" si="7">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
+        <f t="shared" ref="AO6:AO34" si="14">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
         <v>1.1736520592639877E-3</v>
       </c>
       <c r="AP6" s="102">
@@ -8155,18 +8145,18 @@
         <v>6.5</v>
       </c>
       <c r="AR6" s="70">
-        <f>(($AQ6/100)*(1+($AP$37+$AU6)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ6/100))</f>
+        <f t="shared" si="4"/>
         <v>965.96623965762194</v>
       </c>
       <c r="AS6" s="70">
-        <f>$AR6/$X$45</f>
+        <f t="shared" si="5"/>
         <v>9659.6623965762192</v>
       </c>
       <c r="AT6" s="15">
         <v>8</v>
       </c>
       <c r="AU6" s="84">
-        <f>$AT6/100/(1-$AV6/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>7058.8235294117649</v>
       </c>
       <c r="AV6" s="84">
@@ -8180,7 +8170,7 @@
         <v>9.1017858127080242E-4</v>
       </c>
       <c r="AY6" s="9">
-        <f>J6*Z6</f>
+        <f t="shared" si="7"/>
         <v>4.0516000000000007E-3</v>
       </c>
       <c r="AZ6" s="10">
@@ -8193,12 +8183,12 @@
       </c>
       <c r="BB6" s="9"/>
       <c r="BC6" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M6)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="109"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -8209,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -8229,7 +8219,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L7" s="48">
@@ -8266,8 +8256,7 @@
         <v>32</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.5480791541095022E-5</v>
+        <v>4.7804505939809229E-3</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
@@ -8297,15 +8286,15 @@
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF7" s="1">
-        <f>AK7*$AR7</f>
+        <f t="shared" si="1"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG7" s="1">
-        <f>AK7*$AU7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="33">
-        <f>AK7*$AS7</f>
+        <f t="shared" si="3"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI7" s="1">
@@ -8316,27 +8305,27 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO7" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AP7" s="102">
-        <f t="shared" ref="AP7:AP34" si="8">(1-AK7/AO7)*100</f>
+        <f t="shared" ref="AP7:AP34" si="15">(1-AK7/AO7)*100</f>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ7" s="70">
@@ -8344,18 +8333,18 @@
         <v>9.5</v>
       </c>
       <c r="AR7" s="70">
-        <f>(($AQ7/100)*(1+($AP$37+$AU7)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ7/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS7" s="71">
-        <f>$AR7/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT7" s="15">
         <v>0</v>
       </c>
       <c r="AU7" s="84">
-        <f>$AT7/100/(1-$AV7/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV7" s="84">
@@ -8363,29 +8352,29 @@
       </c>
       <c r="AW7" s="9"/>
       <c r="AX7" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
+        <f t="shared" ref="AX7:AX12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
       <c r="AY7" s="9" t="e">
-        <f>J7*Z7</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ7" s="10" t="e">
-        <f>AX7+((AY7-AX7)/$T$53)*F7</f>
+        <f t="shared" ref="AZ7:AZ12" si="17">AX7+((AY7-AX7)/$T$53)*F7</f>
         <v>#VALUE!</v>
       </c>
       <c r="BA7" s="10">
-        <f>$T$49+$T$50*0.3*(L7)^$T$51</f>
+        <f t="shared" ref="BA7:BA12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="BB7" s="9"/>
       <c r="BC7" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M7)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -8396,7 +8385,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -8412,11 +8401,11 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="9">J7-M8</f>
+        <f t="shared" ref="J8:J12" si="19">J7-M8</f>
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L8" s="48">
@@ -8453,8 +8442,7 @@
         <v>32</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="3"/>
-        <v>8.9502368891684043E-6</v>
+        <v>6.4152407049273701E-6</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
@@ -8484,42 +8472,42 @@
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF8" s="1">
-        <f>AK8*$AR8</f>
+        <f t="shared" si="1"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG8" s="1">
-        <f>AK8*$AU8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8" s="33">
-        <f>AK8*$AS8</f>
+        <f t="shared" si="3"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="10">BA8</f>
+        <f t="shared" ref="AI8:AI12" si="20">BA8</f>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO8" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AP8" s="102">
@@ -8531,18 +8519,18 @@
         <v>9.5</v>
       </c>
       <c r="AR8" s="70">
-        <f>(($AQ8/100)*(1+($AP$37+$AU8)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ8/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS8" s="70">
-        <f>$AR8/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT8" s="70">
         <v>0</v>
       </c>
       <c r="AU8" s="84">
-        <f>$AT8/100/(1-$AV8/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV8" s="84">
@@ -8550,29 +8538,29 @@
       </c>
       <c r="AW8" s="9"/>
       <c r="AX8" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T8*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY8" s="9" t="e">
-        <f>J8*Z8</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ8" s="10" t="e">
-        <f>AX8+((AY8-AX8)/$T$53)*F8</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA8" s="10">
-        <f>$T$49+$T$50*0.3*(L8)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="BB8" s="9"/>
       <c r="BC8" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M8)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -8583,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -8599,11 +8587,11 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L9" s="48">
@@ -8640,8 +8628,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="3"/>
-        <v>5.1745894361784425E-6</v>
+        <v>2.3349332116543619E-6</v>
       </c>
       <c r="X9" t="s">
         <v>32</v>
@@ -8671,46 +8658,46 @@
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF9" s="1">
-        <f>AK9*$AR9</f>
+        <f t="shared" si="1"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG9" s="1">
-        <f>AK9*$AU9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="33">
-        <f>AK9*$AS9</f>
+        <f t="shared" si="3"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO9" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AP9" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ9" s="70">
@@ -8718,18 +8705,18 @@
         <v>9.5</v>
       </c>
       <c r="AR9" s="70">
-        <f>(($AQ9/100)*(1+($AP$37+$AU9)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ9/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS9" s="70">
-        <f>$AR9/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT9" s="70">
         <v>0</v>
       </c>
       <c r="AU9" s="84">
-        <f>$AT9/100/(1-$AV9/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV9" s="84">
@@ -8737,29 +8724,29 @@
       </c>
       <c r="AW9" s="9"/>
       <c r="AX9" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T9*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY9" s="9" t="e">
-        <f>J9*Z9</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ9" s="10" t="e">
-        <f>AX9+((AY9-AX9)/$T$53)*F9</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA9" s="10">
-        <f>$T$49+$T$50*0.3*(L9)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M9)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -8770,7 +8757,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -8786,11 +8773,11 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L10" s="48">
@@ -8827,8 +8814,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9916946517264094E-6</v>
+        <v>9.1658819653476345E-7</v>
       </c>
       <c r="X10" t="s">
         <v>32</v>
@@ -8858,46 +8844,46 @@
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF10" s="1">
-        <f>AK10*$AR10</f>
+        <f t="shared" si="1"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG10" s="1">
-        <f>AK10*$AU10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="33">
-        <f>AK10*$AS10</f>
+        <f t="shared" si="3"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO10" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AP10" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ10" s="70">
@@ -8905,18 +8891,18 @@
         <v>9.5</v>
       </c>
       <c r="AR10" s="70">
-        <f>(($AQ10/100)*(1+($AP$37+$AU10)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ10/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS10" s="70">
-        <f>$AR10/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT10" s="70">
         <v>0</v>
       </c>
       <c r="AU10" s="84">
-        <f>$AT10/100/(1-$AV10/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV10" s="84">
@@ -8924,29 +8910,29 @@
       </c>
       <c r="AW10" s="9"/>
       <c r="AX10" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T10*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY10" s="9" t="e">
-        <f>J10*Z10</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ10" s="10" t="e">
-        <f>AX10+((AY10-AX10)/$T$53)*F10</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA10" s="10">
-        <f>$T$49+$T$50*0.3*(L10)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M10)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="109"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -8957,7 +8943,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -8973,11 +8959,11 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L11" s="49">
@@ -9014,8 +9000,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7296515983649451E-6</v>
+        <v>3.8709515855680863E-7</v>
       </c>
       <c r="X11" t="s">
         <v>32</v>
@@ -9045,46 +9030,46 @@
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f>AK11*$AR11</f>
+        <f t="shared" si="1"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG11" s="1">
-        <f>AK11*$AU11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="33">
-        <f>AK11*$AS11</f>
+        <f t="shared" si="3"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO11" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AP11" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ11" s="70">
@@ -9092,18 +9077,18 @@
         <v>9.5</v>
       </c>
       <c r="AR11" s="70">
-        <f>(($AQ11/100)*(1+($AP$37+$AU11)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ11/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS11" s="70">
-        <f>$AR11/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT11" s="70">
         <v>0</v>
       </c>
       <c r="AU11" s="84">
-        <f>$AT11/100/(1-$AV11/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV11" s="84">
@@ -9111,29 +9096,29 @@
       </c>
       <c r="AW11" s="9"/>
       <c r="AX11" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T11*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY11" s="9" t="e">
-        <f>J11*Z11</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ11" s="10" t="e">
-        <f>AX11+((AY11-AX11)/$T$53)*F11</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA11" s="10">
-        <f>$T$49+$T$50*0.3*(L11)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="BB11" s="9"/>
       <c r="BC11" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M11)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="109"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -9160,11 +9145,11 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.894E-2</v>
       </c>
       <c r="L12" s="49">
@@ -9201,8 +9186,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="X12" t="s">
         <v>32</v>
@@ -9232,46 +9216,46 @@
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF12" s="1">
-        <f>AK12*$AR12</f>
+        <f t="shared" si="1"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG12" s="1">
-        <f>AK12*$AU12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="33">
-        <f>AK12*$AS12</f>
+        <f t="shared" si="3"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO12" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AP12" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ12" s="70">
@@ -9279,18 +9263,18 @@
         <v>9.5</v>
       </c>
       <c r="AR12" s="70">
-        <f>(($AQ12/100)*(1+($AP$37+$AU12)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ12/100))</f>
+        <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS12" s="70">
-        <f>$AR12/$X$45</f>
+        <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT12" s="70">
         <v>0</v>
       </c>
       <c r="AU12" s="84">
-        <f>$AT12/100/(1-$AV12/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV12" s="84">
@@ -9298,29 +9282,29 @@
       </c>
       <c r="AW12" s="9"/>
       <c r="AX12" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T12*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY12" s="9" t="e">
-        <f>J12*Z12</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ12" s="10" t="e">
-        <f>AX12+((AY12-AX12)/$T$53)*F12</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA12" s="10">
-        <f>$T$49+$T$50*0.3*(L12)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="BB12" s="9"/>
       <c r="BC12" s="9">
-        <f>$AX$42*$AW$44*$AW$46*(M12)^$AW$43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="109"/>
       <c r="B13">
         <f>B6</f>
         <v>1</v>
@@ -9337,159 +9321,159 @@
         <v>3287520</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AN19" si="11">F6</f>
+        <f t="shared" ref="F13:AN19" si="21">F6</f>
         <v>776406</v>
       </c>
       <c r="G13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="J13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="N13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3600</v>
       </c>
       <c r="O13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.1331</v>
       </c>
       <c r="U13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.9106478034251738E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.3993521965748258E-2</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13" si="12">W6</f>
-        <v>2.6776375833009532E-5</v>
+      <c r="W13" s="1" t="str">
+        <f t="shared" ref="W13" si="22">W6</f>
+        <v>NA</v>
       </c>
       <c r="X13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.918527681859532</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG13">
-        <f t="shared" ref="AG13" si="13">AG6</f>
+        <f t="shared" ref="AG13" si="23">AG6</f>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.7926386573102988</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.9598090847580579E-4</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO13" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.1736520592639877E-3</v>
       </c>
       <c r="AP13" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>57.725997070438204</v>
       </c>
       <c r="AQ13" s="70">
-        <f t="shared" ref="AQ13" si="14">AQ6</f>
+        <f t="shared" ref="AQ13" si="24">AQ6</f>
         <v>6.5</v>
       </c>
       <c r="AR13" s="70">
-        <f t="shared" ref="AR13" si="15">AR6</f>
+        <f t="shared" ref="AR13" si="25">AR6</f>
         <v>965.96623965762194</v>
       </c>
       <c r="AS13" s="70">
@@ -9500,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="84">
-        <f>$AT13/100/(1-$AV13/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV13" s="84">
@@ -9516,192 +9500,192 @@
       <c r="BC13" s="9"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="109"/>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="16">B7</f>
+        <f t="shared" ref="B14:B19" si="26">B7</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="17">D7-3</f>
+        <f t="shared" ref="D14:D19" si="27">D7-3</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:T18" si="18">E7</f>
+        <f t="shared" ref="E14:T18" si="28">E7</f>
         <v>2739600</v>
       </c>
       <c r="F14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>True</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>False</v>
       </c>
       <c r="J14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.894E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.894E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" ref="W14" si="19">W7</f>
-        <v>1.5480791541095022E-5</v>
+        <f t="shared" ref="W14" si="29">W7</f>
+        <v>4.7804505939809229E-3</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG14">
-        <f t="shared" ref="AG14" si="20">AG7</f>
+        <f t="shared" ref="AG14" si="30">AG7</f>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO14" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AP14" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ14" s="70">
-        <f t="shared" ref="AQ14:AS14" si="21">AQ7</f>
+        <f t="shared" ref="AQ14:AS14" si="31">AQ7</f>
         <v>9.5</v>
       </c>
       <c r="AR14" s="70">
-        <f t="shared" ref="AR14" si="22">AR7</f>
+        <f t="shared" ref="AR14" si="32">AR7</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS14" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT14" s="70">
-        <f t="shared" ref="AT14" si="23">AT7</f>
+        <f t="shared" ref="AT14" si="33">AT7</f>
         <v>0</v>
       </c>
       <c r="AU14" s="84">
-        <f>$AT14/100/(1-$AV14/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV14" s="84">
-        <f t="shared" ref="AV14:AV19" si="24">AV7</f>
+        <f t="shared" ref="AV14:AV19" si="34">AV7</f>
         <v>68</v>
       </c>
       <c r="AW14" s="9"/>
@@ -9713,192 +9697,192 @@
       <c r="BC14" s="9"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2191680</v>
       </c>
       <c r="F15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15" si="25">W8</f>
-        <v>8.9502368891684043E-6</v>
+        <f t="shared" ref="W15" si="35">W8</f>
+        <v>6.4152407049273701E-6</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15" si="26">AG8</f>
+        <f t="shared" ref="AG15" si="36">AG8</f>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO15" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AP15" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ15" s="70">
-        <f t="shared" ref="AQ15:AS15" si="27">AQ8</f>
+        <f t="shared" ref="AQ15:AS15" si="37">AQ8</f>
         <v>9.5</v>
       </c>
       <c r="AR15" s="70">
-        <f t="shared" ref="AR15" si="28">AR8</f>
+        <f t="shared" ref="AR15" si="38">AR8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS15" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT15" s="70">
-        <f t="shared" ref="AT15" si="29">AT8</f>
+        <f t="shared" ref="AT15" si="39">AT8</f>
         <v>0</v>
       </c>
       <c r="AU15" s="84">
-        <f>$AT15/100/(1-$AV15/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV15" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AW15" s="9"/>
@@ -9910,192 +9894,192 @@
       <c r="BC15" s="9"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="109"/>
       <c r="B16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1643760</v>
       </c>
       <c r="F16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.1E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16" si="30">W9</f>
-        <v>5.1745894361784425E-6</v>
+        <f t="shared" ref="W16" si="40">W9</f>
+        <v>2.3349332116543619E-6</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16" si="31">AG9</f>
+        <f t="shared" ref="AG16" si="41">AG9</f>
         <v>0</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO16" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AP16" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ16" s="70">
-        <f t="shared" ref="AQ16:AS16" si="32">AQ9</f>
+        <f t="shared" ref="AQ16:AS16" si="42">AQ9</f>
         <v>9.5</v>
       </c>
       <c r="AR16" s="70">
-        <f t="shared" ref="AR16" si="33">AR9</f>
+        <f t="shared" ref="AR16" si="43">AR9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS16" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT16" s="70">
-        <f t="shared" ref="AT16" si="34">AT9</f>
+        <f t="shared" ref="AT16" si="44">AT9</f>
         <v>0</v>
       </c>
       <c r="AU16" s="84">
-        <f>$AT16/100/(1-$AV16/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV16" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AW16" s="9"/>
@@ -10107,192 +10091,192 @@
       <c r="BC16" s="9"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="109"/>
       <c r="B17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1095840</v>
       </c>
       <c r="F17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="35">W10</f>
-        <v>2.9916946517264094E-6</v>
+        <f t="shared" ref="W17" si="45">W10</f>
+        <v>9.1658819653476345E-7</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="36">AG10</f>
+        <f t="shared" ref="AG17" si="46">AG10</f>
         <v>0</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO17" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AP17" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ17" s="70">
-        <f t="shared" ref="AQ17:AS17" si="37">AQ10</f>
+        <f t="shared" ref="AQ17:AS17" si="47">AQ10</f>
         <v>9.5</v>
       </c>
       <c r="AR17" s="70">
-        <f t="shared" ref="AR17" si="38">AR10</f>
+        <f t="shared" ref="AR17" si="48">AR10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS17" s="70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT17" s="70">
-        <f t="shared" ref="AT17" si="39">AT10</f>
+        <f t="shared" ref="AT17" si="49">AT10</f>
         <v>0</v>
       </c>
       <c r="AU17" s="84">
-        <f>$AT17/100/(1-$AV17/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV17" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AW17" s="9"/>
@@ -10304,192 +10288,192 @@
       <c r="BC17" s="9"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="109"/>
       <c r="B18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>547920</v>
       </c>
       <c r="F18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18" si="40">W11</f>
-        <v>1.7296515983649451E-6</v>
+        <f t="shared" ref="W18" si="50">W11</f>
+        <v>3.8709515855680863E-7</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18" si="41">AG11</f>
+        <f t="shared" ref="AG18" si="51">AG11</f>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO18" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AP18" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ18" s="70">
-        <f t="shared" ref="AQ18:AS18" si="42">AQ11</f>
+        <f t="shared" ref="AQ18:AS18" si="52">AQ11</f>
         <v>9.5</v>
       </c>
       <c r="AR18" s="70">
-        <f t="shared" ref="AR18" si="43">AR11</f>
+        <f t="shared" ref="AR18" si="53">AR11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS18" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT18" s="70">
-        <f t="shared" ref="AT18" si="44">AT11</f>
+        <f t="shared" ref="AT18" si="54">AT11</f>
         <v>0</v>
       </c>
       <c r="AU18" s="84">
-        <f>$AT18/100/(1-$AV18/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV18" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AW18" s="9"/>
@@ -10501,16 +10485,16 @@
       <c r="BC18" s="9"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="109"/>
       <c r="B19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="E19">
@@ -10518,175 +10502,175 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="45">W12</f>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" ref="W19" si="55">W12</f>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG19">
-        <f t="shared" ref="AG19" si="46">AG12</f>
+        <f t="shared" ref="AG19" si="56">AG12</f>
         <v>0</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO19" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AP19" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ19" s="70">
-        <f t="shared" ref="AQ19:AS19" si="47">AQ12</f>
+        <f t="shared" ref="AQ19:AS19" si="57">AQ12</f>
         <v>9.5</v>
       </c>
       <c r="AR19" s="70">
-        <f t="shared" ref="AR19" si="48">AR12</f>
+        <f t="shared" ref="AR19" si="58">AR12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS19" s="70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT19" s="70">
-        <f t="shared" ref="AT19" si="49">AT12</f>
+        <f t="shared" ref="AT19" si="59">AT12</f>
         <v>0</v>
       </c>
       <c r="AU19" s="84">
-        <f>$AT19/100/(1-$AV19/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV19" s="84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AW19" s="9"/>
@@ -10698,7 +10682,7 @@
       <c r="BC19" s="9"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="109"/>
       <c r="B20">
         <f>B7</f>
         <v>1</v>
@@ -10715,171 +10699,171 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AN25" si="50">F7</f>
+        <f t="shared" ref="F20:AN25" si="60">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="51">W7</f>
-        <v>1.5480791541095022E-5</v>
+        <f t="shared" ref="W20" si="61">W7</f>
+        <v>4.7804505939809229E-3</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20" si="52">AG7</f>
+        <f t="shared" ref="AG20" si="62">AG7</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO20" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AP20" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ20" s="70">
-        <f t="shared" ref="AQ20:AS20" si="53">AQ7</f>
+        <f t="shared" ref="AQ20:AS20" si="63">AQ7</f>
         <v>9.5</v>
       </c>
       <c r="AR20" s="70">
-        <f t="shared" ref="AR20" si="54">AR7</f>
+        <f t="shared" ref="AR20" si="64">AR7</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS20" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT20" s="70">
-        <f t="shared" ref="AT20" si="55">AT7</f>
+        <f t="shared" ref="AT20" si="65">AT7</f>
         <v>0</v>
       </c>
       <c r="AU20" s="84">
-        <f>$AT20/100/(1-$AV20/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV20" s="84">
@@ -10895,192 +10879,192 @@
       <c r="BC20" s="9"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="109"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="56">B8</f>
+        <f t="shared" ref="B21:B34" si="66">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="57">D8-4</f>
+        <f t="shared" ref="D21:D25" si="67">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="58">E8</f>
+        <f t="shared" ref="E21:T25" si="68">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21" si="59">W8</f>
-        <v>8.9502368891684043E-6</v>
+        <f t="shared" ref="W21" si="69">W8</f>
+        <v>6.4152407049273701E-6</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG21">
-        <f t="shared" ref="AG21" si="60">AG8</f>
+        <f t="shared" ref="AG21" si="70">AG8</f>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO21" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AP21" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ21" s="70">
-        <f t="shared" ref="AQ21:AS21" si="61">AQ8</f>
+        <f t="shared" ref="AQ21:AS21" si="71">AQ8</f>
         <v>9.5</v>
       </c>
       <c r="AR21" s="70">
-        <f t="shared" ref="AR21" si="62">AR8</f>
+        <f t="shared" ref="AR21" si="72">AR8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS21" s="70">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT21" s="70">
-        <f t="shared" ref="AT21" si="63">AT8</f>
+        <f t="shared" ref="AT21" si="73">AT8</f>
         <v>0</v>
       </c>
       <c r="AU21" s="84">
-        <f>$AT21/100/(1-$AV21/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV21" s="84">
-        <f t="shared" ref="AV21:AV25" si="64">AV8</f>
+        <f t="shared" ref="AV21:AV25" si="74">AV8</f>
         <v>68</v>
       </c>
       <c r="AW21" s="9"/>
@@ -11092,192 +11076,192 @@
       <c r="BC21" s="9"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="109"/>
       <c r="B22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>1643760</v>
       </c>
       <c r="F22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>3.1E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22" si="65">W9</f>
-        <v>5.1745894361784425E-6</v>
+        <f t="shared" ref="W22" si="75">W9</f>
+        <v>2.3349332116543619E-6</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22" si="66">AG9</f>
+        <f t="shared" ref="AG22" si="76">AG9</f>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO22" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AP22" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ22" s="70">
-        <f t="shared" ref="AQ22:AS22" si="67">AQ9</f>
+        <f t="shared" ref="AQ22:AS22" si="77">AQ9</f>
         <v>9.5</v>
       </c>
       <c r="AR22" s="70">
-        <f t="shared" ref="AR22" si="68">AR9</f>
+        <f t="shared" ref="AR22" si="78">AR9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS22" s="70">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT22" s="70">
-        <f t="shared" ref="AT22" si="69">AT9</f>
+        <f t="shared" ref="AT22" si="79">AT9</f>
         <v>0</v>
       </c>
       <c r="AU22" s="84">
-        <f>$AT22/100/(1-$AV22/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV22" s="84">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="AW22" s="9"/>
@@ -11289,192 +11273,192 @@
       <c r="BC22" s="9"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="109"/>
       <c r="B23">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>1095840</v>
       </c>
       <c r="F23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ref="W23" si="70">W10</f>
-        <v>2.9916946517264094E-6</v>
+        <f t="shared" ref="W23" si="80">W10</f>
+        <v>9.1658819653476345E-7</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23" si="71">AG10</f>
+        <f t="shared" ref="AG23" si="81">AG10</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO23" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AP23" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ23" s="70">
-        <f t="shared" ref="AQ23:AS23" si="72">AQ10</f>
+        <f t="shared" ref="AQ23:AS23" si="82">AQ10</f>
         <v>9.5</v>
       </c>
       <c r="AR23" s="70">
-        <f t="shared" ref="AR23" si="73">AR10</f>
+        <f t="shared" ref="AR23" si="83">AR10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS23" s="70">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT23" s="70">
-        <f t="shared" ref="AT23" si="74">AT10</f>
+        <f t="shared" ref="AT23" si="84">AT10</f>
         <v>0</v>
       </c>
       <c r="AU23" s="84">
-        <f>$AT23/100/(1-$AV23/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV23" s="84">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="AW23" s="9"/>
@@ -11486,192 +11470,192 @@
       <c r="BC23" s="9"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="109"/>
       <c r="B24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>547920</v>
       </c>
       <c r="F24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24" si="75">W11</f>
-        <v>1.7296515983649451E-6</v>
+        <f t="shared" ref="W24" si="85">W11</f>
+        <v>3.8709515855680863E-7</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG24">
-        <f t="shared" ref="AG24" si="76">AG11</f>
+        <f t="shared" ref="AG24" si="86">AG11</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO24" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AP24" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ24" s="70">
-        <f t="shared" ref="AQ24:AS24" si="77">AQ11</f>
+        <f t="shared" ref="AQ24:AS24" si="87">AQ11</f>
         <v>9.5</v>
       </c>
       <c r="AR24" s="70">
-        <f t="shared" ref="AR24" si="78">AR11</f>
+        <f t="shared" ref="AR24" si="88">AR11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS24" s="70">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT24" s="70">
-        <f t="shared" ref="AT24" si="79">AT11</f>
+        <f t="shared" ref="AT24" si="89">AT11</f>
         <v>0</v>
       </c>
       <c r="AU24" s="84">
-        <f>$AT24/100/(1-$AV24/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV24" s="84">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="AW24" s="9"/>
@@ -11683,192 +11667,192 @@
       <c r="BC24" s="9"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
+      <c r="A25" s="109"/>
       <c r="B25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>True</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="J25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.894E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ref="W25" si="80">W12</f>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" ref="W25" si="90">W12</f>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>False</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25" si="81">AG12</f>
+        <f t="shared" ref="AG25" si="91">AG12</f>
         <v>0</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO25" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AP25" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ25" s="70">
-        <f t="shared" ref="AQ25:AS25" si="82">AQ12</f>
+        <f t="shared" ref="AQ25:AS25" si="92">AQ12</f>
         <v>9.5</v>
       </c>
       <c r="AR25" s="70">
-        <f t="shared" ref="AR25" si="83">AR12</f>
+        <f t="shared" ref="AR25" si="93">AR12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS25" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT25" s="70">
-        <f t="shared" ref="AT25" si="84">AT12</f>
+        <f t="shared" ref="AT25" si="94">AT12</f>
         <v>0</v>
       </c>
       <c r="AU25" s="84">
-        <f>$AT25/100/(1-$AV25/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV25" s="84">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="AW25" s="9"/>
@@ -11880,9 +11864,9 @@
       <c r="BC25" s="9"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="109"/>
       <c r="B26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -11897,171 +11881,171 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AN30" si="85">F8</f>
+        <f t="shared" ref="F26:AN30" si="95">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="86">W8</f>
-        <v>8.9502368891684043E-6</v>
+        <f t="shared" ref="W26" si="96">W8</f>
+        <v>6.4152407049273701E-6</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="87">AG8</f>
+        <f t="shared" ref="AG26" si="97">AG8</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO26" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AP26" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ26" s="70">
-        <f t="shared" ref="AQ26:AS26" si="88">AQ8</f>
+        <f t="shared" ref="AQ26:AS26" si="98">AQ8</f>
         <v>9.5</v>
       </c>
       <c r="AR26" s="70">
-        <f t="shared" ref="AR26" si="89">AR8</f>
+        <f t="shared" ref="AR26" si="99">AR8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS26" s="70">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT26" s="70">
-        <f t="shared" ref="AT26" si="90">AT8</f>
+        <f t="shared" ref="AT26" si="100">AT8</f>
         <v>0</v>
       </c>
       <c r="AU26" s="84">
-        <f>$AT26/100/(1-$AV26/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV26" s="84">
@@ -12077,192 +12061,192 @@
       <c r="BC26" s="9"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="109"/>
       <c r="B27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="91">D9-5</f>
+        <f t="shared" ref="D27:D30" si="101">D9-5</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T30" si="92">E9</f>
+        <f t="shared" ref="E27:T30" si="102">E9</f>
         <v>1643760</v>
       </c>
       <c r="F27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>True</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>False</v>
       </c>
       <c r="J27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>2.894E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>2.894E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>3.1E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>NA</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="93">W9</f>
-        <v>5.1745894361784425E-6</v>
+        <f t="shared" ref="W27" si="103">W9</f>
+        <v>2.3349332116543619E-6</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27" si="94">AG9</f>
+        <f t="shared" ref="AG27" si="104">AG9</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO27" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AP27" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ27" s="70">
-        <f t="shared" ref="AQ27:AS27" si="95">AQ9</f>
+        <f t="shared" ref="AQ27:AS27" si="105">AQ9</f>
         <v>9.5</v>
       </c>
       <c r="AR27" s="70">
-        <f t="shared" ref="AR27" si="96">AR9</f>
+        <f t="shared" ref="AR27" si="106">AR9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS27" s="70">
-        <f t="shared" si="95"/>
+        <f t="shared" si="105"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT27" s="70">
-        <f t="shared" ref="AT27" si="97">AT9</f>
+        <f t="shared" ref="AT27" si="107">AT9</f>
         <v>0</v>
       </c>
       <c r="AU27" s="84">
-        <f>$AT27/100/(1-$AV27/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV27" s="84">
-        <f t="shared" ref="AV27:AV30" si="98">AV9</f>
+        <f t="shared" ref="AV27:AV30" si="108">AV9</f>
         <v>68</v>
       </c>
       <c r="AW27" s="9"/>
@@ -12274,192 +12258,192 @@
       <c r="BC27" s="9"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
+      <c r="A28" s="109"/>
       <c r="B28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
       <c r="D28">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>1095840</v>
       </c>
       <c r="F28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>True</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="J28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28" si="99">W10</f>
-        <v>2.9916946517264094E-6</v>
+        <f t="shared" ref="W28" si="109">W10</f>
+        <v>9.1658819653476345E-7</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG28">
-        <f t="shared" ref="AG28" si="100">AG10</f>
+        <f t="shared" ref="AG28" si="110">AG10</f>
         <v>0</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO28" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AP28" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ28" s="70">
-        <f t="shared" ref="AQ28:AS28" si="101">AQ10</f>
+        <f t="shared" ref="AQ28:AS28" si="111">AQ10</f>
         <v>9.5</v>
       </c>
       <c r="AR28" s="70">
-        <f t="shared" ref="AR28" si="102">AR10</f>
+        <f t="shared" ref="AR28" si="112">AR10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS28" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT28" s="70">
-        <f t="shared" ref="AT28" si="103">AT10</f>
+        <f t="shared" ref="AT28" si="113">AT10</f>
         <v>0</v>
       </c>
       <c r="AU28" s="84">
-        <f>$AT28/100/(1-$AV28/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV28" s="84">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AW28" s="9"/>
@@ -12471,192 +12455,192 @@
       <c r="BC28" s="9"/>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="109"/>
       <c r="B29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="104">W11</f>
-        <v>1.7296515983649451E-6</v>
+        <f t="shared" ref="W29" si="114">W11</f>
+        <v>3.8709515855680863E-7</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29" si="105">AG11</f>
+        <f t="shared" ref="AG29" si="115">AG11</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO29" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AP29" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ29" s="70">
-        <f t="shared" ref="AQ29:AS29" si="106">AQ11</f>
+        <f t="shared" ref="AQ29:AS29" si="116">AQ11</f>
         <v>9.5</v>
       </c>
       <c r="AR29" s="70">
-        <f t="shared" ref="AR29" si="107">AR11</f>
+        <f t="shared" ref="AR29" si="117">AR11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS29" s="70">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT29" s="70">
-        <f t="shared" ref="AT29" si="108">AT11</f>
+        <f t="shared" ref="AT29" si="118">AT11</f>
         <v>0</v>
       </c>
       <c r="AU29" s="84">
-        <f>$AT29/100/(1-$AV29/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV29" s="84">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AW29" s="9"/>
@@ -12668,192 +12652,192 @@
       <c r="BC29" s="9"/>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="109"/>
       <c r="B30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>True</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="J30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.894E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="109">W12</f>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" ref="W30" si="119">W12</f>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>NA</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>False</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG30">
-        <f t="shared" ref="AG30" si="110">AG12</f>
+        <f t="shared" ref="AG30" si="120">AG12</f>
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO30" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AP30" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ30" s="70">
-        <f t="shared" ref="AQ30:AS30" si="111">AQ12</f>
+        <f t="shared" ref="AQ30:AS30" si="121">AQ12</f>
         <v>9.5</v>
       </c>
       <c r="AR30" s="70">
-        <f t="shared" ref="AR30" si="112">AR12</f>
+        <f t="shared" ref="AR30" si="122">AR12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS30" s="70">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT30" s="70">
-        <f t="shared" ref="AT30" si="113">AT12</f>
+        <f t="shared" ref="AT30" si="123">AT12</f>
         <v>0</v>
       </c>
       <c r="AU30" s="84">
-        <f>$AT30/100/(1-$AV30/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV30" s="84">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AW30" s="9"/>
@@ -12865,9 +12849,9 @@
       <c r="BC30" s="9"/>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="109"/>
       <c r="B31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -12882,171 +12866,171 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AN34" si="114">F9</f>
+        <f t="shared" ref="F31:AN34" si="124">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" si="115">W9</f>
-        <v>5.1745894361784425E-6</v>
+        <f t="shared" ref="W31" si="125">W9</f>
+        <v>2.3349332116543619E-6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="116">AG9</f>
+        <f t="shared" ref="AG31" si="126">AG9</f>
         <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO31" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AP31" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ31" s="70">
-        <f t="shared" ref="AQ31:AS31" si="117">AQ9</f>
+        <f t="shared" ref="AQ31:AS31" si="127">AQ9</f>
         <v>9.5</v>
       </c>
       <c r="AR31" s="70">
-        <f t="shared" ref="AR31" si="118">AR9</f>
+        <f t="shared" ref="AR31" si="128">AR9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS31" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT31" s="70">
-        <f t="shared" ref="AT31" si="119">AT9</f>
+        <f t="shared" ref="AT31" si="129">AT9</f>
         <v>0</v>
       </c>
       <c r="AU31" s="84">
-        <f>$AT31/100/(1-$AV31/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV31" s="84">
@@ -13062,192 +13046,192 @@
       <c r="BC31" s="9"/>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="109"/>
       <c r="B32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="120">D10-6</f>
+        <f t="shared" ref="D32:D34" si="130">D10-6</f>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:T34" si="121">E10</f>
+        <f t="shared" ref="E32:T34" si="131">E10</f>
         <v>1095840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>True</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>False</v>
       </c>
       <c r="J32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>2.894E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>2.894E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>NA</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ref="W32" si="122">W10</f>
-        <v>2.9916946517264094E-6</v>
+        <f t="shared" ref="W32" si="132">W10</f>
+        <v>9.1658819653476345E-7</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG32">
-        <f t="shared" ref="AG32" si="123">AG10</f>
+        <f t="shared" ref="AG32" si="133">AG10</f>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO32" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AP32" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ32" s="70">
-        <f t="shared" ref="AQ32:AS32" si="124">AQ10</f>
+        <f t="shared" ref="AQ32:AS32" si="134">AQ10</f>
         <v>9.5</v>
       </c>
       <c r="AR32" s="70">
-        <f t="shared" ref="AR32" si="125">AR10</f>
+        <f t="shared" ref="AR32" si="135">AR10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS32" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT32" s="70">
-        <f t="shared" ref="AT32" si="126">AT10</f>
+        <f t="shared" ref="AT32" si="136">AT10</f>
         <v>0</v>
       </c>
       <c r="AU32" s="84">
-        <f>$AT32/100/(1-$AV32/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV32" s="84">
-        <f t="shared" ref="AV32:AV34" si="127">AV17</f>
+        <f t="shared" ref="AV32:AV34" si="137">AV17</f>
         <v>68</v>
       </c>
       <c r="AW32" s="9"/>
@@ -13259,192 +13243,192 @@
       <c r="BC32" s="9"/>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="109"/>
       <c r="B33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>547920</v>
       </c>
       <c r="F33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>True</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="J33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" ref="W33" si="128">W11</f>
-        <v>1.7296515983649451E-6</v>
+        <f t="shared" ref="W33" si="138">W11</f>
+        <v>3.8709515855680863E-7</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG33">
-        <f t="shared" ref="AG33" si="129">AG11</f>
+        <f t="shared" ref="AG33" si="139">AG11</f>
         <v>0</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO33" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AP33" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ33" s="70">
-        <f t="shared" ref="AQ33:AS33" si="130">AQ11</f>
+        <f t="shared" ref="AQ33:AS33" si="140">AQ11</f>
         <v>9.5</v>
       </c>
       <c r="AR33" s="70">
-        <f t="shared" ref="AR33" si="131">AR11</f>
+        <f t="shared" ref="AR33" si="141">AR11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS33" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT33" s="70">
-        <f t="shared" ref="AT33" si="132">AT11</f>
+        <f t="shared" ref="AT33" si="142">AT11</f>
         <v>0</v>
       </c>
       <c r="AU33" s="84">
-        <f>$AT33/100/(1-$AV33/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV33" s="84">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>68</v>
       </c>
       <c r="AW33" s="9"/>
@@ -13456,192 +13440,192 @@
       <c r="BC33" s="9"/>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="109"/>
       <c r="B34">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
       </c>
       <c r="D34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>True</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="J34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.894E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" ref="W34" si="133">W12</f>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" ref="W34" si="143">W12</f>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>NA</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>False</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG34">
-        <f t="shared" ref="AG34" si="134">AG12</f>
+        <f t="shared" ref="AG34" si="144">AG12</f>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO34" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AP34" s="103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AQ34" s="73">
-        <f t="shared" ref="AQ34:AS34" si="135">AQ12</f>
+        <f t="shared" ref="AQ34:AS34" si="145">AQ12</f>
         <v>9.5</v>
       </c>
       <c r="AR34" s="73">
-        <f t="shared" ref="AR34" si="136">AR12</f>
+        <f t="shared" ref="AR34" si="146">AR12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AS34" s="73">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AT34" s="73">
-        <f t="shared" ref="AT34" si="137">AT12</f>
+        <f t="shared" ref="AT34" si="147">AT12</f>
         <v>0</v>
       </c>
       <c r="AU34" s="84">
-        <f>$AT34/100/(1-$AV34/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV34" s="84">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>68</v>
       </c>
       <c r="AW34" s="9"/>
@@ -13665,7 +13649,7 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="109" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -13767,7 +13751,7 @@
       <c r="AU36" s="51"/>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+      <c r="A37" s="109"/>
       <c r="B37">
         <v>1</v>
       </c>
@@ -13806,22 +13790,22 @@
         <v>1.2096740612871526</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="138">J37*$X37</f>
+        <f t="shared" ref="M37:M42" si="148">J37*$X37</f>
         <v>12.096740612871526</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="139">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="149">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="140">J37*$AB$38</f>
+        <f t="shared" ref="O37:O42" si="150">J37*$AB$38</f>
         <v>17.255327038416706</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="141">J37*$AC37</f>
+        <f t="shared" ref="Q37:Q42" si="151">J37*$AC37</f>
         <v>0.14960368542307284</v>
       </c>
       <c r="R37">
@@ -13843,7 +13827,7 @@
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="142">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="152">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -13857,14 +13841,14 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="143">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="153">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f>ROUND(X37/$AS$6*$AC$45,0)</f>
+        <f t="shared" ref="AC37:AC42" si="154">ROUND(X37/$AS$6*$AC$45,0)</f>
         <v>51</v>
       </c>
       <c r="AD37" s="15">
@@ -13894,7 +13878,7 @@
       <c r="AU37" s="97"/>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="109"/>
       <c r="B38">
         <v>1</v>
       </c>
@@ -13925,7 +13909,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="144">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="155">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -13933,22 +13917,22 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>2.0231970075485135</v>
       </c>
       <c r="N38">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>2.5649999999999999E-2</v>
       </c>
       <c r="R38">
@@ -13970,7 +13954,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -13984,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -13992,15 +13976,15 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f>ROUND(X38/$AS$6*$AC$45,0)</f>
+        <f t="shared" si="154"/>
         <v>15</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="145">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="156">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="146">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="157">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
@@ -14022,7 +14006,7 @@
       <c r="AU38" s="98"/>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
+      <c r="A39" s="109"/>
       <c r="B39">
         <v>1</v>
       </c>
@@ -14052,30 +14036,30 @@
         <v>5.2983708800493851E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="144"/>
+        <f t="shared" si="155"/>
         <v>2.6491854400246927E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="147">J39*$W39</f>
+        <f t="shared" ref="L39:L42" si="158">J39*$W39</f>
         <v>2.5887478676102722</v>
       </c>
       <c r="M39">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>25.887478676102717</v>
       </c>
       <c r="N39">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>31.166887529702265</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>0.3232006236830125</v>
       </c>
       <c r="R39">
@@ -14097,38 +14081,38 @@
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="148">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="159">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f>ROUND(X39/$AS$6*$AC$45,0)</f>
+        <f t="shared" si="154"/>
         <v>61</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>8.8574797085881011E-3</v>
       </c>
       <c r="AE39" s="71">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>40.181958589053821</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
+      <c r="A40" s="109"/>
       <c r="B40">
         <v>1</v>
       </c>
@@ -14158,30 +14142,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="144"/>
+        <f t="shared" si="155"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>3.8263355734467188</v>
       </c>
       <c r="N40">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>6.7058823529411775</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>4.7880000000000006E-2</v>
       </c>
       <c r="R40">
@@ -14203,11 +14187,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14218,22 +14202,22 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f>ROUND(X40/$AS$6*$AC$45,0)</f>
+        <f t="shared" si="154"/>
         <v>21</v>
       </c>
       <c r="AD40" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>3.0576333839599777E-3</v>
       </c>
       <c r="AE40" s="71">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="109"/>
       <c r="B41">
         <v>1</v>
       </c>
@@ -14263,30 +14247,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="144"/>
+        <f t="shared" si="155"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>6.7128694270995062E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="R41">
@@ -14308,28 +14292,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA41" s="89">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f>ROUND(X41/$AS$6*$AC$45,0)</f>
+        <f t="shared" si="154"/>
         <v>21</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>5.3642690946666268E-5</v>
       </c>
       <c r="AE41" s="71">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AV41" s="91" t="s">
@@ -14343,7 +14327,7 @@
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="109"/>
       <c r="B42">
         <v>1</v>
       </c>
@@ -14373,30 +14357,30 @@
         <v>4.96525E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="155"/>
         <v>2.482625E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>2.6715030629034748</v>
       </c>
       <c r="M42">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>26.715030629034747</v>
       </c>
       <c r="N42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>29.20735294117647</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>0.33267174999999999</v>
       </c>
       <c r="R42">
@@ -14418,27 +14402,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>538.03999051477263</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="159"/>
         <v>5380.3999051477258</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f>ROUND(X42/$AS$6*$AC$45,0)</f>
+        <f t="shared" si="154"/>
         <v>67</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>8.5536808173948056E-3</v>
       </c>
       <c r="AE42" s="72">
-        <f t="shared" si="146"/>
+        <f t="shared" si="157"/>
         <v>41.951890583728066</v>
       </c>
       <c r="AV42" s="91"/>
@@ -14552,7 +14536,7 @@
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="109" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -14608,7 +14592,7 @@
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
+      <c r="A48" s="109"/>
       <c r="B48">
         <v>1</v>
       </c>
@@ -14657,7 +14641,7 @@
       <c r="AV48" s="9"/>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="109"/>
       <c r="B49">
         <v>1</v>
       </c>
@@ -14712,7 +14696,7 @@
       <c r="Q49" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="107" t="s">
+      <c r="R49" s="110" t="s">
         <v>46</v>
       </c>
       <c r="S49" s="9" t="s">
@@ -14769,7 +14753,7 @@
         <f>INPUTS!Q28</f>
         <v>1.2</v>
       </c>
-      <c r="R50" s="107"/>
+      <c r="R50" s="110"/>
       <c r="S50" s="9" t="s">
         <v>48</v>
       </c>
@@ -14791,7 +14775,7 @@
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
-      <c r="R51" s="107"/>
+      <c r="R51" s="110"/>
       <c r="S51" s="9" t="s">
         <v>49</v>
       </c>
@@ -14829,7 +14813,7 @@
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
         <v>6.661234362846577E-2</v>
       </c>
-      <c r="R52" s="107"/>
+      <c r="R52" s="110"/>
       <c r="S52" s="9" t="s">
         <v>50</v>
       </c>
@@ -14873,7 +14857,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R53" s="107"/>
+      <c r="R53" s="110"/>
       <c r="S53" s="9" t="s">
         <v>51</v>
       </c>
@@ -14920,7 +14904,7 @@
         <f>E48*E53+F48*F53</f>
         <v>0</v>
       </c>
-      <c r="R54" s="107"/>
+      <c r="R54" s="110"/>
       <c r="S54" s="11" t="s">
         <v>52</v>
       </c>
@@ -14959,7 +14943,7 @@
       </c>
     </row>
     <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="112" t="s">
         <v>156</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -15008,7 +14992,7 @@
       <c r="Q57" s="32"/>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+      <c r="A58" s="112"/>
       <c r="B58">
         <v>1</v>
       </c>
@@ -15050,7 +15034,7 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+      <c r="A59" s="112"/>
       <c r="B59">
         <f>B58</f>
         <v>1</v>
@@ -15071,30 +15055,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="149">G58</f>
+        <f t="shared" ref="G59:M59" si="160">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -15106,7 +15090,7 @@
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="112"/>
       <c r="B60">
         <f>B59</f>
         <v>1</v>
@@ -15127,30 +15111,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="150">G58</f>
+        <f t="shared" ref="G60:M60" si="161">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -15162,7 +15146,7 @@
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+      <c r="A61" s="112"/>
       <c r="B61">
         <f>B60</f>
         <v>1</v>
@@ -15183,30 +15167,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="151">G58</f>
+        <f t="shared" ref="G61:M61" si="162">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15218,7 +15202,7 @@
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="A62" s="112"/>
       <c r="B62">
         <f>B61</f>
         <v>1</v>
@@ -15239,30 +15223,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="152">G58</f>
+        <f t="shared" ref="G62:M62" si="163">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -15350,7 +15334,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="109" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -15503,7 +15487,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -15676,7 +15660,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -15848,7 +15832,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="109"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -16017,7 +16001,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -16186,7 +16170,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="109"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -16355,7 +16339,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="109"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -16524,7 +16508,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="109"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -16693,7 +16677,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="109"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -16874,7 +16858,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -16956,7 +16940,7 @@
       <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="109"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -17053,7 +17037,7 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="109"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -17151,7 +17135,7 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="109"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -17244,7 +17228,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="109"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -17336,7 +17320,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="109"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -17432,7 +17416,7 @@
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="109"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -17597,7 +17581,7 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="109" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -17653,7 +17637,7 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="109"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -17702,7 +17686,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="109"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -17754,7 +17738,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="107" t="s">
+      <c r="R27" s="110" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -17804,7 +17788,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="107"/>
+      <c r="R28" s="110"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -17824,7 +17808,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="107"/>
+      <c r="R29" s="110"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -17853,7 +17837,7 @@
         <v>78</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="R30" s="107"/>
+      <c r="R30" s="110"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -17902,7 +17886,7 @@
         <f t="array" ref="P31">SUM(I15:I20,AI5:AI12)+SUM(AD5:AD12*F31,K15:K20*F31)+SUM(AF5:AF12*J31,L15:L20*J31)+SUM(AC5:AC12*E31,N15:N20*E31)</f>
         <v>3.5521334871089626E-2</v>
       </c>
-      <c r="R31" s="107"/>
+      <c r="R31" s="110"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="178">
   <si>
     <t>plant</t>
   </si>
@@ -1665,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,14 +2136,14 @@
         <f t="shared" ref="W6:W12" si="12">$W$2*EXP($X$2*E6)</f>
         <v>2.6776375833009532E-5</v>
       </c>
-      <c r="X6">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="Y6">
-        <v>18</v>
-      </c>
-      <c r="Z6">
-        <v>0.14000000000000001</v>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
       </c>
       <c r="AA6" t="s">
         <v>33</v>
@@ -2230,13 +2230,13 @@
         <f>$T$27+$T$28*$T$30*(J6)^$T$29</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="9" t="e">
         <f t="shared" si="7"/>
-        <v>4.0516000000000007E-3</v>
-      </c>
-      <c r="AY6" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY6" s="10" t="e">
         <f>((AX6-AW6)/($T$31-AV6))*(F6-$T$31)+AX6</f>
-        <v>7.9411698532703143E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AZ6" s="10">
         <f t="shared" si="8"/>
@@ -7602,7 +7602,7 @@
   <dimension ref="A1:BC66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8069,16 +8069,16 @@
       <c r="W6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X6">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="Y6">
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="str">
         <f>INPUTS!Y6</f>
-        <v>18</v>
-      </c>
-      <c r="Z6">
+        <v>NA</v>
+      </c>
+      <c r="Z6" t="str">
         <f>INPUTS!Z6</f>
-        <v>0.14000000000000001</v>
+        <v>NA</v>
       </c>
       <c r="AA6" t="s">
         <v>33</v>
@@ -8169,13 +8169,13 @@
         <f>$T$49+$T$50*$T$52*(J6)^$T$51</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY6" s="9" t="e">
         <f t="shared" si="7"/>
-        <v>4.0516000000000007E-3</v>
-      </c>
-      <c r="AZ6" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ6" s="10" t="e">
         <f>((AY6-AX6)/($T$53-AW6))*(F6-$T$53)+AY6</f>
-        <v>7.9411698532703143E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA6" s="10">
         <f>$T$49+$T$50*0.5*(L6)^$T$51</f>
@@ -9392,17 +9392,17 @@
         <f t="shared" ref="W13" si="22">W6</f>
         <v>NA</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="21"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="21"/>
-        <v>18</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="21"/>
-        <v>0.14000000000000001</v>
+      <c r="X13" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="21"/>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="INPUTS_save2" sheetId="9" r:id="rId4"/>
     <sheet name="Soil" sheetId="18" r:id="rId5"/>
     <sheet name="Barillot2016b_inputs" sheetId="6" r:id="rId6"/>
+    <sheet name="Bertheloot2011b" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="183">
   <si>
     <t>plant</t>
   </si>
@@ -766,6 +767,21 @@
   </si>
   <si>
     <t>RER_Wmax_int</t>
+  </si>
+  <si>
+    <t>Grains</t>
+  </si>
+  <si>
+    <t>Ped_exp</t>
+  </si>
+  <si>
+    <t>Ped_enc</t>
+  </si>
+  <si>
+    <t>Roots = 15% DM Shoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; FAUX</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1682,7 @@
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4366,7 @@
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>0.91064195735270959</v>
+        <v>0.45532097867635479</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4402,7 +4418,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
@@ -7601,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14682,7 +14698,7 @@
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>0.92578187857085392</v>
+        <v>0.46289093928542696</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14735,7 +14751,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
@@ -18004,7 +18020,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18038,15 +18054,15 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f>B2*10^3/10000</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="94">
         <f>C2*10^6/14</f>
-        <v>428571.42857142858</v>
+        <v>71428.571428571435</v>
       </c>
       <c r="E2" s="95">
         <v>36146</v>
@@ -18121,10 +18137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18232,7 +18248,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="28">
-        <f t="shared" ref="I6:I20" si="1">G6/D6*1000</f>
+        <f t="shared" ref="I6:I22" si="1">G6/D6*1000</f>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -18544,58 +18560,117 @@
         <v>1.3513513513513513</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18">
+        <v>58</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>157</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>210</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1.01</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>15</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I20" s="28">
         <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <f>0.5*1000</f>
         <v>500</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <f>0.01*1000</f>
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>2.5</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I22" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23">
-        <f>SUM(D5:D19)/D20</f>
-        <v>2.8119999999999998</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25">
+        <f>SUM(D5:D21)/D22</f>
+        <v>3.29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1">
+        <f>1/0.15</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,15 +4337,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>200.87690235721536</v>
+        <v>150.65767676791148</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>2.7341451764985099</v>
+        <v>2.0506088823738819</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>27.341451764985095</v>
+        <v>20.506088823738818</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -4358,15 +4358,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>4.5532097867635478E-2</v>
+        <v>3.41490734007266E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>2.276604893381774E-4</v>
+        <v>1.70745367003633E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>0.45532097867635479</v>
+        <v>0.34149073400726598</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4422,10 +4422,10 @@
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
-        <v>0.44342659841122445</v>
+        <v>0.59123546454829934</v>
       </c>
       <c r="O28" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P28" s="16">
         <v>0.1</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
-        <v>6.5722241143608043E-2</v>
+        <v>5.4339216676699158E-2</v>
       </c>
       <c r="R30" s="110"/>
       <c r="S30" s="9" t="s">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>5.3250148925680078E-2</v>
+        <v>3.9937611694260043E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="P35" s="36">
         <f>P34+P33+P32</f>
-        <v>8.5200238281088123E-2</v>
+        <v>7.1887701049668087E-2</v>
       </c>
       <c r="Q35" s="32"/>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14493952061648685</v>
+        <v>0.14493952061648674</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14493952061648685</v>
+        <v>0.14493952061648674</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="P44" s="75">
         <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
-        <v>2.4179004363764509</v>
+        <v>2.6434375542239423</v>
       </c>
     </row>
   </sheetData>
@@ -7617,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14669,15 +14669,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>272.288787814957</v>
+        <v>204.21659086121778</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>2.9442376815674374</v>
+        <v>2.2081782611755782</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>29.442376815674372</v>
+        <v>22.081782611755781</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -14690,15 +14690,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>4.6289093928542697E-2</v>
+        <v>3.4716820446407025E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>2.3144546964271349E-4</v>
+        <v>1.7358410223203513E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>0.46289093928542696</v>
+        <v>0.69433640892814052</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14751,15 +14751,15 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
-        <v>0.4390504971062178</v>
+        <v>0.5854006628082904</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P50" s="16">
         <f>INPUTS!P28</f>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
-        <v>6.661234362846577E-2</v>
+        <v>5.5040070146330104E-2</v>
       </c>
       <c r="R52" s="110"/>
       <c r="S52" s="9" t="s">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="P56" s="36">
         <f>K49+E49*E53+F49*F53+G49*G53</f>
-        <v>5.6199529295132972E-2</v>
+        <v>4.2149646971349736E-2</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="P57" s="36">
         <f>P56+P55+P54</f>
-        <v>8.9919246872212755E-2</v>
+        <v>7.5869364548429519E-2</v>
       </c>
       <c r="Q57" s="32"/>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.17634374328200186</v>
+        <v>0.17634374328200197</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.17634374328200186</v>
+        <v>0.17634374328200197</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="P66" s="75">
         <f>($Y$45*$P$55+$Q$50*$P$56)/($P$55+$P$56)</f>
-        <v>2.4027403999090851</v>
+        <v>2.6254701035959527</v>
       </c>
     </row>
   </sheetData>
@@ -18647,7 +18647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="183">
   <si>
     <t>plant</t>
   </si>
@@ -1681,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3522,7 @@
         <v>0.16700714999999999</v>
       </c>
       <c r="R15">
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>21</v>
       </c>
       <c r="AC15" s="15">
-        <f t="shared" ref="AC15:AC20" si="28">ROUND(X15/$AS$6*120,0)</f>
+        <f>ROUND(X15/$AS$6*120,0)</f>
         <v>57</v>
       </c>
       <c r="AD15" s="15">
@@ -3618,7 +3618,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K20" si="29">J16*0.005</f>
+        <f t="shared" ref="K16:K20" si="28">J16*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L16">
@@ -3683,7 +3683,7 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AC15:AC20" si="29">ROUND(X16/$AS$6*120,0)</f>
         <v>16</v>
       </c>
       <c r="AD16" s="15">
@@ -3742,7 +3742,7 @@
         <v>5.5446100000000002E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2.7723050000000002E-5</v>
       </c>
       <c r="L17">
@@ -3769,7 +3769,7 @@
         <v>0.37703348000000003</v>
       </c>
       <c r="R17">
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="AC17" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>68</v>
       </c>
       <c r="AD17" s="15">
@@ -3845,7 +3845,7 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L18">
@@ -3903,7 +3903,7 @@
         <v>121</v>
       </c>
       <c r="AC18" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="AD18" s="15">
@@ -3948,7 +3948,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L19">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="AD19" s="15">
@@ -4056,7 +4056,7 @@
         <v>4.8002499999999998E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2.400125E-5</v>
       </c>
       <c r="L20">
@@ -4082,8 +4082,8 @@
         <f t="shared" si="25"/>
         <v>0.36001875</v>
       </c>
-      <c r="R20">
-        <v>5000</v>
+      <c r="R20" t="s">
+        <v>32</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
       <c r="AD20" s="16">
@@ -7618,7 +7618,7 @@
   <dimension ref="A1:BC66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="R37">
         <f>INPUTS!R15</f>
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="R39">
         <f>INPUTS!R17</f>
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -14399,9 +14399,9 @@
         <f t="shared" si="151"/>
         <v>0.33267174999999999</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="str">
         <f>INPUTS!R20</f>
-        <v>5000</v>
+        <v>NA</v>
       </c>
       <c r="S42">
         <v>0</v>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="183">
   <si>
     <t>plant</t>
   </si>
@@ -1681,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3518,7 @@
         <v>1.9532999999999999E-4</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ref="Q15:Q20" si="25">J15*$AC15</f>
+        <f>J15*$AC15</f>
         <v>0.16700714999999999</v>
       </c>
       <c r="R15">
@@ -3537,7 +3537,7 @@
         <v>4.3</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" ref="W15:W20" si="26">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <f t="shared" ref="W15:W20" si="25">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
         <v>395.90503059926971</v>
       </c>
       <c r="X15" s="15">
@@ -3551,7 +3551,7 @@
         <v>27</v>
       </c>
       <c r="AA15" s="89">
-        <f t="shared" ref="AA15:AA20" si="27">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <f t="shared" ref="AA15:AA20" si="26">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="88" t="s">
@@ -3618,7 +3618,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K20" si="28">J16*0.005</f>
+        <f t="shared" ref="K16:K20" si="27">J16*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L16">
@@ -3641,7 +3641,7 @@
         <v>2.6861000000000002E-4</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="Q15:Q20" si="28">J16*$AC16</f>
         <v>2.7359999999999999E-2</v>
       </c>
       <c r="R16">
@@ -3661,7 +3661,7 @@
         <v>1.8</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>112.73176271832151</v>
       </c>
       <c r="X16" s="15">
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB16" s="56">
@@ -3683,7 +3683,7 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" ref="AC15:AC20" si="29">ROUND(X16/$AS$6*120,0)</f>
+        <f t="shared" ref="AC16:AC20" si="29">ROUND(X16/$AS$6*120,0)</f>
         <v>16</v>
       </c>
       <c r="AD16" s="15">
@@ -3742,7 +3742,7 @@
         <v>5.5446100000000002E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.7723050000000002E-5</v>
       </c>
       <c r="L17">
@@ -3765,7 +3765,7 @@
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.37703348000000003</v>
       </c>
       <c r="R17">
@@ -3784,7 +3784,7 @@
         <v>4.8</v>
       </c>
       <c r="W17" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>469.29708428542818</v>
       </c>
       <c r="X17" s="15">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="Z17" s="28"/>
       <c r="AA17" s="89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB17" s="53">
@@ -3845,7 +3845,7 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L18">
@@ -3868,7 +3868,7 @@
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.2440000000000007E-2</v>
       </c>
       <c r="R18">
@@ -3888,7 +3888,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X18" s="15">
@@ -3896,7 +3896,7 @@
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1323.5294117647056</v>
       </c>
       <c r="AB18" s="54" t="s">
@@ -3948,7 +3948,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L19">
@@ -3971,7 +3971,7 @@
         <v>4.7099999999999998E-6</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="R19">
@@ -3991,7 +3991,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X19" s="15">
@@ -3999,7 +3999,7 @@
         <v>1604.0455673709137</v>
       </c>
       <c r="AA19" s="89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1"/>
@@ -4056,7 +4056,7 @@
         <v>4.8002499999999998E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.400125E-5</v>
       </c>
       <c r="L20">
@@ -4079,11 +4079,11 @@
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36001875</v>
       </c>
-      <c r="R20" t="s">
-        <v>32</v>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>516.91276575633913</v>
       </c>
       <c r="X20" s="16">
@@ -4106,7 +4106,7 @@
         <v>5169.127657563391</v>
       </c>
       <c r="AA20" s="90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC20" s="16">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>0.34149073400726598</v>
+        <v>2.7319258720581279</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4418,7 +4418,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
@@ -7617,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14399,9 +14399,9 @@
         <f t="shared" si="151"/>
         <v>0.33267174999999999</v>
       </c>
-      <c r="R42" t="str">
+      <c r="R42">
         <f>INPUTS!R20</f>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>0.69433640892814052</v>
+        <v>2.7773456357125621</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14751,7 +14751,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -3641,7 +3641,7 @@
         <v>2.6861000000000002E-4</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" ref="Q15:Q20" si="28">J16*$AC16</f>
+        <f t="shared" ref="Q16:Q20" si="28">J16*$AC16</f>
         <v>2.7359999999999999E-2</v>
       </c>
       <c r="R16">
@@ -7617,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="Q37" s="1">
         <f t="shared" ref="Q37:Q42" si="151">J37*$AC37</f>
-        <v>0.14960368542307284</v>
+        <v>0.24933947570512138</v>
       </c>
       <c r="R37">
         <f>INPUTS!R15</f>
@@ -13864,8 +13864,8 @@
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f t="shared" ref="AC37:AC42" si="154">ROUND(X37/$AS$6*$AC$45,0)</f>
-        <v>51</v>
+        <f>ROUND(X37/$AS$6*$AC$45,0)</f>
+        <v>85</v>
       </c>
       <c r="AD37" s="15">
         <f>J37+L37*$F$53+M37*$J$53+O37*$E$53</f>
@@ -13925,7 +13925,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="155">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="154">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="151"/>
-        <v>2.5649999999999999E-2</v>
+        <v>4.104E-2</v>
       </c>
       <c r="R38">
         <f>INPUTS!R16</f>
@@ -13992,8 +13992,8 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" si="154"/>
-        <v>15</v>
+        <f t="shared" ref="AC37:AC42" si="155">ROUND(X38/$AS$6*$AC$45,0)</f>
+        <v>24</v>
       </c>
       <c r="AD38" s="15">
         <f t="shared" ref="AD38:AD42" si="156">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
@@ -14052,7 +14052,7 @@
         <v>5.2983708800493851E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>2.6491854400246927E-5</v>
       </c>
       <c r="L39">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="151"/>
-        <v>0.3232006236830125</v>
+        <v>0.53513545888498792</v>
       </c>
       <c r="R39">
         <f>INPUTS!R17</f>
@@ -14113,8 +14113,8 @@
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" si="154"/>
-        <v>61</v>
+        <f t="shared" si="155"/>
+        <v>101</v>
       </c>
       <c r="AD39" s="15">
         <f t="shared" si="156"/>
@@ -14158,7 +14158,7 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="151"/>
-        <v>4.7880000000000006E-2</v>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="R40">
         <f>INPUTS!R18</f>
@@ -14218,8 +14218,8 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f t="shared" si="154"/>
-        <v>21</v>
+        <f t="shared" si="155"/>
+        <v>35</v>
       </c>
       <c r="AD40" s="15">
         <f t="shared" si="156"/>
@@ -14263,7 +14263,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="151"/>
-        <v>8.4000000000000003E-4</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="R41">
         <f>INPUTS!R19</f>
@@ -14321,8 +14321,8 @@
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f t="shared" si="154"/>
-        <v>21</v>
+        <f t="shared" si="155"/>
+        <v>35</v>
       </c>
       <c r="AD41" s="15">
         <f t="shared" si="156"/>
@@ -14373,7 +14373,7 @@
         <v>4.96525E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>2.482625E-5</v>
       </c>
       <c r="L42">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="151"/>
-        <v>0.33267174999999999</v>
+        <v>0.55114275000000001</v>
       </c>
       <c r="R42">
         <f>INPUTS!R20</f>
@@ -14430,8 +14430,8 @@
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="154"/>
-        <v>67</v>
+        <f t="shared" si="155"/>
+        <v>111</v>
       </c>
       <c r="AD42" s="16">
         <f t="shared" si="156"/>
@@ -14514,7 +14514,7 @@
         <v>121</v>
       </c>
       <c r="AC45" s="101">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN45" s="91"/>
       <c r="AO45" s="91"/>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -7618,7 +7618,7 @@
   <dimension ref="A1:BC66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13825,8 +13825,7 @@
         <v>0.24933947570512138</v>
       </c>
       <c r="R37">
-        <f>INPUTS!R15</f>
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -13992,7 +13991,7 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" ref="AC37:AC42" si="155">ROUND(X38/$AS$6*$AC$45,0)</f>
+        <f t="shared" ref="AC38:AC42" si="155">ROUND(X38/$AS$6*$AC$45,0)</f>
         <v>24</v>
       </c>
       <c r="AD38" s="15">
@@ -14079,8 +14078,7 @@
         <v>0.53513545888498792</v>
       </c>
       <c r="R39">
-        <f>INPUTS!R17</f>
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -14698,7 +14696,7 @@
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>2.7773456357125621</v>
+        <v>3.4716820446407026</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14751,7 +14749,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1972,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z5">
         <v>0.09</v>
@@ -3492,19 +3492,19 @@
       </c>
       <c r="J15">
         <f>P15*$U$15</f>
-        <v>2.9299499999999997E-3</v>
+        <v>4.2972599999999998E-3</v>
       </c>
       <c r="K15">
         <f>J15*0.005</f>
-        <v>1.464975E-5</v>
+        <v>2.1486299999999998E-5</v>
       </c>
       <c r="L15">
         <f>J15*$W15</f>
-        <v>1.1599819444043302</v>
+        <v>1.7013068517930177</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M20" si="22">J15*$X15</f>
-        <v>11.599819444043302</v>
+        <v>17.013068517930176</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:N20" si="23">AA15*$J15</f>
@@ -3512,14 +3512,14 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15:O20" si="24">J15*$AB$16</f>
-        <v>12.92625</v>
+        <v>18.958500000000001</v>
       </c>
       <c r="P15">
         <v>1.9532999999999999E-4</v>
       </c>
       <c r="Q15" s="1">
         <f>J15*$AC15</f>
-        <v>0.16700714999999999</v>
+        <v>0.24494381999999998</v>
       </c>
       <c r="R15">
         <v>4250</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V15" s="15">
         <v>4.3</v>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="AD15" s="15">
         <f>J15+L15*$F$31+M15*$J$31+O15*$E$31</f>
-        <v>4.4950458008899278E-3</v>
+        <v>6.5927338413052268E-3</v>
       </c>
       <c r="AE15" s="71">
         <f>(1-J15/AD15)*100</f>
-        <v>34.818239239744145</v>
+        <v>34.81823923974413</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AO15" s="82"/>
@@ -3739,19 +3739,19 @@
       </c>
       <c r="J17">
         <f>P17*$U$17</f>
-        <v>5.5446100000000002E-3</v>
+        <v>5.3035399999999998E-3</v>
       </c>
       <c r="K17">
         <f t="shared" si="27"/>
-        <v>2.7723050000000002E-5</v>
+        <v>2.6517699999999999E-5</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L20" si="32">J17*$W17</f>
-        <v>2.6020693064998279</v>
+        <v>2.4889358583911396</v>
       </c>
       <c r="M17">
         <f t="shared" si="22"/>
-        <v>26.02069306499828</v>
+        <v>24.889358583911395</v>
       </c>
       <c r="N17">
         <f t="shared" si="23"/>
@@ -3759,14 +3759,14 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="24"/>
-        <v>24.461514705882355</v>
+        <v>23.397970588235296</v>
       </c>
       <c r="P17">
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="28"/>
-        <v>0.37703348000000003</v>
+        <v>0.36064071999999997</v>
       </c>
       <c r="R17">
         <v>4250</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V17" s="15">
         <v>4.8</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AD17" s="15">
         <f t="shared" si="30"/>
-        <v>8.9258692333536154E-3</v>
+        <v>8.5377879623382402E-3</v>
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="31"/>
@@ -4053,19 +4053,19 @@
       </c>
       <c r="J20">
         <f>P20*$U$20</f>
-        <v>4.8002499999999998E-3</v>
+        <v>4.2242199999999999E-3</v>
       </c>
       <c r="K20">
         <f t="shared" si="27"/>
-        <v>2.400125E-5</v>
+        <v>2.11211E-5</v>
       </c>
       <c r="L20">
         <f t="shared" si="32"/>
-        <v>2.481310503821867</v>
+        <v>2.1835532433632427</v>
       </c>
       <c r="M20">
         <f t="shared" si="22"/>
-        <v>24.813105038218666</v>
+        <v>21.835532433632427</v>
       </c>
       <c r="N20">
         <f t="shared" si="23"/>
@@ -4073,14 +4073,14 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" si="24"/>
-        <v>21.177573529411767</v>
+        <v>18.636264705882354</v>
       </c>
       <c r="P20">
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="28"/>
-        <v>0.36001875</v>
+        <v>0.3168165</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V20" s="16">
         <v>5.0999999999999996</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AD20" s="16">
         <f t="shared" si="30"/>
-        <v>7.9631974036974019E-3</v>
+        <v>7.0076137152537141E-3</v>
       </c>
       <c r="AE20" s="72">
         <f t="shared" si="31"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="Y23" s="74">
         <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AQ5:AQ12,AO5:AO12))/SUM(AD15:AD20,AO5:AO12)</f>
-        <v>4.4477344970038697</v>
+        <v>4.4146203981518433</v>
       </c>
       <c r="AA23" s="54" t="s">
         <v>121</v>
@@ -4337,15 +4337,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>150.65767676791148</v>
+        <v>154.21320252380491</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>2.0506088823738819</v>
+        <v>2.0990033143932734</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>20.506088823738818</v>
+        <v>20.990033143932731</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -4358,15 +4358,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>3.41490734007266E-2</v>
+        <v>3.4954992572062443E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>1.70745367003633E-4</v>
+        <v>1.7477496286031222E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>2.7319258720581279</v>
+        <v>2.7963994057649955</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
-        <v>0.59123546454829934</v>
+        <v>0.59334451961947088</v>
       </c>
       <c r="O28" s="16">
         <v>0.8</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
-        <v>5.4339216676699158E-2</v>
+        <v>5.5695345848035004E-2</v>
       </c>
       <c r="R30" s="110"/>
       <c r="S30" s="9" t="s">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="P33" s="69">
         <f t="array" ref="P33">SUM(J15:J20,AK5:AK12)+SUM(AF5:AF12*F31,L15:L20*F31)+SUM(AH5:AH12*J31,M15:M20*J31)+SUM(AE5:AE12*E31,O15:O20*E31)+SUM(N15:N20*E31,AG5:AG12*E31)</f>
-        <v>3.1950089355408044E-2</v>
+        <v>3.2704112436364279E-2</v>
       </c>
       <c r="W33" s="35" t="s">
         <v>122</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>3.9937611694260043E-2</v>
+        <v>4.0880140545455336E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="P35" s="36">
         <f>P34+P33+P32</f>
-        <v>7.1887701049668087E-2</v>
+        <v>7.3584252981819614E-2</v>
       </c>
       <c r="Q35" s="32"/>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="P37" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/$P$33</f>
-        <v>0.36807240031849642</v>
+        <v>0.36581818826824364</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14493952061648674</v>
+        <v>0.14493952061648663</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="P39" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/($P$33+N28/(1+N28)*P32)</f>
-        <v>0.36807240031849642</v>
+        <v>0.36581818826824364</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14493952061648674</v>
+        <v>0.14493952061648663</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="P44" s="75">
         <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
-        <v>2.6434375542239423</v>
+        <v>2.6287201769563748</v>
       </c>
     </row>
   </sheetData>
@@ -7617,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="Y5">
         <f>INPUTS!Y5</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z5">
         <f>INPUTS!Z5</f>
@@ -13795,19 +13795,19 @@
       </c>
       <c r="J37">
         <f>P37*$U$37</f>
-        <v>2.93340559653084E-3</v>
+        <v>4.3023282082452321E-3</v>
       </c>
       <c r="K37">
         <f>J37*0.005</f>
-        <v>1.46670279826542E-5</v>
+        <v>2.1511641041226162E-5</v>
       </c>
       <c r="L37">
         <f>J37*$W37</f>
-        <v>1.2096740612871526</v>
+        <v>1.7741886232211572</v>
       </c>
       <c r="M37">
         <f t="shared" ref="M37:M42" si="148">J37*$X37</f>
-        <v>12.096740612871526</v>
+        <v>17.74188623221157</v>
       </c>
       <c r="N37">
         <f t="shared" ref="N37:N42" si="149">AA37*$J37</f>
@@ -13815,14 +13815,14 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" ref="O37:O42" si="150">J37*$AB$38</f>
-        <v>17.255327038416706</v>
+        <v>25.307812989677835</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" ref="Q37:Q42" si="151">J37*$AC37</f>
-        <v>0.24933947570512138</v>
+        <v>0.36569789770084471</v>
       </c>
       <c r="R37">
         <v>4400</v>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="U37" s="15">
         <f>INPUTS!U15</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V37" s="15">
         <f>INPUTS!V15</f>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="AD37" s="15">
         <f>J37+L37*$F$53+M37*$J$53+O37*$E$53</f>
-        <v>4.6734147307180398E-3</v>
+        <v>6.8543416050531256E-3</v>
       </c>
       <c r="AE37" s="71">
         <f>(1-J37/AD37)*100</f>
@@ -14048,19 +14048,19 @@
       </c>
       <c r="J39">
         <f>P39*$U$39</f>
-        <v>5.2983708800493851E-3</v>
+        <v>5.0680069287428898E-3</v>
       </c>
       <c r="K39">
         <f t="shared" si="154"/>
-        <v>2.6491854400246927E-5</v>
+        <v>2.5340034643714449E-5</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39:L42" si="158">J39*$W39</f>
-        <v>2.5887478676102722</v>
+        <v>2.4761936124967816</v>
       </c>
       <c r="M39">
         <f t="shared" si="148"/>
-        <v>25.887478676102717</v>
+        <v>24.761936124967814</v>
       </c>
       <c r="N39">
         <f t="shared" si="149"/>
@@ -14068,14 +14068,14 @@
       </c>
       <c r="O39" s="1">
         <f t="shared" si="150"/>
-        <v>31.166887529702265</v>
+        <v>29.811805463193469</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="151"/>
-        <v>0.53513545888498792</v>
+        <v>0.51186869980303185</v>
       </c>
       <c r="R39">
         <v>4400</v>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="U39" s="15">
         <f>INPUTS!U17</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V39" s="15">
         <f>INPUTS!V17</f>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="AD39" s="15">
         <f t="shared" si="156"/>
-        <v>8.8574797085881011E-3</v>
+        <v>8.4723718951712264E-3</v>
       </c>
       <c r="AE39" s="71">
         <f t="shared" si="157"/>
@@ -14368,19 +14368,19 @@
       </c>
       <c r="J42">
         <f>P42*$U$42</f>
-        <v>4.96525E-3</v>
+        <v>4.3694199999999997E-3</v>
       </c>
       <c r="K42">
         <f t="shared" si="154"/>
-        <v>2.482625E-5</v>
+        <v>2.18471E-5</v>
       </c>
       <c r="L42">
         <f t="shared" si="158"/>
-        <v>2.6715030629034748</v>
+        <v>2.3509226953550577</v>
       </c>
       <c r="M42">
         <f t="shared" si="148"/>
-        <v>26.715030629034747</v>
+        <v>23.509226953550574</v>
       </c>
       <c r="N42">
         <f t="shared" si="149"/>
@@ -14388,14 +14388,14 @@
       </c>
       <c r="O42" s="1">
         <f t="shared" si="150"/>
-        <v>29.20735294117647</v>
+        <v>25.70247058823529</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="151"/>
-        <v>0.55114275000000001</v>
+        <v>0.48500561999999997</v>
       </c>
       <c r="R42">
         <f>INPUTS!R20</f>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="U42" s="16">
         <f>INPUTS!U20</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V42" s="16">
         <f>INPUTS!V20</f>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="AD42" s="16">
         <f t="shared" si="156"/>
-        <v>8.5536808173948056E-3</v>
+        <v>7.5272391193074283E-3</v>
       </c>
       <c r="AE42" s="72">
         <f t="shared" si="157"/>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="Y45" s="74">
         <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AQ5:AQ12,AO5:AO12))/SUM(AD37:AD42,AO5:AO12)</f>
-        <v>4.4073077330908923</v>
+        <v>4.3740904222538166</v>
       </c>
       <c r="AA45" s="54" t="s">
         <v>121</v>
@@ -14667,15 +14667,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>204.21659086121778</v>
+        <v>208.87616791028256</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>2.2081782611755782</v>
+        <v>2.2585619087657482</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>22.081782611755781</v>
+        <v>22.585619087657477</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -14688,15 +14688,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>3.4716820446407025E-2</v>
+        <v>3.5508948544748037E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>1.7358410223203513E-4</v>
+        <v>1.775447427237402E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>3.4716820446407026</v>
+        <v>5.3263422817122059</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14749,11 +14749,11 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
-        <v>0.5854006628082904</v>
+        <v>0.58762591446592305</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
-        <v>5.5040070146330104E-2</v>
+        <v>5.6374926905079017E-2</v>
       </c>
       <c r="R52" s="110"/>
       <c r="S52" s="9" t="s">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="P55" s="36">
         <f t="array" ref="P55">SUM(J37:J42,AK5:AK34)+SUM(AF5:AF34*F53,L37:L42*F53)+SUM(AH5:AH34*J53,M37:M42*J53)+SUM(AE5:AE34*E53,O37:O42*E53)+SUM(N37:N42*E53,AG5:AG34*E53)</f>
-        <v>3.371971757707979E-2</v>
+        <v>3.4489094939910626E-2</v>
       </c>
       <c r="W55" s="35" t="s">
         <v>122</v>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="P56" s="36">
         <f>K49+E49*E53+F49*F53+G49*G53</f>
-        <v>4.2149646971349736E-2</v>
+        <v>4.3111368674888281E-2</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="P57" s="36">
         <f>P56+P55+P54</f>
-        <v>7.5869364548429519E-2</v>
+        <v>7.7600463614798915E-2</v>
       </c>
       <c r="Q57" s="32"/>
     </row>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="P59" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/$P$55</f>
-        <v>0.41315381357282133</v>
+        <v>0.41050884740986027</v>
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.17634374328200197</v>
+        <v>0.17634374328200209</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="P61" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/($P$55+N50/(1+N50)*P54)</f>
-        <v>0.41315381357282133</v>
+        <v>0.41050884740986027</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.17634374328200197</v>
+        <v>0.17634374328200209</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="P66" s="75">
         <f>($Y$45*$P$55+$Q$50*$P$56)/($P$55+$P$56)</f>
-        <v>2.6254701035959527</v>
+        <v>2.6107068543350294</v>
       </c>
     </row>
   </sheetData>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>mngauthier</author>
   </authors>
   <commentList>
-    <comment ref="AQ7" authorId="0" shapeId="0">
+    <comment ref="AS7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="185">
   <si>
     <t>plant</t>
   </si>
@@ -783,6 +783,12 @@
   <si>
     <t xml:space="preserve"> =&gt; FAUX</t>
   </si>
+  <si>
+    <t>integral_conc_sucrose_init</t>
+  </si>
+  <si>
+    <t>integral_conc_sucrose_em_prec</t>
+  </si>
 </sst>
 </file>
 
@@ -1215,7 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1383,6 +1389,10 @@
     <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1679,10 +1689,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,11 +1702,11 @@
     <col min="24" max="24" width="12.85546875" customWidth="1"/>
     <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>113</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>113</v>
       </c>
@@ -1733,8 +1743,8 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+    <row r="4" spans="1:56" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1854,49 +1864,55 @@
       <c r="AN4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AO4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP4" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AR4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AS4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AT4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AU4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AV4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AU4" s="99" t="s">
+      <c r="AW4" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AY4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="BA4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8" t="s">
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1990,27 +2006,27 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE12" si="0">AK5*$AP$15</f>
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AR$15</f>
         <v>9.0399389163552328</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF12" si="1">AK5*$AR5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AT5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="28">
-        <f t="shared" ref="AG5:AG12" si="2">AK5*$AU5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AW5</f>
         <v>9.0399389163552328</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5:AH12" si="3">AK5*$AS5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AU5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
-        <f>AY5</f>
+        <f>BA5</f>
         <v>2.0477283347659267E-3</v>
       </c>
       <c r="AJ5" s="1">
-        <f>BB5</f>
+        <f>BD5</f>
         <v>1.3244862745926676E-6</v>
       </c>
       <c r="AK5" s="1">
@@ -2029,59 +2045,65 @@
         <f>AL5+AM5</f>
         <v>1.0245264105202596E-5</v>
       </c>
-      <c r="AO5" s="70">
+      <c r="AO5" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AQ5" s="70">
         <f>AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
         <v>3.3497283868557494E-3</v>
       </c>
-      <c r="AP5" s="71">
-        <f>(1-AK5/AO5)*100</f>
+      <c r="AR5" s="71">
+        <f>(1-AK5/AQ5)*100</f>
         <v>38.829284515098252</v>
       </c>
-      <c r="AQ5" s="15">
+      <c r="AS5" s="15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AR5" s="15">
-        <f t="shared" ref="AR5:AR12" si="4">(($AQ5/100)*(1+($AP$15+$AU5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AQ5/100))</f>
+      <c r="AT5" s="15">
+        <f t="shared" ref="AT5:AT12" si="4">(($AS5/100)*(1+($AR$15+$AW5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AS5/100))</f>
         <v>493.49156696102204</v>
       </c>
-      <c r="AS5" s="15">
-        <f t="shared" ref="AS5:AS12" si="5">$AR5/$X$23</f>
+      <c r="AU5" s="15">
+        <f t="shared" ref="AU5:AU12" si="5">$AT5/$X$23</f>
         <v>4934.91566961022</v>
       </c>
-      <c r="AT5" s="15">
+      <c r="AV5" s="15">
         <v>10</v>
       </c>
-      <c r="AU5" s="84">
-        <f t="shared" ref="AU5:AU12" si="6">$AT5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+      <c r="AW5" s="84">
+        <f t="shared" ref="AW5:AW12" si="6">$AV5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
         <v>4411.7647058823532</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AX5" s="9">
         <v>851425</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AY5" s="10">
         <f>$T$27+$T$28*$T$30*(J5)^$T$29</f>
         <v>9.1058115591388438E-4</v>
       </c>
-      <c r="AX5" s="9">
-        <f t="shared" ref="AX5:AX12" si="7">J5*Z5</f>
+      <c r="AZ5" s="9">
+        <f t="shared" ref="AZ5:AZ12" si="7">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
-      <c r="AY5" s="10">
-        <f>((AX5-AW5)/($T$31-AV5))*(F5-$T$31)+AX5</f>
+      <c r="BA5" s="10">
+        <f>((AZ5-AY5)/($T$31-AX5))*(F5-$T$31)+AZ5</f>
         <v>2.0477283347659267E-3</v>
       </c>
-      <c r="AZ5" s="10">
-        <f t="shared" ref="AZ5:AZ12" si="8">$T$27+$T$28*$T$30*(L5)^$T$29</f>
+      <c r="BB5" s="10">
+        <f t="shared" ref="BB5:BB12" si="8">$T$27+$T$28*$T$30*(L5)^$T$29</f>
         <v>4.0277279389003447E-3</v>
       </c>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9">
-        <f t="shared" ref="BB5:BB12" si="9">$AW$20*$AV$22*$AV$24*(M5)^$AV$21</f>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9">
+        <f t="shared" ref="BD5:BD12" si="9">$AY$20*$AX$22*$AX$24*(M5)^$AX$21</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -2190,11 +2212,11 @@
         <v>6.5956141271581705</v>
       </c>
       <c r="AI6" s="1">
-        <f>AZ6</f>
+        <f>BB6</f>
         <v>7.9355355356128927E-4</v>
       </c>
       <c r="AJ6" s="1">
-        <f>BB6</f>
+        <f>BD6</f>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
@@ -2213,59 +2235,65 @@
         <f t="shared" ref="AN6:AN12" si="15">AL6+AM6</f>
         <v>3.9686117550080197E-6</v>
       </c>
-      <c r="AO6" s="70">
-        <f t="shared" ref="AO6:AO12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
+      <c r="AO6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AQ6" s="70">
+        <f t="shared" ref="AQ6:AQ12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
         <v>1.5736842407450208E-3</v>
       </c>
-      <c r="AP6" s="71">
-        <f>(1-AK6/AO6)*100</f>
+      <c r="AR6" s="71">
+        <f>(1-AK6/AQ6)*100</f>
         <v>49.562794717583479</v>
       </c>
-      <c r="AQ6" s="15">
+      <c r="AS6" s="15">
         <v>6.5</v>
       </c>
-      <c r="AR6" s="15">
+      <c r="AT6" s="15">
         <f t="shared" si="4"/>
         <v>830.97245766546928</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AU6" s="15">
         <f t="shared" si="5"/>
         <v>8309.724576654693</v>
       </c>
-      <c r="AT6" s="15">
+      <c r="AV6" s="15">
         <v>5</v>
       </c>
-      <c r="AU6" s="84">
+      <c r="AW6" s="84">
         <f t="shared" si="6"/>
         <v>2205.8823529411766</v>
       </c>
-      <c r="AV6" s="9">
+      <c r="AX6" s="9">
         <v>818263</v>
       </c>
-      <c r="AW6" s="10">
+      <c r="AY6" s="10">
         <f>$T$27+$T$28*$T$30*(J6)^$T$29</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="AX6" s="9" t="e">
+      <c r="AZ6" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY6" s="10" t="e">
-        <f>((AX6-AW6)/($T$31-AV6))*(F6-$T$31)+AX6</f>
+      <c r="BA6" s="10" t="e">
+        <f>((AZ6-AY6)/($T$31-AX6))*(F6-$T$31)+AZ6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="BB6" s="10">
         <f t="shared" si="8"/>
         <v>7.9355355356128927E-4</v>
       </c>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9">
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9">
         <f t="shared" si="9"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -2374,7 +2402,7 @@
         <v>0.54184269937105289</v>
       </c>
       <c r="AI7" s="1">
-        <f>AZ7</f>
+        <f>BB7</f>
         <v>2.9792072957780891E-5</v>
       </c>
       <c r="AJ7" s="1">
@@ -2396,57 +2424,63 @@
         <f t="shared" si="15"/>
         <v>1.4896036478890447E-7</v>
       </c>
-      <c r="AO7" s="70">
+      <c r="AO7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ7" s="70">
         <f t="shared" si="16"/>
         <v>8.9403557211611783E-5</v>
       </c>
-      <c r="AP7" s="71">
-        <f t="shared" ref="AP7:AP12" si="17">(1-AK7/AO7)*100</f>
+      <c r="AR7" s="71">
+        <f t="shared" ref="AR7:AR12" si="17">(1-AK7/AQ7)*100</f>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ7" s="15">
+      <c r="AS7" s="15">
         <v>9.5</v>
       </c>
-      <c r="AR7" s="15">
+      <c r="AT7" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS7" s="15">
+      <c r="AU7" s="15">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="84">
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="10" t="e">
-        <f t="shared" ref="AW7:AW12" si="18">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="10" t="e">
+        <f t="shared" ref="AY7:AY12" si="18">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AX7" s="9" t="e">
+      <c r="AZ7" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY7" s="10" t="e">
-        <f t="shared" ref="AY7:AY12" si="19">AW7+((AX7-AW7)/$T$31)*F7</f>
+      <c r="BA7" s="10" t="e">
+        <f t="shared" ref="BA7:BA12" si="19">AY7+((AZ7-AY7)/$T$31)*F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="BB7" s="10">
         <f t="shared" si="8"/>
         <v>2.9792072957780891E-5</v>
       </c>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9">
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2555,7 +2589,7 @@
         <v>0.14688630816538931</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="21">AZ8</f>
+        <f t="shared" ref="AI8:AI12" si="21">BB8</f>
         <v>8.076232483046996E-6</v>
       </c>
       <c r="AJ8" s="1">
@@ -2577,57 +2611,63 @@
         <f t="shared" si="15"/>
         <v>4.0381162415234981E-8</v>
       </c>
-      <c r="AO8" s="70">
+      <c r="AO8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ8" s="70">
         <f t="shared" si="16"/>
         <v>2.4236108506970847E-5</v>
       </c>
-      <c r="AP8" s="71">
+      <c r="AR8" s="71">
         <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ8" s="15">
+      <c r="AS8" s="15">
         <v>9.5</v>
       </c>
-      <c r="AR8" s="15">
+      <c r="AT8" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS8" s="15">
+      <c r="AU8" s="15">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="84">
+      <c r="AV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="10" t="e">
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AX8" s="9" t="e">
+      <c r="AZ8" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY8" s="10" t="e">
+      <c r="BA8" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="BB8" s="10">
         <f t="shared" si="8"/>
         <v>8.076232483046996E-6</v>
       </c>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9">
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -2758,57 +2798,63 @@
         <f t="shared" si="15"/>
         <v>1.3819517568152583E-8</v>
       </c>
-      <c r="AO9" s="70">
+      <c r="AO9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ9" s="70">
         <f t="shared" si="16"/>
         <v>8.294246803786242E-6</v>
       </c>
-      <c r="AP9" s="71">
+      <c r="AR9" s="71">
         <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ9" s="15">
+      <c r="AS9" s="15">
         <v>9.5</v>
       </c>
-      <c r="AR9" s="15">
+      <c r="AT9" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS9" s="15">
+      <c r="AU9" s="15">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="84">
+      <c r="AV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="10" t="e">
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AX9" s="9" t="e">
+      <c r="AZ9" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY9" s="10" t="e">
+      <c r="BA9" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="BB9" s="10">
         <f t="shared" si="8"/>
         <v>2.7639035136305163E-6</v>
       </c>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9">
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -2939,57 +2985,63 @@
         <f t="shared" si="15"/>
         <v>6.0025180190440811E-9</v>
       </c>
-      <c r="AO10" s="70">
+      <c r="AO10" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ10" s="70">
         <f t="shared" si="16"/>
         <v>3.6026124391534188E-6</v>
       </c>
-      <c r="AP10" s="71">
+      <c r="AR10" s="71">
         <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ10" s="15">
+      <c r="AS10" s="15">
         <v>9.5</v>
       </c>
-      <c r="AR10" s="15">
+      <c r="AT10" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS10" s="15">
+      <c r="AU10" s="15">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="84">
+      <c r="AV10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="10" t="e">
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AX10" s="9" t="e">
+      <c r="AZ10" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY10" s="10" t="e">
+      <c r="BA10" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ10" s="10">
+      <c r="BB10" s="10">
         <f t="shared" si="8"/>
         <v>1.2005036038088161E-6</v>
       </c>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9">
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -3120,57 +3172,63 @@
         <f t="shared" si="15"/>
         <v>2.1699705862716857E-9</v>
       </c>
-      <c r="AO11" s="70">
+      <c r="AO11" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ11" s="70">
         <f t="shared" si="16"/>
         <v>1.3023806012571343E-6</v>
       </c>
-      <c r="AP11" s="71">
+      <c r="AR11" s="71">
         <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ11" s="15">
+      <c r="AS11" s="15">
         <v>9.5</v>
       </c>
-      <c r="AR11" s="15">
+      <c r="AT11" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS11" s="15">
+      <c r="AU11" s="15">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="84">
+      <c r="AV11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="10" t="e">
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AX11" s="9" t="e">
+      <c r="AZ11" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY11" s="10" t="e">
+      <c r="BA11" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ11" s="10">
+      <c r="BB11" s="10">
         <f t="shared" si="8"/>
         <v>4.3399411725433714E-7</v>
       </c>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9">
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -3301,56 +3359,62 @@
         <f t="shared" si="15"/>
         <v>1.4569862745926675E-9</v>
       </c>
-      <c r="AO12" s="73">
+      <c r="AO12" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ12" s="73">
         <f t="shared" si="16"/>
         <v>8.7445916195004701E-7</v>
       </c>
-      <c r="AP12" s="72">
+      <c r="AR12" s="72">
         <f t="shared" si="17"/>
         <v>66.676859526668281</v>
       </c>
-      <c r="AQ12" s="16">
+      <c r="AS12" s="16">
         <v>9.5</v>
       </c>
-      <c r="AR12" s="15">
+      <c r="AT12" s="15">
         <f t="shared" si="4"/>
         <v>1818.7478935719314</v>
       </c>
-      <c r="AS12" s="16">
+      <c r="AU12" s="16">
         <f t="shared" si="5"/>
         <v>18187.478935719311</v>
       </c>
-      <c r="AT12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="84">
+      <c r="AV12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="10" t="e">
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AX12" s="9" t="e">
+      <c r="AZ12" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY12" s="10" t="e">
+      <c r="BA12" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ12" s="10">
+      <c r="BB12" s="10">
         <f t="shared" si="8"/>
         <v>2.9139725491853351E-7</v>
       </c>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9">
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -3362,8 +3426,8 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+    <row r="14" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3450,21 +3514,21 @@
       </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="80" t="s">
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AQ14" s="80" t="s">
+      <c r="AS14" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AR14" s="81" t="s">
+      <c r="AT14" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -3558,7 +3622,7 @@
         <v>21</v>
       </c>
       <c r="AC15" s="15">
-        <f>ROUND(X15/$AS$6*120,0)</f>
+        <f>ROUND(X15/$AU$6*120,0)</f>
         <v>57</v>
       </c>
       <c r="AD15" s="15">
@@ -3570,24 +3634,24 @@
         <v>34.81823923974413</v>
       </c>
       <c r="AF15" s="1"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="84">
-        <f>$AP$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="84">
+        <f>$AR$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
         <v>4411.7647058823532</v>
       </c>
-      <c r="AQ15" s="84">
-        <f>$AQ$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+      <c r="AS15" s="84">
+        <f>$AS$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
         <v>4411.7647058823532</v>
       </c>
-      <c r="AR15" s="85">
-        <f>AQ15+AP15</f>
+      <c r="AT15" s="85">
+        <f>AS15+AR15</f>
         <v>8823.5294117647063</v>
       </c>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="97"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -3683,7 +3747,7 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" ref="AC16:AC20" si="29">ROUND(X16/$AS$6*120,0)</f>
+        <f t="shared" ref="AC16:AC20" si="29">ROUND(X16/$AU$6*120,0)</f>
         <v>16</v>
       </c>
       <c r="AD16" s="15">
@@ -3695,24 +3759,24 @@
         <v>19.501594871030591</v>
       </c>
       <c r="AF16" s="1"/>
-      <c r="AO16" s="83" t="s">
+      <c r="AQ16" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="AP16" s="86">
+      <c r="AR16" s="86">
         <v>10</v>
       </c>
-      <c r="AQ16" s="86">
+      <c r="AS16" s="86">
         <v>10</v>
       </c>
-      <c r="AR16" s="87">
-        <f>AQ16+AP16</f>
+      <c r="AT16" s="87">
+        <f>AS16+AR16</f>
         <v>20</v>
       </c>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="98"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -3814,8 +3878,8 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -3917,8 +3981,8 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -4015,18 +4079,18 @@
         <f t="shared" si="31"/>
         <v>22.564923744773303</v>
       </c>
-      <c r="AU19" s="78" t="s">
+      <c r="AW19" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="AV19" s="9" t="s">
+      <c r="AX19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AW19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="AY19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -4121,35 +4185,37 @@
         <f t="shared" si="31"/>
         <v>39.719565437732463</v>
       </c>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="9" t="s">
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AW20" s="9">
+      <c r="AY20" s="9">
         <v>0.106</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="V21" s="92"/>
       <c r="W21" s="17"/>
       <c r="X21" s="59"/>
       <c r="Z21" s="1"/>
       <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="109"/>
       <c r="AQ21" s="78"/>
       <c r="AR21" s="78"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="9" t="s">
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AV21" s="9">
+      <c r="AX21" s="9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="V22" s="34"/>
       <c r="W22" s="93"/>
@@ -4163,47 +4229,51 @@
         <v>3</v>
       </c>
       <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
+      <c r="AO22" s="109"/>
+      <c r="AP22" s="109"/>
       <c r="AQ22" s="78"/>
       <c r="AR22" s="78"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="9" t="s">
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AV22" s="9">
+      <c r="AX22" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="X23" s="16">
         <v>0.1</v>
       </c>
       <c r="Y23" s="74">
-        <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AQ5:AQ12,AO5:AO12))/SUM(AD15:AD20,AO5:AO12)</f>
+        <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD15:AD20,AQ5:AQ12)</f>
         <v>4.4146203981518433</v>
       </c>
       <c r="AA23" s="54" t="s">
         <v>121</v>
       </c>
       <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
+      <c r="AO23" s="109"/>
+      <c r="AP23" s="109"/>
       <c r="AQ23" s="78"/>
       <c r="AR23" s="78"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="9" t="s">
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="96"/>
+      <c r="AV23" s="96"/>
+      <c r="AW23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AV23" s="9">
+      <c r="AX23" s="9">
         <f>210*3600*24/12</f>
         <v>1512000</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4214,15 +4284,17 @@
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>
-      <c r="AU24" s="9" t="s">
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AV24" s="9">
+      <c r="AX24" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4266,18 +4338,20 @@
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
-      <c r="AR25" s="9" t="s">
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9">
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9">
         <f>1/59</f>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -4319,13 +4393,15 @@
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
       <c r="AT26" s="9"/>
       <c r="AU26" s="9"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -4380,7 +4456,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="110" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -4394,12 +4470,14 @@
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="12"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
       <c r="AT27" s="9"/>
       <c r="AU27" s="9"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E28" s="57">
         <f>AB16</f>
         <v>4411.7647058823532</v>
@@ -4433,7 +4511,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="110"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -4447,14 +4525,16 @@
       <c r="AO28" s="12"/>
       <c r="AP28" s="12"/>
       <c r="AQ28" s="12"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="9"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
       <c r="AT28" s="9"/>
       <c r="AU28" s="9"/>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="110"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -4474,12 +4554,14 @@
       <c r="AO29" s="13"/>
       <c r="AP29" s="13"/>
       <c r="AQ29" s="13"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
       <c r="AT29" s="9"/>
       <c r="AU29" s="9"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D30" s="27" t="s">
         <v>78</v>
       </c>
@@ -4491,7 +4573,7 @@
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
         <v>5.5695345848035004E-2</v>
       </c>
-      <c r="R30" s="110"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -4509,12 +4591,14 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
       <c r="AT30" s="9"/>
       <c r="AU30" s="9"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D31" s="23" t="s">
         <v>79</v>
       </c>
@@ -4534,7 +4618,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="110"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -4555,12 +4639,14 @@
       <c r="AO31" s="12"/>
       <c r="AP31" s="12"/>
       <c r="AQ31" s="12"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="9"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
       <c r="AT31" s="9"/>
       <c r="AU31" s="9"/>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D32" s="23" t="s">
         <v>76</v>
       </c>
@@ -4580,7 +4666,7 @@
         <f>E26*E31+F26*F31</f>
         <v>0</v>
       </c>
-      <c r="R32" s="110"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4619,7 +4705,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="113" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4668,7 +4754,7 @@
       <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
+      <c r="A36" s="113"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -4831,7 +4917,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4984,7 +5070,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -5157,7 +5243,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -5329,7 +5415,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -5498,7 +5584,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -5667,7 +5753,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -5836,7 +5922,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -6005,7 +6091,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -6174,7 +6260,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -6355,7 +6441,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6441,7 +6527,7 @@
       <c r="AQ14" s="35"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -6546,7 +6632,7 @@
       <c r="AQ15" s="37"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -6653,7 +6739,7 @@
       <c r="AQ16" s="37"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -6748,7 +6834,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -6842,7 +6928,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -6941,7 +7027,7 @@
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -7132,7 +7218,7 @@
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -7189,7 +7275,7 @@
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -7237,7 +7323,7 @@
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -7292,7 +7378,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="110" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -7343,7 +7429,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="110"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -7362,7 +7448,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="110"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -7397,7 +7483,7 @@
         <f>K27+SUM(I15:I20)+SUM(AJ5:AJ12)</f>
         <v>6.5196256600668162E-2</v>
       </c>
-      <c r="R30" s="110"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -7438,7 +7524,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="110"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -7482,7 +7568,7 @@
         <f>E26*E31+F26*F31</f>
         <v>1.2264765171385552E-2</v>
       </c>
-      <c r="R32" s="110"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -7615,10 +7701,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BC66"/>
+  <dimension ref="A1:BE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,11 +7712,11 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="12" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>113</v>
       </c>
@@ -7644,7 +7730,7 @@
       <c r="W1" s="106"/>
       <c r="X1" s="107"/>
     </row>
-    <row r="2" spans="1:55" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>113</v>
       </c>
@@ -7659,8 +7745,8 @@
       <c r="W2" s="108"/>
       <c r="X2" s="108"/>
     </row>
-    <row r="4" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+    <row r="4" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -7780,52 +7866,58 @@
       <c r="AN4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AO4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP4" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AR4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AS4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AT4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AU4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AV4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AU4" s="99" t="s">
+      <c r="AW4" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="AV4" s="99" t="s">
+      <c r="AX4" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AY4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="BA4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BC4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8" t="s">
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -7920,27 +8012,27 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE12" si="0">AK5*$AP$37</f>
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AR$37</f>
         <v>12.053251888473643</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF12" si="1">AK5*$AR5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AT5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG12" si="2">AK5*$AU5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AW5</f>
         <v>6.0266259442368213</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5:AH12" si="3">AK5*$AS5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AU5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
-        <f>AZ5</f>
+        <f>BB5</f>
         <v>2.0477283347659267E-3</v>
       </c>
       <c r="AJ5" s="1">
-        <f>BC5</f>
+        <f>BE5</f>
         <v>1.3244862745926676E-6</v>
       </c>
       <c r="AK5" s="1">
@@ -7959,63 +8051,71 @@
         <f>AL5+AM5</f>
         <v>1.0245264105202596E-5</v>
       </c>
-      <c r="AO5" s="70">
+      <c r="AO5">
+        <f>INPUTS!AO5</f>
+        <v>2100</v>
+      </c>
+      <c r="AP5">
+        <f>INPUTS!AP5</f>
+        <v>2100</v>
+      </c>
+      <c r="AQ5" s="70">
         <f>AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
         <v>3.6080123558944709E-3</v>
       </c>
-      <c r="AP5" s="102">
-        <f>(1-AK5/AO5)*100</f>
+      <c r="AR5" s="102">
+        <f>(1-AK5/AQ5)*100</f>
         <v>43.208264858268933</v>
       </c>
-      <c r="AQ5" s="70">
-        <f>INPUTS!AQ5</f>
+      <c r="AS5" s="70">
+        <f>INPUTS!AS5</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AR5" s="70">
-        <f t="shared" ref="AR5:AR12" si="4">(($AQ5/100)*(1+($AP$37+$AU5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AQ5/100))</f>
+      <c r="AT5" s="70">
+        <f t="shared" ref="AT5:AT12" si="4">(($AS5/100)*(1+($AR$37+$AW5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AS5/100))</f>
         <v>493.49156696102204</v>
       </c>
-      <c r="AS5" s="70">
-        <f t="shared" ref="AS5:AS12" si="5">$AR5/$X$45</f>
+      <c r="AU5" s="70">
+        <f t="shared" ref="AU5:AU12" si="5">$AT5/$X$45</f>
         <v>4934.91566961022</v>
       </c>
-      <c r="AT5" s="15">
+      <c r="AV5" s="15">
         <v>5</v>
       </c>
-      <c r="AU5" s="84">
-        <f t="shared" ref="AU5:AU34" si="6">$AT5/100/(1-$AV5/100)*$X$54*10^6/$X$52</f>
+      <c r="AW5" s="84">
+        <f t="shared" ref="AW5:AW34" si="6">$AV5/100/(1-$AX5/100)*$X$54*10^6/$X$52</f>
         <v>2941.1764705882351</v>
       </c>
-      <c r="AV5" s="84">
+      <c r="AX5" s="84">
         <v>40</v>
       </c>
-      <c r="AW5" s="9">
+      <c r="AY5" s="9">
         <v>851425</v>
       </c>
-      <c r="AX5" s="10">
+      <c r="AZ5" s="10">
         <f>$T$49+$T$50*$T$52*(J5)^$T$51</f>
         <v>9.1058115591388438E-4</v>
       </c>
-      <c r="AY5" s="9">
-        <f t="shared" ref="AY5:AY12" si="7">J5*Z5</f>
+      <c r="BA5" s="9">
+        <f t="shared" ref="BA5:BA12" si="7">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
-      <c r="AZ5" s="10">
-        <f>((AY5-AX5)/($T$53-AW5))*(F5-$T$53)+AY5</f>
+      <c r="BB5" s="10">
+        <f>((BA5-AZ5)/($T$53-AY5))*(F5-$T$53)+BA5</f>
         <v>2.0477283347659267E-3</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BC5" s="10">
         <f>$T$49+$T$50*0.6*(L5)^$T$51</f>
         <v>3.0208025791752585E-3</v>
       </c>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9">
-        <f t="shared" ref="BC5:BC12" si="8">$AX$42*$AW$44*$AW$46*(M5)^$AW$43</f>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9">
+        <f t="shared" ref="BE5:BE12" si="8">$AZ$42*$AY$44*$AY$46*(M5)^$AY$43</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -8125,11 +8225,11 @@
         <v>4.7926386573102988</v>
       </c>
       <c r="AI6" s="1">
-        <f>BA6</f>
+        <f>BC6</f>
         <v>4.9598090847580579E-4</v>
       </c>
       <c r="AJ6" s="1">
-        <f>BC6</f>
+        <f>BE6</f>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
@@ -8148,63 +8248,71 @@
         <f t="shared" ref="AN6:AN12" si="13">AL6+AM6</f>
         <v>2.4807485295806025E-6</v>
       </c>
-      <c r="AO6" s="70">
-        <f t="shared" ref="AO6:AO34" si="14">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
+      <c r="AO6">
+        <f>INPUTS!AO6</f>
+        <v>2100</v>
+      </c>
+      <c r="AP6">
+        <f>INPUTS!AP6</f>
+        <v>2100</v>
+      </c>
+      <c r="AQ6" s="70">
+        <f t="shared" ref="AQ6:AQ34" si="14">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AP6" s="102">
-        <f>(1-AK6/AO6)*100</f>
+      <c r="AR6" s="102">
+        <f>(1-AK6/AQ6)*100</f>
         <v>57.725997070438204</v>
       </c>
-      <c r="AQ6" s="70">
-        <f>INPUTS!AQ6</f>
+      <c r="AS6" s="70">
+        <f>INPUTS!AS6</f>
         <v>6.5</v>
       </c>
-      <c r="AR6" s="70">
+      <c r="AT6" s="70">
         <f t="shared" si="4"/>
         <v>965.96623965762194</v>
       </c>
-      <c r="AS6" s="70">
+      <c r="AU6" s="70">
         <f t="shared" si="5"/>
         <v>9659.6623965762192</v>
       </c>
-      <c r="AT6" s="15">
+      <c r="AV6" s="15">
         <v>8</v>
       </c>
-      <c r="AU6" s="84">
+      <c r="AW6" s="84">
         <f t="shared" si="6"/>
         <v>7058.8235294117649</v>
       </c>
-      <c r="AV6" s="84">
+      <c r="AX6" s="84">
         <v>60</v>
       </c>
-      <c r="AW6" s="9">
+      <c r="AY6" s="9">
         <v>818263</v>
       </c>
-      <c r="AX6" s="10">
+      <c r="AZ6" s="10">
         <f>$T$49+$T$50*$T$52*(J6)^$T$51</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="AY6" s="9" t="e">
+      <c r="BA6" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ6" s="10" t="e">
-        <f>((AY6-AX6)/($T$53-AW6))*(F6-$T$53)+AY6</f>
+      <c r="BB6" s="10" t="e">
+        <f>((BA6-AZ6)/($T$53-AY6))*(F6-$T$53)+BA6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA6" s="10">
+      <c r="BC6" s="10">
         <f>$T$49+$T$50*0.5*(L6)^$T$51</f>
         <v>4.9598090847580579E-4</v>
       </c>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9">
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9">
         <f t="shared" si="8"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -8314,7 +8422,7 @@
         <v>0.21145753411309956</v>
       </c>
       <c r="AI7" s="1">
-        <f>BA7</f>
+        <f>BC7</f>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ7" s="1">
@@ -8336,61 +8444,69 @@
         <f t="shared" si="13"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO7" s="70">
+      <c r="AO7">
+        <f>INPUTS!AO7</f>
+        <v>2100</v>
+      </c>
+      <c r="AP7" t="str">
+        <f>INPUTS!AP7</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ7" s="70">
         <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AP7" s="102">
-        <f t="shared" ref="AP7:AP34" si="15">(1-AK7/AO7)*100</f>
+      <c r="AR7" s="102">
+        <f t="shared" ref="AR7:AR34" si="15">(1-AK7/AQ7)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ7" s="70">
-        <f>INPUTS!AQ7</f>
+      <c r="AS7" s="70">
+        <f>INPUTS!AS7</f>
         <v>9.5</v>
       </c>
-      <c r="AR7" s="70">
+      <c r="AT7" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS7" s="71">
+      <c r="AU7" s="71">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="84">
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV7" s="84">
+      <c r="AX7" s="84">
         <v>68</v>
       </c>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="10" t="e">
-        <f t="shared" ref="AX7:AX12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="10" t="e">
+        <f t="shared" ref="AZ7:AZ12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AY7" s="9" t="e">
+      <c r="BA7" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ7" s="10" t="e">
-        <f t="shared" ref="AZ7:AZ12" si="17">AX7+((AY7-AX7)/$T$53)*F7</f>
+      <c r="BB7" s="10" t="e">
+        <f t="shared" ref="BB7:BB12" si="17">AZ7+((BA7-AZ7)/$T$53)*F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA7" s="10">
-        <f t="shared" ref="BA7:BA12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
+      <c r="BC7" s="10">
+        <f t="shared" ref="BC7:BC12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
         <v>1.1188589859167832E-5</v>
       </c>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9">
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -8500,7 +8616,7 @@
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="20">BA8</f>
+        <f t="shared" ref="AI8:AI12" si="20">BC8</f>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ8" s="1">
@@ -8522,61 +8638,69 @@
         <f t="shared" si="13"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO8" s="70">
+      <c r="AO8">
+        <f>INPUTS!AO8</f>
+        <v>2100</v>
+      </c>
+      <c r="AP8" t="str">
+        <f>INPUTS!AP8</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ8" s="70">
         <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AP8" s="102">
-        <f>(1-AK8/AO8)*100</f>
+      <c r="AR8" s="102">
+        <f>(1-AK8/AQ8)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ8" s="70">
-        <f>INPUTS!AQ8</f>
+      <c r="AS8" s="70">
+        <f>INPUTS!AS8</f>
         <v>9.5</v>
       </c>
-      <c r="AR8" s="70">
+      <c r="AT8" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS8" s="70">
+      <c r="AU8" s="70">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="84">
+      <c r="AV8" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="84">
+      <c r="AX8" s="84">
         <v>68</v>
       </c>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="10" t="e">
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY8" s="9" t="e">
+      <c r="BA8" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ8" s="10" t="e">
+      <c r="BB8" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BC8" s="10">
         <f t="shared" si="18"/>
         <v>3.0451496811426225E-6</v>
       </c>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9">
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -8708,61 +8832,69 @@
         <f t="shared" si="13"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO9" s="70">
+      <c r="AO9">
+        <f>INPUTS!AO9</f>
+        <v>2100</v>
+      </c>
+      <c r="AP9" t="str">
+        <f>INPUTS!AP9</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ9" s="70">
         <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AP9" s="102">
+      <c r="AR9" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ9" s="70">
-        <f>INPUTS!AQ9</f>
+      <c r="AS9" s="70">
+        <f>INPUTS!AS9</f>
         <v>9.5</v>
       </c>
-      <c r="AR9" s="70">
+      <c r="AT9" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS9" s="70">
+      <c r="AU9" s="70">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT9" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="84">
+      <c r="AV9" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV9" s="84">
+      <c r="AX9" s="84">
         <v>68</v>
       </c>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="10" t="e">
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY9" s="9" t="e">
+      <c r="BA9" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ9" s="10" t="e">
+      <c r="BB9" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BC9" s="10">
         <f t="shared" si="18"/>
         <v>1.0530263176114436E-6</v>
       </c>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9">
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -8894,61 +9026,69 @@
         <f t="shared" si="13"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO10" s="70">
+      <c r="AO10">
+        <f>INPUTS!AO10</f>
+        <v>2100</v>
+      </c>
+      <c r="AP10" t="str">
+        <f>INPUTS!AP10</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ10" s="70">
         <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AP10" s="102">
+      <c r="AR10" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ10" s="70">
-        <f>INPUTS!AQ10</f>
+      <c r="AS10" s="70">
+        <f>INPUTS!AS10</f>
         <v>9.5</v>
       </c>
-      <c r="AR10" s="70">
+      <c r="AT10" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS10" s="70">
+      <c r="AU10" s="70">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT10" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="84">
+      <c r="AV10" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="84">
+      <c r="AX10" s="84">
         <v>68</v>
       </c>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="10" t="e">
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY10" s="9" t="e">
+      <c r="BA10" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ10" s="10" t="e">
+      <c r="BB10" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA10" s="10">
+      <c r="BC10" s="10">
         <f t="shared" si="18"/>
         <v>4.6675135142830591E-7</v>
       </c>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9">
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -9080,61 +9220,69 @@
         <f t="shared" si="13"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO11" s="70">
+      <c r="AO11">
+        <f>INPUTS!AO11</f>
+        <v>2100</v>
+      </c>
+      <c r="AP11" t="str">
+        <f>INPUTS!AP11</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ11" s="70">
         <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AP11" s="102">
+      <c r="AR11" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ11" s="70">
-        <f>INPUTS!AQ11</f>
+      <c r="AS11" s="70">
+        <f>INPUTS!AS11</f>
         <v>9.5</v>
       </c>
-      <c r="AR11" s="70">
+      <c r="AT11" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS11" s="70">
+      <c r="AU11" s="70">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT11" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="84">
+      <c r="AV11" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="84">
+      <c r="AX11" s="84">
         <v>68</v>
       </c>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="10" t="e">
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY11" s="9" t="e">
+      <c r="BA11" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ11" s="10" t="e">
+      <c r="BB11" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA11" s="10">
+      <c r="BC11" s="10">
         <f t="shared" si="18"/>
         <v>1.7931029397037642E-7</v>
       </c>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9">
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -9266,61 +9414,69 @@
         <f t="shared" si="13"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO12" s="70">
+      <c r="AO12">
+        <f>INPUTS!AO12</f>
+        <v>2100</v>
+      </c>
+      <c r="AP12" t="str">
+        <f>INPUTS!AP12</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ12" s="70">
         <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AP12" s="102">
+      <c r="AR12" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ12" s="70">
-        <f>INPUTS!AQ12</f>
+      <c r="AS12" s="70">
+        <f>INPUTS!AS12</f>
         <v>9.5</v>
       </c>
-      <c r="AR12" s="70">
+      <c r="AT12" s="70">
         <f t="shared" si="4"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS12" s="70">
+      <c r="AU12" s="70">
         <f t="shared" si="5"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT12" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="84">
+      <c r="AV12" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="84">
+      <c r="AX12" s="84">
         <v>68</v>
       </c>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="10" t="e">
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AY12" s="9" t="e">
+      <c r="BA12" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ12" s="10" t="e">
+      <c r="BB12" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA12" s="10">
+      <c r="BC12" s="10">
         <f t="shared" si="18"/>
         <v>1.2583647059445005E-7</v>
       </c>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9">
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
       <c r="B13">
         <f>B6</f>
         <v>1</v>
@@ -9337,7 +9493,7 @@
         <v>3287520</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AN19" si="21">F6</f>
+        <f t="shared" ref="F13:AO19" si="21">F6</f>
         <v>776406</v>
       </c>
       <c r="G13">
@@ -9476,120 +9632,128 @@
         <f t="shared" si="21"/>
         <v>2.4807485295806025E-6</v>
       </c>
-      <c r="AO13" s="70">
+      <c r="AO13">
+        <f t="shared" si="21"/>
+        <v>2100</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" ref="AP13:AP34" si="24">AP6</f>
+        <v>2100</v>
+      </c>
+      <c r="AQ13" s="70">
         <f t="shared" si="14"/>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AP13" s="102">
+      <c r="AR13" s="102">
         <f t="shared" si="15"/>
         <v>57.725997070438204</v>
       </c>
-      <c r="AQ13" s="70">
-        <f t="shared" ref="AQ13" si="24">AQ6</f>
+      <c r="AS13" s="70">
+        <f t="shared" ref="AS13" si="25">AS6</f>
         <v>6.5</v>
       </c>
-      <c r="AR13" s="70">
-        <f t="shared" ref="AR13" si="25">AR6</f>
+      <c r="AT13" s="70">
+        <f t="shared" ref="AT13" si="26">AT6</f>
         <v>965.96623965762194</v>
       </c>
-      <c r="AS13" s="70">
-        <f>AS6</f>
+      <c r="AU13" s="70">
+        <f>AU6</f>
         <v>9659.6623965762192</v>
       </c>
-      <c r="AT13" s="70">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="84">
+      <c r="AV13" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV13" s="84">
-        <f>AV6</f>
+      <c r="AX13" s="84">
+        <f>AX6</f>
         <v>60</v>
       </c>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="10"/>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="26">B7</f>
+        <f t="shared" ref="B14:B19" si="27">B7</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="27">D7-3</f>
+        <f t="shared" ref="D14:D19" si="28">D7-3</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:T18" si="28">E7</f>
+        <f t="shared" ref="E14:T18" si="29">E7</f>
         <v>2739600</v>
       </c>
       <c r="F14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>True</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>False</v>
       </c>
       <c r="J14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.894E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.894E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="U14" t="str">
@@ -9601,7 +9765,7 @@
         <v>NA</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" ref="W14" si="29">W7</f>
+        <f t="shared" ref="W14" si="30">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X14" t="str">
@@ -9641,7 +9805,7 @@
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG14">
-        <f t="shared" ref="AG14" si="30">AG7</f>
+        <f t="shared" ref="AG14" si="31">AG7</f>
         <v>0</v>
       </c>
       <c r="AH14">
@@ -9672,61 +9836,69 @@
         <f t="shared" si="21"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO14" s="70">
+      <c r="AO14">
+        <f t="shared" ref="AO14" si="32">AO7</f>
+        <v>2100</v>
+      </c>
+      <c r="AP14" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ14" s="70">
         <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AP14" s="102">
+      <c r="AR14" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ14" s="70">
-        <f t="shared" ref="AQ14:AS14" si="31">AQ7</f>
+      <c r="AS14" s="70">
+        <f t="shared" ref="AS14:AU14" si="33">AS7</f>
         <v>9.5</v>
       </c>
-      <c r="AR14" s="70">
-        <f t="shared" ref="AR14" si="32">AR7</f>
+      <c r="AT14" s="70">
+        <f t="shared" ref="AT14" si="34">AT7</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS14" s="70">
-        <f t="shared" si="31"/>
+      <c r="AU14" s="70">
+        <f t="shared" si="33"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT14" s="70">
-        <f t="shared" ref="AT14" si="33">AT7</f>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="84">
+      <c r="AV14" s="70">
+        <f t="shared" ref="AV14" si="35">AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV14" s="84">
-        <f t="shared" ref="AV14:AV19" si="34">AV7</f>
+      <c r="AX14" s="84">
+        <f t="shared" ref="AX14:AX19" si="36">AX7</f>
         <v>68</v>
       </c>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="10"/>
       <c r="AY14" s="9"/>
       <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
       <c r="B15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2191680</v>
       </c>
       <c r="F15">
@@ -9798,7 +9970,7 @@
         <v>NA</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15" si="35">W8</f>
+        <f t="shared" ref="W15" si="37">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X15" t="str">
@@ -9838,7 +10010,7 @@
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15" si="36">AG8</f>
+        <f t="shared" ref="AG15" si="38">AG8</f>
         <v>0</v>
       </c>
       <c r="AH15">
@@ -9869,61 +10041,69 @@
         <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO15" s="70">
+      <c r="AO15">
+        <f t="shared" ref="AO15" si="39">AO8</f>
+        <v>2100</v>
+      </c>
+      <c r="AP15" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ15" s="70">
         <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AP15" s="102">
+      <c r="AR15" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ15" s="70">
-        <f t="shared" ref="AQ15:AS15" si="37">AQ8</f>
+      <c r="AS15" s="70">
+        <f t="shared" ref="AS15:AU15" si="40">AS8</f>
         <v>9.5</v>
       </c>
-      <c r="AR15" s="70">
-        <f t="shared" ref="AR15" si="38">AR8</f>
+      <c r="AT15" s="70">
+        <f t="shared" ref="AT15" si="41">AT8</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS15" s="70">
-        <f t="shared" si="37"/>
+      <c r="AU15" s="70">
+        <f t="shared" si="40"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT15" s="70">
-        <f t="shared" ref="AT15" si="39">AT8</f>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="84">
+      <c r="AV15" s="70">
+        <f t="shared" ref="AV15" si="42">AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV15" s="84">
-        <f t="shared" si="34"/>
+      <c r="AX15" s="84">
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="10"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
       <c r="B16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1643760</v>
       </c>
       <c r="F16">
@@ -9995,7 +10175,7 @@
         <v>NA</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16" si="40">W9</f>
+        <f t="shared" ref="W16" si="43">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X16" t="str">
@@ -10035,7 +10215,7 @@
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16" si="41">AG9</f>
+        <f t="shared" ref="AG16" si="44">AG9</f>
         <v>0</v>
       </c>
       <c r="AH16">
@@ -10066,61 +10246,69 @@
         <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO16" s="70">
+      <c r="AO16">
+        <f t="shared" ref="AO16" si="45">AO9</f>
+        <v>2100</v>
+      </c>
+      <c r="AP16" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ16" s="70">
         <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AP16" s="102">
+      <c r="AR16" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ16" s="70">
-        <f t="shared" ref="AQ16:AS16" si="42">AQ9</f>
+      <c r="AS16" s="70">
+        <f t="shared" ref="AS16:AU16" si="46">AS9</f>
         <v>9.5</v>
       </c>
-      <c r="AR16" s="70">
-        <f t="shared" ref="AR16" si="43">AR9</f>
+      <c r="AT16" s="70">
+        <f t="shared" ref="AT16" si="47">AT9</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS16" s="70">
-        <f t="shared" si="42"/>
+      <c r="AU16" s="70">
+        <f t="shared" si="46"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT16" s="70">
-        <f t="shared" ref="AT16" si="44">AT9</f>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="84">
+      <c r="AV16" s="70">
+        <f t="shared" ref="AV16" si="48">AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV16" s="84">
-        <f t="shared" si="34"/>
+      <c r="AX16" s="84">
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="10"/>
       <c r="AY16" s="9"/>
       <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
       <c r="B17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1095840</v>
       </c>
       <c r="F17">
@@ -10192,7 +10380,7 @@
         <v>NA</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="45">W10</f>
+        <f t="shared" ref="W17" si="49">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X17" t="str">
@@ -10232,7 +10420,7 @@
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="46">AG10</f>
+        <f t="shared" ref="AG17" si="50">AG10</f>
         <v>0</v>
       </c>
       <c r="AH17">
@@ -10263,61 +10451,69 @@
         <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO17" s="70">
+      <c r="AO17">
+        <f t="shared" ref="AO17" si="51">AO10</f>
+        <v>2100</v>
+      </c>
+      <c r="AP17" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ17" s="70">
         <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AP17" s="102">
+      <c r="AR17" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ17" s="70">
-        <f t="shared" ref="AQ17:AS17" si="47">AQ10</f>
+      <c r="AS17" s="70">
+        <f t="shared" ref="AS17:AU17" si="52">AS10</f>
         <v>9.5</v>
       </c>
-      <c r="AR17" s="70">
-        <f t="shared" ref="AR17" si="48">AR10</f>
+      <c r="AT17" s="70">
+        <f t="shared" ref="AT17" si="53">AT10</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS17" s="70">
-        <f t="shared" si="47"/>
+      <c r="AU17" s="70">
+        <f t="shared" si="52"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT17" s="70">
-        <f t="shared" ref="AT17" si="49">AT10</f>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="84">
+      <c r="AV17" s="70">
+        <f t="shared" ref="AV17" si="54">AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV17" s="84">
-        <f t="shared" si="34"/>
+      <c r="AX17" s="84">
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="10"/>
       <c r="AY17" s="9"/>
       <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
       <c r="B18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>547920</v>
       </c>
       <c r="F18">
@@ -10389,7 +10585,7 @@
         <v>NA</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18" si="50">W11</f>
+        <f t="shared" ref="W18" si="55">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X18" t="str">
@@ -10429,7 +10625,7 @@
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18" si="51">AG11</f>
+        <f t="shared" ref="AG18" si="56">AG11</f>
         <v>0</v>
       </c>
       <c r="AH18">
@@ -10460,57 +10656,65 @@
         <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO18" s="70">
+      <c r="AO18">
+        <f t="shared" ref="AO18" si="57">AO11</f>
+        <v>2100</v>
+      </c>
+      <c r="AP18" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ18" s="70">
         <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AP18" s="102">
+      <c r="AR18" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ18" s="70">
-        <f t="shared" ref="AQ18:AS18" si="52">AQ11</f>
+      <c r="AS18" s="70">
+        <f t="shared" ref="AS18:AU18" si="58">AS11</f>
         <v>9.5</v>
       </c>
-      <c r="AR18" s="70">
-        <f t="shared" ref="AR18" si="53">AR11</f>
+      <c r="AT18" s="70">
+        <f t="shared" ref="AT18" si="59">AT11</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS18" s="70">
-        <f t="shared" si="52"/>
+      <c r="AU18" s="70">
+        <f t="shared" si="58"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT18" s="70">
-        <f t="shared" ref="AT18" si="54">AT11</f>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="84">
+      <c r="AV18" s="70">
+        <f t="shared" ref="AV18" si="60">AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV18" s="84">
-        <f t="shared" si="34"/>
+      <c r="AX18" s="84">
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="10"/>
       <c r="AY18" s="9"/>
       <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
       <c r="B19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="E19">
@@ -10586,7 +10790,7 @@
         <v>NA</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="55">W12</f>
+        <f t="shared" ref="W19" si="61">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X19" t="str">
@@ -10626,7 +10830,7 @@
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG19">
-        <f t="shared" ref="AG19" si="56">AG12</f>
+        <f t="shared" ref="AG19" si="62">AG12</f>
         <v>0</v>
       </c>
       <c r="AH19">
@@ -10657,48 +10861,56 @@
         <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO19" s="70">
+      <c r="AO19">
+        <f t="shared" ref="AO19" si="63">AO12</f>
+        <v>2100</v>
+      </c>
+      <c r="AP19" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ19" s="70">
         <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AP19" s="102">
+      <c r="AR19" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ19" s="70">
-        <f t="shared" ref="AQ19:AS19" si="57">AQ12</f>
+      <c r="AS19" s="70">
+        <f t="shared" ref="AS19:AU19" si="64">AS12</f>
         <v>9.5</v>
       </c>
-      <c r="AR19" s="70">
-        <f t="shared" ref="AR19" si="58">AR12</f>
+      <c r="AT19" s="70">
+        <f t="shared" ref="AT19" si="65">AT12</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS19" s="70">
-        <f t="shared" si="57"/>
+      <c r="AU19" s="70">
+        <f t="shared" si="64"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT19" s="70">
-        <f t="shared" ref="AT19" si="59">AT12</f>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="84">
+      <c r="AV19" s="70">
+        <f t="shared" ref="AV19" si="66">AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="84">
-        <f t="shared" si="34"/>
+      <c r="AX19" s="84">
+        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="10"/>
       <c r="AY19" s="9"/>
       <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
       <c r="B20">
         <f>B7</f>
         <v>1</v>
@@ -10715,1174 +10927,1222 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AN25" si="60">F7</f>
+        <f t="shared" ref="F20:AN25" si="67">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="61">W7</f>
+        <f t="shared" ref="W20" si="68">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20" si="62">AG7</f>
+        <f t="shared" ref="AG20" si="69">AG7</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO20" s="70">
+      <c r="AO20">
+        <f t="shared" ref="AO20" si="70">AO13</f>
+        <v>2100</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="AQ20" s="70">
         <f t="shared" si="14"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AP20" s="102">
+      <c r="AR20" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ20" s="70">
-        <f t="shared" ref="AQ20:AS20" si="63">AQ7</f>
+      <c r="AS20" s="70">
+        <f t="shared" ref="AS20:AU20" si="71">AS7</f>
         <v>9.5</v>
       </c>
-      <c r="AR20" s="70">
-        <f t="shared" ref="AR20" si="64">AR7</f>
+      <c r="AT20" s="70">
+        <f t="shared" ref="AT20" si="72">AT7</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS20" s="70">
-        <f t="shared" si="63"/>
+      <c r="AU20" s="70">
+        <f t="shared" si="71"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT20" s="70">
-        <f t="shared" ref="AT20" si="65">AT7</f>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="84">
+      <c r="AV20" s="70">
+        <f t="shared" ref="AV20" si="73">AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV20" s="84">
-        <f>AV7</f>
+      <c r="AX20" s="84">
+        <f>AX7</f>
         <v>68</v>
       </c>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="10"/>
       <c r="AY20" s="9"/>
       <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="66">B8</f>
+        <f t="shared" ref="B21:B34" si="74">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="67">D8-4</f>
+        <f t="shared" ref="D21:D25" si="75">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="68">E8</f>
+        <f t="shared" ref="E21:T25" si="76">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21" si="69">W8</f>
+        <f t="shared" ref="W21" si="77">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG21">
-        <f t="shared" ref="AG21" si="70">AG8</f>
+        <f t="shared" ref="AG21" si="78">AG8</f>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO21" s="70">
+      <c r="AO21">
+        <f t="shared" ref="AO21" si="79">AO14</f>
+        <v>2100</v>
+      </c>
+      <c r="AP21" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ21" s="70">
         <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AP21" s="102">
+      <c r="AR21" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ21" s="70">
-        <f t="shared" ref="AQ21:AS21" si="71">AQ8</f>
+      <c r="AS21" s="70">
+        <f t="shared" ref="AS21:AU21" si="80">AS8</f>
         <v>9.5</v>
       </c>
-      <c r="AR21" s="70">
-        <f t="shared" ref="AR21" si="72">AR8</f>
+      <c r="AT21" s="70">
+        <f t="shared" ref="AT21" si="81">AT8</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS21" s="70">
-        <f t="shared" si="71"/>
+      <c r="AU21" s="70">
+        <f t="shared" si="80"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT21" s="70">
-        <f t="shared" ref="AT21" si="73">AT8</f>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="84">
+      <c r="AV21" s="70">
+        <f t="shared" ref="AV21" si="82">AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV21" s="84">
-        <f t="shared" ref="AV21:AV25" si="74">AV8</f>
+      <c r="AX21" s="84">
+        <f t="shared" ref="AX21:AX25" si="83">AX8</f>
         <v>68</v>
       </c>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="10"/>
       <c r="AY21" s="9"/>
       <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
       <c r="B22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="76"/>
+        <v>1643760</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="68"/>
-        <v>1643760</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>True</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="J22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.1E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22" si="75">W9</f>
+        <f t="shared" ref="W22" si="84">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22" si="76">AG9</f>
+        <f t="shared" ref="AG22" si="85">AG9</f>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO22" s="70">
+      <c r="AO22">
+        <f t="shared" ref="AO22" si="86">AO15</f>
+        <v>2100</v>
+      </c>
+      <c r="AP22" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ22" s="70">
         <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AP22" s="102">
+      <c r="AR22" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ22" s="70">
-        <f t="shared" ref="AQ22:AS22" si="77">AQ9</f>
+      <c r="AS22" s="70">
+        <f t="shared" ref="AS22:AU22" si="87">AS9</f>
         <v>9.5</v>
       </c>
-      <c r="AR22" s="70">
-        <f t="shared" ref="AR22" si="78">AR9</f>
+      <c r="AT22" s="70">
+        <f t="shared" ref="AT22" si="88">AT9</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS22" s="70">
-        <f t="shared" si="77"/>
+      <c r="AU22" s="70">
+        <f t="shared" si="87"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT22" s="70">
-        <f t="shared" ref="AT22" si="79">AT9</f>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="84">
+      <c r="AV22" s="70">
+        <f t="shared" ref="AV22" si="89">AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV22" s="84">
-        <f t="shared" si="74"/>
+      <c r="AX22" s="84">
+        <f t="shared" si="83"/>
         <v>68</v>
       </c>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="10"/>
       <c r="AY22" s="9"/>
       <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
       <c r="B23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="76"/>
+        <v>1095840</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="67"/>
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="68"/>
-        <v>1095840</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>True</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="J23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ref="W23" si="80">W10</f>
+        <f t="shared" ref="W23" si="90">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23" si="81">AG10</f>
+        <f t="shared" ref="AG23" si="91">AG10</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO23" s="70">
+      <c r="AO23">
+        <f t="shared" ref="AO23" si="92">AO16</f>
+        <v>2100</v>
+      </c>
+      <c r="AP23" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ23" s="70">
         <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AP23" s="102">
+      <c r="AR23" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ23" s="70">
-        <f t="shared" ref="AQ23:AS23" si="82">AQ10</f>
+      <c r="AS23" s="70">
+        <f t="shared" ref="AS23:AU23" si="93">AS10</f>
         <v>9.5</v>
       </c>
-      <c r="AR23" s="70">
-        <f t="shared" ref="AR23" si="83">AR10</f>
+      <c r="AT23" s="70">
+        <f t="shared" ref="AT23" si="94">AT10</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS23" s="70">
-        <f t="shared" si="82"/>
+      <c r="AU23" s="70">
+        <f t="shared" si="93"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT23" s="70">
-        <f t="shared" ref="AT23" si="84">AT10</f>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="84">
+      <c r="AV23" s="70">
+        <f t="shared" ref="AV23" si="95">AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV23" s="84">
-        <f t="shared" si="74"/>
+      <c r="AX23" s="84">
+        <f t="shared" si="83"/>
         <v>68</v>
       </c>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="10"/>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
       <c r="B24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="76"/>
+        <v>547920</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="67"/>
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="68"/>
-        <v>547920</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>True</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="J24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24" si="85">W11</f>
+        <f t="shared" ref="W24" si="96">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG24">
-        <f t="shared" ref="AG24" si="86">AG11</f>
+        <f t="shared" ref="AG24" si="97">AG11</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO24" s="70">
+      <c r="AO24">
+        <f t="shared" ref="AO24" si="98">AO17</f>
+        <v>2100</v>
+      </c>
+      <c r="AP24" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ24" s="70">
         <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AP24" s="102">
+      <c r="AR24" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ24" s="70">
-        <f t="shared" ref="AQ24:AS24" si="87">AQ11</f>
+      <c r="AS24" s="70">
+        <f t="shared" ref="AS24:AU24" si="99">AS11</f>
         <v>9.5</v>
       </c>
-      <c r="AR24" s="70">
-        <f t="shared" ref="AR24" si="88">AR11</f>
+      <c r="AT24" s="70">
+        <f t="shared" ref="AT24" si="100">AT11</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS24" s="70">
-        <f t="shared" si="87"/>
+      <c r="AU24" s="70">
+        <f t="shared" si="99"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT24" s="70">
-        <f t="shared" ref="AT24" si="89">AT11</f>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="84">
+      <c r="AV24" s="70">
+        <f t="shared" ref="AV24" si="101">AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV24" s="84">
-        <f t="shared" si="74"/>
+      <c r="AX24" s="84">
+        <f t="shared" si="83"/>
         <v>68</v>
       </c>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="10"/>
       <c r="AY24" s="9"/>
       <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
       <c r="B25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="67"/>
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>True</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="J25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.894E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ref="W25" si="90">W12</f>
+        <f t="shared" ref="W25" si="102">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>NA</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>False</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25" si="91">AG12</f>
+        <f t="shared" ref="AG25" si="103">AG12</f>
         <v>0</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO25" s="70">
+      <c r="AO25">
+        <f t="shared" ref="AO25" si="104">AO18</f>
+        <v>2100</v>
+      </c>
+      <c r="AP25" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ25" s="70">
         <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AP25" s="102">
+      <c r="AR25" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ25" s="70">
-        <f t="shared" ref="AQ25:AS25" si="92">AQ12</f>
+      <c r="AS25" s="70">
+        <f t="shared" ref="AS25:AU25" si="105">AS12</f>
         <v>9.5</v>
       </c>
-      <c r="AR25" s="70">
-        <f t="shared" ref="AR25" si="93">AR12</f>
+      <c r="AT25" s="70">
+        <f t="shared" ref="AT25" si="106">AT12</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS25" s="70">
-        <f t="shared" si="92"/>
+      <c r="AU25" s="70">
+        <f t="shared" si="105"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT25" s="70">
-        <f t="shared" ref="AT25" si="94">AT12</f>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="84">
+      <c r="AV25" s="70">
+        <f t="shared" ref="AV25" si="107">AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV25" s="84">
-        <f t="shared" si="74"/>
+      <c r="AX25" s="84">
+        <f t="shared" si="83"/>
         <v>68</v>
       </c>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="10"/>
       <c r="AY25" s="9"/>
       <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
       <c r="B26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -11897,977 +12157,1017 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AN30" si="95">F8</f>
+        <f t="shared" ref="F26:AN30" si="108">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="96">W8</f>
+        <f t="shared" ref="W26" si="109">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="97">AG8</f>
+        <f t="shared" ref="AG26" si="110">AG8</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO26" s="70">
+      <c r="AO26">
+        <f t="shared" ref="AO26" si="111">AO19</f>
+        <v>2100</v>
+      </c>
+      <c r="AP26" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ26" s="70">
         <f t="shared" si="14"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AP26" s="102">
+      <c r="AR26" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ26" s="70">
-        <f t="shared" ref="AQ26:AS26" si="98">AQ8</f>
+      <c r="AS26" s="70">
+        <f t="shared" ref="AS26:AU26" si="112">AS8</f>
         <v>9.5</v>
       </c>
-      <c r="AR26" s="70">
-        <f t="shared" ref="AR26" si="99">AR8</f>
+      <c r="AT26" s="70">
+        <f t="shared" ref="AT26" si="113">AT8</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS26" s="70">
-        <f t="shared" si="98"/>
+      <c r="AU26" s="70">
+        <f t="shared" si="112"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT26" s="70">
-        <f t="shared" ref="AT26" si="100">AT8</f>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="84">
+      <c r="AV26" s="70">
+        <f t="shared" ref="AV26" si="114">AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV26" s="84">
-        <f>AV8</f>
+      <c r="AX26" s="84">
+        <f>AX8</f>
         <v>68</v>
       </c>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="10"/>
       <c r="AY26" s="9"/>
       <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
       <c r="B27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="101">D9-5</f>
+        <f t="shared" ref="D27:D30" si="115">D9-5</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T30" si="102">E9</f>
+        <f t="shared" ref="E27:T30" si="116">E9</f>
         <v>1643760</v>
       </c>
       <c r="F27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>True</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>False</v>
       </c>
       <c r="J27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>2.894E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>2.894E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3.1E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>NA</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="103">W9</f>
+        <f t="shared" ref="W27" si="117">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27" si="104">AG9</f>
+        <f t="shared" ref="AG27" si="118">AG9</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO27" s="70">
+      <c r="AO27">
+        <f t="shared" ref="AO27" si="119">AO20</f>
+        <v>2100</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="AQ27" s="70">
         <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AP27" s="102">
+      <c r="AR27" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ27" s="70">
-        <f t="shared" ref="AQ27:AS27" si="105">AQ9</f>
+      <c r="AS27" s="70">
+        <f t="shared" ref="AS27:AU27" si="120">AS9</f>
         <v>9.5</v>
       </c>
-      <c r="AR27" s="70">
-        <f t="shared" ref="AR27" si="106">AR9</f>
+      <c r="AT27" s="70">
+        <f t="shared" ref="AT27" si="121">AT9</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS27" s="70">
-        <f t="shared" si="105"/>
+      <c r="AU27" s="70">
+        <f t="shared" si="120"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT27" s="70">
-        <f t="shared" ref="AT27" si="107">AT9</f>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="84">
+      <c r="AV27" s="70">
+        <f t="shared" ref="AV27" si="122">AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV27" s="84">
-        <f t="shared" ref="AV27:AV30" si="108">AV9</f>
+      <c r="AX27" s="84">
+        <f t="shared" ref="AX27:AX30" si="123">AX9</f>
         <v>68</v>
       </c>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="10"/>
       <c r="AY27" s="9"/>
       <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
       <c r="B28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
       <c r="D28">
-        <f t="shared" si="101"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>1095840</v>
       </c>
       <c r="F28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>True</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="J28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28" si="109">W10</f>
+        <f t="shared" ref="W28" si="124">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG28">
-        <f t="shared" ref="AG28" si="110">AG10</f>
+        <f t="shared" ref="AG28" si="125">AG10</f>
         <v>0</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO28" s="70">
+      <c r="AO28">
+        <f t="shared" ref="AO28" si="126">AO21</f>
+        <v>2100</v>
+      </c>
+      <c r="AP28" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ28" s="70">
         <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AP28" s="102">
+      <c r="AR28" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ28" s="70">
-        <f t="shared" ref="AQ28:AS28" si="111">AQ10</f>
+      <c r="AS28" s="70">
+        <f t="shared" ref="AS28:AU28" si="127">AS10</f>
         <v>9.5</v>
       </c>
-      <c r="AR28" s="70">
-        <f t="shared" ref="AR28" si="112">AR10</f>
+      <c r="AT28" s="70">
+        <f t="shared" ref="AT28" si="128">AT10</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS28" s="70">
-        <f t="shared" si="111"/>
+      <c r="AU28" s="70">
+        <f t="shared" si="127"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT28" s="70">
-        <f t="shared" ref="AT28" si="113">AT10</f>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="84">
+      <c r="AV28" s="70">
+        <f t="shared" ref="AV28" si="129">AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV28" s="84">
-        <f t="shared" si="108"/>
+      <c r="AX28" s="84">
+        <f t="shared" si="123"/>
         <v>68</v>
       </c>
-      <c r="AW28" s="9"/>
-      <c r="AX28" s="10"/>
       <c r="AY28" s="9"/>
       <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
       <c r="B29">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="115"/>
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="114">W11</f>
+        <f t="shared" ref="W29" si="130">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29" si="115">AG11</f>
+        <f t="shared" ref="AG29" si="131">AG11</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO29" s="70">
+      <c r="AO29">
+        <f t="shared" ref="AO29" si="132">AO22</f>
+        <v>2100</v>
+      </c>
+      <c r="AP29" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ29" s="70">
         <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AP29" s="102">
+      <c r="AR29" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ29" s="70">
-        <f t="shared" ref="AQ29:AS29" si="116">AQ11</f>
+      <c r="AS29" s="70">
+        <f t="shared" ref="AS29:AU29" si="133">AS11</f>
         <v>9.5</v>
       </c>
-      <c r="AR29" s="70">
-        <f t="shared" ref="AR29" si="117">AR11</f>
+      <c r="AT29" s="70">
+        <f t="shared" ref="AT29" si="134">AT11</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS29" s="70">
-        <f t="shared" si="116"/>
+      <c r="AU29" s="70">
+        <f t="shared" si="133"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT29" s="70">
-        <f t="shared" ref="AT29" si="118">AT11</f>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="84">
+      <c r="AV29" s="70">
+        <f t="shared" ref="AV29" si="135">AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV29" s="84">
-        <f t="shared" si="108"/>
+      <c r="AX29" s="84">
+        <f t="shared" si="123"/>
         <v>68</v>
       </c>
-      <c r="AW29" s="9"/>
-      <c r="AX29" s="10"/>
       <c r="AY29" s="9"/>
       <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
       <c r="B30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="115"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>True</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="J30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.894E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="119">W12</f>
+        <f t="shared" ref="W30" si="136">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>NA</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>False</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG30">
-        <f t="shared" ref="AG30" si="120">AG12</f>
+        <f t="shared" ref="AG30" si="137">AG12</f>
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO30" s="70">
+      <c r="AO30">
+        <f t="shared" ref="AO30" si="138">AO23</f>
+        <v>2100</v>
+      </c>
+      <c r="AP30" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ30" s="70">
         <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AP30" s="102">
+      <c r="AR30" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ30" s="70">
-        <f t="shared" ref="AQ30:AS30" si="121">AQ12</f>
+      <c r="AS30" s="70">
+        <f t="shared" ref="AS30:AU30" si="139">AS12</f>
         <v>9.5</v>
       </c>
-      <c r="AR30" s="70">
-        <f t="shared" ref="AR30" si="122">AR12</f>
+      <c r="AT30" s="70">
+        <f t="shared" ref="AT30" si="140">AT12</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS30" s="70">
-        <f t="shared" si="121"/>
+      <c r="AU30" s="70">
+        <f t="shared" si="139"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT30" s="70">
-        <f t="shared" ref="AT30" si="123">AT12</f>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="84">
+      <c r="AV30" s="70">
+        <f t="shared" ref="AV30" si="141">AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV30" s="84">
-        <f t="shared" si="108"/>
+      <c r="AX30" s="84">
+        <f t="shared" si="123"/>
         <v>68</v>
       </c>
-      <c r="AW30" s="9"/>
-      <c r="AX30" s="10"/>
       <c r="AY30" s="9"/>
       <c r="AZ30" s="10"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="9"/>
+      <c r="BE30" s="9"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
       <c r="B31">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -12882,777 +13182,809 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AN34" si="124">F9</f>
+        <f t="shared" ref="F31:AN34" si="142">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" si="125">W9</f>
+        <f t="shared" ref="W31" si="143">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="126">AG9</f>
+        <f t="shared" ref="AG31" si="144">AG9</f>
         <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO31" s="70">
+      <c r="AO31">
+        <f t="shared" ref="AO31" si="145">AO24</f>
+        <v>2100</v>
+      </c>
+      <c r="AP31" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ31" s="70">
         <f t="shared" si="14"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AP31" s="102">
+      <c r="AR31" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ31" s="70">
-        <f t="shared" ref="AQ31:AS31" si="127">AQ9</f>
+      <c r="AS31" s="70">
+        <f t="shared" ref="AS31:AU31" si="146">AS9</f>
         <v>9.5</v>
       </c>
-      <c r="AR31" s="70">
-        <f t="shared" ref="AR31" si="128">AR9</f>
+      <c r="AT31" s="70">
+        <f t="shared" ref="AT31" si="147">AT9</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS31" s="70">
-        <f t="shared" si="127"/>
+      <c r="AU31" s="70">
+        <f t="shared" si="146"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT31" s="70">
-        <f t="shared" ref="AT31" si="129">AT9</f>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="84">
+      <c r="AV31" s="70">
+        <f t="shared" ref="AV31" si="148">AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV31" s="84">
-        <f>AV16</f>
+      <c r="AX31" s="84">
+        <f>AX16</f>
         <v>68</v>
       </c>
-      <c r="AW31" s="9"/>
-      <c r="AX31" s="10"/>
       <c r="AY31" s="9"/>
       <c r="AZ31" s="10"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="9"/>
-      <c r="BC31" s="9"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
       <c r="B32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="130">D10-6</f>
+        <f t="shared" ref="D32:D34" si="149">D10-6</f>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:T34" si="131">E10</f>
+        <f t="shared" ref="E32:T34" si="150">E10</f>
         <v>1095840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>True</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>False</v>
       </c>
       <c r="J32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>2.894E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>2.894E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>NA</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ref="W32" si="132">W10</f>
+        <f t="shared" ref="W32" si="151">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG32">
-        <f t="shared" ref="AG32" si="133">AG10</f>
+        <f t="shared" ref="AG32" si="152">AG10</f>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO32" s="70">
+      <c r="AO32">
+        <f t="shared" ref="AO32" si="153">AO25</f>
+        <v>2100</v>
+      </c>
+      <c r="AP32" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ32" s="70">
         <f t="shared" si="14"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AP32" s="102">
+      <c r="AR32" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ32" s="70">
-        <f t="shared" ref="AQ32:AS32" si="134">AQ10</f>
+      <c r="AS32" s="70">
+        <f t="shared" ref="AS32:AU32" si="154">AS10</f>
         <v>9.5</v>
       </c>
-      <c r="AR32" s="70">
-        <f t="shared" ref="AR32" si="135">AR10</f>
+      <c r="AT32" s="70">
+        <f t="shared" ref="AT32" si="155">AT10</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS32" s="70">
-        <f t="shared" si="134"/>
+      <c r="AU32" s="70">
+        <f t="shared" si="154"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT32" s="70">
-        <f t="shared" ref="AT32" si="136">AT10</f>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="84">
+      <c r="AV32" s="70">
+        <f t="shared" ref="AV32" si="156">AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV32" s="84">
-        <f t="shared" ref="AV32:AV34" si="137">AV17</f>
+      <c r="AX32" s="84">
+        <f t="shared" ref="AX32:AX34" si="157">AX17</f>
         <v>68</v>
       </c>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="10"/>
       <c r="AY32" s="9"/>
       <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9"/>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
       <c r="B33">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>547920</v>
       </c>
       <c r="F33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>True</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="J33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" ref="W33" si="138">W11</f>
+        <f t="shared" ref="W33" si="158">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG33">
-        <f t="shared" ref="AG33" si="139">AG11</f>
+        <f t="shared" ref="AG33" si="159">AG11</f>
         <v>0</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO33" s="70">
+      <c r="AO33">
+        <f t="shared" ref="AO33" si="160">AO26</f>
+        <v>2100</v>
+      </c>
+      <c r="AP33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ33" s="70">
         <f t="shared" si="14"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AP33" s="102">
+      <c r="AR33" s="102">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ33" s="70">
-        <f t="shared" ref="AQ33:AS33" si="140">AQ11</f>
+      <c r="AS33" s="70">
+        <f t="shared" ref="AS33:AU33" si="161">AS11</f>
         <v>9.5</v>
       </c>
-      <c r="AR33" s="70">
-        <f t="shared" ref="AR33" si="141">AR11</f>
+      <c r="AT33" s="70">
+        <f t="shared" ref="AT33" si="162">AT11</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS33" s="70">
-        <f t="shared" si="140"/>
+      <c r="AU33" s="70">
+        <f t="shared" si="161"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT33" s="70">
-        <f t="shared" ref="AT33" si="142">AT11</f>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="84">
+      <c r="AV33" s="70">
+        <f t="shared" ref="AV33" si="163">AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV33" s="84">
-        <f t="shared" si="137"/>
+      <c r="AX33" s="84">
+        <f t="shared" si="157"/>
         <v>68</v>
       </c>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="10"/>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
       <c r="B34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
       </c>
       <c r="D34">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>True</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="J34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.894E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" ref="W34" si="143">W12</f>
+        <f t="shared" ref="W34" si="164">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>NA</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>False</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG34">
-        <f t="shared" ref="AG34" si="144">AG12</f>
+        <f t="shared" ref="AG34" si="165">AG12</f>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO34" s="73">
+      <c r="AO34">
+        <f t="shared" ref="AO34" si="166">AO27</f>
+        <v>2100</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="AQ34" s="73">
         <f t="shared" si="14"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AP34" s="103">
+      <c r="AR34" s="103">
         <f t="shared" si="15"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AQ34" s="73">
-        <f t="shared" ref="AQ34:AS34" si="145">AQ12</f>
+      <c r="AS34" s="73">
+        <f t="shared" ref="AS34:AU34" si="167">AS12</f>
         <v>9.5</v>
       </c>
-      <c r="AR34" s="73">
-        <f t="shared" ref="AR34" si="146">AR12</f>
+      <c r="AT34" s="73">
+        <f t="shared" ref="AT34" si="168">AT12</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AS34" s="73">
-        <f t="shared" si="145"/>
+      <c r="AU34" s="73">
+        <f t="shared" si="167"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AT34" s="73">
-        <f t="shared" ref="AT34" si="147">AT12</f>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="84">
+      <c r="AV34" s="73">
+        <f t="shared" ref="AV34" si="169">AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AV34" s="84">
-        <f t="shared" si="137"/>
+      <c r="AX34" s="84">
+        <f t="shared" si="157"/>
         <v>68</v>
       </c>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="10"/>
       <c r="AY34" s="9"/>
       <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -13664,8 +13996,8 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="109" t="s">
+    <row r="36" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -13752,22 +14084,22 @@
       </c>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="80" t="s">
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AQ36" s="80" t="s">
+      <c r="AS36" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AR36" s="81" t="s">
+      <c r="AT36" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
       <c r="AU36" s="51"/>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
       <c r="B37">
         <v>1</v>
       </c>
@@ -13806,22 +14138,22 @@
         <v>1.7741886232211572</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="148">J37*$X37</f>
+        <f t="shared" ref="M37:M42" si="170">J37*$X37</f>
         <v>17.74188623221157</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="149">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="171">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="150">J37*$AB$38</f>
+        <f t="shared" ref="O37:O42" si="172">J37*$AB$38</f>
         <v>25.307812989677835</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="151">J37*$AC37</f>
+        <f t="shared" ref="Q37:Q42" si="173">J37*$AC37</f>
         <v>0.36569789770084471</v>
       </c>
       <c r="R37">
@@ -13842,7 +14174,7 @@
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="152">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="174">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -13856,14 +14188,14 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="153">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="175">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f>ROUND(X37/$AS$6*$AC$45,0)</f>
+        <f>ROUND(X37/$AU$6*$AC$45,0)</f>
         <v>85</v>
       </c>
       <c r="AD37" s="15">
@@ -13875,25 +14207,25 @@
         <v>37.232071931263391</v>
       </c>
       <c r="AF37" s="1"/>
-      <c r="AO37" s="82"/>
-      <c r="AP37" s="84">
-        <f>$AP$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
+      <c r="AQ37" s="82"/>
+      <c r="AR37" s="84">
+        <f>$AR$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
         <v>5882.3529411764703</v>
       </c>
-      <c r="AQ37" s="84">
-        <f>$AQ$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
+      <c r="AS37" s="84">
+        <f>$AS$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
         <v>5882.3529411764703</v>
       </c>
-      <c r="AR37" s="85">
-        <f>AQ37+AP37</f>
+      <c r="AT37" s="85">
+        <f>AS37+AR37</f>
         <v>11764.705882352941</v>
       </c>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
       <c r="AU37" s="97"/>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="AV37" s="97"/>
+      <c r="AW37" s="97"/>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
       <c r="B38">
         <v>1</v>
       </c>
@@ -13924,7 +14256,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="154">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="176">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -13932,22 +14264,22 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
-        <f t="shared" si="148"/>
+        <f t="shared" si="170"/>
         <v>2.0231970075485135</v>
       </c>
       <c r="N38">
-        <f t="shared" si="149"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="172"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="173"/>
         <v>4.104E-2</v>
       </c>
       <c r="R38">
@@ -13969,7 +14301,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="174"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -13983,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="153"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -13991,37 +14323,37 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" ref="AC38:AC42" si="155">ROUND(X38/$AS$6*$AC$45,0)</f>
+        <f t="shared" ref="AC38:AC42" si="177">ROUND(X38/$AU$6*$AC$45,0)</f>
         <v>24</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="156">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="178">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="157">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="179">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
-      <c r="AO38" s="83" t="s">
+      <c r="AQ38" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="AP38" s="86">
+      <c r="AR38" s="86">
         <v>10</v>
       </c>
-      <c r="AQ38" s="86">
+      <c r="AS38" s="86">
         <v>10</v>
       </c>
-      <c r="AR38" s="87">
-        <f>AQ38+AP38</f>
+      <c r="AT38" s="87">
+        <f>AS38+AR38</f>
         <v>20</v>
       </c>
-      <c r="AS38" s="98"/>
-      <c r="AT38" s="98"/>
       <c r="AU38" s="98"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="AV38" s="98"/>
+      <c r="AW38" s="98"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A39" s="111"/>
       <c r="B39">
         <v>1</v>
       </c>
@@ -14051,30 +14383,30 @@
         <v>5.0680069287428898E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="176"/>
         <v>2.5340034643714449E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="158">J39*$W39</f>
+        <f t="shared" ref="L39:L42" si="180">J39*$W39</f>
         <v>2.4761936124967816</v>
       </c>
       <c r="M39">
-        <f t="shared" si="148"/>
+        <f t="shared" si="170"/>
         <v>24.761936124967814</v>
       </c>
       <c r="N39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="172"/>
         <v>29.811805463193469</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="173"/>
         <v>0.51186869980303185</v>
       </c>
       <c r="R39">
@@ -14095,38 +14427,38 @@
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="174"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="159">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="181">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="153"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="177"/>
         <v>101</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="178"/>
         <v>8.4723718951712264E-3</v>
       </c>
       <c r="AE39" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="179"/>
         <v>40.181958589053821</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A40" s="111"/>
       <c r="B40">
         <v>1</v>
       </c>
@@ -14156,30 +14488,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="154"/>
+        <f t="shared" si="176"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="158"/>
+        <f t="shared" si="180"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
-        <f t="shared" si="148"/>
+        <f t="shared" si="170"/>
         <v>3.8263355734467188</v>
       </c>
       <c r="N40">
-        <f t="shared" si="149"/>
+        <f t="shared" si="171"/>
         <v>6.7058823529411775</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="172"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="173"/>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="R40">
@@ -14201,11 +14533,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="174"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="181"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14216,22 +14548,22 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="177"/>
         <v>35</v>
       </c>
       <c r="AD40" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="178"/>
         <v>3.0576333839599777E-3</v>
       </c>
       <c r="AE40" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="179"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A41" s="111"/>
       <c r="B41">
         <v>1</v>
       </c>
@@ -14261,30 +14593,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="154"/>
+        <f t="shared" si="176"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="180"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="148"/>
+        <f t="shared" si="170"/>
         <v>6.7128694270995062E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="149"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="172"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="173"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="R41">
@@ -14306,42 +14638,42 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="174"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="181"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA41" s="89">
-        <f t="shared" si="153"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="177"/>
         <v>35</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="178"/>
         <v>5.3642690946666268E-5</v>
       </c>
       <c r="AE41" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="179"/>
         <v>25.432525300101705</v>
       </c>
-      <c r="AV41" s="91" t="s">
+      <c r="AX41" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="AW41" s="9" t="s">
+      <c r="AY41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AX41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+      <c r="AZ41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A42" s="111"/>
       <c r="B42">
         <v>1</v>
       </c>
@@ -14371,30 +14703,30 @@
         <v>4.3694199999999997E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="176"/>
         <v>2.18471E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="158"/>
+        <f t="shared" si="180"/>
         <v>2.3509226953550577</v>
       </c>
       <c r="M42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="170"/>
         <v>23.509226953550574</v>
       </c>
       <c r="N42">
-        <f t="shared" si="149"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="172"/>
         <v>25.70247058823529</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="173"/>
         <v>0.48500561999999997</v>
       </c>
       <c r="R42">
@@ -14416,58 +14748,60 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="174"/>
         <v>538.03999051477263</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="181"/>
         <v>5380.3999051477258</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" si="153"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="177"/>
         <v>111</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="178"/>
         <v>7.5272391193074283E-3</v>
       </c>
       <c r="AE42" s="72">
-        <f t="shared" si="157"/>
+        <f t="shared" si="179"/>
         <v>41.951890583728066</v>
       </c>
-      <c r="AV42" s="91"/>
-      <c r="AW42" s="9" t="s">
+      <c r="AX42" s="91"/>
+      <c r="AY42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AX42" s="9">
+      <c r="AZ42" s="9">
         <v>0.106</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Z43" s="1"/>
       <c r="AN43" s="91"/>
-      <c r="AO43" s="91"/>
-      <c r="AP43" s="91"/>
+      <c r="AO43" s="109"/>
+      <c r="AP43" s="109"/>
       <c r="AQ43" s="91"/>
       <c r="AR43" s="91"/>
-      <c r="AS43" s="96"/>
-      <c r="AT43" s="96"/>
-      <c r="AU43" s="105"/>
-      <c r="AV43" s="9" t="s">
+      <c r="AS43" s="91"/>
+      <c r="AT43" s="91"/>
+      <c r="AU43" s="96"/>
+      <c r="AV43" s="96"/>
+      <c r="AW43" s="105"/>
+      <c r="AX43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW43" s="9">
+      <c r="AY43" s="9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="V44" s="34"/>
       <c r="W44" s="93"/>
@@ -14484,28 +14818,30 @@
         <v>167</v>
       </c>
       <c r="AN44" s="91"/>
-      <c r="AO44" s="91"/>
-      <c r="AP44" s="91"/>
+      <c r="AO44" s="109"/>
+      <c r="AP44" s="109"/>
       <c r="AQ44" s="91"/>
       <c r="AR44" s="91"/>
-      <c r="AS44" s="96"/>
-      <c r="AT44" s="96"/>
-      <c r="AU44" s="105"/>
-      <c r="AV44" s="9" t="s">
+      <c r="AS44" s="91"/>
+      <c r="AT44" s="91"/>
+      <c r="AU44" s="96"/>
+      <c r="AV44" s="96"/>
+      <c r="AW44" s="105"/>
+      <c r="AX44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AW44" s="9">
+      <c r="AY44" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="X45" s="16">
         <f>INPUTS!X23</f>
         <v>0.1</v>
       </c>
       <c r="Y45" s="74">
-        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AQ5:AQ12,AO5:AO12))/SUM(AD37:AD42,AO5:AO12)</f>
+        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD37:AD42,AQ5:AQ12)</f>
         <v>4.3740904222538166</v>
       </c>
       <c r="AA45" s="54" t="s">
@@ -14515,22 +14851,24 @@
         <v>200</v>
       </c>
       <c r="AN45" s="91"/>
-      <c r="AO45" s="91"/>
-      <c r="AP45" s="91"/>
+      <c r="AO45" s="109"/>
+      <c r="AP45" s="109"/>
       <c r="AQ45" s="91"/>
       <c r="AR45" s="91"/>
-      <c r="AS45" s="96"/>
-      <c r="AT45" s="96"/>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="9" t="s">
+      <c r="AS45" s="91"/>
+      <c r="AT45" s="91"/>
+      <c r="AU45" s="96"/>
+      <c r="AV45" s="96"/>
+      <c r="AW45" s="105"/>
+      <c r="AX45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AW45" s="9">
+      <c r="AY45" s="9">
         <f>210*3600*24/12</f>
         <v>1512000</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -14542,15 +14880,17 @@
       <c r="AS46" s="9"/>
       <c r="AT46" s="9"/>
       <c r="AU46" s="9"/>
-      <c r="AV46" s="9" t="s">
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AW46" s="9">
+      <c r="AY46" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A47" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -14594,19 +14934,21 @@
       <c r="AO47" s="11"/>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="11"/>
-      <c r="AR47" s="9" t="s">
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
       <c r="AU47" s="9"/>
-      <c r="AV47" s="9">
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="9">
         <f>1/59</f>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A48" s="111"/>
       <c r="B48">
         <v>1</v>
       </c>
@@ -14648,14 +14990,16 @@
       <c r="AO48" s="12"/>
       <c r="AP48" s="12"/>
       <c r="AQ48" s="12"/>
-      <c r="AR48" s="9"/>
-      <c r="AS48" s="9"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
       <c r="AT48" s="9"/>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="9"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" s="111"/>
       <c r="B49">
         <v>1</v>
       </c>
@@ -14710,7 +15054,7 @@
       <c r="Q49" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="110" t="s">
+      <c r="R49" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S49" s="9" t="s">
@@ -14724,13 +15068,15 @@
       <c r="AO49" s="12"/>
       <c r="AP49" s="12"/>
       <c r="AQ49" s="12"/>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="E50" s="57">
         <f>AB38</f>
         <v>5882.3529411764703</v>
@@ -14767,7 +15113,7 @@
         <f>INPUTS!Q28</f>
         <v>1.2</v>
       </c>
-      <c r="R50" s="110"/>
+      <c r="R50" s="112"/>
       <c r="S50" s="9" t="s">
         <v>48</v>
       </c>
@@ -14781,15 +15127,17 @@
       <c r="AO50" s="12"/>
       <c r="AP50" s="12"/>
       <c r="AQ50" s="12"/>
-      <c r="AR50" s="9"/>
-      <c r="AS50" s="9"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
       <c r="AT50" s="9"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="9"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
-      <c r="R51" s="110"/>
+      <c r="R51" s="112"/>
       <c r="S51" s="9" t="s">
         <v>49</v>
       </c>
@@ -14809,13 +15157,15 @@
       <c r="AO51" s="13"/>
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
-      <c r="AR51" s="9"/>
-      <c r="AS51" s="9"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
       <c r="AT51" s="9"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D52" s="27" t="s">
         <v>78</v>
       </c>
@@ -14827,7 +15177,7 @@
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
         <v>5.6374926905079017E-2</v>
       </c>
-      <c r="R52" s="110"/>
+      <c r="R52" s="112"/>
       <c r="S52" s="9" t="s">
         <v>50</v>
       </c>
@@ -14845,13 +15195,15 @@
       <c r="AO52" s="13"/>
       <c r="AP52" s="13"/>
       <c r="AQ52" s="13"/>
-      <c r="AR52" s="9"/>
-      <c r="AS52" s="9"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
       <c r="AT52" s="9"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="9"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="s">
         <v>79</v>
       </c>
@@ -14871,7 +15223,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R53" s="110"/>
+      <c r="R53" s="112"/>
       <c r="S53" s="9" t="s">
         <v>51</v>
       </c>
@@ -14892,13 +15244,15 @@
       <c r="AO53" s="12"/>
       <c r="AP53" s="12"/>
       <c r="AQ53" s="12"/>
-      <c r="AR53" s="9"/>
-      <c r="AS53" s="9"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
       <c r="AT53" s="9"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="9"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D54" s="23" t="s">
         <v>76</v>
       </c>
@@ -14918,7 +15272,7 @@
         <f>E48*E53+F48*F53</f>
         <v>0</v>
       </c>
-      <c r="R54" s="110"/>
+      <c r="R54" s="112"/>
       <c r="S54" s="11" t="s">
         <v>52</v>
       </c>
@@ -14932,7 +15286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O55" s="35" t="s">
         <v>109</v>
       </c>
@@ -14947,7 +15301,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O56" s="35" t="s">
         <v>110</v>
       </c>
@@ -14956,8 +15310,8 @@
         <v>4.3111368674888281E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+    <row r="57" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114" t="s">
         <v>156</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -15005,8 +15359,8 @@
       </c>
       <c r="Q57" s="32"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A58" s="114"/>
       <c r="B58">
         <v>1</v>
       </c>
@@ -15047,8 +15401,8 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="112"/>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A59" s="114"/>
       <c r="B59">
         <f>B58</f>
         <v>1</v>
@@ -15069,30 +15423,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="160">G58</f>
+        <f t="shared" ref="G59:M59" si="182">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="160"/>
+        <f t="shared" si="182"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="160"/>
+        <f t="shared" si="182"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="160"/>
+        <f t="shared" si="182"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="160"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="160"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -15103,8 +15457,8 @@
         <v>0.41050884740986027</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A60" s="114"/>
       <c r="B60">
         <f>B59</f>
         <v>1</v>
@@ -15125,30 +15479,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="161">G58</f>
+        <f t="shared" ref="G60:M60" si="183">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="161"/>
+        <f t="shared" si="183"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="161"/>
+        <f t="shared" si="183"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="161"/>
+        <f t="shared" si="183"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="161"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="161"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -15159,8 +15513,8 @@
         <v>0.17634374328200209</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A61" s="114"/>
       <c r="B61">
         <f>B60</f>
         <v>1</v>
@@ -15181,30 +15535,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="162">G58</f>
+        <f t="shared" ref="G61:M61" si="184">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="162"/>
+        <f t="shared" si="184"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="162"/>
+        <f t="shared" si="184"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="162"/>
+        <f t="shared" si="184"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="162"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="162"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15215,8 +15569,8 @@
         <v>0.41050884740986027</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
       <c r="B62">
         <f>B61</f>
         <v>1</v>
@@ -15237,30 +15591,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="163">G58</f>
+        <f t="shared" ref="G62:M62" si="185">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="163"/>
+        <f t="shared" si="185"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="163"/>
+        <f t="shared" si="185"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="163"/>
+        <f t="shared" si="185"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="163"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="163"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -15271,7 +15625,7 @@
         <v>0.17634374328200209</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O64" s="35" t="s">
         <v>132</v>
       </c>
@@ -15348,7 +15702,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -15501,7 +15855,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -15674,7 +16028,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -15846,7 +16200,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -16015,7 +16369,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -16184,7 +16538,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -16353,7 +16707,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -16522,7 +16876,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -16691,7 +17045,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -16872,7 +17226,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -16954,7 +17308,7 @@
       <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -17051,7 +17405,7 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -17149,7 +17503,7 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -17242,7 +17596,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -17334,7 +17688,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -17430,7 +17784,7 @@
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -17595,7 +17949,7 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -17651,7 +18005,7 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -17700,7 +18054,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -17752,7 +18106,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="110" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -17802,7 +18156,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="110"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -17822,7 +18176,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="110"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -17851,7 +18205,7 @@
         <v>78</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="R30" s="110"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -17900,7 +18254,7 @@
         <f t="array" ref="P31">SUM(I15:I20,AI5:AI12)+SUM(AD5:AD12*F31,K15:K20*F31)+SUM(AF5:AF12*J31,L15:L20*J31)+SUM(AC5:AC12*E31,N15:N20*E31)</f>
         <v>3.5521334871089626E-2</v>
       </c>
-      <c r="R31" s="110"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="185">
   <si>
     <t>plant</t>
   </si>
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,6 +3425,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="111" t="s">
@@ -7701,10 +7702,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BE66"/>
+  <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,11 +7713,11 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="12" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>113</v>
       </c>
@@ -7730,7 +7731,7 @@
       <c r="W1" s="106"/>
       <c r="X1" s="107"/>
     </row>
-    <row r="2" spans="1:57" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>113</v>
       </c>
@@ -7745,7 +7746,7 @@
       <c r="W2" s="108"/>
       <c r="X2" s="108"/>
     </row>
-    <row r="4" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
@@ -7866,57 +7867,54 @@
       <c r="AN4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AO4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP4" s="110" t="s">
+      <c r="AO4" s="110" t="s">
         <v>184</v>
       </c>
+      <c r="AP4" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ4" s="14" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV4" s="14" t="s">
         <v>165</v>
       </c>
+      <c r="AV4" s="99" t="s">
+        <v>166</v>
+      </c>
       <c r="AW4" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX4" s="99" t="s">
         <v>174</v>
       </c>
+      <c r="AX4" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="AY4" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8" t="s">
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
@@ -8012,27 +8010,27 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE12" si="0">AK5*$AR$37</f>
+        <f>AK5*$AQ$37</f>
         <v>12.053251888473643</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF12" si="1">AK5*$AT5</f>
+        <f>AK5*$AS5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG12" si="2">AK5*$AW5</f>
+        <f>AK5*$AV5</f>
         <v>6.0266259442368213</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5:AH12" si="3">AK5*$AU5</f>
+        <f>AK5*$AT5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
-        <f>BB5</f>
+        <f>BA5</f>
         <v>2.0477283347659267E-3</v>
       </c>
       <c r="AJ5" s="1">
-        <f>BE5</f>
+        <f>BD5</f>
         <v>1.3244862745926676E-6</v>
       </c>
       <c r="AK5" s="1">
@@ -8052,69 +8050,65 @@
         <v>1.0245264105202596E-5</v>
       </c>
       <c r="AO5">
-        <f>INPUTS!AO5</f>
-        <v>2100</v>
-      </c>
-      <c r="AP5">
         <f>INPUTS!AP5</f>
         <v>2100</v>
       </c>
-      <c r="AQ5" s="70">
+      <c r="AP5" s="70">
         <f>AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
         <v>3.6080123558944709E-3</v>
       </c>
-      <c r="AR5" s="102">
-        <f>(1-AK5/AQ5)*100</f>
+      <c r="AQ5" s="102">
+        <f>(1-AK5/AP5)*100</f>
         <v>43.208264858268933</v>
       </c>
-      <c r="AS5" s="70">
+      <c r="AR5" s="70">
         <f>INPUTS!AS5</f>
         <v>4.5999999999999996</v>
       </c>
+      <c r="AS5" s="70">
+        <f>(($AR5/100)*(1+($AQ$37+$AV5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR5/100))</f>
+        <v>493.49156696102204</v>
+      </c>
       <c r="AT5" s="70">
-        <f t="shared" ref="AT5:AT12" si="4">(($AS5/100)*(1+($AR$37+$AW5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AS5/100))</f>
-        <v>493.49156696102204</v>
-      </c>
-      <c r="AU5" s="70">
-        <f t="shared" ref="AU5:AU12" si="5">$AT5/$X$45</f>
+        <f>$AS5/$X$45</f>
         <v>4934.91566961022</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AU5" s="15">
         <v>5</v>
       </c>
+      <c r="AV5" s="84">
+        <f>$AU5/100/(1-$AW5/100)*$X$54*10^6/$X$52</f>
+        <v>2941.1764705882351</v>
+      </c>
       <c r="AW5" s="84">
-        <f t="shared" ref="AW5:AW34" si="6">$AV5/100/(1-$AX5/100)*$X$54*10^6/$X$52</f>
-        <v>2941.1764705882351</v>
-      </c>
-      <c r="AX5" s="84">
         <v>40</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AX5" s="9">
         <v>851425</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AY5" s="10">
         <f>$T$49+$T$50*$T$52*(J5)^$T$51</f>
         <v>9.1058115591388438E-4</v>
       </c>
-      <c r="BA5" s="9">
-        <f t="shared" ref="BA5:BA12" si="7">J5*Z5</f>
+      <c r="AZ5" s="9">
+        <f>J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
+      <c r="BA5" s="10">
+        <f>((AZ5-AY5)/($T$53-AX5))*(F5-$T$53)+AZ5</f>
+        <v>2.0477283347659267E-3</v>
+      </c>
       <c r="BB5" s="10">
-        <f>((BA5-AZ5)/($T$53-AY5))*(F5-$T$53)+BA5</f>
-        <v>2.0477283347659267E-3</v>
-      </c>
-      <c r="BC5" s="10">
         <f>$T$49+$T$50*0.6*(L5)^$T$51</f>
         <v>3.0208025791752585E-3</v>
       </c>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9">
-        <f t="shared" ref="BE5:BE12" si="8">$AZ$42*$AY$44*$AY$46*(M5)^$AY$43</f>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M5)^$AX$43</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
@@ -8126,7 +8120,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="9">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="0">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -8146,7 +8140,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K12" si="10">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="1">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="48">
@@ -8209,109 +8203,105 @@
         <v>33</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="0"/>
+        <f>AK6*$AQ$37</f>
         <v>2.918527681859532</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="1"/>
+        <f>AK6*$AS6</f>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="2"/>
+        <f>AK6*$AV6</f>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH6" s="33">
+        <f>AK6*$AT6</f>
+        <v>4.7926386573102988</v>
+      </c>
+      <c r="AI6" s="1">
+        <f>BB6</f>
+        <v>4.9598090847580579E-4</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>BD6</f>
+        <v>1.6879744031468265E-7</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK12" si="2">AI6+AJ6</f>
+        <v>4.9614970591612046E-4</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AM12" si="3">AI6*0.005</f>
+        <v>2.479904542379029E-6</v>
+      </c>
+      <c r="AM6">
         <f t="shared" si="3"/>
-        <v>4.7926386573102988</v>
-      </c>
-      <c r="AI6" s="1">
-        <f>BC6</f>
-        <v>4.9598090847580579E-4</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f>BE6</f>
-        <v>1.6879744031468265E-7</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="11">AI6+AJ6</f>
-        <v>4.9614970591612046E-4</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="12">AI6*0.005</f>
-        <v>2.479904542379029E-6</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="12"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="13">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="4">AL6+AM6</f>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO6">
-        <f>INPUTS!AO6</f>
-        <v>2100</v>
-      </c>
-      <c r="AP6">
         <f>INPUTS!AP6</f>
         <v>2100</v>
       </c>
-      <c r="AQ6" s="70">
-        <f t="shared" ref="AQ6:AQ34" si="14">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
+      <c r="AP6" s="70">
+        <f>AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AR6" s="102">
-        <f>(1-AK6/AQ6)*100</f>
+      <c r="AQ6" s="102">
+        <f>(1-AK6/AP6)*100</f>
         <v>57.725997070438204</v>
       </c>
-      <c r="AS6" s="70">
+      <c r="AR6" s="70">
         <f>INPUTS!AS6</f>
         <v>6.5</v>
       </c>
+      <c r="AS6" s="70">
+        <f>(($AR6/100)*(1+($AQ$37+$AV6)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR6/100))</f>
+        <v>965.96623965762194</v>
+      </c>
       <c r="AT6" s="70">
-        <f t="shared" si="4"/>
-        <v>965.96623965762194</v>
-      </c>
-      <c r="AU6" s="70">
-        <f t="shared" si="5"/>
+        <f>$AS6/$X$45</f>
         <v>9659.6623965762192</v>
       </c>
-      <c r="AV6" s="15">
+      <c r="AU6" s="15">
         <v>8</v>
       </c>
+      <c r="AV6" s="84">
+        <f>$AU6/100/(1-$AW6/100)*$X$54*10^6/$X$52</f>
+        <v>7058.8235294117649</v>
+      </c>
       <c r="AW6" s="84">
-        <f t="shared" si="6"/>
-        <v>7058.8235294117649</v>
-      </c>
-      <c r="AX6" s="84">
         <v>60</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AX6" s="9">
         <v>818263</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="AY6" s="10">
         <f>$T$49+$T$50*$T$52*(J6)^$T$51</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="BA6" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ6" s="9" t="e">
+        <f>J6*Z6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB6" s="10" t="e">
-        <f>((BA6-AZ6)/($T$53-AY6))*(F6-$T$53)+BA6</f>
+      <c r="BA6" s="10" t="e">
+        <f>((AZ6-AY6)/($T$53-AX6))*(F6-$T$53)+AZ6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC6" s="10">
+      <c r="BB6" s="10">
         <f>$T$49+$T$50*0.5*(L6)^$T$51</f>
         <v>4.9598090847580579E-4</v>
       </c>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9">
-        <f t="shared" si="8"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M6)^$AX$43</f>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
@@ -8323,7 +8313,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -8343,7 +8333,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L7" s="48">
@@ -8406,106 +8396,102 @@
         <v>33</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="0"/>
+        <f>AK7*$AQ$37</f>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="1"/>
+        <f>AK7*$AS7</f>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG7" s="1">
+        <f>AK7*$AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="33">
+        <f>AK7*$AT7</f>
+        <v>0.21145753411309956</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>BB7</f>
+        <v>1.1188589859167832E-5</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="33">
+        <v>1.1188589859167832E-5</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="3"/>
-        <v>0.21145753411309956</v>
-      </c>
-      <c r="AI7" s="1">
-        <f>BC7</f>
-        <v>1.1188589859167832E-5</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="11"/>
-        <v>1.1188589859167832E-5</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" si="12"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO7">
-        <f>INPUTS!AO7</f>
-        <v>2100</v>
-      </c>
-      <c r="AP7" t="str">
+      <c r="AO7" t="str">
         <f>INPUTS!AP7</f>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP7" s="70">
+        <f>AK7+(AE7+AG7)*$E$53+AF7*$F$53+AH7*$J$53</f>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR7" s="102">
-        <f t="shared" ref="AR7:AR34" si="15">(1-AK7/AQ7)*100</f>
+      <c r="AQ7" s="102">
+        <f>(1-AK7/AP7)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS7" s="70">
+      <c r="AR7" s="70">
         <f>INPUTS!AS7</f>
         <v>9.5</v>
       </c>
-      <c r="AT7" s="70">
-        <f t="shared" si="4"/>
+      <c r="AS7" s="70">
+        <f>(($AR7/100)*(1+($AQ$37+$AV7)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR7/100))</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AU7" s="71">
-        <f t="shared" si="5"/>
+      <c r="AT7" s="71">
+        <f>$AS7/$X$45</f>
         <v>18899.390966577714</v>
       </c>
-      <c r="AV7" s="15">
+      <c r="AU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="84">
+        <f>$AU7/100/(1-$AW7/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW7" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="84">
         <v>68</v>
       </c>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="10" t="e">
-        <f t="shared" ref="AZ7:AZ12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA7" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ7" s="9" t="e">
+        <f>J7*Z7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB7" s="10" t="e">
-        <f t="shared" ref="BB7:BB12" si="17">AZ7+((BA7-AZ7)/$T$53)*F7</f>
+      <c r="BA7" s="10" t="e">
+        <f>AY7+((AZ7-AY7)/$T$53)*F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC7" s="10">
-        <f t="shared" ref="BC7:BC12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
+      <c r="BB7" s="10">
+        <f>$T$49+$T$50*0.3*(L7)^$T$51</f>
         <v>1.1188589859167832E-5</v>
       </c>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M7)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
@@ -8517,7 +8503,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -8533,11 +8519,11 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="19">J7-M8</f>
+        <f t="shared" ref="J8:J12" si="5">J7-M8</f>
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L8" s="48">
@@ -8600,106 +8586,102 @@
         <v>33</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="0"/>
+        <f>AK8*$AQ$37</f>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="1"/>
+        <f>AK8*$AS8</f>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG8" s="1">
+        <f>AK8*$AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="33">
+        <f>AK8*$AT8</f>
+        <v>5.7551474375663887E-2</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" ref="AI8:AI12" si="6">BB8</f>
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="33">
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="3"/>
-        <v>5.7551474375663887E-2</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="20">BC8</f>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="11"/>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="12"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO8">
-        <f>INPUTS!AO8</f>
-        <v>2100</v>
-      </c>
-      <c r="AP8" t="str">
+      <c r="AO8" t="str">
         <f>INPUTS!AP8</f>
         <v>NA</v>
       </c>
-      <c r="AQ8" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP8" s="70">
+        <f>AK8+(AE8+AG8)*$E$53+AF8*$F$53+AH8*$J$53</f>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR8" s="102">
-        <f>(1-AK8/AQ8)*100</f>
+      <c r="AQ8" s="102">
+        <f>(1-AK8/AP8)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS8" s="70">
+      <c r="AR8" s="70">
         <f>INPUTS!AS8</f>
         <v>9.5</v>
       </c>
+      <c r="AS8" s="70">
+        <f>(($AR8/100)*(1+($AQ$37+$AV8)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR8/100))</f>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT8" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f>$AS8/$X$45</f>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU8" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV8" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="84">
+        <f>$AU8/100/(1-$AW8/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW8" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="84">
         <v>68</v>
       </c>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="10" t="e">
-        <f t="shared" si="16"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T8*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA8" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ8" s="9" t="e">
+        <f>J8*Z8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB8" s="10" t="e">
-        <f t="shared" si="17"/>
+      <c r="BA8" s="10" t="e">
+        <f>AY8+((AZ8-AY8)/$T$53)*F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC8" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB8" s="10">
+        <f>$T$49+$T$50*0.3*(L8)^$T$51</f>
         <v>3.0451496811426225E-6</v>
       </c>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M8)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
@@ -8711,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -8727,11 +8709,11 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L9" s="48">
@@ -8794,106 +8776,102 @@
         <v>33</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="0"/>
+        <f>AK9*$AQ$37</f>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="1"/>
+        <f>AK9*$AS9</f>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG9" s="1">
+        <f>AK9*$AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="33">
+        <f>AK9*$AT9</f>
+        <v>1.9901556074634313E-2</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="33">
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="3"/>
-        <v>1.9901556074634313E-2</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="20"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="11"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="12"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO9">
-        <f>INPUTS!AO9</f>
-        <v>2100</v>
-      </c>
-      <c r="AP9" t="str">
+      <c r="AO9" t="str">
         <f>INPUTS!AP9</f>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP9" s="70">
+        <f>AK9+(AE9+AG9)*$E$53+AF9*$F$53+AH9*$J$53</f>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR9" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ9" s="102">
+        <f>(1-AK9/AP9)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS9" s="70">
+      <c r="AR9" s="70">
         <f>INPUTS!AS9</f>
         <v>9.5</v>
       </c>
+      <c r="AS9" s="70">
+        <f>(($AR9/100)*(1+($AQ$37+$AV9)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR9/100))</f>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT9" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f>$AS9/$X$45</f>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU9" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV9" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="84">
+        <f>$AU9/100/(1-$AW9/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW9" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="84">
         <v>68</v>
       </c>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="10" t="e">
-        <f t="shared" si="16"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T9*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA9" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ9" s="9" t="e">
+        <f>J9*Z9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB9" s="10" t="e">
-        <f t="shared" si="17"/>
+      <c r="BA9" s="10" t="e">
+        <f>AY9+((AZ9-AY9)/$T$53)*F9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC9" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB9" s="10">
+        <f>$T$49+$T$50*0.3*(L9)^$T$51</f>
         <v>1.0530263176114436E-6</v>
       </c>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M9)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
@@ -8905,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -8921,11 +8899,11 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L10" s="48">
@@ -8988,106 +8966,102 @@
         <v>33</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="0"/>
+        <f>AK10*$AQ$37</f>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="1"/>
+        <f>AK10*$AS10</f>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG10" s="1">
+        <f>AK10*$AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="33">
+        <f>AK10*$AT10</f>
+        <v>8.8213162748220653E-3</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="33">
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="3"/>
-        <v>8.8213162748220653E-3</v>
-      </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="20"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="11"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="12"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO10">
-        <f>INPUTS!AO10</f>
-        <v>2100</v>
-      </c>
-      <c r="AP10" t="str">
+      <c r="AO10" t="str">
         <f>INPUTS!AP10</f>
         <v>NA</v>
       </c>
-      <c r="AQ10" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP10" s="70">
+        <f>AK10+(AE10+AG10)*$E$53+AF10*$F$53+AH10*$J$53</f>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR10" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ10" s="102">
+        <f>(1-AK10/AP10)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS10" s="70">
+      <c r="AR10" s="70">
         <f>INPUTS!AS10</f>
         <v>9.5</v>
       </c>
+      <c r="AS10" s="70">
+        <f>(($AR10/100)*(1+($AQ$37+$AV10)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR10/100))</f>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT10" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f>$AS10/$X$45</f>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU10" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV10" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="84">
+        <f>$AU10/100/(1-$AW10/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW10" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX10" s="84">
         <v>68</v>
       </c>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="10" t="e">
-        <f t="shared" si="16"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T10*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA10" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ10" s="9" t="e">
+        <f>J10*Z10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB10" s="10" t="e">
-        <f t="shared" si="17"/>
+      <c r="BA10" s="10" t="e">
+        <f>AY10+((AZ10-AY10)/$T$53)*F10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC10" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB10" s="10">
+        <f>$T$49+$T$50*0.3*(L10)^$T$51</f>
         <v>4.6675135142830591E-7</v>
       </c>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M10)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
@@ -9099,7 +9073,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -9115,11 +9089,11 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L11" s="49">
@@ -9182,106 +9156,102 @@
         <v>33</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="0"/>
+        <f>AK11*$AQ$37</f>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="1"/>
+        <f>AK11*$AS11</f>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG11" s="1">
+        <f>AK11*$AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="33">
+        <f>AK11*$AT11</f>
+        <v>3.3888553500781263E-3</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="33">
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="3"/>
-        <v>3.3888553500781263E-3</v>
-      </c>
-      <c r="AI11" s="1">
-        <f t="shared" si="20"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="11"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="12"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO11">
-        <f>INPUTS!AO11</f>
-        <v>2100</v>
-      </c>
-      <c r="AP11" t="str">
+      <c r="AO11" t="str">
         <f>INPUTS!AP11</f>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP11" s="70">
+        <f>AK11+(AE11+AG11)*$E$53+AF11*$F$53+AH11*$J$53</f>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR11" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ11" s="102">
+        <f>(1-AK11/AP11)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS11" s="70">
+      <c r="AR11" s="70">
         <f>INPUTS!AS11</f>
         <v>9.5</v>
       </c>
+      <c r="AS11" s="70">
+        <f>(($AR11/100)*(1+($AQ$37+$AV11)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR11/100))</f>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT11" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f>$AS11/$X$45</f>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU11" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV11" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="84">
+        <f>$AU11/100/(1-$AW11/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW11" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX11" s="84">
         <v>68</v>
       </c>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="10" t="e">
-        <f t="shared" si="16"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T11*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA11" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ11" s="9" t="e">
+        <f>J11*Z11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB11" s="10" t="e">
-        <f t="shared" si="17"/>
+      <c r="BA11" s="10" t="e">
+        <f>AY11+((AZ11-AY11)/$T$53)*F11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC11" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB11" s="10">
+        <f>$T$49+$T$50*0.3*(L11)^$T$51</f>
         <v>1.7931029397037642E-7</v>
       </c>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M11)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
@@ -9309,11 +9279,11 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.894E-2</v>
       </c>
       <c r="L12" s="49">
@@ -9376,106 +9346,102 @@
         <v>33</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="0"/>
+        <f>AK12*$AQ$37</f>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="1"/>
+        <f>AK12*$AS12</f>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG12" s="1">
+        <f>AK12*$AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="33">
+        <f>AK12*$AT12</f>
+        <v>2.3782326556187716E-3</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="33">
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="3"/>
-        <v>2.3782326556187716E-3</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="20"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="11"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="12"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO12">
-        <f>INPUTS!AO12</f>
-        <v>2100</v>
-      </c>
-      <c r="AP12" t="str">
+      <c r="AO12" t="str">
         <f>INPUTS!AP12</f>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP12" s="70">
+        <f>AK12+(AE12+AG12)*$E$53+AF12*$F$53+AH12*$J$53</f>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR12" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ12" s="102">
+        <f>(1-AK12/AP12)*100</f>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS12" s="70">
+      <c r="AR12" s="70">
         <f>INPUTS!AS12</f>
         <v>9.5</v>
       </c>
+      <c r="AS12" s="70">
+        <f>(($AR12/100)*(1+($AQ$37+$AV12)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR12/100))</f>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT12" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f>$AS12/$X$45</f>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU12" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV12" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="84">
+        <f>$AU12/100/(1-$AW12/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW12" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX12" s="84">
         <v>68</v>
       </c>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="10" t="e">
-        <f t="shared" si="16"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="10" t="e">
+        <f>$T$49+$T$50*$T$52*(T12*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA12" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ12" s="9" t="e">
+        <f>J12*Z12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB12" s="10" t="e">
-        <f t="shared" si="17"/>
+      <c r="BA12" s="10" t="e">
+        <f>AY12+((AZ12-AY12)/$T$53)*F12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC12" s="10">
-        <f t="shared" si="18"/>
+      <c r="BB12" s="10">
+        <f>$T$49+$T$50*0.3*(L12)^$T$51</f>
         <v>1.2583647059445005E-7</v>
       </c>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9">
+        <f>$AY$42*$AX$44*$AX$46*(M12)^$AX$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
       <c r="B13">
         <f>B6</f>
@@ -9493,1228 +9459,1204 @@
         <v>3287520</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AO19" si="21">F6</f>
+        <f t="shared" ref="F13:AN19" si="7">F6</f>
         <v>776406</v>
       </c>
       <c r="G13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>True</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>True</v>
       </c>
       <c r="J13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.894E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="N13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
       <c r="O13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0.1331</v>
       </c>
       <c r="U13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>9.9106478034251738E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>3.3993521965748258E-2</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" ref="W13" si="22">W6</f>
+        <f t="shared" ref="W13" si="8">W6</f>
         <v>NA</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>False</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>False</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.918527681859532</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG13">
-        <f t="shared" ref="AG13" si="23">AG6</f>
+        <f t="shared" ref="AG13" si="9">AG6</f>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>4.7926386573102988</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>4.9598090847580579E-4</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AO13:AO34" si="10">AO6</f>
         <v>2100</v>
       </c>
-      <c r="AP13">
-        <f t="shared" ref="AP13:AP34" si="24">AP6</f>
-        <v>2100</v>
-      </c>
-      <c r="AQ13" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP13" s="70">
+        <f>AK13+(AE13+AG13)*$E$53+AF13*$F$53+AH13*$J$53</f>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AR13" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ13" s="102">
+        <f>(1-AK13/AP13)*100</f>
         <v>57.725997070438204</v>
       </c>
+      <c r="AR13" s="70">
+        <f t="shared" ref="AR13" si="11">AR6</f>
+        <v>6.5</v>
+      </c>
       <c r="AS13" s="70">
-        <f t="shared" ref="AS13" si="25">AS6</f>
-        <v>6.5</v>
+        <f t="shared" ref="AS13" si="12">AS6</f>
+        <v>965.96623965762194</v>
       </c>
       <c r="AT13" s="70">
-        <f t="shared" ref="AT13" si="26">AT6</f>
-        <v>965.96623965762194</v>
+        <f>AT6</f>
+        <v>9659.6623965762192</v>
       </c>
       <c r="AU13" s="70">
-        <f>AU6</f>
-        <v>9659.6623965762192</v>
-      </c>
-      <c r="AV13" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="84">
+        <f>$AU13/100/(1-$AW13/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW13" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX13" s="84">
-        <f>AX6</f>
+        <f>AW6</f>
         <v>60</v>
       </c>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
+      <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="27">B7</f>
+        <f t="shared" ref="B14:B19" si="13">B7</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="28">D7-3</f>
+        <f t="shared" ref="D14:D19" si="14">D7-3</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:T18" si="29">E7</f>
+        <f t="shared" ref="E14:T18" si="15">E7</f>
         <v>2739600</v>
       </c>
       <c r="F14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>True</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>False</v>
       </c>
       <c r="J14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.894E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.894E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" ref="W14" si="30">W7</f>
+        <f t="shared" ref="W14" si="16">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="Z14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AA14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>False</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AD14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>False</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG14">
-        <f t="shared" ref="AG14" si="31">AG7</f>
+        <f t="shared" ref="AG14" si="17">AG7</f>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO14">
-        <f t="shared" ref="AO14" si="32">AO7</f>
-        <v>2100</v>
-      </c>
-      <c r="AP14" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO14" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP14" s="70">
+        <f>AK14+(AE14+AG14)*$E$53+AF14*$F$53+AH14*$J$53</f>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR14" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ14" s="102">
+        <f>(1-AK14/AP14)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR14" s="70">
+        <f t="shared" ref="AR14:AT14" si="18">AR7</f>
+        <v>9.5</v>
+      </c>
       <c r="AS14" s="70">
-        <f t="shared" ref="AS14:AU14" si="33">AS7</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS14" si="19">AS7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT14" s="70">
-        <f t="shared" ref="AT14" si="34">AT7</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="18"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU14" s="70">
-        <f t="shared" si="33"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV14" s="70">
-        <f t="shared" ref="AV14" si="35">AV7</f>
+        <f t="shared" ref="AU14" si="20">AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="84">
+        <f>$AU14/100/(1-$AW14/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW14" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX14" s="84">
-        <f t="shared" ref="AX14:AX19" si="36">AX7</f>
+        <f t="shared" ref="AW14:AW19" si="21">AW7</f>
         <v>68</v>
       </c>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
+      <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2191680</v>
       </c>
       <c r="F15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15" si="22">W8</f>
+        <v>6.4152407049273701E-6</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>1.7912645183191897E-2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="7"/>
+        <v>5.7551474375663898E-3</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" ref="AG15" si="23">AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="7"/>
+        <v>5.7551474375663887E-2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="7"/>
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="7"/>
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="7"/>
+        <v>1.5225748405713114E-8</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="7"/>
+        <v>1.5225748405713114E-8</v>
+      </c>
+      <c r="AO15" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP15" s="70">
+        <f>AK15+(AE15+AG15)*$E$53+AF15*$F$53+AH15*$J$53</f>
+        <v>9.4896679346414427E-6</v>
+      </c>
+      <c r="AQ15" s="102">
+        <f>(1-AK15/AP15)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR15" s="70">
+        <f t="shared" ref="AR15:AT15" si="24">AR8</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS15" s="70">
+        <f t="shared" ref="AS15" si="25">AS8</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT15" s="70">
+        <f t="shared" si="24"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU15" s="70">
+        <f t="shared" ref="AU15" si="26">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="84">
+        <f>$AU15/100/(1-$AW15/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="21"/>
-        <v>True</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="21"/>
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" ref="W15" si="37">W8</f>
-        <v>6.4152407049273701E-6</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Z15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="21"/>
-        <v>1.7912645183191897E-2</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="21"/>
-        <v>5.7551474375663898E-3</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" ref="AG15" si="38">AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="21"/>
-        <v>5.7551474375663887E-2</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="21"/>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="21"/>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="21"/>
-        <v>1.5225748405713114E-8</v>
-      </c>
-      <c r="AM15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="21"/>
-        <v>1.5225748405713114E-8</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" ref="AO15" si="39">AO8</f>
-        <v>2100</v>
-      </c>
-      <c r="AP15" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ15" s="70">
-        <f t="shared" si="14"/>
-        <v>9.4896679346414427E-6</v>
-      </c>
-      <c r="AR15" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS15" s="70">
-        <f t="shared" ref="AS15:AU15" si="40">AS8</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT15" s="70">
-        <f t="shared" ref="AT15" si="41">AT8</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU15" s="70">
-        <f t="shared" si="40"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV15" s="70">
-        <f t="shared" ref="AV15" si="42">AV8</f>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="84">
-        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="10"/>
       <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
+      <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E16">
+        <f t="shared" si="15"/>
+        <v>1643760</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>3.1E-4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16" si="27">W9</f>
+        <v>2.3349332116543619E-6</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="7"/>
+        <v>6.1942724565379036E-3</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="7"/>
+        <v>1.9901556074634315E-3</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16" si="28">AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="7"/>
+        <v>1.9901556074634313E-2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="7"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="7"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="7"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="7"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AO16" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP16" s="70">
+        <f>AK16+(AE16+AG16)*$E$53+AF16*$F$53+AH16*$J$53</f>
+        <v>3.281569422499217E-6</v>
+      </c>
+      <c r="AQ16" s="102">
+        <f>(1-AK16/AP16)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR16" s="70">
+        <f t="shared" ref="AR16:AT16" si="29">AR9</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS16" s="70">
+        <f t="shared" ref="AS16" si="30">AS9</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT16" s="70">
         <f t="shared" si="29"/>
-        <v>1643760</v>
-      </c>
-      <c r="F16">
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU16" s="70">
+        <f t="shared" ref="AU16" si="31">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="84">
+        <f>$AU16/100/(1-$AW16/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="21"/>
-        <v>True</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="21"/>
-        <v>3.1E-4</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16" si="43">W9</f>
-        <v>2.3349332116543619E-6</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Z16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="21"/>
-        <v>6.1942724565379036E-3</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="21"/>
-        <v>1.9901556074634315E-3</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" ref="AG16" si="44">AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="21"/>
-        <v>1.9901556074634313E-2</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="21"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="21"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="21"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AM16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="21"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" ref="AO16" si="45">AO9</f>
-        <v>2100</v>
-      </c>
-      <c r="AP16" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ16" s="70">
-        <f t="shared" si="14"/>
-        <v>3.281569422499217E-6</v>
-      </c>
-      <c r="AR16" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS16" s="70">
-        <f t="shared" ref="AS16:AU16" si="46">AS9</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT16" s="70">
-        <f t="shared" ref="AT16" si="47">AT9</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU16" s="70">
-        <f t="shared" si="46"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV16" s="70">
-        <f t="shared" ref="AV16" si="48">AV9</f>
-        <v>0</v>
-      </c>
-      <c r="AW16" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="84">
-        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="10"/>
       <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
+      <c r="BC16" s="9"/>
       <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
       <c r="B17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>1095840</v>
       </c>
       <c r="F17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17" si="32">W10</f>
+        <v>9.1658819653476345E-7</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>2.7455961848723877E-3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="7"/>
+        <v>8.8213162748220658E-4</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" ref="AG17" si="33">AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>8.8213162748220653E-3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="7"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="7"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="7"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="7"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AO17" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP17" s="70">
+        <f>AK17+(AE17+AG17)*$E$53+AF17*$F$53+AH17*$J$53</f>
+        <v>1.4545476567305404E-6</v>
+      </c>
+      <c r="AQ17" s="102">
+        <f>(1-AK17/AP17)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR17" s="70">
+        <f t="shared" ref="AR17:AT17" si="34">AR10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS17" s="70">
+        <f t="shared" ref="AS17" si="35">AS10</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT17" s="70">
+        <f t="shared" si="34"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU17" s="70">
+        <f t="shared" ref="AU17" si="36">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="84">
+        <f>$AU17/100/(1-$AW17/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="21"/>
-        <v>True</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="21"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" ref="W17" si="49">W10</f>
-        <v>9.1658819653476345E-7</v>
-      </c>
-      <c r="X17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Z17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AA17" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AB17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AC17" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="21"/>
-        <v>2.7455961848723877E-3</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="21"/>
-        <v>8.8213162748220658E-4</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" ref="AG17" si="50">AG10</f>
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="21"/>
-        <v>8.8213162748220653E-3</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="21"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="21"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="21"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="21"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" ref="AO17" si="51">AO10</f>
-        <v>2100</v>
-      </c>
-      <c r="AP17" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ17" s="70">
-        <f t="shared" si="14"/>
-        <v>1.4545476567305404E-6</v>
-      </c>
-      <c r="AR17" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS17" s="70">
-        <f t="shared" ref="AS17:AU17" si="52">AS10</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT17" s="70">
-        <f t="shared" ref="AT17" si="53">AT10</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU17" s="70">
-        <f t="shared" si="52"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV17" s="70">
-        <f t="shared" ref="AV17" si="54">AV10</f>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX17" s="84">
-        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="10"/>
       <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
+      <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>547920</v>
       </c>
       <c r="F18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18" si="37">W11</f>
+        <v>3.8709515855680863E-7</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="7"/>
+        <v>1.0547664351198613E-3</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="7"/>
+        <v>3.3888553500781266E-4</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" ref="AG18" si="38">AG11</f>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="7"/>
+        <v>3.3888553500781263E-3</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="7"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="7"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="7"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="7"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AO18" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP18" s="70">
+        <f>AK18+(AE18+AG18)*$E$53+AF18*$F$53+AH18*$J$53</f>
+        <v>5.5878867222163193E-7</v>
+      </c>
+      <c r="AQ18" s="102">
+        <f>(1-AK18/AP18)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR18" s="70">
+        <f t="shared" ref="AR18:AT18" si="39">AR11</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS18" s="70">
+        <f t="shared" ref="AS18" si="40">AS11</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT18" s="70">
+        <f t="shared" si="39"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU18" s="70">
+        <f t="shared" ref="AU18" si="41">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="84">
+        <f>$AU18/100/(1-$AW18/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="21"/>
-        <v>True</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="21"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="V18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" ref="W18" si="55">W11</f>
-        <v>3.8709515855680863E-7</v>
-      </c>
-      <c r="X18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Z18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="21"/>
-        <v>1.0547664351198613E-3</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="21"/>
-        <v>3.3888553500781266E-4</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" ref="AG18" si="56">AG11</f>
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="21"/>
-        <v>3.3888553500781263E-3</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="21"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="21"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="21"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AM18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="21"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" ref="AO18" si="57">AO11</f>
-        <v>2100</v>
-      </c>
-      <c r="AP18" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ18" s="70">
-        <f t="shared" si="14"/>
-        <v>5.5878867222163193E-7</v>
-      </c>
-      <c r="AR18" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS18" s="70">
-        <f t="shared" ref="AS18:AU18" si="58">AS11</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT18" s="70">
-        <f t="shared" ref="AT18" si="59">AT11</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU18" s="70">
-        <f t="shared" si="58"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV18" s="70">
-        <f t="shared" ref="AV18" si="60">AV11</f>
-        <v>0</v>
-      </c>
-      <c r="AW18" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX18" s="84">
-        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="10"/>
       <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
+      <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
       <c r="B19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E19">
@@ -10722,194 +10664,190 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" ref="W19" si="42">W12</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="7"/>
+        <v>7.4021453290852969E-4</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="7"/>
+        <v>2.3782326556187717E-4</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" ref="AG19" si="43">AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>2.3782326556187716E-3</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="7"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="7"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="7"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="7"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AO19" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP19" s="70">
+        <f>AK19+(AE19+AG19)*$E$53+AF19*$F$53+AH19*$J$53</f>
+        <v>3.9214700262632978E-7</v>
+      </c>
+      <c r="AQ19" s="102">
+        <f>(1-AK19/AP19)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR19" s="70">
+        <f t="shared" ref="AR19:AT19" si="44">AR12</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS19" s="70">
+        <f t="shared" ref="AS19" si="45">AS12</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT19" s="70">
+        <f t="shared" si="44"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU19" s="70">
+        <f t="shared" ref="AU19" si="46">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="84">
+        <f>$AU19/100/(1-$AW19/100)*$X$54*10^6/$X$52</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="84">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="21"/>
-        <v>True</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="21"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="21"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" ref="W19" si="61">W12</f>
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="Z19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AC19" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" si="21"/>
-        <v>False</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="21"/>
-        <v>7.4021453290852969E-4</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="21"/>
-        <v>2.3782326556187717E-4</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" ref="AG19" si="62">AG12</f>
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="21"/>
-        <v>2.3782326556187716E-3</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="21"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="21"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="21"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AM19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <f t="shared" si="21"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AO19">
-        <f t="shared" ref="AO19" si="63">AO12</f>
-        <v>2100</v>
-      </c>
-      <c r="AP19" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ19" s="70">
-        <f t="shared" si="14"/>
-        <v>3.9214700262632978E-7</v>
-      </c>
-      <c r="AR19" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS19" s="70">
-        <f t="shared" ref="AS19:AU19" si="64">AS12</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT19" s="70">
-        <f t="shared" ref="AT19" si="65">AT12</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU19" s="70">
-        <f t="shared" si="64"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV19" s="70">
-        <f t="shared" ref="AV19" si="66">AV12</f>
-        <v>0</v>
-      </c>
-      <c r="AW19" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX19" s="84">
-        <f t="shared" si="36"/>
         <v>68</v>
       </c>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="10"/>
       <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
+      <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="111"/>
       <c r="B20">
         <f>B7</f>
@@ -10927,1222 +10865,1198 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AN25" si="67">F7</f>
+        <f t="shared" ref="F20:AN25" si="47">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="68">W7</f>
+        <f t="shared" ref="W20" si="48">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20" si="69">AG7</f>
+        <f t="shared" ref="AG20" si="49">AG7</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO20">
-        <f t="shared" ref="AO20" si="70">AO13</f>
+        <f t="shared" si="10"/>
         <v>2100</v>
       </c>
-      <c r="AP20">
-        <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="AQ20" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP20" s="70">
+        <f>AK20+(AE20+AG20)*$E$53+AF20*$F$53+AH20*$J$53</f>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR20" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ20" s="102">
+        <f>(1-AK20/AP20)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR20" s="70">
+        <f t="shared" ref="AR20:AT20" si="50">AR7</f>
+        <v>9.5</v>
+      </c>
       <c r="AS20" s="70">
-        <f t="shared" ref="AS20:AU20" si="71">AS7</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS20" si="51">AS7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT20" s="70">
-        <f t="shared" ref="AT20" si="72">AT7</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="50"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU20" s="70">
-        <f t="shared" si="71"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV20" s="70">
-        <f t="shared" ref="AV20" si="73">AV7</f>
+        <f t="shared" ref="AU20" si="52">AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="84">
+        <f>$AU20/100/(1-$AW20/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW20" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX20" s="84">
-        <f>AX7</f>
+        <f>AW7</f>
         <v>68</v>
       </c>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="10"/>
       <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
+      <c r="BC20" s="9"/>
       <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="74">B8</f>
+        <f t="shared" ref="B21:B34" si="53">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="75">D8-4</f>
+        <f t="shared" ref="D21:D25" si="54">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="76">E8</f>
+        <f t="shared" ref="E21:T25" si="55">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21" si="77">W8</f>
+        <f t="shared" ref="W21" si="56">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG21">
-        <f t="shared" ref="AG21" si="78">AG8</f>
+        <f t="shared" ref="AG21" si="57">AG8</f>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO21">
-        <f t="shared" ref="AO21" si="79">AO14</f>
-        <v>2100</v>
-      </c>
-      <c r="AP21" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ21" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO21" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP21" s="70">
+        <f>AK21+(AE21+AG21)*$E$53+AF21*$F$53+AH21*$J$53</f>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR21" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ21" s="102">
+        <f>(1-AK21/AP21)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR21" s="70">
+        <f t="shared" ref="AR21:AT21" si="58">AR8</f>
+        <v>9.5</v>
+      </c>
       <c r="AS21" s="70">
-        <f t="shared" ref="AS21:AU21" si="80">AS8</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS21" si="59">AS8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT21" s="70">
-        <f t="shared" ref="AT21" si="81">AT8</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="58"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU21" s="70">
-        <f t="shared" si="80"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV21" s="70">
-        <f t="shared" ref="AV21" si="82">AV8</f>
+        <f t="shared" ref="AU21" si="60">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="84">
+        <f>$AU21/100/(1-$AW21/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW21" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX21" s="84">
-        <f t="shared" ref="AX21:AX25" si="83">AX8</f>
+        <f t="shared" ref="AW21:AW25" si="61">AW8</f>
         <v>68</v>
       </c>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
+      <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>1643760</v>
       </c>
       <c r="F22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>True</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="J22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>3.1E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22" si="84">W9</f>
+        <f t="shared" ref="W22" si="62">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22" si="85">AG9</f>
+        <f t="shared" ref="AG22" si="63">AG9</f>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22" si="86">AO15</f>
-        <v>2100</v>
-      </c>
-      <c r="AP22" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ22" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO22" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP22" s="70">
+        <f>AK22+(AE22+AG22)*$E$53+AF22*$F$53+AH22*$J$53</f>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR22" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ22" s="102">
+        <f>(1-AK22/AP22)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR22" s="70">
+        <f t="shared" ref="AR22:AT22" si="64">AR9</f>
+        <v>9.5</v>
+      </c>
       <c r="AS22" s="70">
-        <f t="shared" ref="AS22:AU22" si="87">AS9</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS22" si="65">AS9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT22" s="70">
-        <f t="shared" ref="AT22" si="88">AT9</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="64"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU22" s="70">
-        <f t="shared" si="87"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV22" s="70">
-        <f t="shared" ref="AV22" si="89">AV9</f>
+        <f t="shared" ref="AU22" si="66">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="84">
+        <f>$AU22/100/(1-$AW22/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW22" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX22" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="61"/>
         <v>68</v>
       </c>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
+      <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>1095840</v>
       </c>
       <c r="F23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>True</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="J23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ref="W23" si="90">W10</f>
+        <f t="shared" ref="W23" si="67">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23" si="91">AG10</f>
+        <f t="shared" ref="AG23" si="68">AG10</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO23">
-        <f t="shared" ref="AO23" si="92">AO16</f>
-        <v>2100</v>
-      </c>
-      <c r="AP23" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ23" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO23" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP23" s="70">
+        <f>AK23+(AE23+AG23)*$E$53+AF23*$F$53+AH23*$J$53</f>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR23" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ23" s="102">
+        <f>(1-AK23/AP23)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR23" s="70">
+        <f t="shared" ref="AR23:AT23" si="69">AR10</f>
+        <v>9.5</v>
+      </c>
       <c r="AS23" s="70">
-        <f t="shared" ref="AS23:AU23" si="93">AS10</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS23" si="70">AS10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT23" s="70">
-        <f t="shared" ref="AT23" si="94">AT10</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="69"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU23" s="70">
-        <f t="shared" si="93"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV23" s="70">
-        <f t="shared" ref="AV23" si="95">AV10</f>
+        <f t="shared" ref="AU23" si="71">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="84">
+        <f>$AU23/100/(1-$AW23/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW23" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX23" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="61"/>
         <v>68</v>
       </c>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
+      <c r="BC23" s="9"/>
       <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>547920</v>
       </c>
       <c r="F24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>True</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="J24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24" si="96">W11</f>
+        <f t="shared" ref="W24" si="72">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG24">
-        <f t="shared" ref="AG24" si="97">AG11</f>
+        <f t="shared" ref="AG24" si="73">AG11</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO24">
-        <f t="shared" ref="AO24" si="98">AO17</f>
-        <v>2100</v>
-      </c>
-      <c r="AP24" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ24" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO24" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP24" s="70">
+        <f>AK24+(AE24+AG24)*$E$53+AF24*$F$53+AH24*$J$53</f>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR24" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ24" s="102">
+        <f>(1-AK24/AP24)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR24" s="70">
+        <f t="shared" ref="AR24:AT24" si="74">AR11</f>
+        <v>9.5</v>
+      </c>
       <c r="AS24" s="70">
-        <f t="shared" ref="AS24:AU24" si="99">AS11</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS24" si="75">AS11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT24" s="70">
-        <f t="shared" ref="AT24" si="100">AT11</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="74"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU24" s="70">
-        <f t="shared" si="99"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV24" s="70">
-        <f t="shared" ref="AV24" si="101">AV11</f>
+        <f t="shared" ref="AU24" si="76">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="84">
+        <f>$AU24/100/(1-$AW24/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW24" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX24" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="61"/>
         <v>68</v>
       </c>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="10"/>
       <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
+      <c r="BC24" s="9"/>
       <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="111"/>
       <c r="B25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>True</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="J25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.894E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ref="W25" si="102">W12</f>
+        <f t="shared" ref="W25" si="77">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>False</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25" si="103">AG12</f>
+        <f t="shared" ref="AG25" si="78">AG12</f>
         <v>0</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO25">
-        <f t="shared" ref="AO25" si="104">AO18</f>
-        <v>2100</v>
-      </c>
-      <c r="AP25" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ25" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO25" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP25" s="70">
+        <f>AK25+(AE25+AG25)*$E$53+AF25*$F$53+AH25*$J$53</f>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR25" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ25" s="102">
+        <f>(1-AK25/AP25)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR25" s="70">
+        <f t="shared" ref="AR25:AT25" si="79">AR12</f>
+        <v>9.5</v>
+      </c>
       <c r="AS25" s="70">
-        <f t="shared" ref="AS25:AU25" si="105">AS12</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS25" si="80">AS12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT25" s="70">
-        <f t="shared" ref="AT25" si="106">AT12</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="79"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU25" s="70">
-        <f t="shared" si="105"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV25" s="70">
-        <f t="shared" ref="AV25" si="107">AV12</f>
+        <f t="shared" ref="AU25" si="81">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="84">
+        <f>$AU25/100/(1-$AW25/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW25" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX25" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="61"/>
         <v>68</v>
       </c>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="10"/>
       <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
+      <c r="BC25" s="9"/>
       <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="111"/>
       <c r="B26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -12157,1017 +12071,997 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AN30" si="108">F8</f>
+        <f t="shared" ref="F26:AN30" si="82">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="109">W8</f>
+        <f t="shared" ref="W26" si="83">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="110">AG8</f>
+        <f t="shared" ref="AG26" si="84">AG8</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO26">
-        <f t="shared" ref="AO26" si="111">AO19</f>
-        <v>2100</v>
-      </c>
-      <c r="AP26" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ26" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO26" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP26" s="70">
+        <f>AK26+(AE26+AG26)*$E$53+AF26*$F$53+AH26*$J$53</f>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR26" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ26" s="102">
+        <f>(1-AK26/AP26)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR26" s="70">
+        <f t="shared" ref="AR26:AT26" si="85">AR8</f>
+        <v>9.5</v>
+      </c>
       <c r="AS26" s="70">
-        <f t="shared" ref="AS26:AU26" si="112">AS8</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS26" si="86">AS8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT26" s="70">
-        <f t="shared" ref="AT26" si="113">AT8</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="85"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU26" s="70">
-        <f t="shared" si="112"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV26" s="70">
-        <f t="shared" ref="AV26" si="114">AV8</f>
+        <f t="shared" ref="AU26" si="87">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="84">
+        <f>$AU26/100/(1-$AW26/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW26" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX26" s="84">
-        <f>AX8</f>
+        <f>AW8</f>
         <v>68</v>
       </c>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="10"/>
       <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
+      <c r="BC26" s="9"/>
       <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="111"/>
       <c r="B27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="115">D9-5</f>
+        <f t="shared" ref="D27:D30" si="88">D9-5</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T30" si="116">E9</f>
+        <f t="shared" ref="E27:T30" si="89">E9</f>
         <v>1643760</v>
       </c>
       <c r="F27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>True</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>False</v>
       </c>
       <c r="J27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>2.894E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>2.894E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>3.1E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>NA</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="117">W9</f>
+        <f t="shared" ref="W27" si="90">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27" si="118">AG9</f>
+        <f t="shared" ref="AG27" si="91">AG9</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO27">
-        <f t="shared" ref="AO27" si="119">AO20</f>
+        <f t="shared" si="10"/>
         <v>2100</v>
       </c>
-      <c r="AP27">
-        <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="AQ27" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP27" s="70">
+        <f>AK27+(AE27+AG27)*$E$53+AF27*$F$53+AH27*$J$53</f>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR27" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ27" s="102">
+        <f>(1-AK27/AP27)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR27" s="70">
+        <f t="shared" ref="AR27:AT27" si="92">AR9</f>
+        <v>9.5</v>
+      </c>
       <c r="AS27" s="70">
-        <f t="shared" ref="AS27:AU27" si="120">AS9</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS27" si="93">AS9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT27" s="70">
-        <f t="shared" ref="AT27" si="121">AT9</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="92"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU27" s="70">
-        <f t="shared" si="120"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV27" s="70">
-        <f t="shared" ref="AV27" si="122">AV9</f>
+        <f t="shared" ref="AU27" si="94">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="84">
+        <f>$AU27/100/(1-$AW27/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW27" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="84">
-        <f t="shared" ref="AX27:AX30" si="123">AX9</f>
+        <f t="shared" ref="AW27:AW30" si="95">AW9</f>
         <v>68</v>
       </c>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
+      <c r="BC27" s="9"/>
       <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="111"/>
       <c r="B28">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
       <c r="D28">
-        <f t="shared" si="115"/>
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>1095840</v>
       </c>
       <c r="F28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28" si="124">W10</f>
+        <f t="shared" ref="W28" si="96">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG28">
-        <f t="shared" ref="AG28" si="125">AG10</f>
+        <f t="shared" ref="AG28" si="97">AG10</f>
         <v>0</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO28">
-        <f t="shared" ref="AO28" si="126">AO21</f>
-        <v>2100</v>
-      </c>
-      <c r="AP28" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ28" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO28" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP28" s="70">
+        <f>AK28+(AE28+AG28)*$E$53+AF28*$F$53+AH28*$J$53</f>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR28" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ28" s="102">
+        <f>(1-AK28/AP28)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR28" s="70">
+        <f t="shared" ref="AR28:AT28" si="98">AR10</f>
+        <v>9.5</v>
+      </c>
       <c r="AS28" s="70">
-        <f t="shared" ref="AS28:AU28" si="127">AS10</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS28" si="99">AS10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT28" s="70">
-        <f t="shared" ref="AT28" si="128">AT10</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="98"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU28" s="70">
-        <f t="shared" si="127"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV28" s="70">
-        <f t="shared" ref="AV28" si="129">AV10</f>
+        <f t="shared" ref="AU28" si="100">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="84">
+        <f>$AU28/100/(1-$AW28/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW28" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="84">
-        <f t="shared" si="123"/>
+        <f t="shared" si="95"/>
         <v>68</v>
       </c>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
+      <c r="BC28" s="9"/>
       <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="111"/>
       <c r="B29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="88"/>
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="130">W11</f>
+        <f t="shared" ref="W29" si="101">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>NA</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>False</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29" si="131">AG11</f>
+        <f t="shared" ref="AG29" si="102">AG11</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="82"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO29">
-        <f t="shared" ref="AO29" si="132">AO22</f>
-        <v>2100</v>
-      </c>
-      <c r="AP29" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ29" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO29" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP29" s="70">
+        <f>AK29+(AE29+AG29)*$E$53+AF29*$F$53+AH29*$J$53</f>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR29" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ29" s="102">
+        <f>(1-AK29/AP29)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR29" s="70">
+        <f t="shared" ref="AR29:AT29" si="103">AR11</f>
+        <v>9.5</v>
+      </c>
       <c r="AS29" s="70">
-        <f t="shared" ref="AS29:AU29" si="133">AS11</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS29" si="104">AS11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT29" s="70">
-        <f t="shared" ref="AT29" si="134">AT11</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="103"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU29" s="70">
-        <f t="shared" si="133"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV29" s="70">
-        <f t="shared" ref="AV29" si="135">AV11</f>
+        <f t="shared" ref="AU29" si="105">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="84">
+        <f>$AU29/100/(1-$AW29/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW29" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX29" s="84">
-        <f t="shared" si="123"/>
+        <f t="shared" si="95"/>
         <v>68</v>
       </c>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
+      <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="111"/>
       <c r="B30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="88"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="F30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="82"/>
+        <v>True</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="82"/>
+        <v>False</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="82"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="82"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="82"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" ref="W30" si="106">W12</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="82"/>
+        <v>False</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="82"/>
+        <v>NA</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="82"/>
+        <v>False</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="82"/>
+        <v>7.4021453290852969E-4</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="82"/>
+        <v>2.3782326556187717E-4</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" ref="AG30" si="107">AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="82"/>
+        <v>2.3782326556187716E-3</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="82"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="82"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="82"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="82"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AO30" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP30" s="70">
+        <f>AK30+(AE30+AG30)*$E$53+AF30*$F$53+AH30*$J$53</f>
+        <v>3.9214700262632978E-7</v>
+      </c>
+      <c r="AQ30" s="102">
+        <f>(1-AK30/AP30)*100</f>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR30" s="70">
+        <f t="shared" ref="AR30:AT30" si="108">AR12</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS30" s="70">
+        <f t="shared" ref="AS30" si="109">AS12</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT30" s="70">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="108"/>
-        <v>True</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="108"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="108"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="108"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="W30" s="1">
-        <f t="shared" ref="W30" si="136">W12</f>
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="X30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Z30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AA30" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AC30" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="108"/>
-        <v>7.4021453290852969E-4</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="108"/>
-        <v>2.3782326556187717E-4</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" ref="AG30" si="137">AG12</f>
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="108"/>
-        <v>2.3782326556187716E-3</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="108"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AJ30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="108"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AL30">
-        <f t="shared" si="108"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AM30">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="108"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" ref="AO30" si="138">AO23</f>
-        <v>2100</v>
-      </c>
-      <c r="AP30" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ30" s="70">
-        <f t="shared" si="14"/>
-        <v>3.9214700262632978E-7</v>
-      </c>
-      <c r="AR30" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS30" s="70">
-        <f t="shared" ref="AS30:AU30" si="139">AS12</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT30" s="70">
-        <f t="shared" ref="AT30" si="140">AT12</f>
-        <v>1889.9390966577716</v>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU30" s="70">
-        <f t="shared" si="139"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV30" s="70">
-        <f t="shared" ref="AV30" si="141">AV12</f>
+        <f t="shared" ref="AU30" si="110">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV30" s="84">
+        <f>$AU30/100/(1-$AW30/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW30" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX30" s="84">
-        <f t="shared" si="123"/>
+        <f t="shared" si="95"/>
         <v>68</v>
       </c>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
+      <c r="BC30" s="9"/>
       <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="111"/>
       <c r="B31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -13182,809 +13076,793 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AN34" si="142">F9</f>
+        <f t="shared" ref="F31:AN34" si="111">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" si="143">W9</f>
+        <f t="shared" ref="W31" si="112">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="144">AG9</f>
+        <f t="shared" ref="AG31" si="113">AG9</f>
         <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO31">
-        <f t="shared" ref="AO31" si="145">AO24</f>
-        <v>2100</v>
-      </c>
-      <c r="AP31" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ31" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO31" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP31" s="70">
+        <f>AK31+(AE31+AG31)*$E$53+AF31*$F$53+AH31*$J$53</f>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR31" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ31" s="102">
+        <f>(1-AK31/AP31)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR31" s="70">
+        <f t="shared" ref="AR31:AT31" si="114">AR9</f>
+        <v>9.5</v>
+      </c>
       <c r="AS31" s="70">
-        <f t="shared" ref="AS31:AU31" si="146">AS9</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS31" si="115">AS9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT31" s="70">
-        <f t="shared" ref="AT31" si="147">AT9</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="114"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU31" s="70">
-        <f t="shared" si="146"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV31" s="70">
-        <f t="shared" ref="AV31" si="148">AV9</f>
+        <f t="shared" ref="AU31" si="116">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV31" s="84">
+        <f>$AU31/100/(1-$AW31/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW31" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX31" s="84">
-        <f>AX16</f>
+        <f>AW16</f>
         <v>68</v>
       </c>
-      <c r="AY31" s="9"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
+      <c r="BC31" s="9"/>
       <c r="BD31" s="9"/>
-      <c r="BE31" s="9"/>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="111"/>
       <c r="B32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="149">D10-6</f>
+        <f t="shared" ref="D32:D34" si="117">D10-6</f>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:T34" si="150">E10</f>
+        <f t="shared" ref="E32:T34" si="118">E10</f>
         <v>1095840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>True</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>False</v>
       </c>
       <c r="J32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>2.894E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>2.894E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>NA</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ref="W32" si="151">W10</f>
+        <f t="shared" ref="W32" si="119">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG32">
-        <f t="shared" ref="AG32" si="152">AG10</f>
+        <f t="shared" ref="AG32" si="120">AG10</f>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO32">
-        <f t="shared" ref="AO32" si="153">AO25</f>
-        <v>2100</v>
-      </c>
-      <c r="AP32" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ32" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO32" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP32" s="70">
+        <f>AK32+(AE32+AG32)*$E$53+AF32*$F$53+AH32*$J$53</f>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR32" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ32" s="102">
+        <f>(1-AK32/AP32)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR32" s="70">
+        <f t="shared" ref="AR32:AT32" si="121">AR10</f>
+        <v>9.5</v>
+      </c>
       <c r="AS32" s="70">
-        <f t="shared" ref="AS32:AU32" si="154">AS10</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS32" si="122">AS10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT32" s="70">
-        <f t="shared" ref="AT32" si="155">AT10</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="121"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU32" s="70">
-        <f t="shared" si="154"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV32" s="70">
-        <f t="shared" ref="AV32" si="156">AV10</f>
+        <f t="shared" ref="AU32" si="123">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV32" s="84">
+        <f>$AU32/100/(1-$AW32/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW32" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX32" s="84">
-        <f t="shared" ref="AX32:AX34" si="157">AX17</f>
+        <f t="shared" ref="AW32:AW34" si="124">AW17</f>
         <v>68</v>
       </c>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
+      <c r="BC32" s="9"/>
       <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="111"/>
       <c r="B33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33">
-        <f t="shared" si="149"/>
+        <f t="shared" si="117"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>547920</v>
       </c>
       <c r="F33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>True</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="J33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" ref="W33" si="158">W11</f>
+        <f t="shared" ref="W33" si="125">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG33">
-        <f t="shared" ref="AG33" si="159">AG11</f>
+        <f t="shared" ref="AG33" si="126">AG11</f>
         <v>0</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO33">
-        <f t="shared" ref="AO33" si="160">AO26</f>
-        <v>2100</v>
-      </c>
-      <c r="AP33" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ33" s="70">
-        <f t="shared" si="14"/>
+      <c r="AO33" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+      <c r="AP33" s="70">
+        <f>AK33+(AE33+AG33)*$E$53+AF33*$F$53+AH33*$J$53</f>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR33" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ33" s="102">
+        <f>(1-AK33/AP33)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR33" s="70">
+        <f t="shared" ref="AR33:AT33" si="127">AR11</f>
+        <v>9.5</v>
+      </c>
       <c r="AS33" s="70">
-        <f t="shared" ref="AS33:AU33" si="161">AS11</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS33" si="128">AS11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT33" s="70">
-        <f t="shared" ref="AT33" si="162">AT11</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="127"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU33" s="70">
-        <f t="shared" si="161"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV33" s="70">
-        <f t="shared" ref="AV33" si="163">AV11</f>
+        <f t="shared" ref="AU33" si="129">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="84">
+        <f>$AU33/100/(1-$AW33/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW33" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX33" s="84">
-        <f t="shared" si="157"/>
+        <f t="shared" si="124"/>
         <v>68</v>
       </c>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="10"/>
       <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
+      <c r="BC33" s="9"/>
       <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="111"/>
       <c r="B34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
       </c>
       <c r="D34">
-        <f t="shared" si="149"/>
+        <f t="shared" si="117"/>
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="150"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>True</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="J34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.894E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" ref="W34" si="164">W12</f>
+        <f t="shared" ref="W34" si="130">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>NA</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>False</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG34">
-        <f t="shared" ref="AG34" si="165">AG12</f>
+        <f t="shared" ref="AG34" si="131">AG12</f>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="111"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO34">
-        <f t="shared" ref="AO34" si="166">AO27</f>
+        <f t="shared" si="10"/>
         <v>2100</v>
       </c>
-      <c r="AP34">
-        <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="AQ34" s="73">
-        <f t="shared" si="14"/>
+      <c r="AP34" s="73">
+        <f>AK34+(AE34+AG34)*$E$53+AF34*$F$53+AH34*$J$53</f>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR34" s="103">
-        <f t="shared" si="15"/>
+      <c r="AQ34" s="103">
+        <f>(1-AK34/AP34)*100</f>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR34" s="73">
+        <f t="shared" ref="AR34:AT34" si="132">AR12</f>
+        <v>9.5</v>
+      </c>
       <c r="AS34" s="73">
-        <f t="shared" ref="AS34:AU34" si="167">AS12</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS34" si="133">AS12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT34" s="73">
-        <f t="shared" ref="AT34" si="168">AT12</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="132"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU34" s="73">
-        <f t="shared" si="167"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV34" s="73">
-        <f t="shared" ref="AV34" si="169">AV12</f>
+        <f t="shared" ref="AU34" si="134">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV34" s="84">
+        <f>$AU34/100/(1-$AW34/100)*$X$54*10^6/$X$52</f>
         <v>0</v>
       </c>
       <c r="AW34" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX34" s="84">
-        <f t="shared" si="157"/>
+        <f t="shared" si="124"/>
         <v>68</v>
       </c>
-      <c r="AY34" s="9"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="10"/>
       <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
+      <c r="BC34" s="9"/>
       <c r="BD34" s="9"/>
-      <c r="BE34" s="9"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -13996,7 +13874,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="111" t="s">
         <v>71</v>
       </c>
@@ -14084,21 +13962,21 @@
       </c>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-      <c r="AQ36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="80" t="s">
+        <v>21</v>
+      </c>
       <c r="AR36" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS36" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AT36" s="81" t="s">
+      <c r="AS36" s="81" t="s">
         <v>116</v>
       </c>
+      <c r="AT36" s="51"/>
       <c r="AU36" s="51"/>
       <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="111"/>
       <c r="B37">
         <v>1</v>
@@ -14138,22 +14016,22 @@
         <v>1.7741886232211572</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="170">J37*$X37</f>
+        <f t="shared" ref="M37:M42" si="135">J37*$X37</f>
         <v>17.74188623221157</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="171">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="136">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="172">J37*$AB$38</f>
+        <f t="shared" ref="O37:O42" si="137">J37*$AB$38</f>
         <v>25.307812989677835</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="173">J37*$AC37</f>
+        <f t="shared" ref="Q37:Q42" si="138">J37*$AC37</f>
         <v>0.36569789770084471</v>
       </c>
       <c r="R37">
@@ -14174,7 +14052,7 @@
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="174">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="139">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -14188,14 +14066,14 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="175">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="140">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f>ROUND(X37/$AU$6*$AC$45,0)</f>
+        <f>ROUND(X37/$AT$6*$AC$45,0)</f>
         <v>85</v>
       </c>
       <c r="AD37" s="15">
@@ -14207,24 +14085,24 @@
         <v>37.232071931263391</v>
       </c>
       <c r="AF37" s="1"/>
-      <c r="AQ37" s="82"/>
+      <c r="AP37" s="82"/>
+      <c r="AQ37" s="84">
+        <f>$AQ$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
+        <v>5882.3529411764703</v>
+      </c>
       <c r="AR37" s="84">
         <f>$AR$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
         <v>5882.3529411764703</v>
       </c>
-      <c r="AS37" s="84">
-        <f>$AS$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="AT37" s="85">
-        <f>AS37+AR37</f>
+      <c r="AS37" s="85">
+        <f>AR37+AQ37</f>
         <v>11764.705882352941</v>
       </c>
+      <c r="AT37" s="97"/>
       <c r="AU37" s="97"/>
       <c r="AV37" s="97"/>
-      <c r="AW37" s="97"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="111"/>
       <c r="B38">
         <v>1</v>
@@ -14256,7 +14134,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="176">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="141">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -14264,22 +14142,22 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
-        <f t="shared" si="170"/>
+        <f t="shared" si="135"/>
         <v>2.0231970075485135</v>
       </c>
       <c r="N38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="137"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="138"/>
         <v>4.104E-2</v>
       </c>
       <c r="R38">
@@ -14301,7 +14179,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="139"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -14315,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -14323,36 +14201,36 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" ref="AC38:AC42" si="177">ROUND(X38/$AU$6*$AC$45,0)</f>
+        <f>ROUND(X38/$AT$6*$AC$45,0)</f>
         <v>24</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="178">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="142">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="179">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="143">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
-      <c r="AQ38" s="83" t="s">
+      <c r="AP38" s="83" t="s">
         <v>140</v>
+      </c>
+      <c r="AQ38" s="86">
+        <v>10</v>
       </c>
       <c r="AR38" s="86">
         <v>10</v>
       </c>
-      <c r="AS38" s="86">
-        <v>10</v>
-      </c>
-      <c r="AT38" s="87">
-        <f>AS38+AR38</f>
+      <c r="AS38" s="87">
+        <f>AR38+AQ38</f>
         <v>20</v>
       </c>
+      <c r="AT38" s="98"/>
       <c r="AU38" s="98"/>
       <c r="AV38" s="98"/>
-      <c r="AW38" s="98"/>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="111"/>
       <c r="B39">
         <v>1</v>
@@ -14383,30 +14261,30 @@
         <v>5.0680069287428898E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="176"/>
+        <f t="shared" si="141"/>
         <v>2.5340034643714449E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="180">J39*$W39</f>
+        <f t="shared" ref="L39:L42" si="144">J39*$W39</f>
         <v>2.4761936124967816</v>
       </c>
       <c r="M39">
-        <f t="shared" si="170"/>
+        <f t="shared" si="135"/>
         <v>24.761936124967814</v>
       </c>
       <c r="N39">
-        <f t="shared" si="171"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="137"/>
         <v>29.811805463193469</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="138"/>
         <v>0.51186869980303185</v>
       </c>
       <c r="R39">
@@ -14427,37 +14305,37 @@
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="139"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="181">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="145">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" si="177"/>
+        <f>ROUND(X39/$AT$6*$AC$45,0)</f>
         <v>101</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="142"/>
         <v>8.4723718951712264E-3</v>
       </c>
       <c r="AE39" s="71">
-        <f t="shared" si="179"/>
+        <f t="shared" si="143"/>
         <v>40.181958589053821</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="111"/>
       <c r="B40">
         <v>1</v>
@@ -14488,30 +14366,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="176"/>
+        <f t="shared" si="141"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="180"/>
+        <f t="shared" si="144"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
-        <f t="shared" si="170"/>
+        <f t="shared" si="135"/>
         <v>3.8263355734467188</v>
       </c>
       <c r="N40">
-        <f t="shared" si="171"/>
+        <f t="shared" si="136"/>
         <v>6.7058823529411775</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="137"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="138"/>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="R40">
@@ -14533,11 +14411,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="139"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="145"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14548,21 +14426,21 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f t="shared" si="177"/>
+        <f>ROUND(X40/$AT$6*$AC$45,0)</f>
         <v>35</v>
       </c>
       <c r="AD40" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="142"/>
         <v>3.0576333839599777E-3</v>
       </c>
       <c r="AE40" s="71">
-        <f t="shared" si="179"/>
+        <f t="shared" si="143"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
       <c r="B41">
         <v>1</v>
@@ -14593,30 +14471,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="141"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="180"/>
+        <f t="shared" si="144"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="170"/>
+        <f t="shared" si="135"/>
         <v>6.7128694270995062E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="171"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="137"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="138"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="R41">
@@ -14638,41 +14516,41 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="139"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="145"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA41" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f t="shared" si="177"/>
+        <f>ROUND(X41/$AT$6*$AC$45,0)</f>
         <v>35</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="142"/>
         <v>5.3642690946666268E-5</v>
       </c>
       <c r="AE41" s="71">
-        <f t="shared" si="179"/>
+        <f t="shared" si="143"/>
         <v>25.432525300101705</v>
       </c>
-      <c r="AX41" s="91" t="s">
+      <c r="AW41" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="AY41" s="9" t="s">
+      <c r="AX41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AZ41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AY41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="111"/>
       <c r="B42">
         <v>1</v>
@@ -14703,30 +14581,30 @@
         <v>4.3694199999999997E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="176"/>
+        <f t="shared" si="141"/>
         <v>2.18471E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="180"/>
+        <f t="shared" si="144"/>
         <v>2.3509226953550577</v>
       </c>
       <c r="M42">
-        <f t="shared" si="170"/>
+        <f t="shared" si="135"/>
         <v>23.509226953550574</v>
       </c>
       <c r="N42">
-        <f t="shared" si="171"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="137"/>
         <v>25.70247058823529</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="138"/>
         <v>0.48500561999999997</v>
       </c>
       <c r="R42">
@@ -14748,60 +14626,59 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="139"/>
         <v>538.03999051477263</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="181"/>
+        <f t="shared" si="145"/>
         <v>5380.3999051477258</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" si="175"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="177"/>
+        <f>ROUND(X42/$AT$6*$AC$45,0)</f>
         <v>111</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="178"/>
+        <f t="shared" si="142"/>
         <v>7.5272391193074283E-3</v>
       </c>
       <c r="AE42" s="72">
-        <f t="shared" si="179"/>
+        <f t="shared" si="143"/>
         <v>41.951890583728066</v>
       </c>
-      <c r="AX42" s="91"/>
-      <c r="AY42" s="9" t="s">
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AZ42" s="9">
+      <c r="AY42" s="9">
         <v>0.106</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Z43" s="1"/>
       <c r="AN43" s="91"/>
       <c r="AO43" s="109"/>
-      <c r="AP43" s="109"/>
+      <c r="AP43" s="91"/>
       <c r="AQ43" s="91"/>
       <c r="AR43" s="91"/>
       <c r="AS43" s="91"/>
-      <c r="AT43" s="91"/>
+      <c r="AT43" s="96"/>
       <c r="AU43" s="96"/>
-      <c r="AV43" s="96"/>
-      <c r="AW43" s="105"/>
-      <c r="AX43" s="9" t="s">
+      <c r="AV43" s="105"/>
+      <c r="AW43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY43" s="9">
+      <c r="AX43" s="9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="V44" s="34"/>
       <c r="W44" s="93"/>
@@ -14819,29 +14696,28 @@
       </c>
       <c r="AN44" s="91"/>
       <c r="AO44" s="109"/>
-      <c r="AP44" s="109"/>
+      <c r="AP44" s="91"/>
       <c r="AQ44" s="91"/>
       <c r="AR44" s="91"/>
       <c r="AS44" s="91"/>
-      <c r="AT44" s="91"/>
+      <c r="AT44" s="96"/>
       <c r="AU44" s="96"/>
-      <c r="AV44" s="96"/>
-      <c r="AW44" s="105"/>
-      <c r="AX44" s="9" t="s">
+      <c r="AV44" s="105"/>
+      <c r="AW44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AY44" s="9">
+      <c r="AX44" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="X45" s="16">
         <f>INPUTS!X23</f>
         <v>0.1</v>
       </c>
       <c r="Y45" s="74">
-        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD37:AD42,AQ5:AQ12)</f>
+        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AR5:AR12,AP5:AP12))/SUM(AD37:AD42,AP5:AP12)</f>
         <v>4.3740904222538166</v>
       </c>
       <c r="AA45" s="54" t="s">
@@ -14852,23 +14728,22 @@
       </c>
       <c r="AN45" s="91"/>
       <c r="AO45" s="109"/>
-      <c r="AP45" s="109"/>
+      <c r="AP45" s="91"/>
       <c r="AQ45" s="91"/>
       <c r="AR45" s="91"/>
       <c r="AS45" s="91"/>
-      <c r="AT45" s="91"/>
+      <c r="AT45" s="96"/>
       <c r="AU45" s="96"/>
-      <c r="AV45" s="96"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="9" t="s">
+      <c r="AV45" s="105"/>
+      <c r="AW45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AY45" s="9">
+      <c r="AX45" s="9">
         <f>210*3600*24/12</f>
         <v>1512000</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -14881,15 +14756,14 @@
       <c r="AT46" s="9"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9" t="s">
+      <c r="AW46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AY46" s="9">
+      <c r="AX46" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="111" t="s">
         <v>72</v>
       </c>
@@ -14935,19 +14809,18 @@
       <c r="AP47" s="11"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="9" t="s">
+      <c r="AS47" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="AT47" s="9"/>
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="9">
+      <c r="AW47" s="9">
         <f>1/59</f>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="111"/>
       <c r="B48">
         <v>1</v>
@@ -14991,14 +14864,13 @@
       <c r="AP48" s="12"/>
       <c r="AQ48" s="12"/>
       <c r="AR48" s="12"/>
-      <c r="AS48" s="12"/>
+      <c r="AS48" s="9"/>
       <c r="AT48" s="9"/>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
-      <c r="AX48" s="9"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="111"/>
       <c r="B49">
         <v>1</v>
@@ -15069,14 +14941,13 @@
       <c r="AP49" s="12"/>
       <c r="AQ49" s="12"/>
       <c r="AR49" s="12"/>
-      <c r="AS49" s="12"/>
+      <c r="AS49" s="9"/>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="E50" s="57">
         <f>AB38</f>
         <v>5882.3529411764703</v>
@@ -15128,14 +14999,13 @@
       <c r="AP50" s="12"/>
       <c r="AQ50" s="12"/>
       <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
+      <c r="AS50" s="9"/>
       <c r="AT50" s="9"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
-      <c r="AX50" s="9"/>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="R51" s="112"/>
       <c r="S51" s="9" t="s">
@@ -15158,14 +15028,13 @@
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
       <c r="AR51" s="13"/>
-      <c r="AS51" s="13"/>
+      <c r="AS51" s="9"/>
       <c r="AT51" s="9"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
-      <c r="AX51" s="9"/>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D52" s="27" t="s">
         <v>78</v>
       </c>
@@ -15196,14 +15065,13 @@
       <c r="AP52" s="13"/>
       <c r="AQ52" s="13"/>
       <c r="AR52" s="13"/>
-      <c r="AS52" s="13"/>
+      <c r="AS52" s="9"/>
       <c r="AT52" s="9"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="s">
         <v>79</v>
       </c>
@@ -15245,14 +15113,13 @@
       <c r="AP53" s="12"/>
       <c r="AQ53" s="12"/>
       <c r="AR53" s="12"/>
-      <c r="AS53" s="12"/>
+      <c r="AS53" s="9"/>
       <c r="AT53" s="9"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D54" s="23" t="s">
         <v>76</v>
       </c>
@@ -15286,7 +15153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O55" s="35" t="s">
         <v>109</v>
       </c>
@@ -15301,7 +15168,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O56" s="35" t="s">
         <v>110</v>
       </c>
@@ -15310,7 +15177,7 @@
         <v>4.3111368674888281E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="114" t="s">
         <v>156</v>
       </c>
@@ -15359,7 +15226,7 @@
       </c>
       <c r="Q57" s="32"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="114"/>
       <c r="B58">
         <v>1</v>
@@ -15401,7 +15268,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="114"/>
       <c r="B59">
         <f>B58</f>
@@ -15423,30 +15290,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="182">G58</f>
+        <f t="shared" ref="G59:M59" si="146">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="146"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="146"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="146"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -15457,7 +15324,7 @@
         <v>0.41050884740986027</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="114"/>
       <c r="B60">
         <f>B59</f>
@@ -15479,30 +15346,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="183">G58</f>
+        <f t="shared" ref="G60:M60" si="147">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="147"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="147"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="147"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -15513,7 +15380,7 @@
         <v>0.17634374328200209</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="114"/>
       <c r="B61">
         <f>B60</f>
@@ -15535,30 +15402,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="184">G58</f>
+        <f t="shared" ref="G61:M61" si="148">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="148"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="148"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="148"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15569,7 +15436,7 @@
         <v>0.41050884740986027</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="114"/>
       <c r="B62">
         <f>B61</f>
@@ -15591,30 +15458,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="185">G58</f>
+        <f t="shared" ref="G62:M62" si="149">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="149"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="149"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="149"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -15625,7 +15492,7 @@
         <v>0.17634374328200209</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O64" s="35" t="s">
         <v>132</v>
       </c>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="185">
   <si>
     <t>plant</t>
   </si>
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2049,7 @@
         <v>2100</v>
       </c>
       <c r="AP5" s="1">
-        <v>2100</v>
+        <v>1450</v>
       </c>
       <c r="AQ5" s="70">
         <f>AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
@@ -2239,7 +2239,7 @@
         <v>2100</v>
       </c>
       <c r="AP6" s="1">
-        <v>2100</v>
+        <v>1450</v>
       </c>
       <c r="AQ6" s="70">
         <f t="shared" ref="AQ6:AQ12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
@@ -2427,8 +2427,8 @@
       <c r="AO7" s="1">
         <v>2100</v>
       </c>
-      <c r="AP7" t="s">
-        <v>32</v>
+      <c r="AP7" s="1">
+        <v>1450</v>
       </c>
       <c r="AQ7" s="70">
         <f t="shared" si="16"/>
@@ -3961,7 +3961,7 @@
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="89">
-        <f t="shared" si="26"/>
+        <f>IF(F18="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>1323.5294117647056</v>
       </c>
       <c r="AB18" s="54" t="s">
@@ -7704,8 +7704,8 @@
   </sheetPr>
   <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8010,19 +8010,19 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f>AK5*$AQ$37</f>
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AQ$37</f>
         <v>12.053251888473643</v>
       </c>
       <c r="AF5" s="1">
-        <f>AK5*$AS5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AS5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="1">
-        <f>AK5*$AV5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AV5</f>
         <v>6.0266259442368213</v>
       </c>
       <c r="AH5" s="33">
-        <f>AK5*$AT5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AT5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
@@ -8051,14 +8051,14 @@
       </c>
       <c r="AO5">
         <f>INPUTS!AP5</f>
-        <v>2100</v>
+        <v>1450</v>
       </c>
       <c r="AP5" s="70">
-        <f>AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
+        <f t="shared" ref="AP5:AP34" si="4">AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
         <v>3.6080123558944709E-3</v>
       </c>
       <c r="AQ5" s="102">
-        <f>(1-AK5/AP5)*100</f>
+        <f t="shared" ref="AQ5:AQ34" si="5">(1-AK5/AP5)*100</f>
         <v>43.208264858268933</v>
       </c>
       <c r="AR5" s="70">
@@ -8066,18 +8066,18 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AS5" s="70">
-        <f>(($AR5/100)*(1+($AQ$37+$AV5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR5/100))</f>
+        <f t="shared" ref="AS5:AS12" si="6">(($AR5/100)*(1+($AQ$37+$AV5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR5/100))</f>
         <v>493.49156696102204</v>
       </c>
       <c r="AT5" s="70">
-        <f>$AS5/$X$45</f>
+        <f t="shared" ref="AT5:AT12" si="7">$AS5/$X$45</f>
         <v>4934.91566961022</v>
       </c>
       <c r="AU5" s="15">
         <v>5</v>
       </c>
       <c r="AV5" s="84">
-        <f>$AU5/100/(1-$AW5/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" ref="AV5:AV34" si="8">$AU5/100/(1-$AW5/100)*$X$54*10^6/$X$52</f>
         <v>2941.1764705882351</v>
       </c>
       <c r="AW5" s="84">
@@ -8091,7 +8091,7 @@
         <v>9.1058115591388438E-4</v>
       </c>
       <c r="AZ5" s="9">
-        <f>J5*Z5</f>
+        <f t="shared" ref="AZ5:AZ12" si="9">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
       <c r="BA5" s="10">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M5)^$AX$43</f>
+        <f t="shared" ref="BD5:BD12" si="10">$AY$42*$AX$44*$AX$46*(M5)^$AX$43</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="0">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="11">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -8140,7 +8140,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K12" si="1">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="12">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="48">
@@ -8203,19 +8203,19 @@
         <v>33</v>
       </c>
       <c r="AE6" s="1">
-        <f>AK6*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>2.918527681859532</v>
       </c>
       <c r="AF6" s="1">
-        <f>AK6*$AS6</f>
+        <f t="shared" si="1"/>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG6" s="1">
-        <f>AK6*$AV6</f>
+        <f t="shared" si="2"/>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH6" s="33">
-        <f>AK6*$AT6</f>
+        <f t="shared" si="3"/>
         <v>4.7926386573102988</v>
       </c>
       <c r="AI6" s="1">
@@ -8227,31 +8227,31 @@
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="2">AI6+AJ6</f>
+        <f t="shared" ref="AK6:AK12" si="13">AI6+AJ6</f>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="3">AI6*0.005</f>
+        <f t="shared" ref="AL6:AM12" si="14">AI6*0.005</f>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="4">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="15">AL6+AM6</f>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO6">
         <f>INPUTS!AP6</f>
-        <v>2100</v>
+        <v>1450</v>
       </c>
       <c r="AP6" s="70">
-        <f>AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.1736520592639877E-3</v>
       </c>
       <c r="AQ6" s="102">
-        <f>(1-AK6/AP6)*100</f>
+        <f t="shared" si="5"/>
         <v>57.725997070438204</v>
       </c>
       <c r="AR6" s="70">
@@ -8259,18 +8259,18 @@
         <v>6.5</v>
       </c>
       <c r="AS6" s="70">
-        <f>(($AR6/100)*(1+($AQ$37+$AV6)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR6/100))</f>
+        <f t="shared" si="6"/>
         <v>965.96623965762194</v>
       </c>
       <c r="AT6" s="70">
-        <f>$AS6/$X$45</f>
+        <f t="shared" si="7"/>
         <v>9659.6623965762192</v>
       </c>
       <c r="AU6" s="15">
         <v>8</v>
       </c>
       <c r="AV6" s="84">
-        <f>$AU6/100/(1-$AW6/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>7058.8235294117649</v>
       </c>
       <c r="AW6" s="84">
@@ -8284,7 +8284,7 @@
         <v>9.1017858127080242E-4</v>
       </c>
       <c r="AZ6" s="9" t="e">
-        <f>J6*Z6</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA6" s="10" t="e">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M6)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -8333,7 +8333,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L7" s="48">
@@ -8396,19 +8396,19 @@
         <v>33</v>
       </c>
       <c r="AE7" s="1">
-        <f>AK7*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF7" s="1">
-        <f>AK7*$AS7</f>
+        <f t="shared" si="1"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG7" s="1">
-        <f>AK7*$AV7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="33">
-        <f>AK7*$AT7</f>
+        <f t="shared" si="3"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI7" s="1">
@@ -8419,31 +8419,31 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN7">
+        <f t="shared" si="15"/>
+        <v>5.5942949295839161E-8</v>
+      </c>
+      <c r="AO7">
+        <f>INPUTS!AP7</f>
+        <v>1450</v>
+      </c>
+      <c r="AP7" s="70">
         <f t="shared" si="4"/>
-        <v>5.5942949295839161E-8</v>
-      </c>
-      <c r="AO7" t="str">
-        <f>INPUTS!AP7</f>
-        <v>NA</v>
-      </c>
-      <c r="AP7" s="70">
-        <f>AK7+(AE7+AG7)*$E$53+AF7*$F$53+AH7*$J$53</f>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AQ7" s="102">
-        <f>(1-AK7/AP7)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR7" s="70">
@@ -8451,18 +8451,18 @@
         <v>9.5</v>
       </c>
       <c r="AS7" s="70">
-        <f>(($AR7/100)*(1+($AQ$37+$AV7)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR7/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT7" s="71">
-        <f>$AS7/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU7" s="15">
         <v>0</v>
       </c>
       <c r="AV7" s="84">
-        <f>$AU7/100/(1-$AW7/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW7" s="84">
@@ -8470,24 +8470,24 @@
       </c>
       <c r="AX7" s="9"/>
       <c r="AY7" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
+        <f t="shared" ref="AY7:AY12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
       <c r="AZ7" s="9" t="e">
-        <f>J7*Z7</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA7" s="10" t="e">
-        <f>AY7+((AZ7-AY7)/$T$53)*F7</f>
+        <f t="shared" ref="BA7:BA12" si="17">AY7+((AZ7-AY7)/$T$53)*F7</f>
         <v>#VALUE!</v>
       </c>
       <c r="BB7" s="10">
-        <f>$T$49+$T$50*0.3*(L7)^$T$51</f>
+        <f t="shared" ref="BB7:BB12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M7)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -8519,11 +8519,11 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="5">J7-M8</f>
+        <f t="shared" ref="J8:J12" si="19">J7-M8</f>
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L8" s="48">
@@ -8586,42 +8586,42 @@
         <v>33</v>
       </c>
       <c r="AE8" s="1">
-        <f>AK8*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF8" s="1">
-        <f>AK8*$AS8</f>
+        <f t="shared" si="1"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG8" s="1">
-        <f>AK8*$AV8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8" s="33">
-        <f>AK8*$AT8</f>
+        <f t="shared" si="3"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="6">BB8</f>
+        <f t="shared" ref="AI8:AI12" si="20">BB8</f>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO8" t="str">
@@ -8629,11 +8629,11 @@
         <v>NA</v>
       </c>
       <c r="AP8" s="70">
-        <f>AK8+(AE8+AG8)*$E$53+AF8*$F$53+AH8*$J$53</f>
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AQ8" s="102">
-        <f>(1-AK8/AP8)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR8" s="70">
@@ -8641,18 +8641,18 @@
         <v>9.5</v>
       </c>
       <c r="AS8" s="70">
-        <f>(($AR8/100)*(1+($AQ$37+$AV8)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR8/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT8" s="70">
-        <f>$AS8/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU8" s="70">
         <v>0</v>
       </c>
       <c r="AV8" s="84">
-        <f>$AU8/100/(1-$AW8/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW8" s="84">
@@ -8660,24 +8660,24 @@
       </c>
       <c r="AX8" s="9"/>
       <c r="AY8" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T8*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ8" s="9" t="e">
-        <f>J8*Z8</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA8" s="10" t="e">
-        <f>AY8+((AZ8-AY8)/$T$53)*F8</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB8" s="10">
-        <f>$T$49+$T$50*0.3*(L8)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M8)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -8709,11 +8709,11 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L9" s="48">
@@ -8776,42 +8776,42 @@
         <v>33</v>
       </c>
       <c r="AE9" s="1">
-        <f>AK9*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF9" s="1">
-        <f>AK9*$AS9</f>
+        <f t="shared" si="1"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG9" s="1">
-        <f>AK9*$AV9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="33">
-        <f>AK9*$AT9</f>
+        <f t="shared" si="3"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO9" t="str">
@@ -8819,11 +8819,11 @@
         <v>NA</v>
       </c>
       <c r="AP9" s="70">
-        <f>AK9+(AE9+AG9)*$E$53+AF9*$F$53+AH9*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AQ9" s="102">
-        <f>(1-AK9/AP9)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR9" s="70">
@@ -8831,18 +8831,18 @@
         <v>9.5</v>
       </c>
       <c r="AS9" s="70">
-        <f>(($AR9/100)*(1+($AQ$37+$AV9)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR9/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT9" s="70">
-        <f>$AS9/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU9" s="70">
         <v>0</v>
       </c>
       <c r="AV9" s="84">
-        <f>$AU9/100/(1-$AW9/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW9" s="84">
@@ -8850,24 +8850,24 @@
       </c>
       <c r="AX9" s="9"/>
       <c r="AY9" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T9*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ9" s="9" t="e">
-        <f>J9*Z9</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA9" s="10" t="e">
-        <f>AY9+((AZ9-AY9)/$T$53)*F9</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB9" s="10">
-        <f>$T$49+$T$50*0.3*(L9)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="BC9" s="9"/>
       <c r="BD9" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M9)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -8899,11 +8899,11 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L10" s="48">
@@ -8966,42 +8966,42 @@
         <v>33</v>
       </c>
       <c r="AE10" s="1">
-        <f>AK10*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF10" s="1">
-        <f>AK10*$AS10</f>
+        <f t="shared" si="1"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG10" s="1">
-        <f>AK10*$AV10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="33">
-        <f>AK10*$AT10</f>
+        <f t="shared" si="3"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO10" t="str">
@@ -9009,11 +9009,11 @@
         <v>NA</v>
       </c>
       <c r="AP10" s="70">
-        <f>AK10+(AE10+AG10)*$E$53+AF10*$F$53+AH10*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AQ10" s="102">
-        <f>(1-AK10/AP10)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR10" s="70">
@@ -9021,18 +9021,18 @@
         <v>9.5</v>
       </c>
       <c r="AS10" s="70">
-        <f>(($AR10/100)*(1+($AQ$37+$AV10)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR10/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT10" s="70">
-        <f>$AS10/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU10" s="70">
         <v>0</v>
       </c>
       <c r="AV10" s="84">
-        <f>$AU10/100/(1-$AW10/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW10" s="84">
@@ -9040,24 +9040,24 @@
       </c>
       <c r="AX10" s="9"/>
       <c r="AY10" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T10*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ10" s="9" t="e">
-        <f>J10*Z10</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA10" s="10" t="e">
-        <f>AY10+((AZ10-AY10)/$T$53)*F10</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB10" s="10">
-        <f>$T$49+$T$50*0.3*(L10)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="BC10" s="9"/>
       <c r="BD10" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M10)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -9089,11 +9089,11 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L11" s="49">
@@ -9156,42 +9156,42 @@
         <v>33</v>
       </c>
       <c r="AE11" s="1">
-        <f>AK11*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f>AK11*$AS11</f>
+        <f t="shared" si="1"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG11" s="1">
-        <f>AK11*$AV11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="33">
-        <f>AK11*$AT11</f>
+        <f t="shared" si="3"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO11" t="str">
@@ -9199,11 +9199,11 @@
         <v>NA</v>
       </c>
       <c r="AP11" s="70">
-        <f>AK11+(AE11+AG11)*$E$53+AF11*$F$53+AH11*$J$53</f>
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AQ11" s="102">
-        <f>(1-AK11/AP11)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR11" s="70">
@@ -9211,18 +9211,18 @@
         <v>9.5</v>
       </c>
       <c r="AS11" s="70">
-        <f>(($AR11/100)*(1+($AQ$37+$AV11)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR11/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT11" s="70">
-        <f>$AS11/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU11" s="70">
         <v>0</v>
       </c>
       <c r="AV11" s="84">
-        <f>$AU11/100/(1-$AW11/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW11" s="84">
@@ -9230,24 +9230,24 @@
       </c>
       <c r="AX11" s="9"/>
       <c r="AY11" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T11*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ11" s="9" t="e">
-        <f>J11*Z11</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA11" s="10" t="e">
-        <f>AY11+((AZ11-AY11)/$T$53)*F11</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB11" s="10">
-        <f>$T$49+$T$50*0.3*(L11)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M11)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9279,11 +9279,11 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L12" s="49">
@@ -9346,42 +9346,42 @@
         <v>33</v>
       </c>
       <c r="AE12" s="1">
-        <f>AK12*$AQ$37</f>
+        <f t="shared" si="0"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF12" s="1">
-        <f>AK12*$AS12</f>
+        <f t="shared" si="1"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG12" s="1">
-        <f>AK12*$AV12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="33">
-        <f>AK12*$AT12</f>
+        <f t="shared" si="3"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO12" t="str">
@@ -9389,11 +9389,11 @@
         <v>NA</v>
       </c>
       <c r="AP12" s="70">
-        <f>AK12+(AE12+AG12)*$E$53+AF12*$F$53+AH12*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AQ12" s="102">
-        <f>(1-AK12/AP12)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR12" s="70">
@@ -9401,18 +9401,18 @@
         <v>9.5</v>
       </c>
       <c r="AS12" s="70">
-        <f>(($AR12/100)*(1+($AQ$37+$AV12)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR12/100))</f>
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT12" s="70">
-        <f>$AS12/$X$45</f>
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU12" s="70">
         <v>0</v>
       </c>
       <c r="AV12" s="84">
-        <f>$AU12/100/(1-$AW12/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW12" s="84">
@@ -9420,24 +9420,24 @@
       </c>
       <c r="AX12" s="9"/>
       <c r="AY12" s="10" t="e">
-        <f>$T$49+$T$50*$T$52*(T12*$T$54)^$T$51</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ12" s="9" t="e">
-        <f>J12*Z12</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA12" s="10" t="e">
-        <f>AY12+((AZ12-AY12)/$T$53)*F12</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB12" s="10">
-        <f>$T$49+$T$50*0.3*(L12)^$T$51</f>
+        <f t="shared" si="18"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="BC12" s="9"/>
       <c r="BD12" s="9">
-        <f>$AY$42*$AX$44*$AX$46*(M12)^$AX$43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9459,163 +9459,163 @@
         <v>3287520</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AN19" si="7">F6</f>
+        <f t="shared" ref="F13:AN19" si="21">F6</f>
         <v>776406</v>
       </c>
       <c r="G13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3600</v>
       </c>
       <c r="O13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.1331</v>
       </c>
       <c r="U13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>9.9106478034251738E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.3993521965748258E-2</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" ref="W13" si="8">W6</f>
+        <f t="shared" ref="W13" si="22">W6</f>
         <v>NA</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.918527681859532</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.47926386573102986</v>
       </c>
       <c r="AG13">
-        <f t="shared" ref="AG13" si="9">AG6</f>
+        <f t="shared" ref="AG13" si="23">AG6</f>
         <v>3.5022332182314386</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.7926386573102988</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.9598090847580579E-4</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO13">
-        <f t="shared" ref="AO13:AO34" si="10">AO6</f>
-        <v>2100</v>
+        <f t="shared" ref="AO13:AO34" si="24">AO6</f>
+        <v>1450</v>
       </c>
       <c r="AP13" s="70">
-        <f>AK13+(AE13+AG13)*$E$53+AF13*$F$53+AH13*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.1736520592639877E-3</v>
       </c>
       <c r="AQ13" s="102">
-        <f>(1-AK13/AP13)*100</f>
+        <f t="shared" si="5"/>
         <v>57.725997070438204</v>
       </c>
       <c r="AR13" s="70">
-        <f t="shared" ref="AR13" si="11">AR6</f>
+        <f t="shared" ref="AR13" si="25">AR6</f>
         <v>6.5</v>
       </c>
       <c r="AS13" s="70">
-        <f t="shared" ref="AS13" si="12">AS6</f>
+        <f t="shared" ref="AS13" si="26">AS6</f>
         <v>965.96623965762194</v>
       </c>
       <c r="AT13" s="70">
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="84">
-        <f>$AU13/100/(1-$AW13/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW13" s="84">
@@ -9644,194 +9644,194 @@
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="13">B7</f>
+        <f t="shared" ref="B14:B19" si="27">B7</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D19" si="14">D7-3</f>
+        <f t="shared" ref="D14:D19" si="28">D7-3</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:T18" si="15">E7</f>
+        <f t="shared" ref="E14:T18" si="29">E7</f>
         <v>2739600</v>
       </c>
       <c r="F14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>True</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>False</v>
       </c>
       <c r="J14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2.894E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2.894E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" ref="W14" si="16">W7</f>
+        <f t="shared" ref="W14" si="30">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG14">
-        <f t="shared" ref="AG14" si="17">AG7</f>
+        <f t="shared" ref="AG14" si="31">AG7</f>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.5942949295839161E-8</v>
       </c>
-      <c r="AO14" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+      <c r="AO14">
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP14" s="70">
-        <f>AK14+(AE14+AG14)*$E$53+AF14*$F$53+AH14*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AQ14" s="102">
-        <f>(1-AK14/AP14)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR14" s="70">
-        <f t="shared" ref="AR14:AT14" si="18">AR7</f>
+        <f t="shared" ref="AR14:AT14" si="32">AR7</f>
         <v>9.5</v>
       </c>
       <c r="AS14" s="70">
-        <f t="shared" ref="AS14" si="19">AS7</f>
+        <f t="shared" ref="AS14" si="33">AS7</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT14" s="70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU14" s="70">
-        <f t="shared" ref="AU14" si="20">AU7</f>
+        <f t="shared" ref="AU14" si="34">AU7</f>
         <v>0</v>
       </c>
       <c r="AV14" s="84">
-        <f>$AU14/100/(1-$AW14/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW14" s="84">
-        <f t="shared" ref="AW14:AW19" si="21">AW7</f>
+        <f t="shared" ref="AW14:AW19" si="35">AW7</f>
         <v>68</v>
       </c>
       <c r="AX14" s="9"/>
@@ -9845,194 +9845,194 @@
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2191680</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15" si="22">W8</f>
+        <f t="shared" ref="W15" si="36">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15" si="23">AG8</f>
+        <f t="shared" ref="AG15" si="37">AG8</f>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP15" s="70">
-        <f>AK15+(AE15+AG15)*$E$53+AF15*$F$53+AH15*$J$53</f>
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AQ15" s="102">
-        <f>(1-AK15/AP15)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR15" s="70">
-        <f t="shared" ref="AR15:AT15" si="24">AR8</f>
+        <f t="shared" ref="AR15:AT15" si="38">AR8</f>
         <v>9.5</v>
       </c>
       <c r="AS15" s="70">
-        <f t="shared" ref="AS15" si="25">AS8</f>
+        <f t="shared" ref="AS15" si="39">AS8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT15" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU15" s="70">
-        <f t="shared" ref="AU15" si="26">AU8</f>
+        <f t="shared" ref="AU15" si="40">AU8</f>
         <v>0</v>
       </c>
       <c r="AV15" s="84">
-        <f>$AU15/100/(1-$AW15/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW15" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="AX15" s="9"/>
@@ -10046,194 +10046,194 @@
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1643760</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.1E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16" si="27">W9</f>
+        <f t="shared" ref="W16" si="41">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16" si="28">AG9</f>
+        <f t="shared" ref="AG16" si="42">AG9</f>
         <v>0</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP16" s="70">
-        <f>AK16+(AE16+AG16)*$E$53+AF16*$F$53+AH16*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AQ16" s="102">
-        <f>(1-AK16/AP16)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR16" s="70">
-        <f t="shared" ref="AR16:AT16" si="29">AR9</f>
+        <f t="shared" ref="AR16:AT16" si="43">AR9</f>
         <v>9.5</v>
       </c>
       <c r="AS16" s="70">
-        <f t="shared" ref="AS16" si="30">AS9</f>
+        <f t="shared" ref="AS16" si="44">AS9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT16" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU16" s="70">
-        <f t="shared" ref="AU16" si="31">AU9</f>
+        <f t="shared" ref="AU16" si="45">AU9</f>
         <v>0</v>
       </c>
       <c r="AV16" s="84">
-        <f>$AU16/100/(1-$AW16/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW16" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="AX16" s="9"/>
@@ -10247,194 +10247,194 @@
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
       <c r="B17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1095840</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="32">W10</f>
+        <f t="shared" ref="W17" si="46">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="33">AG10</f>
+        <f t="shared" ref="AG17" si="47">AG10</f>
         <v>0</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP17" s="70">
-        <f>AK17+(AE17+AG17)*$E$53+AF17*$F$53+AH17*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AQ17" s="102">
-        <f>(1-AK17/AP17)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR17" s="70">
-        <f t="shared" ref="AR17:AT17" si="34">AR10</f>
+        <f t="shared" ref="AR17:AT17" si="48">AR10</f>
         <v>9.5</v>
       </c>
       <c r="AS17" s="70">
-        <f t="shared" ref="AS17" si="35">AS10</f>
+        <f t="shared" ref="AS17" si="49">AS10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT17" s="70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU17" s="70">
-        <f t="shared" ref="AU17" si="36">AU10</f>
+        <f t="shared" ref="AU17" si="50">AU10</f>
         <v>0</v>
       </c>
       <c r="AV17" s="84">
-        <f>$AU17/100/(1-$AW17/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW17" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="AX17" s="9"/>
@@ -10448,194 +10448,194 @@
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>547920</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18" si="37">W11</f>
+        <f t="shared" ref="W18" si="51">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18" si="38">AG11</f>
+        <f t="shared" ref="AG18" si="52">AG11</f>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP18" s="70">
-        <f>AK18+(AE18+AG18)*$E$53+AF18*$F$53+AH18*$J$53</f>
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AQ18" s="102">
-        <f>(1-AK18/AP18)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR18" s="70">
-        <f t="shared" ref="AR18:AT18" si="39">AR11</f>
+        <f t="shared" ref="AR18:AT18" si="53">AR11</f>
         <v>9.5</v>
       </c>
       <c r="AS18" s="70">
-        <f t="shared" ref="AS18" si="40">AS11</f>
+        <f t="shared" ref="AS18" si="54">AS11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT18" s="70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU18" s="70">
-        <f t="shared" ref="AU18" si="41">AU11</f>
+        <f t="shared" ref="AU18" si="55">AU11</f>
         <v>0</v>
       </c>
       <c r="AV18" s="84">
-        <f>$AU18/100/(1-$AW18/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW18" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="AX18" s="9"/>
@@ -10649,14 +10649,14 @@
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
       <c r="B19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="E19">
@@ -10664,179 +10664,179 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>True</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="42">W12</f>
+        <f t="shared" ref="W19" si="56">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="AD19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>False</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG19">
-        <f t="shared" ref="AG19" si="43">AG12</f>
+        <f t="shared" ref="AG19" si="57">AG12</f>
         <v>0</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP19" s="70">
-        <f>AK19+(AE19+AG19)*$E$53+AF19*$F$53+AH19*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AQ19" s="102">
-        <f>(1-AK19/AP19)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR19" s="70">
-        <f t="shared" ref="AR19:AT19" si="44">AR12</f>
+        <f t="shared" ref="AR19:AT19" si="58">AR12</f>
         <v>9.5</v>
       </c>
       <c r="AS19" s="70">
-        <f t="shared" ref="AS19" si="45">AS12</f>
+        <f t="shared" ref="AS19" si="59">AS12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT19" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU19" s="70">
-        <f t="shared" ref="AU19" si="46">AU12</f>
+        <f t="shared" ref="AU19" si="60">AU12</f>
         <v>0</v>
       </c>
       <c r="AV19" s="84">
-        <f>$AU19/100/(1-$AW19/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW19" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="AX19" s="9"/>
@@ -10865,175 +10865,175 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AN25" si="47">F7</f>
+        <f t="shared" ref="F20:AN25" si="61">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="48">W7</f>
+        <f t="shared" ref="W20" si="62">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20" si="49">AG7</f>
+        <f t="shared" ref="AG20" si="63">AG7</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="10"/>
-        <v>2100</v>
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP20" s="70">
-        <f>AK20+(AE20+AG20)*$E$53+AF20*$F$53+AH20*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.4867252364606023E-5</v>
       </c>
       <c r="AQ20" s="102">
-        <f>(1-AK20/AP20)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR20" s="70">
-        <f t="shared" ref="AR20:AT20" si="50">AR7</f>
+        <f t="shared" ref="AR20:AT20" si="64">AR7</f>
         <v>9.5</v>
       </c>
       <c r="AS20" s="70">
-        <f t="shared" ref="AS20" si="51">AS7</f>
+        <f t="shared" ref="AS20" si="65">AS7</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT20" s="70">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU20" s="70">
-        <f t="shared" ref="AU20" si="52">AU7</f>
+        <f t="shared" ref="AU20" si="66">AU7</f>
         <v>0</v>
       </c>
       <c r="AV20" s="84">
-        <f>$AU20/100/(1-$AW20/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW20" s="84">
@@ -11051,194 +11051,194 @@
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="53">B8</f>
+        <f t="shared" ref="B21:B34" si="67">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="54">D8-4</f>
+        <f t="shared" ref="D21:D25" si="68">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="55">E8</f>
+        <f t="shared" ref="E21:T25" si="69">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21" si="56">W8</f>
+        <f t="shared" ref="W21" si="70">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG21">
-        <f t="shared" ref="AG21" si="57">AG8</f>
+        <f t="shared" ref="AG21" si="71">AG8</f>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO21" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+      <c r="AO21">
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP21" s="70">
-        <f>AK21+(AE21+AG21)*$E$53+AF21*$F$53+AH21*$J$53</f>
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AQ21" s="102">
-        <f>(1-AK21/AP21)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR21" s="70">
-        <f t="shared" ref="AR21:AT21" si="58">AR8</f>
+        <f t="shared" ref="AR21:AT21" si="72">AR8</f>
         <v>9.5</v>
       </c>
       <c r="AS21" s="70">
-        <f t="shared" ref="AS21" si="59">AS8</f>
+        <f t="shared" ref="AS21" si="73">AS8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT21" s="70">
-        <f t="shared" si="58"/>
+        <f t="shared" si="72"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU21" s="70">
-        <f t="shared" ref="AU21" si="60">AU8</f>
+        <f t="shared" ref="AU21" si="74">AU8</f>
         <v>0</v>
       </c>
       <c r="AV21" s="84">
-        <f>$AU21/100/(1-$AW21/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW21" s="84">
-        <f t="shared" ref="AW21:AW25" si="61">AW8</f>
+        <f t="shared" ref="AW21:AW25" si="75">AW8</f>
         <v>68</v>
       </c>
       <c r="AX21" s="9"/>
@@ -11252,194 +11252,194 @@
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>1643760</v>
       </c>
       <c r="F22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>3.1E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22" si="62">W9</f>
+        <f t="shared" ref="W22" si="76">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22" si="63">AG9</f>
+        <f t="shared" ref="AG22" si="77">AG9</f>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP22" s="70">
-        <f>AK22+(AE22+AG22)*$E$53+AF22*$F$53+AH22*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AQ22" s="102">
-        <f>(1-AK22/AP22)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR22" s="70">
-        <f t="shared" ref="AR22:AT22" si="64">AR9</f>
+        <f t="shared" ref="AR22:AT22" si="78">AR9</f>
         <v>9.5</v>
       </c>
       <c r="AS22" s="70">
-        <f t="shared" ref="AS22" si="65">AS9</f>
+        <f t="shared" ref="AS22" si="79">AS9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT22" s="70">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU22" s="70">
-        <f t="shared" ref="AU22" si="66">AU9</f>
+        <f t="shared" ref="AU22" si="80">AU9</f>
         <v>0</v>
       </c>
       <c r="AV22" s="84">
-        <f>$AU22/100/(1-$AW22/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW22" s="84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
       <c r="AX22" s="9"/>
@@ -11453,194 +11453,194 @@
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>1095840</v>
       </c>
       <c r="F23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ref="W23" si="67">W10</f>
+        <f t="shared" ref="W23" si="81">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23" si="68">AG10</f>
+        <f t="shared" ref="AG23" si="82">AG10</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP23" s="70">
-        <f>AK23+(AE23+AG23)*$E$53+AF23*$F$53+AH23*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AQ23" s="102">
-        <f>(1-AK23/AP23)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR23" s="70">
-        <f t="shared" ref="AR23:AT23" si="69">AR10</f>
+        <f t="shared" ref="AR23:AT23" si="83">AR10</f>
         <v>9.5</v>
       </c>
       <c r="AS23" s="70">
-        <f t="shared" ref="AS23" si="70">AS10</f>
+        <f t="shared" ref="AS23" si="84">AS10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT23" s="70">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU23" s="70">
-        <f t="shared" ref="AU23" si="71">AU10</f>
+        <f t="shared" ref="AU23" si="85">AU10</f>
         <v>0</v>
       </c>
       <c r="AV23" s="84">
-        <f>$AU23/100/(1-$AW23/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW23" s="84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
       <c r="AX23" s="9"/>
@@ -11654,194 +11654,194 @@
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>547920</v>
       </c>
       <c r="F24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24" si="72">W11</f>
+        <f t="shared" ref="W24" si="86">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG24">
-        <f t="shared" ref="AG24" si="73">AG11</f>
+        <f t="shared" ref="AG24" si="87">AG11</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP24" s="70">
-        <f>AK24+(AE24+AG24)*$E$53+AF24*$F$53+AH24*$J$53</f>
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AQ24" s="102">
-        <f>(1-AK24/AP24)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR24" s="70">
-        <f t="shared" ref="AR24:AT24" si="74">AR11</f>
+        <f t="shared" ref="AR24:AT24" si="88">AR11</f>
         <v>9.5</v>
       </c>
       <c r="AS24" s="70">
-        <f t="shared" ref="AS24" si="75">AS11</f>
+        <f t="shared" ref="AS24" si="89">AS11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT24" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU24" s="70">
-        <f t="shared" ref="AU24" si="76">AU11</f>
+        <f t="shared" ref="AU24" si="90">AU11</f>
         <v>0</v>
       </c>
       <c r="AV24" s="84">
-        <f>$AU24/100/(1-$AW24/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW24" s="84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
       <c r="AX24" s="9"/>
@@ -11855,194 +11855,194 @@
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="111"/>
       <c r="B25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ref="W25" si="77">W12</f>
+        <f t="shared" ref="W25" si="91">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25" si="78">AG12</f>
+        <f t="shared" ref="AG25" si="92">AG12</f>
         <v>0</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP25" s="70">
-        <f>AK25+(AE25+AG25)*$E$53+AF25*$F$53+AH25*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AQ25" s="102">
-        <f>(1-AK25/AP25)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR25" s="70">
-        <f t="shared" ref="AR25:AT25" si="79">AR12</f>
+        <f t="shared" ref="AR25:AT25" si="93">AR12</f>
         <v>9.5</v>
       </c>
       <c r="AS25" s="70">
-        <f t="shared" ref="AS25" si="80">AS12</f>
+        <f t="shared" ref="AS25" si="94">AS12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT25" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="93"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU25" s="70">
-        <f t="shared" ref="AU25" si="81">AU12</f>
+        <f t="shared" ref="AU25" si="95">AU12</f>
         <v>0</v>
       </c>
       <c r="AV25" s="84">
-        <f>$AU25/100/(1-$AW25/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW25" s="84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
       <c r="AX25" s="9"/>
@@ -12056,7 +12056,7 @@
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="111"/>
       <c r="B26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -12071,175 +12071,175 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AN30" si="82">F8</f>
+        <f t="shared" ref="F26:AN30" si="96">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="83">W8</f>
+        <f t="shared" ref="W26" si="97">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="84">AG8</f>
+        <f t="shared" ref="AG26" si="98">AG8</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AO26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP26" s="70">
-        <f>AK26+(AE26+AG26)*$E$53+AF26*$F$53+AH26*$J$53</f>
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
       <c r="AQ26" s="102">
-        <f>(1-AK26/AP26)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR26" s="70">
-        <f t="shared" ref="AR26:AT26" si="85">AR8</f>
+        <f t="shared" ref="AR26:AT26" si="99">AR8</f>
         <v>9.5</v>
       </c>
       <c r="AS26" s="70">
-        <f t="shared" ref="AS26" si="86">AS8</f>
+        <f t="shared" ref="AS26" si="100">AS8</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT26" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU26" s="70">
-        <f t="shared" ref="AU26" si="87">AU8</f>
+        <f t="shared" ref="AU26" si="101">AU8</f>
         <v>0</v>
       </c>
       <c r="AV26" s="84">
-        <f>$AU26/100/(1-$AW26/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW26" s="84">
@@ -12257,194 +12257,194 @@
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="111"/>
       <c r="B27">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="88">D9-5</f>
+        <f t="shared" ref="D27:D30" si="102">D9-5</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T30" si="89">E9</f>
+        <f t="shared" ref="E27:T30" si="103">E9</f>
         <v>1643760</v>
       </c>
       <c r="F27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>True</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>False</v>
       </c>
       <c r="J27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>2.894E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>2.894E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>3.1E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>NA</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="90">W9</f>
+        <f t="shared" ref="W27" si="104">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27" si="91">AG9</f>
+        <f t="shared" ref="AG27" si="105">AG9</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="10"/>
-        <v>2100</v>
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP27" s="70">
-        <f>AK27+(AE27+AG27)*$E$53+AF27*$F$53+AH27*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AQ27" s="102">
-        <f>(1-AK27/AP27)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR27" s="70">
-        <f t="shared" ref="AR27:AT27" si="92">AR9</f>
+        <f t="shared" ref="AR27:AT27" si="106">AR9</f>
         <v>9.5</v>
       </c>
       <c r="AS27" s="70">
-        <f t="shared" ref="AS27" si="93">AS9</f>
+        <f t="shared" ref="AS27" si="107">AS9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT27" s="70">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU27" s="70">
-        <f t="shared" ref="AU27" si="94">AU9</f>
+        <f t="shared" ref="AU27" si="108">AU9</f>
         <v>0</v>
       </c>
       <c r="AV27" s="84">
-        <f>$AU27/100/(1-$AW27/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW27" s="84">
-        <f t="shared" ref="AW27:AW30" si="95">AW9</f>
+        <f t="shared" ref="AW27:AW30" si="109">AW9</f>
         <v>68</v>
       </c>
       <c r="AX27" s="9"/>
@@ -12458,194 +12458,194 @@
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="111"/>
       <c r="B28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>143</v>
       </c>
       <c r="D28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>1095840</v>
       </c>
       <c r="F28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28" si="96">W10</f>
+        <f t="shared" ref="W28" si="110">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG28">
-        <f t="shared" ref="AG28" si="97">AG10</f>
+        <f t="shared" ref="AG28" si="111">AG10</f>
         <v>0</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO28" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+      <c r="AO28">
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP28" s="70">
-        <f>AK28+(AE28+AG28)*$E$53+AF28*$F$53+AH28*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AQ28" s="102">
-        <f>(1-AK28/AP28)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR28" s="70">
-        <f t="shared" ref="AR28:AT28" si="98">AR10</f>
+        <f t="shared" ref="AR28:AT28" si="112">AR10</f>
         <v>9.5</v>
       </c>
       <c r="AS28" s="70">
-        <f t="shared" ref="AS28" si="99">AS10</f>
+        <f t="shared" ref="AS28" si="113">AS10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT28" s="70">
-        <f t="shared" si="98"/>
+        <f t="shared" si="112"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU28" s="70">
-        <f t="shared" ref="AU28" si="100">AU10</f>
+        <f t="shared" ref="AU28" si="114">AU10</f>
         <v>0</v>
       </c>
       <c r="AV28" s="84">
-        <f>$AU28/100/(1-$AW28/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW28" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
       <c r="AX28" s="9"/>
@@ -12659,194 +12659,194 @@
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="111"/>
       <c r="B29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="101">W11</f>
+        <f t="shared" ref="W29" si="115">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29" si="102">AG11</f>
+        <f t="shared" ref="AG29" si="116">AG11</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP29" s="70">
-        <f>AK29+(AE29+AG29)*$E$53+AF29*$F$53+AH29*$J$53</f>
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AQ29" s="102">
-        <f>(1-AK29/AP29)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR29" s="70">
-        <f t="shared" ref="AR29:AT29" si="103">AR11</f>
+        <f t="shared" ref="AR29:AT29" si="117">AR11</f>
         <v>9.5</v>
       </c>
       <c r="AS29" s="70">
-        <f t="shared" ref="AS29" si="104">AS11</f>
+        <f t="shared" ref="AS29" si="118">AS11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT29" s="70">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU29" s="70">
-        <f t="shared" ref="AU29" si="105">AU11</f>
+        <f t="shared" ref="AU29" si="119">AU11</f>
         <v>0</v>
       </c>
       <c r="AV29" s="84">
-        <f>$AU29/100/(1-$AW29/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW29" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
       <c r="AX29" s="9"/>
@@ -12860,194 +12860,194 @@
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="111"/>
       <c r="B30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="106">W12</f>
+        <f t="shared" ref="W30" si="120">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG30">
-        <f t="shared" ref="AG30" si="107">AG12</f>
+        <f t="shared" ref="AG30" si="121">AG12</f>
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP30" s="70">
-        <f>AK30+(AE30+AG30)*$E$53+AF30*$F$53+AH30*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AQ30" s="102">
-        <f>(1-AK30/AP30)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR30" s="70">
-        <f t="shared" ref="AR30:AT30" si="108">AR12</f>
+        <f t="shared" ref="AR30:AT30" si="122">AR12</f>
         <v>9.5</v>
       </c>
       <c r="AS30" s="70">
-        <f t="shared" ref="AS30" si="109">AS12</f>
+        <f t="shared" ref="AS30" si="123">AS12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT30" s="70">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU30" s="70">
-        <f t="shared" ref="AU30" si="110">AU12</f>
+        <f t="shared" ref="AU30" si="124">AU12</f>
         <v>0</v>
       </c>
       <c r="AV30" s="84">
-        <f>$AU30/100/(1-$AW30/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW30" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
       <c r="AX30" s="9"/>
@@ -13061,7 +13061,7 @@
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="111"/>
       <c r="B31">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -13076,175 +13076,175 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AN34" si="111">F9</f>
+        <f t="shared" ref="F31:AN34" si="125">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" si="112">W9</f>
+        <f t="shared" ref="W31" si="126">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="113">AG9</f>
+        <f t="shared" ref="AG31" si="127">AG9</f>
         <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AO31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP31" s="70">
-        <f>AK31+(AE31+AG31)*$E$53+AF31*$F$53+AH31*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
       <c r="AQ31" s="102">
-        <f>(1-AK31/AP31)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR31" s="70">
-        <f t="shared" ref="AR31:AT31" si="114">AR9</f>
+        <f t="shared" ref="AR31:AT31" si="128">AR9</f>
         <v>9.5</v>
       </c>
       <c r="AS31" s="70">
-        <f t="shared" ref="AS31" si="115">AS9</f>
+        <f t="shared" ref="AS31" si="129">AS9</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT31" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU31" s="70">
-        <f t="shared" ref="AU31" si="116">AU9</f>
+        <f t="shared" ref="AU31" si="130">AU9</f>
         <v>0</v>
       </c>
       <c r="AV31" s="84">
-        <f>$AU31/100/(1-$AW31/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW31" s="84">
@@ -13262,194 +13262,194 @@
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="111"/>
       <c r="B32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="117">D10-6</f>
+        <f t="shared" ref="D32:D34" si="131">D10-6</f>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:T34" si="118">E10</f>
+        <f t="shared" ref="E32:T34" si="132">E10</f>
         <v>1095840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>True</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>False</v>
       </c>
       <c r="J32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>2.894E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>2.894E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>NA</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ref="W32" si="119">W10</f>
+        <f t="shared" ref="W32" si="133">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.7455961848723877E-3</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG32">
-        <f t="shared" ref="AG32" si="120">AG10</f>
+        <f t="shared" ref="AG32" si="134">AG10</f>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>8.8213162748220653E-3</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AO32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP32" s="70">
-        <f>AK32+(AE32+AG32)*$E$53+AF32*$F$53+AH32*$J$53</f>
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
       <c r="AQ32" s="102">
-        <f>(1-AK32/AP32)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR32" s="70">
-        <f t="shared" ref="AR32:AT32" si="121">AR10</f>
+        <f t="shared" ref="AR32:AT32" si="135">AR10</f>
         <v>9.5</v>
       </c>
       <c r="AS32" s="70">
-        <f t="shared" ref="AS32" si="122">AS10</f>
+        <f t="shared" ref="AS32" si="136">AS10</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT32" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="135"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU32" s="70">
-        <f t="shared" ref="AU32" si="123">AU10</f>
+        <f t="shared" ref="AU32" si="137">AU10</f>
         <v>0</v>
       </c>
       <c r="AV32" s="84">
-        <f>$AU32/100/(1-$AW32/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW32" s="84">
-        <f t="shared" ref="AW32:AW34" si="124">AW17</f>
+        <f t="shared" ref="AW32:AW34" si="138">AW17</f>
         <v>68</v>
       </c>
       <c r="AX32" s="9"/>
@@ -13463,194 +13463,194 @@
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="111"/>
       <c r="B33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33">
-        <f t="shared" si="117"/>
+        <f t="shared" si="131"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>547920</v>
       </c>
       <c r="F33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>True</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="J33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" ref="W33" si="125">W11</f>
+        <f t="shared" ref="W33" si="139">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG33">
-        <f t="shared" ref="AG33" si="126">AG11</f>
+        <f t="shared" ref="AG33" si="140">AG11</f>
         <v>0</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AO33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AP33" s="70">
-        <f>AK33+(AE33+AG33)*$E$53+AF33*$F$53+AH33*$J$53</f>
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
       <c r="AQ33" s="102">
-        <f>(1-AK33/AP33)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR33" s="70">
-        <f t="shared" ref="AR33:AT33" si="127">AR11</f>
+        <f t="shared" ref="AR33:AT33" si="141">AR11</f>
         <v>9.5</v>
       </c>
       <c r="AS33" s="70">
-        <f t="shared" ref="AS33" si="128">AS11</f>
+        <f t="shared" ref="AS33" si="142">AS11</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT33" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="141"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU33" s="70">
-        <f t="shared" ref="AU33" si="129">AU11</f>
+        <f t="shared" ref="AU33" si="143">AU11</f>
         <v>0</v>
       </c>
       <c r="AV33" s="84">
-        <f>$AU33/100/(1-$AW33/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW33" s="84">
-        <f t="shared" si="124"/>
+        <f t="shared" si="138"/>
         <v>68</v>
       </c>
       <c r="AX33" s="9"/>
@@ -13664,194 +13664,194 @@
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="111"/>
       <c r="B34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>144</v>
       </c>
       <c r="D34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="131"/>
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>True</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="J34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" ref="W34" si="130">W12</f>
+        <f t="shared" ref="W34" si="144">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG34">
-        <f t="shared" ref="AG34" si="131">AG12</f>
+        <f t="shared" ref="AG34" si="145">AG12</f>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="10"/>
-        <v>2100</v>
+        <f t="shared" si="24"/>
+        <v>1450</v>
       </c>
       <c r="AP34" s="73">
-        <f>AK34+(AE34+AG34)*$E$53+AF34*$F$53+AH34*$J$53</f>
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
       <c r="AQ34" s="103">
-        <f>(1-AK34/AP34)*100</f>
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
       <c r="AR34" s="73">
-        <f t="shared" ref="AR34:AT34" si="132">AR12</f>
+        <f t="shared" ref="AR34:AT34" si="146">AR12</f>
         <v>9.5</v>
       </c>
       <c r="AS34" s="73">
-        <f t="shared" ref="AS34" si="133">AS12</f>
+        <f t="shared" ref="AS34" si="147">AS12</f>
         <v>1889.9390966577716</v>
       </c>
       <c r="AT34" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="146"/>
         <v>18899.390966577714</v>
       </c>
       <c r="AU34" s="73">
-        <f t="shared" ref="AU34" si="134">AU12</f>
+        <f t="shared" ref="AU34" si="148">AU12</f>
         <v>0</v>
       </c>
       <c r="AV34" s="84">
-        <f>$AU34/100/(1-$AW34/100)*$X$54*10^6/$X$52</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW34" s="84">
-        <f t="shared" si="124"/>
+        <f t="shared" si="138"/>
         <v>68</v>
       </c>
       <c r="AX34" s="9"/>
@@ -14016,22 +14016,22 @@
         <v>1.7741886232211572</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="135">J37*$X37</f>
+        <f t="shared" ref="M37:M42" si="149">J37*$X37</f>
         <v>17.74188623221157</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="136">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="150">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="137">J37*$AB$38</f>
+        <f t="shared" ref="O37:O42" si="151">J37*$AB$38</f>
         <v>25.307812989677835</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="138">J37*$AC37</f>
+        <f t="shared" ref="Q37:Q42" si="152">J37*$AC37</f>
         <v>0.36569789770084471</v>
       </c>
       <c r="R37">
@@ -14052,7 +14052,7 @@
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="139">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="153">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -14066,14 +14066,14 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="140">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="154">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f>ROUND(X37/$AT$6*$AC$45,0)</f>
+        <f t="shared" ref="AC37:AC42" si="155">ROUND(X37/$AT$6*$AC$45,0)</f>
         <v>85</v>
       </c>
       <c r="AD37" s="15">
@@ -14134,7 +14134,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="141">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="156">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -14142,22 +14142,22 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>2.0231970075485135</v>
       </c>
       <c r="N38">
-        <f t="shared" si="136"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="151"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="152"/>
         <v>4.104E-2</v>
       </c>
       <c r="R38">
@@ -14179,7 +14179,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="153"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="140"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -14201,15 +14201,15 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f>ROUND(X38/$AT$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>24</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="142">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="157">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="143">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="158">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
@@ -14261,30 +14261,30 @@
         <v>5.0680069287428898E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>2.5340034643714449E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="144">J39*$W39</f>
+        <f t="shared" ref="L39:L42" si="159">J39*$W39</f>
         <v>2.4761936124967816</v>
       </c>
       <c r="M39">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>24.761936124967814</v>
       </c>
       <c r="N39">
-        <f t="shared" si="136"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="151"/>
         <v>29.811805463193469</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="152"/>
         <v>0.51186869980303185</v>
       </c>
       <c r="R39">
@@ -14305,31 +14305,31 @@
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="153"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="145">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="160">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="140"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f>ROUND(X39/$AT$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>101</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="157"/>
         <v>8.4723718951712264E-3</v>
       </c>
       <c r="AE39" s="71">
-        <f t="shared" si="143"/>
+        <f t="shared" si="158"/>
         <v>40.181958589053821</v>
       </c>
       <c r="AF39" s="1"/>
@@ -14366,30 +14366,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>3.8263355734467188</v>
       </c>
       <c r="N40">
-        <f t="shared" si="136"/>
+        <f t="shared" si="150"/>
         <v>6.7058823529411775</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="151"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="152"/>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="R40">
@@ -14411,11 +14411,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="153"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14426,15 +14426,15 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f>ROUND(X40/$AT$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>35</v>
       </c>
       <c r="AD40" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="157"/>
         <v>3.0576333839599777E-3</v>
       </c>
       <c r="AE40" s="71">
-        <f t="shared" si="143"/>
+        <f t="shared" si="158"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
@@ -14471,30 +14471,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>6.7128694270995062E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="151"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="152"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="R41">
@@ -14516,28 +14516,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="153"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA41" s="89">
-        <f t="shared" si="140"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f>ROUND(X41/$AT$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>35</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="157"/>
         <v>5.3642690946666268E-5</v>
       </c>
       <c r="AE41" s="71">
-        <f t="shared" si="143"/>
+        <f t="shared" si="158"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AW41" s="91" t="s">
@@ -14581,30 +14581,30 @@
         <v>4.3694199999999997E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>2.18471E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>2.3509226953550577</v>
       </c>
       <c r="M42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>23.509226953550574</v>
       </c>
       <c r="N42">
-        <f t="shared" si="136"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="151"/>
         <v>25.70247058823529</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="152"/>
         <v>0.48500561999999997</v>
       </c>
       <c r="R42">
@@ -14626,27 +14626,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="153"/>
         <v>538.03999051477263</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>5380.3999051477258</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" si="140"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f>ROUND(X42/$AT$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>111</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="157"/>
         <v>7.5272391193074283E-3</v>
       </c>
       <c r="AE42" s="72">
-        <f t="shared" si="143"/>
+        <f t="shared" si="158"/>
         <v>41.951890583728066</v>
       </c>
       <c r="AW42" s="91"/>
@@ -15290,30 +15290,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="146">G58</f>
+        <f t="shared" ref="G59:M59" si="161">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -15346,30 +15346,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="147">G58</f>
+        <f t="shared" ref="G60:M60" si="162">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -15402,30 +15402,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="148">G58</f>
+        <f t="shared" ref="G61:M61" si="163">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="148"/>
+        <f t="shared" si="163"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="148"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="148"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="148"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="148"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15458,30 +15458,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="149">G58</f>
+        <f t="shared" ref="G62:M62" si="164">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -18239,7 +18239,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18273,15 +18273,15 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f>B2*10^3/10000</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" s="94">
         <f>C2*10^6/14</f>
-        <v>71428.571428571435</v>
+        <v>428571.42857142858</v>
       </c>
       <c r="E2" s="95">
         <v>36146</v>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1988,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5">
         <v>0.09</v>
@@ -3557,19 +3557,19 @@
       </c>
       <c r="J15">
         <f>P15*$U$15</f>
-        <v>4.2972599999999998E-3</v>
+        <v>4.1019300000000002E-3</v>
       </c>
       <c r="K15">
         <f>J15*0.005</f>
-        <v>2.1486299999999998E-5</v>
+        <v>2.0509650000000001E-5</v>
       </c>
       <c r="L15">
         <f>J15*$W15</f>
-        <v>1.7013068517930177</v>
+        <v>1.6239747221660625</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M20" si="22">J15*$X15</f>
-        <v>17.013068517930176</v>
+        <v>16.239747221660625</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:N20" si="23">AA15*$J15</f>
@@ -3577,14 +3577,14 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15:O20" si="24">J15*$AB$16</f>
-        <v>18.958500000000001</v>
+        <v>18.09675</v>
       </c>
       <c r="P15">
         <v>1.9532999999999999E-4</v>
       </c>
       <c r="Q15" s="1">
         <f>J15*$AC15</f>
-        <v>0.24494381999999998</v>
+        <v>0.23381001000000001</v>
       </c>
       <c r="R15">
         <v>4250</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V15" s="15">
         <v>4.3</v>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="AD15" s="15">
         <f>J15+L15*$F$31+M15*$J$31+O15*$E$31</f>
-        <v>6.5927338413052268E-3</v>
+        <v>6.293064121245898E-3</v>
       </c>
       <c r="AE15" s="71">
         <f>(1-J15/AD15)*100</f>
-        <v>34.81823923974413</v>
+        <v>34.818239239744116</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AQ15" s="82"/>
@@ -3804,19 +3804,19 @@
       </c>
       <c r="J17">
         <f>P17*$U$17</f>
-        <v>5.3035399999999998E-3</v>
+        <v>5.0624699999999995E-3</v>
       </c>
       <c r="K17">
         <f t="shared" si="27"/>
-        <v>2.6517699999999999E-5</v>
+        <v>2.5312349999999998E-5</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L20" si="32">J17*$W17</f>
-        <v>2.4889358583911396</v>
+        <v>2.3758024102824513</v>
       </c>
       <c r="M17">
         <f t="shared" si="22"/>
-        <v>24.889358583911395</v>
+        <v>23.758024102824514</v>
       </c>
       <c r="N17">
         <f t="shared" si="23"/>
@@ -3824,14 +3824,14 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="24"/>
-        <v>23.397970588235296</v>
+        <v>22.334426470588234</v>
       </c>
       <c r="P17">
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="28"/>
-        <v>0.36064071999999997</v>
+        <v>0.34424795999999996</v>
       </c>
       <c r="R17">
         <v>4250</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V17" s="15">
         <v>4.8</v>
@@ -3870,11 +3870,11 @@
       </c>
       <c r="AD17" s="15">
         <f t="shared" si="30"/>
-        <v>8.5377879623382402E-3</v>
+        <v>8.1497066913228666E-3</v>
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="31"/>
-        <v>37.881568113486843</v>
+        <v>37.88156811348685</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -4118,19 +4118,19 @@
       </c>
       <c r="J20">
         <f>P20*$U$20</f>
-        <v>4.2242199999999999E-3</v>
+        <v>4.0322099999999996E-3</v>
       </c>
       <c r="K20">
         <f t="shared" si="27"/>
-        <v>2.11211E-5</v>
+        <v>2.0161049999999999E-5</v>
       </c>
       <c r="L20">
         <f t="shared" si="32"/>
-        <v>2.1835532433632427</v>
+        <v>2.0843008232103681</v>
       </c>
       <c r="M20">
         <f t="shared" si="22"/>
-        <v>21.835532433632427</v>
+        <v>20.843008232103678</v>
       </c>
       <c r="N20">
         <f t="shared" si="23"/>
@@ -4138,14 +4138,14 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" si="24"/>
-        <v>18.636264705882354</v>
+        <v>17.789161764705881</v>
       </c>
       <c r="P20">
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="28"/>
-        <v>0.3168165</v>
+        <v>0.30241574999999998</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20" s="16">
         <v>5.0999999999999996</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="AD20" s="16">
         <f t="shared" si="30"/>
-        <v>7.0076137152537141E-3</v>
+        <v>6.689085819105817E-3</v>
       </c>
       <c r="AE20" s="72">
         <f t="shared" si="31"/>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Y23" s="74">
         <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD15:AD20,AQ5:AQ12)</f>
-        <v>4.4146203981518433</v>
+        <v>4.4039658411029281</v>
       </c>
       <c r="AA23" s="54" t="s">
         <v>121</v>
@@ -4414,15 +4414,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>154.21320252380491</v>
+        <v>149.46818795927152</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>2.0990033143932734</v>
+        <v>2.0344186930067711</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>20.990033143932731</v>
+        <v>20.344186930067711</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -4435,15 +4435,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>3.4954992572062443E-2</v>
+        <v>3.3879455937434876E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>1.7477496286031222E-4</v>
+        <v>1.6939727968717439E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>2.7963994057649955</v>
+        <v>2.7103564749947902</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
-        <v>0.59334451961947088</v>
+        <v>0.59363241585441173</v>
       </c>
       <c r="O28" s="16">
         <v>0.8</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
-        <v>5.5695345848035004E-2</v>
+        <v>5.3991399213407433E-2</v>
       </c>
       <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="P33" s="69">
         <f t="array" ref="P33">SUM(J15:J20,AK5:AK12)+SUM(AF5:AF12*F31,L15:L20*F31)+SUM(AH5:AH12*J31,M15:M20*J31)+SUM(AE5:AE12*E31,O15:O20*E31)+SUM(N15:N20*E31,AG5:AG12*E31)</f>
-        <v>3.2704112436364279E-2</v>
+        <v>3.1697833549141685E-2</v>
       </c>
       <c r="W33" s="35" t="s">
         <v>122</v>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>4.0880140545455336E-2</v>
+        <v>3.9622291936427113E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="P35" s="36">
         <f>P34+P33+P32</f>
-        <v>7.3584252981819614E-2</v>
+        <v>7.1320125485568792E-2</v>
       </c>
       <c r="Q35" s="32"/>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="P37" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/$P$33</f>
-        <v>0.36581818826824364</v>
+        <v>0.36551047740241704</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14493952061648663</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="P39" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/($P$33+N28/(1+N28)*P32)</f>
-        <v>0.36581818826824364</v>
+        <v>0.36551047740241704</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14493952061648663</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="P44" s="75">
         <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
-        <v>2.6287201769563748</v>
+        <v>2.6239848182679681</v>
       </c>
     </row>
   </sheetData>
@@ -7704,8 +7704,8 @@
   </sheetPr>
   <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM32" sqref="AM32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7990,8 +7990,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <f>INPUTS!Y5</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5">
         <f>INPUTS!Z5</f>
@@ -14005,19 +14004,19 @@
       </c>
       <c r="J37">
         <f>P37*$U$37</f>
-        <v>4.3023282082452321E-3</v>
+        <v>4.1067678351431759E-3</v>
       </c>
       <c r="K37">
         <f>J37*0.005</f>
-        <v>2.1511641041226162E-5</v>
+        <v>2.053383917571588E-5</v>
       </c>
       <c r="L37">
         <f>J37*$W37</f>
-        <v>1.7741886232211572</v>
+        <v>1.6935436858020134</v>
       </c>
       <c r="M37">
         <f t="shared" ref="M37:M42" si="149">J37*$X37</f>
-        <v>17.74188623221157</v>
+        <v>16.935436858020136</v>
       </c>
       <c r="N37">
         <f t="shared" ref="N37:N42" si="150">AA37*$J37</f>
@@ -14025,14 +14024,14 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" ref="O37:O42" si="151">J37*$AB$38</f>
-        <v>25.307812989677835</v>
+        <v>24.157457853783384</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" ref="Q37:Q42" si="152">J37*$AC37</f>
-        <v>0.36569789770084471</v>
+        <v>0.34907526598716992</v>
       </c>
       <c r="R37">
         <v>4400</v>
@@ -14045,7 +14044,7 @@
       </c>
       <c r="U37" s="15">
         <f>INPUTS!U15</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V37" s="15">
         <f>INPUTS!V15</f>
@@ -14078,7 +14077,7 @@
       </c>
       <c r="AD37" s="15">
         <f>J37+L37*$F$53+M37*$J$53+O37*$E$53</f>
-        <v>6.8543416050531256E-3</v>
+        <v>6.5427806230052557E-3</v>
       </c>
       <c r="AE37" s="71">
         <f>(1-J37/AD37)*100</f>
@@ -14258,19 +14257,19 @@
       </c>
       <c r="J39">
         <f>P39*$U$39</f>
-        <v>5.0680069287428898E-3</v>
+        <v>4.8376429774363953E-3</v>
       </c>
       <c r="K39">
         <f t="shared" si="156"/>
-        <v>2.5340034643714449E-5</v>
+        <v>2.4188214887181978E-5</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39:L42" si="159">J39*$W39</f>
-        <v>2.4761936124967816</v>
+        <v>2.3636393573832919</v>
       </c>
       <c r="M39">
         <f t="shared" si="149"/>
-        <v>24.761936124967814</v>
+        <v>23.636393573832915</v>
       </c>
       <c r="N39">
         <f t="shared" si="150"/>
@@ -14278,14 +14277,14 @@
       </c>
       <c r="O39" s="1">
         <f t="shared" si="151"/>
-        <v>29.811805463193469</v>
+        <v>28.456723396684676</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="152"/>
-        <v>0.51186869980303185</v>
+        <v>0.48860194072107593</v>
       </c>
       <c r="R39">
         <v>4400</v>
@@ -14298,7 +14297,7 @@
       </c>
       <c r="U39" s="15">
         <f>INPUTS!U17</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V39" s="15">
         <f>INPUTS!V17</f>
@@ -14326,11 +14325,11 @@
       </c>
       <c r="AD39" s="15">
         <f t="shared" si="157"/>
-        <v>8.4723718951712264E-3</v>
+        <v>8.0872640817543518E-3</v>
       </c>
       <c r="AE39" s="71">
         <f t="shared" si="158"/>
-        <v>40.181958589053821</v>
+        <v>40.181958589053814</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -14578,19 +14577,19 @@
       </c>
       <c r="J42">
         <f>P42*$U$42</f>
-        <v>4.3694199999999997E-3</v>
+        <v>4.1708099999999996E-3</v>
       </c>
       <c r="K42">
         <f t="shared" si="156"/>
-        <v>2.18471E-5</v>
+        <v>2.0854049999999997E-5</v>
       </c>
       <c r="L42">
         <f t="shared" si="159"/>
-        <v>2.3509226953550577</v>
+        <v>2.2440625728389185</v>
       </c>
       <c r="M42">
         <f t="shared" si="149"/>
-        <v>23.509226953550574</v>
+        <v>22.440625728389183</v>
       </c>
       <c r="N42">
         <f t="shared" si="150"/>
@@ -14598,14 +14597,14 @@
       </c>
       <c r="O42" s="1">
         <f t="shared" si="151"/>
-        <v>25.70247058823529</v>
+        <v>24.534176470588232</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="152"/>
-        <v>0.48500561999999997</v>
+        <v>0.46295990999999997</v>
       </c>
       <c r="R42">
         <f>INPUTS!R20</f>
@@ -14619,7 +14618,7 @@
       </c>
       <c r="U42" s="16">
         <f>INPUTS!U20</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V42" s="16">
         <f>INPUTS!V20</f>
@@ -14643,7 +14642,7 @@
       </c>
       <c r="AD42" s="16">
         <f t="shared" si="157"/>
-        <v>7.5272391193074283E-3</v>
+        <v>7.1850918866116359E-3</v>
       </c>
       <c r="AE42" s="72">
         <f t="shared" si="158"/>
@@ -14718,7 +14717,7 @@
       </c>
       <c r="Y45" s="74">
         <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AR5:AR12,AP5:AP12))/SUM(AD37:AD42,AP5:AP12)</f>
-        <v>4.3740904222538166</v>
+        <v>4.3619109572720793</v>
       </c>
       <c r="AA45" s="54" t="s">
         <v>121</v>
@@ -14883,15 +14882,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>208.87616791028256</v>
+        <v>202.5847905487137</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>2.2585619087657482</v>
+        <v>2.1905337301340246</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>22.585619087657477</v>
+        <v>21.905337301340243</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -14904,15 +14903,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>3.5508948544748037E-2</v>
+        <v>3.4439414393281333E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>1.775447427237402E-4</v>
+        <v>1.7219707196640668E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>5.3263422817122059</v>
+        <v>5.1659121589921995</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14970,7 +14969,7 @@
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
-        <v>0.58762591446592305</v>
+        <v>0.58774065681765075</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
@@ -15044,7 +15043,7 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
-        <v>5.6374926905079017E-2</v>
+        <v>5.4680858429203755E-2</v>
       </c>
       <c r="R52" s="112"/>
       <c r="S52" s="9" t="s">
@@ -15159,7 +15158,7 @@
       </c>
       <c r="P55" s="36">
         <f t="array" ref="P55">SUM(J37:J42,AK5:AK34)+SUM(AF5:AF34*F53,L37:L42*F53)+SUM(AH5:AH34*J53,M37:M42*J53)+SUM(AE5:AE34*E53,O37:O42*E53)+SUM(N37:N42*E53,AG5:AG34*E53)</f>
-        <v>3.4489094939910626E-2</v>
+        <v>3.3450278911750092E-2</v>
       </c>
       <c r="W55" s="35" t="s">
         <v>122</v>
@@ -15174,7 +15173,7 @@
       </c>
       <c r="P56" s="36">
         <f>K49+E49*E53+F49*F53+G49*G53</f>
-        <v>4.3111368674888281E-2</v>
+        <v>4.1812848639687608E-2</v>
       </c>
     </row>
     <row r="57" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15222,7 +15221,7 @@
       </c>
       <c r="P57" s="36">
         <f>P56+P55+P54</f>
-        <v>7.7600463614798915E-2</v>
+        <v>7.52631275514377E-2</v>
       </c>
       <c r="Q57" s="32"/>
     </row>
@@ -15321,7 +15320,7 @@
       </c>
       <c r="P59" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/$P$55</f>
-        <v>0.41050884740986027</v>
+        <v>0.41087241587729117</v>
       </c>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
@@ -15377,7 +15376,7 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.17634374328200209</v>
+        <v>0.17634374328200197</v>
       </c>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
@@ -15433,7 +15432,7 @@
       </c>
       <c r="P61" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/($P$55+N50/(1+N50)*P54)</f>
-        <v>0.41050884740986027</v>
+        <v>0.41087241587729117</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
@@ -15489,7 +15488,7 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.17634374328200209</v>
+        <v>0.17634374328200197</v>
       </c>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.25">
@@ -15516,7 +15515,7 @@
       </c>
       <c r="P66" s="75">
         <f>($Y$45*$P$55+$Q$50*$P$56)/($P$55+$P$56)</f>
-        <v>2.6107068543350294</v>
+        <v>2.6052937587875906</v>
       </c>
     </row>
   </sheetData>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2049,7 @@
         <v>2100</v>
       </c>
       <c r="AP5" s="1">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AQ5" s="70">
         <f>AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
@@ -2239,7 +2239,7 @@
         <v>2100</v>
       </c>
       <c r="AP6" s="1">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AQ6" s="70">
         <f t="shared" ref="AQ6:AQ12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
@@ -2428,7 +2428,7 @@
         <v>2100</v>
       </c>
       <c r="AP7" s="1">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AQ7" s="70">
         <f t="shared" si="16"/>
@@ -7704,8 +7704,8 @@
   </sheetPr>
   <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="AO5">
         <f>INPUTS!AP5</f>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP5" s="70">
         <f t="shared" ref="AP5:AP34" si="4">AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="AO6">
         <f>INPUTS!AP6</f>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP6" s="70">
         <f t="shared" si="4"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="AO7">
         <f>INPUTS!AP7</f>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP7" s="70">
         <f t="shared" si="4"/>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="AO13">
         <f t="shared" ref="AO13:AO34" si="24">AO6</f>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP13" s="70">
         <f t="shared" si="4"/>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="AO14">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP14" s="70">
         <f t="shared" si="4"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="AO20">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP20" s="70">
         <f t="shared" si="4"/>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="AO21">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP21" s="70">
         <f t="shared" si="4"/>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="AO27">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP27" s="70">
         <f t="shared" si="4"/>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="AO28">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP28" s="70">
         <f t="shared" si="4"/>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="AO34">
         <f t="shared" si="24"/>
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AP34" s="73">
         <f t="shared" si="4"/>
@@ -18238,7 +18238,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,8 +3546,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="48">
-        <f>280</f>
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="H15" s="48">
         <v>8.2000000000000003E-2</v>
@@ -3669,8 +3668,8 @@
         <v>41</v>
       </c>
       <c r="G16" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>80+G17</f>
+        <v>220</v>
       </c>
       <c r="H16" s="48">
         <v>2.8500000000000001E-2</v>
@@ -3794,7 +3793,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="48">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H17" s="48">
         <v>9.1999999999999998E-2</v>
@@ -3897,7 +3896,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="48">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H18" s="48">
         <v>2.8500000000000001E-2</v>
@@ -4000,7 +3999,8 @@
         <v>41</v>
       </c>
       <c r="G19" s="48">
-        <v>180</v>
+        <f>80+G20</f>
+        <v>140</v>
       </c>
       <c r="H19" s="48">
         <v>5.0000000000000001E-4</v>
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="48">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H20" s="48">
         <v>6.0421565000000003E-2</v>
@@ -7704,8 +7704,8 @@
   </sheetPr>
   <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13993,8 +13993,8 @@
         <v>39</v>
       </c>
       <c r="G37" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>INPUTS!G15</f>
+        <v>220</v>
       </c>
       <c r="H37" s="48">
         <v>8.2000000000000003E-2</v>
@@ -14119,8 +14119,8 @@
         <v>41</v>
       </c>
       <c r="G38" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>INPUTS!G16</f>
+        <v>220</v>
       </c>
       <c r="H38" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14247,7 +14247,8 @@
         <v>39</v>
       </c>
       <c r="G39" s="48">
-        <v>180</v>
+        <f>INPUTS!G17</f>
+        <v>140</v>
       </c>
       <c r="H39" s="48">
         <v>9.1999999999999998E-2</v>
@@ -14352,7 +14353,8 @@
         <v>42</v>
       </c>
       <c r="G40" s="48">
-        <v>180</v>
+        <f>INPUTS!G18</f>
+        <v>140</v>
       </c>
       <c r="H40" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14457,7 +14459,8 @@
         <v>41</v>
       </c>
       <c r="G41" s="48">
-        <v>180</v>
+        <f>INPUTS!G19</f>
+        <v>140</v>
       </c>
       <c r="H41" s="48">
         <v>5.0000000000000001E-4</v>
@@ -14567,7 +14570,8 @@
         <v>39</v>
       </c>
       <c r="G42" s="48">
-        <v>80</v>
+        <f>INPUTS!G20</f>
+        <v>60</v>
       </c>
       <c r="H42" s="48">
         <v>6.0421565000000003E-2</v>

--- a/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat/inputs/Generate_inputs.xlsx
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3546,8 @@
         <v>39</v>
       </c>
       <c r="G15" s="48">
-        <v>220</v>
+        <f>G16</f>
+        <v>240</v>
       </c>
       <c r="H15" s="48">
         <v>8.2000000000000003E-2</v>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="G16" s="48">
         <f>80+G17</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H16" s="48">
         <v>2.8500000000000001E-2</v>
@@ -3793,7 +3794,8 @@
         <v>39</v>
       </c>
       <c r="G17" s="48">
-        <v>140</v>
+        <f>G19</f>
+        <v>160</v>
       </c>
       <c r="H17" s="48">
         <v>9.1999999999999998E-2</v>
@@ -3829,7 +3831,7 @@
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="28"/>
+        <f>J17*$AC17</f>
         <v>0.34424795999999996</v>
       </c>
       <c r="R17">
@@ -3896,7 +3898,8 @@
         <v>42</v>
       </c>
       <c r="G18" s="48">
-        <v>140</v>
+        <f>G19</f>
+        <v>160</v>
       </c>
       <c r="H18" s="48">
         <v>2.8500000000000001E-2</v>
@@ -4000,7 +4003,7 @@
       </c>
       <c r="G19" s="48">
         <f>80+G20</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H19" s="48">
         <v>5.0000000000000001E-4</v>
@@ -4107,8 +4110,8 @@
       <c r="F20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="48">
-        <v>60</v>
+      <c r="G20" s="46">
+        <v>80</v>
       </c>
       <c r="H20" s="48">
         <v>6.0421565000000003E-2</v>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>2.7103564749947902</v>
+        <v>8.4698639843587191</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4497,7 +4500,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
@@ -7705,7 +7708,7 @@
   <dimension ref="A1:BD66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13994,7 +13997,7 @@
       </c>
       <c r="G37" s="48">
         <f>INPUTS!G15</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H37" s="48">
         <v>8.2000000000000003E-2</v>
@@ -14120,7 +14123,7 @@
       </c>
       <c r="G38" s="48">
         <f>INPUTS!G16</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H38" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14248,7 +14251,7 @@
       </c>
       <c r="G39" s="48">
         <f>INPUTS!G17</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H39" s="48">
         <v>9.1999999999999998E-2</v>
@@ -14354,7 +14357,7 @@
       </c>
       <c r="G40" s="48">
         <f>INPUTS!G18</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H40" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14460,7 +14463,7 @@
       </c>
       <c r="G41" s="48">
         <f>INPUTS!G19</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H41" s="48">
         <v>5.0000000000000001E-4</v>
@@ -14571,7 +14574,7 @@
       </c>
       <c r="G42" s="48">
         <f>INPUTS!G20</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H42" s="48">
         <v>6.0421565000000003E-2</v>
@@ -14915,7 +14918,7 @@
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>5.1659121589921995</v>
+        <v>8.609853598320333</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -14969,7 +14972,8 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>150</v>
+        <f>INPUTS!M28</f>
+        <v>250</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
